--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>PCCWY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5003500</v>
+        <v>4839800</v>
       </c>
       <c r="E8" s="3">
-        <v>4743600</v>
+        <v>5011300</v>
       </c>
       <c r="F8" s="3">
-        <v>4943500</v>
+        <v>4751000</v>
       </c>
       <c r="G8" s="3">
-        <v>5063300</v>
+        <v>4951200</v>
       </c>
       <c r="H8" s="3">
-        <v>4285700</v>
+        <v>5071100</v>
       </c>
       <c r="I8" s="3">
-        <v>3518200</v>
+        <v>4292400</v>
       </c>
       <c r="J8" s="3">
+        <v>3523600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3260700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3138600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2658500</v>
+        <v>2438800</v>
       </c>
       <c r="E9" s="3">
-        <v>2362500</v>
+        <v>2662600</v>
       </c>
       <c r="F9" s="3">
-        <v>2285100</v>
+        <v>2366200</v>
       </c>
       <c r="G9" s="3">
-        <v>2442500</v>
+        <v>2288700</v>
       </c>
       <c r="H9" s="3">
-        <v>1951300</v>
+        <v>2446300</v>
       </c>
       <c r="I9" s="3">
-        <v>1688600</v>
+        <v>1954300</v>
       </c>
       <c r="J9" s="3">
+        <v>1691200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1521800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1451900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2345000</v>
+        <v>2401000</v>
       </c>
       <c r="E10" s="3">
-        <v>2381100</v>
+        <v>2348600</v>
       </c>
       <c r="F10" s="3">
-        <v>2658400</v>
+        <v>2384800</v>
       </c>
       <c r="G10" s="3">
-        <v>2620700</v>
+        <v>2662500</v>
       </c>
       <c r="H10" s="3">
-        <v>2334400</v>
+        <v>2624800</v>
       </c>
       <c r="I10" s="3">
-        <v>1829600</v>
+        <v>2338100</v>
       </c>
       <c r="J10" s="3">
+        <v>1832400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1738900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1686800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-35300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19200</v>
       </c>
-      <c r="F14" s="3">
-        <v>2400</v>
-      </c>
       <c r="G14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H14" s="3">
         <v>3500</v>
       </c>
-      <c r="H14" s="3">
-        <v>-252900</v>
-      </c>
       <c r="I14" s="3">
+        <v>-253300</v>
+      </c>
+      <c r="J14" s="3">
         <v>-2800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-11200</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>484200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4228800</v>
+        <v>4099900</v>
       </c>
       <c r="E17" s="3">
-        <v>4006000</v>
+        <v>4235400</v>
       </c>
       <c r="F17" s="3">
-        <v>4220800</v>
+        <v>4012200</v>
       </c>
       <c r="G17" s="3">
-        <v>4285700</v>
+        <v>4227400</v>
       </c>
       <c r="H17" s="3">
-        <v>3404600</v>
+        <v>4292400</v>
       </c>
       <c r="I17" s="3">
-        <v>2972600</v>
+        <v>3409900</v>
       </c>
       <c r="J17" s="3">
+        <v>2977200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2781000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2657100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>774700</v>
+        <v>739900</v>
       </c>
       <c r="E18" s="3">
-        <v>737600</v>
+        <v>775900</v>
       </c>
       <c r="F18" s="3">
-        <v>722600</v>
+        <v>738700</v>
       </c>
       <c r="G18" s="3">
-        <v>777500</v>
+        <v>723800</v>
       </c>
       <c r="H18" s="3">
-        <v>881200</v>
+        <v>778700</v>
       </c>
       <c r="I18" s="3">
-        <v>545600</v>
+        <v>882500</v>
       </c>
       <c r="J18" s="3">
+        <v>546400</v>
+      </c>
+      <c r="K18" s="3">
         <v>479700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>481500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1483000</v>
+        <v>1472900</v>
       </c>
       <c r="E21" s="3">
-        <v>1601600</v>
+        <v>1484900</v>
       </c>
       <c r="F21" s="3">
-        <v>1570700</v>
+        <v>1603700</v>
       </c>
       <c r="G21" s="3">
-        <v>1534900</v>
+        <v>1572700</v>
       </c>
       <c r="H21" s="3">
-        <v>1677000</v>
+        <v>1536900</v>
       </c>
       <c r="I21" s="3">
-        <v>1140000</v>
+        <v>1679100</v>
       </c>
       <c r="J21" s="3">
+        <v>1141400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1046500</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>234800</v>
+        <v>250200</v>
       </c>
       <c r="E22" s="3">
-        <v>203400</v>
+        <v>235100</v>
       </c>
       <c r="F22" s="3">
-        <v>165500</v>
+        <v>203700</v>
       </c>
       <c r="G22" s="3">
-        <v>185200</v>
+        <v>165800</v>
       </c>
       <c r="H22" s="3">
-        <v>162800</v>
+        <v>185500</v>
       </c>
       <c r="I22" s="3">
-        <v>133700</v>
+        <v>163000</v>
       </c>
       <c r="J22" s="3">
+        <v>133900</v>
+      </c>
+      <c r="K22" s="3">
         <v>119300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>186200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>538900</v>
+        <v>491600</v>
       </c>
       <c r="E23" s="3">
-        <v>533800</v>
+        <v>539700</v>
       </c>
       <c r="F23" s="3">
-        <v>544400</v>
+        <v>534700</v>
       </c>
       <c r="G23" s="3">
-        <v>571800</v>
+        <v>545200</v>
       </c>
       <c r="H23" s="3">
-        <v>705000</v>
+        <v>572700</v>
       </c>
       <c r="I23" s="3">
-        <v>420500</v>
+        <v>706100</v>
       </c>
       <c r="J23" s="3">
+        <v>421200</v>
+      </c>
+      <c r="K23" s="3">
         <v>360500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>295300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>146000</v>
+        <v>121400</v>
       </c>
       <c r="E24" s="3">
-        <v>136600</v>
+        <v>146300</v>
       </c>
       <c r="F24" s="3">
-        <v>50900</v>
+        <v>136900</v>
       </c>
       <c r="G24" s="3">
-        <v>57600</v>
+        <v>51000</v>
       </c>
       <c r="H24" s="3">
-        <v>103400</v>
+        <v>57700</v>
       </c>
       <c r="I24" s="3">
-        <v>27000</v>
+        <v>103600</v>
       </c>
       <c r="J24" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K24" s="3">
         <v>29900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>392800</v>
+        <v>370200</v>
       </c>
       <c r="E26" s="3">
-        <v>397200</v>
+        <v>393400</v>
       </c>
       <c r="F26" s="3">
-        <v>493500</v>
+        <v>397800</v>
       </c>
       <c r="G26" s="3">
-        <v>514300</v>
+        <v>494300</v>
       </c>
       <c r="H26" s="3">
-        <v>601600</v>
+        <v>515100</v>
       </c>
       <c r="I26" s="3">
-        <v>393500</v>
+        <v>602500</v>
       </c>
       <c r="J26" s="3">
+        <v>394100</v>
+      </c>
+      <c r="K26" s="3">
         <v>330600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>226200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>115500</v>
+        <v>87800</v>
       </c>
       <c r="E27" s="3">
-        <v>115300</v>
+        <v>115700</v>
       </c>
       <c r="F27" s="3">
-        <v>264100</v>
+        <v>115400</v>
       </c>
       <c r="G27" s="3">
-        <v>295600</v>
+        <v>264600</v>
       </c>
       <c r="H27" s="3">
-        <v>426300</v>
+        <v>296000</v>
       </c>
       <c r="I27" s="3">
-        <v>242800</v>
+        <v>427000</v>
       </c>
       <c r="J27" s="3">
+        <v>243100</v>
+      </c>
+      <c r="K27" s="3">
         <v>214200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>204700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>147200</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>147400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>115500</v>
+        <v>87800</v>
       </c>
       <c r="E33" s="3">
-        <v>262500</v>
+        <v>115700</v>
       </c>
       <c r="F33" s="3">
-        <v>264100</v>
+        <v>262900</v>
       </c>
       <c r="G33" s="3">
-        <v>295600</v>
+        <v>264600</v>
       </c>
       <c r="H33" s="3">
-        <v>426300</v>
+        <v>296000</v>
       </c>
       <c r="I33" s="3">
-        <v>242800</v>
+        <v>427000</v>
       </c>
       <c r="J33" s="3">
+        <v>243100</v>
+      </c>
+      <c r="K33" s="3">
         <v>214200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>204700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>115500</v>
+        <v>87800</v>
       </c>
       <c r="E35" s="3">
-        <v>262500</v>
+        <v>115700</v>
       </c>
       <c r="F35" s="3">
-        <v>264100</v>
+        <v>262900</v>
       </c>
       <c r="G35" s="3">
-        <v>295600</v>
+        <v>264600</v>
       </c>
       <c r="H35" s="3">
-        <v>426300</v>
+        <v>296000</v>
       </c>
       <c r="I35" s="3">
-        <v>242800</v>
+        <v>427000</v>
       </c>
       <c r="J35" s="3">
+        <v>243100</v>
+      </c>
+      <c r="K35" s="3">
         <v>214200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>204700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>870200</v>
+        <v>688500</v>
       </c>
       <c r="E41" s="3">
-        <v>1498900</v>
+        <v>871800</v>
       </c>
       <c r="F41" s="3">
-        <v>611900</v>
+        <v>1501500</v>
       </c>
       <c r="G41" s="3">
-        <v>966300</v>
+        <v>613000</v>
       </c>
       <c r="H41" s="3">
-        <v>1023000</v>
+        <v>968000</v>
       </c>
       <c r="I41" s="3">
-        <v>709500</v>
+        <v>1024800</v>
       </c>
       <c r="J41" s="3">
+        <v>710800</v>
+      </c>
+      <c r="K41" s="3">
         <v>586400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>683400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77800</v>
+        <v>62700</v>
       </c>
       <c r="E42" s="3">
-        <v>220000</v>
+        <v>77900</v>
       </c>
       <c r="F42" s="3">
-        <v>58300</v>
+        <v>220400</v>
       </c>
       <c r="G42" s="3">
+        <v>58400</v>
+      </c>
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>1300</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>981000</v>
+        <v>972700</v>
       </c>
       <c r="E43" s="3">
-        <v>883400</v>
+        <v>982700</v>
       </c>
       <c r="F43" s="3">
-        <v>501300</v>
+        <v>884900</v>
       </c>
       <c r="G43" s="3">
-        <v>524900</v>
+        <v>502100</v>
       </c>
       <c r="H43" s="3">
-        <v>594900</v>
+        <v>525900</v>
       </c>
       <c r="I43" s="3">
-        <v>501300</v>
+        <v>595900</v>
       </c>
       <c r="J43" s="3">
+        <v>502100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1054500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>393800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>264000</v>
+        <v>341500</v>
       </c>
       <c r="E44" s="3">
-        <v>234700</v>
+        <v>264500</v>
       </c>
       <c r="F44" s="3">
-        <v>121400</v>
+        <v>235100</v>
       </c>
       <c r="G44" s="3">
-        <v>99700</v>
+        <v>121700</v>
       </c>
       <c r="H44" s="3">
-        <v>103200</v>
+        <v>99900</v>
       </c>
       <c r="I44" s="3">
-        <v>154400</v>
+        <v>103300</v>
       </c>
       <c r="J44" s="3">
+        <v>154700</v>
+      </c>
+      <c r="K44" s="3">
         <v>296200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>148500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>572500</v>
+        <v>627000</v>
       </c>
       <c r="E45" s="3">
-        <v>658100</v>
+        <v>573500</v>
       </c>
       <c r="F45" s="3">
-        <v>1349100</v>
+        <v>659300</v>
       </c>
       <c r="G45" s="3">
-        <v>1002600</v>
+        <v>1351500</v>
       </c>
       <c r="H45" s="3">
-        <v>1033900</v>
+        <v>1004400</v>
       </c>
       <c r="I45" s="3">
-        <v>897500</v>
+        <v>1035800</v>
       </c>
       <c r="J45" s="3">
+        <v>899100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1602500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>677600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2765500</v>
+        <v>2692400</v>
       </c>
       <c r="E46" s="3">
-        <v>3377600</v>
+        <v>2770400</v>
       </c>
       <c r="F46" s="3">
-        <v>2642000</v>
+        <v>3383700</v>
       </c>
       <c r="G46" s="3">
-        <v>2593700</v>
+        <v>2646700</v>
       </c>
       <c r="H46" s="3">
-        <v>2754900</v>
+        <v>2598300</v>
       </c>
       <c r="I46" s="3">
-        <v>2264000</v>
+        <v>2759900</v>
       </c>
       <c r="J46" s="3">
+        <v>2268000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2160300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1903300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>443400</v>
+        <v>383200</v>
       </c>
       <c r="E47" s="3">
-        <v>474600</v>
+        <v>444200</v>
       </c>
       <c r="F47" s="3">
-        <v>310400</v>
+        <v>475400</v>
       </c>
       <c r="G47" s="3">
-        <v>245900</v>
+        <v>310900</v>
       </c>
       <c r="H47" s="3">
-        <v>249700</v>
+        <v>246300</v>
       </c>
       <c r="I47" s="3">
-        <v>251100</v>
+        <v>250200</v>
       </c>
       <c r="J47" s="3">
+        <v>251600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1050800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>876200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4476200</v>
+        <v>4922400</v>
       </c>
       <c r="E48" s="3">
-        <v>6636700</v>
+        <v>4484200</v>
       </c>
       <c r="F48" s="3">
-        <v>3070500</v>
+        <v>6648500</v>
       </c>
       <c r="G48" s="3">
-        <v>2788000</v>
+        <v>3076000</v>
       </c>
       <c r="H48" s="3">
-        <v>2590000</v>
+        <v>2793000</v>
       </c>
       <c r="I48" s="3">
-        <v>3239500</v>
+        <v>2594600</v>
       </c>
       <c r="J48" s="3">
+        <v>3245200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3638400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2112400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3759100</v>
+        <v>4086700</v>
       </c>
       <c r="E49" s="3">
-        <v>7545200</v>
+        <v>3765800</v>
       </c>
       <c r="F49" s="3">
-        <v>3873600</v>
+        <v>7558600</v>
       </c>
       <c r="G49" s="3">
-        <v>3697400</v>
+        <v>3880500</v>
       </c>
       <c r="H49" s="3">
-        <v>3512100</v>
+        <v>3704000</v>
       </c>
       <c r="I49" s="3">
-        <v>907100</v>
+        <v>3518400</v>
       </c>
       <c r="J49" s="3">
+        <v>908700</v>
+      </c>
+      <c r="K49" s="3">
         <v>2176200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>762000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>691200</v>
+        <v>674800</v>
       </c>
       <c r="E52" s="3">
-        <v>700100</v>
+        <v>692500</v>
       </c>
       <c r="F52" s="3">
-        <v>353100</v>
+        <v>701400</v>
       </c>
       <c r="G52" s="3">
-        <v>303000</v>
+        <v>353800</v>
       </c>
       <c r="H52" s="3">
-        <v>300000</v>
+        <v>303600</v>
       </c>
       <c r="I52" s="3">
-        <v>284900</v>
+        <v>300500</v>
       </c>
       <c r="J52" s="3">
+        <v>285400</v>
+      </c>
+      <c r="K52" s="3">
         <v>325300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>186900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12135500</v>
+        <v>12759400</v>
       </c>
       <c r="E54" s="3">
-        <v>11916200</v>
+        <v>12157200</v>
       </c>
       <c r="F54" s="3">
-        <v>10249600</v>
+        <v>11937400</v>
       </c>
       <c r="G54" s="3">
-        <v>9628100</v>
+        <v>10267900</v>
       </c>
       <c r="H54" s="3">
-        <v>9406700</v>
+        <v>9645300</v>
       </c>
       <c r="I54" s="3">
-        <v>6946500</v>
+        <v>9423500</v>
       </c>
       <c r="J54" s="3">
+        <v>6959000</v>
+      </c>
+      <c r="K54" s="3">
         <v>6419400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5840800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>251400</v>
+        <v>354300</v>
       </c>
       <c r="E57" s="3">
-        <v>268900</v>
+        <v>251800</v>
       </c>
       <c r="F57" s="3">
-        <v>351700</v>
+        <v>269400</v>
       </c>
       <c r="G57" s="3">
-        <v>321200</v>
+        <v>352400</v>
       </c>
       <c r="H57" s="3">
-        <v>300200</v>
+        <v>321800</v>
       </c>
       <c r="I57" s="3">
-        <v>272800</v>
+        <v>300700</v>
       </c>
       <c r="J57" s="3">
+        <v>273300</v>
+      </c>
+      <c r="K57" s="3">
         <v>306500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>226400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>285400</v>
+        <v>374700</v>
       </c>
       <c r="E58" s="3">
-        <v>346400</v>
+        <v>285900</v>
       </c>
       <c r="F58" s="3">
-        <v>58900</v>
+        <v>347100</v>
       </c>
       <c r="G58" s="3">
-        <v>499600</v>
+        <v>59000</v>
       </c>
       <c r="H58" s="3">
-        <v>621200</v>
+        <v>500500</v>
       </c>
       <c r="I58" s="3">
+        <v>622300</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1342500</v>
+        <v>1372400</v>
       </c>
       <c r="E59" s="3">
-        <v>1413000</v>
+        <v>1344900</v>
       </c>
       <c r="F59" s="3">
-        <v>1403300</v>
+        <v>1415500</v>
       </c>
       <c r="G59" s="3">
-        <v>1432100</v>
+        <v>1405800</v>
       </c>
       <c r="H59" s="3">
-        <v>1528000</v>
+        <v>1434700</v>
       </c>
       <c r="I59" s="3">
-        <v>1099700</v>
+        <v>1530700</v>
       </c>
       <c r="J59" s="3">
+        <v>1101700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1118900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1137600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1879300</v>
+        <v>2101300</v>
       </c>
       <c r="E60" s="3">
-        <v>1948200</v>
+        <v>1882700</v>
       </c>
       <c r="F60" s="3">
-        <v>1813900</v>
+        <v>1951700</v>
       </c>
       <c r="G60" s="3">
-        <v>2252900</v>
+        <v>1817100</v>
       </c>
       <c r="H60" s="3">
-        <v>2449300</v>
+        <v>2256900</v>
       </c>
       <c r="I60" s="3">
-        <v>1372600</v>
+        <v>2453700</v>
       </c>
       <c r="J60" s="3">
+        <v>1375100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2500100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1369100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6720000</v>
+        <v>7253800</v>
       </c>
       <c r="E61" s="3">
-        <v>6261500</v>
+        <v>6732000</v>
       </c>
       <c r="F61" s="3">
-        <v>5812400</v>
+        <v>6272700</v>
       </c>
       <c r="G61" s="3">
-        <v>4905600</v>
+        <v>5822800</v>
       </c>
       <c r="H61" s="3">
-        <v>4700100</v>
+        <v>4914400</v>
       </c>
       <c r="I61" s="3">
-        <v>3744400</v>
+        <v>4708500</v>
       </c>
       <c r="J61" s="3">
+        <v>3751100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2308700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2989800</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1010700</v>
+        <v>1085600</v>
       </c>
       <c r="E62" s="3">
-        <v>1064800</v>
+        <v>1012500</v>
       </c>
       <c r="F62" s="3">
-        <v>720300</v>
+        <v>1066700</v>
       </c>
       <c r="G62" s="3">
-        <v>751200</v>
+        <v>721600</v>
       </c>
       <c r="H62" s="3">
-        <v>664300</v>
+        <v>752600</v>
       </c>
       <c r="I62" s="3">
-        <v>717600</v>
+        <v>665500</v>
       </c>
       <c r="J62" s="3">
+        <v>718900</v>
+      </c>
+      <c r="K62" s="3">
         <v>562600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>516300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9933800</v>
+        <v>10754700</v>
       </c>
       <c r="E66" s="3">
-        <v>9444700</v>
+        <v>9951600</v>
       </c>
       <c r="F66" s="3">
-        <v>8700800</v>
+        <v>9461600</v>
       </c>
       <c r="G66" s="3">
-        <v>8208300</v>
+        <v>8716300</v>
       </c>
       <c r="H66" s="3">
-        <v>8098600</v>
+        <v>8223000</v>
       </c>
       <c r="I66" s="3">
-        <v>5763400</v>
+        <v>8113000</v>
       </c>
       <c r="J66" s="3">
+        <v>5773600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5286100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5063200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>648700</v>
+        <v>409400</v>
       </c>
       <c r="E72" s="3">
-        <v>862500</v>
+        <v>649900</v>
       </c>
       <c r="F72" s="3">
-        <v>-67600</v>
+        <v>864000</v>
       </c>
       <c r="G72" s="3">
-        <v>-84000</v>
+        <v>-67700</v>
       </c>
       <c r="H72" s="3">
-        <v>-168800</v>
+        <v>-84100</v>
       </c>
       <c r="I72" s="3">
-        <v>-392200</v>
+        <v>-169100</v>
       </c>
       <c r="J72" s="3">
+        <v>-392900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-462500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-798900</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2201700</v>
+        <v>2004700</v>
       </c>
       <c r="E76" s="3">
-        <v>2471500</v>
+        <v>2205600</v>
       </c>
       <c r="F76" s="3">
-        <v>1548800</v>
+        <v>2475900</v>
       </c>
       <c r="G76" s="3">
-        <v>1419800</v>
+        <v>1551600</v>
       </c>
       <c r="H76" s="3">
-        <v>1308100</v>
+        <v>1422300</v>
       </c>
       <c r="I76" s="3">
-        <v>1183200</v>
+        <v>1310500</v>
       </c>
       <c r="J76" s="3">
+        <v>1185300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1133400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>777600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>115500</v>
+        <v>87800</v>
       </c>
       <c r="E81" s="3">
-        <v>262500</v>
+        <v>115700</v>
       </c>
       <c r="F81" s="3">
-        <v>264100</v>
+        <v>262900</v>
       </c>
       <c r="G81" s="3">
-        <v>295600</v>
+        <v>264600</v>
       </c>
       <c r="H81" s="3">
-        <v>426300</v>
+        <v>296000</v>
       </c>
       <c r="I81" s="3">
-        <v>242800</v>
+        <v>427000</v>
       </c>
       <c r="J81" s="3">
+        <v>243100</v>
+      </c>
+      <c r="K81" s="3">
         <v>214200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>204700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>709100</v>
+        <v>731200</v>
       </c>
       <c r="E83" s="3">
-        <v>864200</v>
+        <v>710200</v>
       </c>
       <c r="F83" s="3">
-        <v>860600</v>
+        <v>865500</v>
       </c>
       <c r="G83" s="3">
-        <v>777600</v>
+        <v>861900</v>
       </c>
       <c r="H83" s="3">
-        <v>808900</v>
+        <v>778800</v>
       </c>
       <c r="I83" s="3">
-        <v>585600</v>
+        <v>810200</v>
       </c>
       <c r="J83" s="3">
+        <v>586500</v>
+      </c>
+      <c r="K83" s="3">
         <v>566500</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>842900</v>
+        <v>1436000</v>
       </c>
       <c r="E89" s="3">
-        <v>1527800</v>
+        <v>844200</v>
       </c>
       <c r="F89" s="3">
-        <v>1281800</v>
+        <v>1530200</v>
       </c>
       <c r="G89" s="3">
-        <v>1612200</v>
+        <v>1283800</v>
       </c>
       <c r="H89" s="3">
-        <v>1359100</v>
+        <v>1614700</v>
       </c>
       <c r="I89" s="3">
-        <v>941700</v>
+        <v>1361200</v>
       </c>
       <c r="J89" s="3">
+        <v>943200</v>
+      </c>
+      <c r="K89" s="3">
         <v>794400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>863400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-493800</v>
+        <v>-639300</v>
       </c>
       <c r="E91" s="3">
-        <v>-432300</v>
+        <v>-494500</v>
       </c>
       <c r="F91" s="3">
-        <v>-410100</v>
+        <v>-433000</v>
       </c>
       <c r="G91" s="3">
-        <v>-453000</v>
+        <v>-410700</v>
       </c>
       <c r="H91" s="3">
-        <v>-412500</v>
+        <v>-453700</v>
       </c>
       <c r="I91" s="3">
-        <v>-330000</v>
+        <v>-413200</v>
       </c>
       <c r="J91" s="3">
+        <v>-330500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-288000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-249700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-746100</v>
+        <v>-1172500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1240400</v>
+        <v>-747200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1295600</v>
+        <v>-1242300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1312500</v>
+        <v>-1297600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2494800</v>
+        <v>-1314500</v>
       </c>
       <c r="I94" s="3">
-        <v>-813600</v>
+        <v>-2498700</v>
       </c>
       <c r="J94" s="3">
+        <v>-814800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-904000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-558000</v>
+        <v>-313600</v>
       </c>
       <c r="E96" s="3">
-        <v>-285100</v>
+        <v>-299300</v>
       </c>
       <c r="F96" s="3">
-        <v>-190200</v>
+        <v>-285600</v>
       </c>
       <c r="G96" s="3">
-        <v>-102600</v>
+        <v>-190500</v>
       </c>
       <c r="H96" s="3">
-        <v>-98500</v>
+        <v>-102800</v>
       </c>
       <c r="I96" s="3">
-        <v>-185700</v>
+        <v>-98700</v>
       </c>
       <c r="J96" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-150900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-143600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-721200</v>
+        <v>-442200</v>
       </c>
       <c r="E100" s="3">
-        <v>602400</v>
+        <v>-722300</v>
       </c>
       <c r="F100" s="3">
-        <v>-337200</v>
+        <v>603300</v>
       </c>
       <c r="G100" s="3">
-        <v>-353300</v>
+        <v>-337700</v>
       </c>
       <c r="H100" s="3">
-        <v>1458900</v>
+        <v>-353800</v>
       </c>
       <c r="I100" s="3">
+        <v>1461200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5200</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-628600</v>
+        <v>-183300</v>
       </c>
       <c r="E102" s="3">
-        <v>886200</v>
+        <v>-629600</v>
       </c>
       <c r="F102" s="3">
-        <v>-353700</v>
+        <v>887600</v>
       </c>
       <c r="G102" s="3">
-        <v>-56700</v>
+        <v>-354200</v>
       </c>
       <c r="H102" s="3">
-        <v>313500</v>
+        <v>-56800</v>
       </c>
       <c r="I102" s="3">
-        <v>123100</v>
+        <v>314000</v>
       </c>
       <c r="J102" s="3">
+        <v>123300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-104600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-348500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4839800</v>
+        <v>4841300</v>
       </c>
       <c r="E8" s="3">
-        <v>5011300</v>
+        <v>5012800</v>
       </c>
       <c r="F8" s="3">
-        <v>4751000</v>
+        <v>4752400</v>
       </c>
       <c r="G8" s="3">
-        <v>4951200</v>
+        <v>4952700</v>
       </c>
       <c r="H8" s="3">
-        <v>5071100</v>
+        <v>5072700</v>
       </c>
       <c r="I8" s="3">
-        <v>4292400</v>
+        <v>4293700</v>
       </c>
       <c r="J8" s="3">
-        <v>3523600</v>
+        <v>3524700</v>
       </c>
       <c r="K8" s="3">
         <v>3260700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2438800</v>
+        <v>2439600</v>
       </c>
       <c r="E9" s="3">
-        <v>2662600</v>
+        <v>2663400</v>
       </c>
       <c r="F9" s="3">
-        <v>2366200</v>
+        <v>2366900</v>
       </c>
       <c r="G9" s="3">
-        <v>2288700</v>
+        <v>2289400</v>
       </c>
       <c r="H9" s="3">
-        <v>2446300</v>
+        <v>2447100</v>
       </c>
       <c r="I9" s="3">
-        <v>1954300</v>
+        <v>1954900</v>
       </c>
       <c r="J9" s="3">
-        <v>1691200</v>
+        <v>1691700</v>
       </c>
       <c r="K9" s="3">
         <v>1521800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2401000</v>
+        <v>2401800</v>
       </c>
       <c r="E10" s="3">
-        <v>2348600</v>
+        <v>2349400</v>
       </c>
       <c r="F10" s="3">
-        <v>2384800</v>
+        <v>2385500</v>
       </c>
       <c r="G10" s="3">
-        <v>2662500</v>
+        <v>2663300</v>
       </c>
       <c r="H10" s="3">
-        <v>2624800</v>
+        <v>2625600</v>
       </c>
       <c r="I10" s="3">
-        <v>2338100</v>
+        <v>2338800</v>
       </c>
       <c r="J10" s="3">
-        <v>1832400</v>
+        <v>1833000</v>
       </c>
       <c r="K10" s="3">
         <v>1738900</v>
@@ -900,7 +900,7 @@
         <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>-35300</v>
+        <v>-35400</v>
       </c>
       <c r="F14" s="3">
         <v>19200</v>
@@ -912,7 +912,7 @@
         <v>3500</v>
       </c>
       <c r="I14" s="3">
-        <v>-253300</v>
+        <v>-253400</v>
       </c>
       <c r="J14" s="3">
         <v>-2800</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>484200</v>
+        <v>484400</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4099900</v>
+        <v>4101200</v>
       </c>
       <c r="E17" s="3">
-        <v>4235400</v>
+        <v>4236700</v>
       </c>
       <c r="F17" s="3">
-        <v>4012200</v>
+        <v>4013500</v>
       </c>
       <c r="G17" s="3">
-        <v>4227400</v>
+        <v>4228700</v>
       </c>
       <c r="H17" s="3">
-        <v>4292400</v>
+        <v>4293700</v>
       </c>
       <c r="I17" s="3">
-        <v>3409900</v>
+        <v>3410900</v>
       </c>
       <c r="J17" s="3">
-        <v>2977200</v>
+        <v>2978100</v>
       </c>
       <c r="K17" s="3">
         <v>2781000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>739900</v>
+        <v>740100</v>
       </c>
       <c r="E18" s="3">
-        <v>775900</v>
+        <v>776100</v>
       </c>
       <c r="F18" s="3">
-        <v>738700</v>
+        <v>739000</v>
       </c>
       <c r="G18" s="3">
-        <v>723800</v>
+        <v>724000</v>
       </c>
       <c r="H18" s="3">
-        <v>778700</v>
+        <v>779000</v>
       </c>
       <c r="I18" s="3">
-        <v>882500</v>
+        <v>882800</v>
       </c>
       <c r="J18" s="3">
-        <v>546400</v>
+        <v>546600</v>
       </c>
       <c r="K18" s="3">
         <v>479700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1472900</v>
+        <v>1473500</v>
       </c>
       <c r="E21" s="3">
-        <v>1484900</v>
+        <v>1485500</v>
       </c>
       <c r="F21" s="3">
-        <v>1603700</v>
+        <v>1604400</v>
       </c>
       <c r="G21" s="3">
-        <v>1572700</v>
+        <v>1573400</v>
       </c>
       <c r="H21" s="3">
-        <v>1536900</v>
+        <v>1537500</v>
       </c>
       <c r="I21" s="3">
-        <v>1679100</v>
+        <v>1679800</v>
       </c>
       <c r="J21" s="3">
-        <v>1141400</v>
+        <v>1141900</v>
       </c>
       <c r="K21" s="3">
         <v>1046500</v>
@@ -1122,10 +1122,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>250200</v>
+        <v>250300</v>
       </c>
       <c r="E22" s="3">
-        <v>235100</v>
+        <v>235200</v>
       </c>
       <c r="F22" s="3">
         <v>203700</v>
@@ -1137,7 +1137,7 @@
         <v>185500</v>
       </c>
       <c r="I22" s="3">
-        <v>163000</v>
+        <v>163100</v>
       </c>
       <c r="J22" s="3">
         <v>133900</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>491600</v>
+        <v>491700</v>
       </c>
       <c r="E23" s="3">
-        <v>539700</v>
+        <v>539900</v>
       </c>
       <c r="F23" s="3">
-        <v>534700</v>
+        <v>534800</v>
       </c>
       <c r="G23" s="3">
-        <v>545200</v>
+        <v>545400</v>
       </c>
       <c r="H23" s="3">
-        <v>572700</v>
+        <v>572900</v>
       </c>
       <c r="I23" s="3">
-        <v>706100</v>
+        <v>706300</v>
       </c>
       <c r="J23" s="3">
-        <v>421200</v>
+        <v>421300</v>
       </c>
       <c r="K23" s="3">
         <v>360500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>370200</v>
+        <v>370300</v>
       </c>
       <c r="E26" s="3">
-        <v>393400</v>
+        <v>393500</v>
       </c>
       <c r="F26" s="3">
-        <v>397800</v>
+        <v>397900</v>
       </c>
       <c r="G26" s="3">
-        <v>494300</v>
+        <v>494400</v>
       </c>
       <c r="H26" s="3">
-        <v>515100</v>
+        <v>515200</v>
       </c>
       <c r="I26" s="3">
-        <v>602500</v>
+        <v>602700</v>
       </c>
       <c r="J26" s="3">
-        <v>394100</v>
+        <v>394200</v>
       </c>
       <c r="K26" s="3">
         <v>330600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>87800</v>
+        <v>87900</v>
       </c>
       <c r="E27" s="3">
         <v>115700</v>
       </c>
       <c r="F27" s="3">
-        <v>115400</v>
+        <v>115500</v>
       </c>
       <c r="G27" s="3">
         <v>264600</v>
       </c>
       <c r="H27" s="3">
-        <v>296000</v>
+        <v>296100</v>
       </c>
       <c r="I27" s="3">
-        <v>427000</v>
+        <v>427100</v>
       </c>
       <c r="J27" s="3">
-        <v>243100</v>
+        <v>243200</v>
       </c>
       <c r="K27" s="3">
         <v>214200</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>147400</v>
+        <v>147500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>87800</v>
+        <v>87900</v>
       </c>
       <c r="E33" s="3">
         <v>115700</v>
       </c>
       <c r="F33" s="3">
-        <v>262900</v>
+        <v>263000</v>
       </c>
       <c r="G33" s="3">
         <v>264600</v>
       </c>
       <c r="H33" s="3">
-        <v>296000</v>
+        <v>296100</v>
       </c>
       <c r="I33" s="3">
-        <v>427000</v>
+        <v>427100</v>
       </c>
       <c r="J33" s="3">
-        <v>243100</v>
+        <v>243200</v>
       </c>
       <c r="K33" s="3">
         <v>214200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>87800</v>
+        <v>87900</v>
       </c>
       <c r="E35" s="3">
         <v>115700</v>
       </c>
       <c r="F35" s="3">
-        <v>262900</v>
+        <v>263000</v>
       </c>
       <c r="G35" s="3">
         <v>264600</v>
       </c>
       <c r="H35" s="3">
-        <v>296000</v>
+        <v>296100</v>
       </c>
       <c r="I35" s="3">
-        <v>427000</v>
+        <v>427100</v>
       </c>
       <c r="J35" s="3">
-        <v>243100</v>
+        <v>243200</v>
       </c>
       <c r="K35" s="3">
         <v>214200</v>
@@ -1655,19 +1655,19 @@
         <v>688500</v>
       </c>
       <c r="E41" s="3">
-        <v>871800</v>
+        <v>871900</v>
       </c>
       <c r="F41" s="3">
-        <v>1501500</v>
+        <v>1501700</v>
       </c>
       <c r="G41" s="3">
         <v>613000</v>
       </c>
       <c r="H41" s="3">
-        <v>968000</v>
+        <v>968100</v>
       </c>
       <c r="I41" s="3">
-        <v>1024800</v>
+        <v>1024900</v>
       </c>
       <c r="J41" s="3">
         <v>710800</v>
@@ -1694,7 +1694,7 @@
         <v>220400</v>
       </c>
       <c r="G42" s="3">
-        <v>58400</v>
+        <v>58500</v>
       </c>
       <c r="H42" s="3">
         <v>100</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>972700</v>
+        <v>972800</v>
       </c>
       <c r="E43" s="3">
-        <v>982700</v>
+        <v>982800</v>
       </c>
       <c r="F43" s="3">
-        <v>884900</v>
+        <v>885000</v>
       </c>
       <c r="G43" s="3">
-        <v>502100</v>
+        <v>502200</v>
       </c>
       <c r="H43" s="3">
         <v>525900</v>
       </c>
       <c r="I43" s="3">
-        <v>595900</v>
+        <v>596000</v>
       </c>
       <c r="J43" s="3">
-        <v>502100</v>
+        <v>502200</v>
       </c>
       <c r="K43" s="3">
         <v>1054500</v>
@@ -1766,7 +1766,7 @@
         <v>99900</v>
       </c>
       <c r="I44" s="3">
-        <v>103300</v>
+        <v>103400</v>
       </c>
       <c r="J44" s="3">
         <v>154700</v>
@@ -1784,7 +1784,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>627000</v>
+        <v>627100</v>
       </c>
       <c r="E45" s="3">
         <v>573500</v>
@@ -1793,16 +1793,16 @@
         <v>659300</v>
       </c>
       <c r="G45" s="3">
-        <v>1351500</v>
+        <v>1351600</v>
       </c>
       <c r="H45" s="3">
-        <v>1004400</v>
+        <v>1004500</v>
       </c>
       <c r="I45" s="3">
-        <v>1035800</v>
+        <v>1035900</v>
       </c>
       <c r="J45" s="3">
-        <v>899100</v>
+        <v>899200</v>
       </c>
       <c r="K45" s="3">
         <v>1602500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2692400</v>
+        <v>2692600</v>
       </c>
       <c r="E46" s="3">
-        <v>2770400</v>
+        <v>2770700</v>
       </c>
       <c r="F46" s="3">
-        <v>3383700</v>
+        <v>3383900</v>
       </c>
       <c r="G46" s="3">
-        <v>2646700</v>
+        <v>2646900</v>
       </c>
       <c r="H46" s="3">
-        <v>2598300</v>
+        <v>2598500</v>
       </c>
       <c r="I46" s="3">
-        <v>2759900</v>
+        <v>2760100</v>
       </c>
       <c r="J46" s="3">
-        <v>2268000</v>
+        <v>2268200</v>
       </c>
       <c r="K46" s="3">
         <v>2160300</v>
@@ -1853,13 +1853,13 @@
         <v>383200</v>
       </c>
       <c r="E47" s="3">
-        <v>444200</v>
+        <v>444300</v>
       </c>
       <c r="F47" s="3">
-        <v>475400</v>
+        <v>475500</v>
       </c>
       <c r="G47" s="3">
-        <v>310900</v>
+        <v>311000</v>
       </c>
       <c r="H47" s="3">
         <v>246300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4922400</v>
+        <v>4922800</v>
       </c>
       <c r="E48" s="3">
-        <v>4484200</v>
+        <v>4484600</v>
       </c>
       <c r="F48" s="3">
-        <v>6648500</v>
+        <v>6649000</v>
       </c>
       <c r="G48" s="3">
-        <v>3076000</v>
+        <v>3076200</v>
       </c>
       <c r="H48" s="3">
-        <v>2793000</v>
+        <v>2793200</v>
       </c>
       <c r="I48" s="3">
-        <v>2594600</v>
+        <v>2594800</v>
       </c>
       <c r="J48" s="3">
-        <v>3245200</v>
+        <v>3245500</v>
       </c>
       <c r="K48" s="3">
         <v>3638400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4086700</v>
+        <v>4087000</v>
       </c>
       <c r="E49" s="3">
-        <v>3765800</v>
+        <v>3766100</v>
       </c>
       <c r="F49" s="3">
-        <v>7558600</v>
+        <v>7559200</v>
       </c>
       <c r="G49" s="3">
-        <v>3880500</v>
+        <v>3880800</v>
       </c>
       <c r="H49" s="3">
-        <v>3704000</v>
+        <v>3704300</v>
       </c>
       <c r="I49" s="3">
-        <v>3518400</v>
+        <v>3518600</v>
       </c>
       <c r="J49" s="3">
-        <v>908700</v>
+        <v>908800</v>
       </c>
       <c r="K49" s="3">
         <v>2176200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12759400</v>
+        <v>12760400</v>
       </c>
       <c r="E54" s="3">
-        <v>12157200</v>
+        <v>12158100</v>
       </c>
       <c r="F54" s="3">
-        <v>11937400</v>
+        <v>11938400</v>
       </c>
       <c r="G54" s="3">
-        <v>10267900</v>
+        <v>10268700</v>
       </c>
       <c r="H54" s="3">
-        <v>9645300</v>
+        <v>9646000</v>
       </c>
       <c r="I54" s="3">
-        <v>9423500</v>
+        <v>9424200</v>
       </c>
       <c r="J54" s="3">
-        <v>6959000</v>
+        <v>6959500</v>
       </c>
       <c r="K54" s="3">
         <v>6419400</v>
@@ -2147,7 +2147,7 @@
         <v>354300</v>
       </c>
       <c r="E57" s="3">
-        <v>251800</v>
+        <v>251900</v>
       </c>
       <c r="F57" s="3">
         <v>269400</v>
@@ -2159,7 +2159,7 @@
         <v>321800</v>
       </c>
       <c r="I57" s="3">
-        <v>300700</v>
+        <v>300800</v>
       </c>
       <c r="J57" s="3">
         <v>273300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1372400</v>
+        <v>1372500</v>
       </c>
       <c r="E59" s="3">
-        <v>1344900</v>
+        <v>1345000</v>
       </c>
       <c r="F59" s="3">
-        <v>1415500</v>
+        <v>1415600</v>
       </c>
       <c r="G59" s="3">
-        <v>1405800</v>
+        <v>1405900</v>
       </c>
       <c r="H59" s="3">
-        <v>1434700</v>
+        <v>1434800</v>
       </c>
       <c r="I59" s="3">
-        <v>1530700</v>
+        <v>1530800</v>
       </c>
       <c r="J59" s="3">
-        <v>1101700</v>
+        <v>1101800</v>
       </c>
       <c r="K59" s="3">
         <v>1118900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2101300</v>
+        <v>2101500</v>
       </c>
       <c r="E60" s="3">
-        <v>1882700</v>
+        <v>1882800</v>
       </c>
       <c r="F60" s="3">
-        <v>1951700</v>
+        <v>1951800</v>
       </c>
       <c r="G60" s="3">
-        <v>1817100</v>
+        <v>1817300</v>
       </c>
       <c r="H60" s="3">
-        <v>2256900</v>
+        <v>2257100</v>
       </c>
       <c r="I60" s="3">
-        <v>2453700</v>
+        <v>2453900</v>
       </c>
       <c r="J60" s="3">
-        <v>1375100</v>
+        <v>1375200</v>
       </c>
       <c r="K60" s="3">
         <v>2500100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7253800</v>
+        <v>7254300</v>
       </c>
       <c r="E61" s="3">
-        <v>6732000</v>
+        <v>6732500</v>
       </c>
       <c r="F61" s="3">
-        <v>6272700</v>
+        <v>6273200</v>
       </c>
       <c r="G61" s="3">
-        <v>5822800</v>
+        <v>5823300</v>
       </c>
       <c r="H61" s="3">
-        <v>4914400</v>
+        <v>4914800</v>
       </c>
       <c r="I61" s="3">
-        <v>4708500</v>
+        <v>4708800</v>
       </c>
       <c r="J61" s="3">
-        <v>3751100</v>
+        <v>3751400</v>
       </c>
       <c r="K61" s="3">
         <v>2308700</v>
@@ -2309,16 +2309,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1085600</v>
+        <v>1085700</v>
       </c>
       <c r="E62" s="3">
-        <v>1012500</v>
+        <v>1012600</v>
       </c>
       <c r="F62" s="3">
-        <v>1066700</v>
+        <v>1066800</v>
       </c>
       <c r="G62" s="3">
-        <v>721600</v>
+        <v>721700</v>
       </c>
       <c r="H62" s="3">
         <v>752600</v>
@@ -2327,7 +2327,7 @@
         <v>665500</v>
       </c>
       <c r="J62" s="3">
-        <v>718900</v>
+        <v>719000</v>
       </c>
       <c r="K62" s="3">
         <v>562600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10754700</v>
+        <v>10755600</v>
       </c>
       <c r="E66" s="3">
-        <v>9951600</v>
+        <v>9952300</v>
       </c>
       <c r="F66" s="3">
-        <v>9461600</v>
+        <v>9462300</v>
       </c>
       <c r="G66" s="3">
-        <v>8716300</v>
+        <v>8717000</v>
       </c>
       <c r="H66" s="3">
-        <v>8223000</v>
+        <v>8223600</v>
       </c>
       <c r="I66" s="3">
-        <v>8113000</v>
+        <v>8113700</v>
       </c>
       <c r="J66" s="3">
-        <v>5773600</v>
+        <v>5774100</v>
       </c>
       <c r="K66" s="3">
         <v>5286100</v>
@@ -2627,7 +2627,7 @@
         <v>649900</v>
       </c>
       <c r="F72" s="3">
-        <v>864000</v>
+        <v>864100</v>
       </c>
       <c r="G72" s="3">
         <v>-67700</v>
@@ -2636,7 +2636,7 @@
         <v>-84100</v>
       </c>
       <c r="I72" s="3">
-        <v>-169100</v>
+        <v>-169200</v>
       </c>
       <c r="J72" s="3">
         <v>-392900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2004700</v>
+        <v>2004900</v>
       </c>
       <c r="E76" s="3">
-        <v>2205600</v>
+        <v>2205800</v>
       </c>
       <c r="F76" s="3">
-        <v>2475900</v>
+        <v>2476100</v>
       </c>
       <c r="G76" s="3">
-        <v>1551600</v>
+        <v>1551700</v>
       </c>
       <c r="H76" s="3">
-        <v>1422300</v>
+        <v>1422400</v>
       </c>
       <c r="I76" s="3">
-        <v>1310500</v>
+        <v>1310600</v>
       </c>
       <c r="J76" s="3">
-        <v>1185300</v>
+        <v>1185400</v>
       </c>
       <c r="K76" s="3">
         <v>1133400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>87800</v>
+        <v>87900</v>
       </c>
       <c r="E81" s="3">
         <v>115700</v>
       </c>
       <c r="F81" s="3">
-        <v>262900</v>
+        <v>263000</v>
       </c>
       <c r="G81" s="3">
         <v>264600</v>
       </c>
       <c r="H81" s="3">
-        <v>296000</v>
+        <v>296100</v>
       </c>
       <c r="I81" s="3">
-        <v>427000</v>
+        <v>427100</v>
       </c>
       <c r="J81" s="3">
-        <v>243100</v>
+        <v>243200</v>
       </c>
       <c r="K81" s="3">
         <v>214200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>731200</v>
+        <v>731500</v>
       </c>
       <c r="E83" s="3">
-        <v>710200</v>
+        <v>710400</v>
       </c>
       <c r="F83" s="3">
-        <v>865500</v>
+        <v>865800</v>
       </c>
       <c r="G83" s="3">
-        <v>861900</v>
+        <v>862200</v>
       </c>
       <c r="H83" s="3">
-        <v>778800</v>
+        <v>779100</v>
       </c>
       <c r="I83" s="3">
-        <v>810200</v>
+        <v>810400</v>
       </c>
       <c r="J83" s="3">
-        <v>586500</v>
+        <v>586700</v>
       </c>
       <c r="K83" s="3">
         <v>566500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1436000</v>
+        <v>1436500</v>
       </c>
       <c r="E89" s="3">
-        <v>844200</v>
+        <v>844500</v>
       </c>
       <c r="F89" s="3">
-        <v>1530200</v>
+        <v>1530700</v>
       </c>
       <c r="G89" s="3">
-        <v>1283800</v>
+        <v>1284200</v>
       </c>
       <c r="H89" s="3">
-        <v>1614700</v>
+        <v>1615200</v>
       </c>
       <c r="I89" s="3">
-        <v>1361200</v>
+        <v>1361700</v>
       </c>
       <c r="J89" s="3">
-        <v>943200</v>
+        <v>943500</v>
       </c>
       <c r="K89" s="3">
         <v>794400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-639300</v>
+        <v>-639500</v>
       </c>
       <c r="E91" s="3">
-        <v>-494500</v>
+        <v>-494700</v>
       </c>
       <c r="F91" s="3">
-        <v>-433000</v>
+        <v>-433200</v>
       </c>
       <c r="G91" s="3">
-        <v>-410700</v>
+        <v>-410800</v>
       </c>
       <c r="H91" s="3">
-        <v>-453700</v>
+        <v>-453800</v>
       </c>
       <c r="I91" s="3">
-        <v>-413200</v>
+        <v>-413300</v>
       </c>
       <c r="J91" s="3">
-        <v>-330500</v>
+        <v>-330600</v>
       </c>
       <c r="K91" s="3">
         <v>-288000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1172500</v>
+        <v>-1172900</v>
       </c>
       <c r="E94" s="3">
-        <v>-747200</v>
+        <v>-747500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1242300</v>
+        <v>-1242700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1297600</v>
+        <v>-1298000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1314500</v>
+        <v>-1314900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2498700</v>
+        <v>-2499400</v>
       </c>
       <c r="J94" s="3">
-        <v>-814800</v>
+        <v>-815100</v>
       </c>
       <c r="K94" s="3">
         <v>-904000</v>
@@ -3298,16 +3298,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-313600</v>
+        <v>-313700</v>
       </c>
       <c r="E96" s="3">
         <v>-299300</v>
       </c>
       <c r="F96" s="3">
-        <v>-285600</v>
+        <v>-285700</v>
       </c>
       <c r="G96" s="3">
-        <v>-190500</v>
+        <v>-190600</v>
       </c>
       <c r="H96" s="3">
         <v>-102800</v>
@@ -3316,7 +3316,7 @@
         <v>-98700</v>
       </c>
       <c r="J96" s="3">
-        <v>-186000</v>
+        <v>-186100</v>
       </c>
       <c r="K96" s="3">
         <v>-150900</v>
@@ -3430,22 +3430,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-442200</v>
+        <v>-442300</v>
       </c>
       <c r="E100" s="3">
-        <v>-722300</v>
+        <v>-722600</v>
       </c>
       <c r="F100" s="3">
-        <v>603300</v>
+        <v>603500</v>
       </c>
       <c r="G100" s="3">
-        <v>-337700</v>
+        <v>-337800</v>
       </c>
       <c r="H100" s="3">
-        <v>-353800</v>
+        <v>-353900</v>
       </c>
       <c r="I100" s="3">
-        <v>1461200</v>
+        <v>1461700</v>
       </c>
       <c r="J100" s="3">
         <v>-4900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-183300</v>
+        <v>-183400</v>
       </c>
       <c r="E102" s="3">
-        <v>-629600</v>
+        <v>-629800</v>
       </c>
       <c r="F102" s="3">
-        <v>887600</v>
+        <v>887900</v>
       </c>
       <c r="G102" s="3">
-        <v>-354200</v>
+        <v>-354300</v>
       </c>
       <c r="H102" s="3">
         <v>-56800</v>
       </c>
       <c r="I102" s="3">
-        <v>314000</v>
+        <v>314100</v>
       </c>
       <c r="J102" s="3">
-        <v>123300</v>
+        <v>123400</v>
       </c>
       <c r="K102" s="3">
         <v>-104600</v>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4841300</v>
+        <v>4841000</v>
       </c>
       <c r="E8" s="3">
-        <v>5012800</v>
+        <v>5012400</v>
       </c>
       <c r="F8" s="3">
-        <v>4752400</v>
+        <v>4752100</v>
       </c>
       <c r="G8" s="3">
-        <v>4952700</v>
+        <v>4952300</v>
       </c>
       <c r="H8" s="3">
-        <v>5072700</v>
+        <v>5072300</v>
       </c>
       <c r="I8" s="3">
-        <v>4293700</v>
+        <v>4293400</v>
       </c>
       <c r="J8" s="3">
-        <v>3524700</v>
+        <v>3524400</v>
       </c>
       <c r="K8" s="3">
         <v>3260700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2439600</v>
+        <v>2439400</v>
       </c>
       <c r="E9" s="3">
-        <v>2663400</v>
+        <v>2663200</v>
       </c>
       <c r="F9" s="3">
-        <v>2366900</v>
+        <v>2366700</v>
       </c>
       <c r="G9" s="3">
-        <v>2289400</v>
+        <v>2289200</v>
       </c>
       <c r="H9" s="3">
-        <v>2447100</v>
+        <v>2446900</v>
       </c>
       <c r="I9" s="3">
-        <v>1954900</v>
+        <v>1954800</v>
       </c>
       <c r="J9" s="3">
-        <v>1691700</v>
+        <v>1691600</v>
       </c>
       <c r="K9" s="3">
         <v>1521800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2401800</v>
+        <v>2401600</v>
       </c>
       <c r="E10" s="3">
-        <v>2349400</v>
+        <v>2349200</v>
       </c>
       <c r="F10" s="3">
-        <v>2385500</v>
+        <v>2385300</v>
       </c>
       <c r="G10" s="3">
-        <v>2663300</v>
+        <v>2663100</v>
       </c>
       <c r="H10" s="3">
-        <v>2625600</v>
+        <v>2625400</v>
       </c>
       <c r="I10" s="3">
-        <v>2338800</v>
+        <v>2338600</v>
       </c>
       <c r="J10" s="3">
-        <v>1833000</v>
+        <v>1832900</v>
       </c>
       <c r="K10" s="3">
         <v>1738900</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>484400</v>
+        <v>731400</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4101200</v>
+        <v>4100900</v>
       </c>
       <c r="E17" s="3">
-        <v>4236700</v>
+        <v>4236400</v>
       </c>
       <c r="F17" s="3">
-        <v>4013500</v>
+        <v>4013200</v>
       </c>
       <c r="G17" s="3">
-        <v>4228700</v>
+        <v>4228400</v>
       </c>
       <c r="H17" s="3">
-        <v>4293700</v>
+        <v>4293400</v>
       </c>
       <c r="I17" s="3">
-        <v>3410900</v>
+        <v>3410600</v>
       </c>
       <c r="J17" s="3">
-        <v>2978100</v>
+        <v>2977900</v>
       </c>
       <c r="K17" s="3">
         <v>2781000</v>
@@ -1014,19 +1014,19 @@
         <v>776100</v>
       </c>
       <c r="F18" s="3">
-        <v>739000</v>
+        <v>738900</v>
       </c>
       <c r="G18" s="3">
-        <v>724000</v>
+        <v>723900</v>
       </c>
       <c r="H18" s="3">
-        <v>779000</v>
+        <v>778900</v>
       </c>
       <c r="I18" s="3">
         <v>882800</v>
       </c>
       <c r="J18" s="3">
-        <v>546600</v>
+        <v>546500</v>
       </c>
       <c r="K18" s="3">
         <v>479700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1473500</v>
+        <v>1473400</v>
       </c>
       <c r="E21" s="3">
-        <v>1485500</v>
+        <v>1485400</v>
       </c>
       <c r="F21" s="3">
-        <v>1604400</v>
+        <v>1437200</v>
       </c>
       <c r="G21" s="3">
-        <v>1573400</v>
+        <v>1573300</v>
       </c>
       <c r="H21" s="3">
-        <v>1537500</v>
+        <v>1537400</v>
       </c>
       <c r="I21" s="3">
-        <v>1679800</v>
+        <v>1679700</v>
       </c>
       <c r="J21" s="3">
-        <v>1141900</v>
+        <v>1141800</v>
       </c>
       <c r="K21" s="3">
         <v>1046500</v>
@@ -1158,7 +1158,7 @@
         <v>491700</v>
       </c>
       <c r="E23" s="3">
-        <v>539900</v>
+        <v>539800</v>
       </c>
       <c r="F23" s="3">
         <v>534800</v>
@@ -1167,7 +1167,7 @@
         <v>545400</v>
       </c>
       <c r="H23" s="3">
-        <v>572900</v>
+        <v>572800</v>
       </c>
       <c r="I23" s="3">
         <v>706300</v>
@@ -1491,7 +1491,7 @@
         <v>115700</v>
       </c>
       <c r="F33" s="3">
-        <v>263000</v>
+        <v>262900</v>
       </c>
       <c r="G33" s="3">
         <v>264600</v>
@@ -1557,7 +1557,7 @@
         <v>115700</v>
       </c>
       <c r="F35" s="3">
-        <v>263000</v>
+        <v>262900</v>
       </c>
       <c r="G35" s="3">
         <v>264600</v>
@@ -1655,19 +1655,19 @@
         <v>688500</v>
       </c>
       <c r="E41" s="3">
-        <v>871900</v>
+        <v>871800</v>
       </c>
       <c r="F41" s="3">
-        <v>1501700</v>
+        <v>1501500</v>
       </c>
       <c r="G41" s="3">
         <v>613000</v>
       </c>
       <c r="H41" s="3">
-        <v>968100</v>
+        <v>968000</v>
       </c>
       <c r="I41" s="3">
-        <v>1024900</v>
+        <v>1024800</v>
       </c>
       <c r="J41" s="3">
         <v>710800</v>
@@ -1694,7 +1694,7 @@
         <v>220400</v>
       </c>
       <c r="G42" s="3">
-        <v>58500</v>
+        <v>58400</v>
       </c>
       <c r="H42" s="3">
         <v>100</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>972800</v>
+        <v>972700</v>
       </c>
       <c r="E43" s="3">
-        <v>982800</v>
+        <v>982700</v>
       </c>
       <c r="F43" s="3">
-        <v>885000</v>
+        <v>884900</v>
       </c>
       <c r="G43" s="3">
-        <v>502200</v>
+        <v>502100</v>
       </c>
       <c r="H43" s="3">
         <v>525900</v>
       </c>
       <c r="I43" s="3">
-        <v>596000</v>
+        <v>595900</v>
       </c>
       <c r="J43" s="3">
-        <v>502200</v>
+        <v>502100</v>
       </c>
       <c r="K43" s="3">
         <v>1054500</v>
@@ -1766,7 +1766,7 @@
         <v>99900</v>
       </c>
       <c r="I44" s="3">
-        <v>103400</v>
+        <v>103300</v>
       </c>
       <c r="J44" s="3">
         <v>154700</v>
@@ -1784,7 +1784,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>627100</v>
+        <v>627000</v>
       </c>
       <c r="E45" s="3">
         <v>573500</v>
@@ -1793,16 +1793,16 @@
         <v>659300</v>
       </c>
       <c r="G45" s="3">
-        <v>1351600</v>
+        <v>1351500</v>
       </c>
       <c r="H45" s="3">
-        <v>1004500</v>
+        <v>1004400</v>
       </c>
       <c r="I45" s="3">
-        <v>1035900</v>
+        <v>1035800</v>
       </c>
       <c r="J45" s="3">
-        <v>899200</v>
+        <v>899100</v>
       </c>
       <c r="K45" s="3">
         <v>1602500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2692600</v>
+        <v>2692400</v>
       </c>
       <c r="E46" s="3">
-        <v>2770700</v>
+        <v>2770400</v>
       </c>
       <c r="F46" s="3">
-        <v>3383900</v>
+        <v>3383700</v>
       </c>
       <c r="G46" s="3">
-        <v>2646900</v>
+        <v>2646700</v>
       </c>
       <c r="H46" s="3">
-        <v>2598500</v>
+        <v>2598300</v>
       </c>
       <c r="I46" s="3">
-        <v>2760100</v>
+        <v>2759900</v>
       </c>
       <c r="J46" s="3">
-        <v>2268200</v>
+        <v>2268000</v>
       </c>
       <c r="K46" s="3">
         <v>2160300</v>
@@ -1853,13 +1853,13 @@
         <v>383200</v>
       </c>
       <c r="E47" s="3">
-        <v>444300</v>
+        <v>444200</v>
       </c>
       <c r="F47" s="3">
-        <v>475500</v>
+        <v>475400</v>
       </c>
       <c r="G47" s="3">
-        <v>311000</v>
+        <v>310900</v>
       </c>
       <c r="H47" s="3">
         <v>246300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4922800</v>
+        <v>4922400</v>
       </c>
       <c r="E48" s="3">
-        <v>4484600</v>
+        <v>4484200</v>
       </c>
       <c r="F48" s="3">
-        <v>6649000</v>
+        <v>6648500</v>
       </c>
       <c r="G48" s="3">
-        <v>3076200</v>
+        <v>3076000</v>
       </c>
       <c r="H48" s="3">
-        <v>2793200</v>
+        <v>2793000</v>
       </c>
       <c r="I48" s="3">
-        <v>2594800</v>
+        <v>2594600</v>
       </c>
       <c r="J48" s="3">
-        <v>3245500</v>
+        <v>3245200</v>
       </c>
       <c r="K48" s="3">
         <v>3638400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4087000</v>
+        <v>4086700</v>
       </c>
       <c r="E49" s="3">
-        <v>3766100</v>
+        <v>3765800</v>
       </c>
       <c r="F49" s="3">
-        <v>7559200</v>
+        <v>7558600</v>
       </c>
       <c r="G49" s="3">
-        <v>3880800</v>
+        <v>3880500</v>
       </c>
       <c r="H49" s="3">
-        <v>3704300</v>
+        <v>3704000</v>
       </c>
       <c r="I49" s="3">
-        <v>3518600</v>
+        <v>3518400</v>
       </c>
       <c r="J49" s="3">
-        <v>908800</v>
+        <v>908700</v>
       </c>
       <c r="K49" s="3">
         <v>2176200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12760400</v>
+        <v>12759400</v>
       </c>
       <c r="E54" s="3">
-        <v>12158100</v>
+        <v>12157200</v>
       </c>
       <c r="F54" s="3">
-        <v>11938400</v>
+        <v>11937400</v>
       </c>
       <c r="G54" s="3">
-        <v>10268700</v>
+        <v>10267900</v>
       </c>
       <c r="H54" s="3">
-        <v>9646000</v>
+        <v>9645300</v>
       </c>
       <c r="I54" s="3">
-        <v>9424200</v>
+        <v>9423500</v>
       </c>
       <c r="J54" s="3">
-        <v>6959500</v>
+        <v>6959000</v>
       </c>
       <c r="K54" s="3">
         <v>6419400</v>
@@ -2147,7 +2147,7 @@
         <v>354300</v>
       </c>
       <c r="E57" s="3">
-        <v>251900</v>
+        <v>251800</v>
       </c>
       <c r="F57" s="3">
         <v>269400</v>
@@ -2159,7 +2159,7 @@
         <v>321800</v>
       </c>
       <c r="I57" s="3">
-        <v>300800</v>
+        <v>300700</v>
       </c>
       <c r="J57" s="3">
         <v>273300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1372500</v>
+        <v>1372400</v>
       </c>
       <c r="E59" s="3">
-        <v>1345000</v>
+        <v>1344900</v>
       </c>
       <c r="F59" s="3">
-        <v>1415600</v>
+        <v>1415500</v>
       </c>
       <c r="G59" s="3">
-        <v>1405900</v>
+        <v>1405800</v>
       </c>
       <c r="H59" s="3">
-        <v>1434800</v>
+        <v>1434700</v>
       </c>
       <c r="I59" s="3">
-        <v>1530800</v>
+        <v>1530700</v>
       </c>
       <c r="J59" s="3">
-        <v>1101800</v>
+        <v>1101700</v>
       </c>
       <c r="K59" s="3">
         <v>1118900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2101500</v>
+        <v>2101300</v>
       </c>
       <c r="E60" s="3">
-        <v>1882800</v>
+        <v>1882700</v>
       </c>
       <c r="F60" s="3">
-        <v>1951800</v>
+        <v>1951700</v>
       </c>
       <c r="G60" s="3">
-        <v>1817300</v>
+        <v>1817100</v>
       </c>
       <c r="H60" s="3">
-        <v>2257100</v>
+        <v>2256900</v>
       </c>
       <c r="I60" s="3">
-        <v>2453900</v>
+        <v>2453700</v>
       </c>
       <c r="J60" s="3">
-        <v>1375200</v>
+        <v>1375100</v>
       </c>
       <c r="K60" s="3">
         <v>2500100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7254300</v>
+        <v>7253800</v>
       </c>
       <c r="E61" s="3">
-        <v>6732500</v>
+        <v>6732000</v>
       </c>
       <c r="F61" s="3">
-        <v>6273200</v>
+        <v>6272700</v>
       </c>
       <c r="G61" s="3">
-        <v>5823300</v>
+        <v>5822800</v>
       </c>
       <c r="H61" s="3">
-        <v>4914800</v>
+        <v>4914400</v>
       </c>
       <c r="I61" s="3">
-        <v>4708800</v>
+        <v>4708500</v>
       </c>
       <c r="J61" s="3">
-        <v>3751400</v>
+        <v>3751100</v>
       </c>
       <c r="K61" s="3">
         <v>2308700</v>
@@ -2309,16 +2309,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1085700</v>
+        <v>1085600</v>
       </c>
       <c r="E62" s="3">
-        <v>1012600</v>
+        <v>1012500</v>
       </c>
       <c r="F62" s="3">
-        <v>1066800</v>
+        <v>1066700</v>
       </c>
       <c r="G62" s="3">
-        <v>721700</v>
+        <v>721600</v>
       </c>
       <c r="H62" s="3">
         <v>752600</v>
@@ -2327,7 +2327,7 @@
         <v>665500</v>
       </c>
       <c r="J62" s="3">
-        <v>719000</v>
+        <v>718900</v>
       </c>
       <c r="K62" s="3">
         <v>562600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10755600</v>
+        <v>10754700</v>
       </c>
       <c r="E66" s="3">
-        <v>9952300</v>
+        <v>9951600</v>
       </c>
       <c r="F66" s="3">
-        <v>9462300</v>
+        <v>9461600</v>
       </c>
       <c r="G66" s="3">
-        <v>8717000</v>
+        <v>8716300</v>
       </c>
       <c r="H66" s="3">
-        <v>8223600</v>
+        <v>8223000</v>
       </c>
       <c r="I66" s="3">
-        <v>8113700</v>
+        <v>8113000</v>
       </c>
       <c r="J66" s="3">
-        <v>5774100</v>
+        <v>5773600</v>
       </c>
       <c r="K66" s="3">
         <v>5286100</v>
@@ -2627,7 +2627,7 @@
         <v>649900</v>
       </c>
       <c r="F72" s="3">
-        <v>864100</v>
+        <v>864000</v>
       </c>
       <c r="G72" s="3">
         <v>-67700</v>
@@ -2636,7 +2636,7 @@
         <v>-84100</v>
       </c>
       <c r="I72" s="3">
-        <v>-169200</v>
+        <v>-169100</v>
       </c>
       <c r="J72" s="3">
         <v>-392900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2004900</v>
+        <v>2004700</v>
       </c>
       <c r="E76" s="3">
-        <v>2205800</v>
+        <v>2205600</v>
       </c>
       <c r="F76" s="3">
-        <v>2476100</v>
+        <v>2475900</v>
       </c>
       <c r="G76" s="3">
-        <v>1551700</v>
+        <v>1551600</v>
       </c>
       <c r="H76" s="3">
-        <v>1422400</v>
+        <v>1422300</v>
       </c>
       <c r="I76" s="3">
-        <v>1310600</v>
+        <v>1310500</v>
       </c>
       <c r="J76" s="3">
-        <v>1185400</v>
+        <v>1185300</v>
       </c>
       <c r="K76" s="3">
         <v>1133400</v>
@@ -2863,7 +2863,7 @@
         <v>115700</v>
       </c>
       <c r="F81" s="3">
-        <v>263000</v>
+        <v>262900</v>
       </c>
       <c r="G81" s="3">
         <v>264600</v>
@@ -2905,19 +2905,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>731500</v>
+        <v>731400</v>
       </c>
       <c r="E83" s="3">
         <v>710400</v>
       </c>
       <c r="F83" s="3">
-        <v>865800</v>
+        <v>698600</v>
       </c>
       <c r="G83" s="3">
-        <v>862200</v>
+        <v>862100</v>
       </c>
       <c r="H83" s="3">
-        <v>779100</v>
+        <v>779000</v>
       </c>
       <c r="I83" s="3">
         <v>810400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1436500</v>
+        <v>1436400</v>
       </c>
       <c r="E89" s="3">
-        <v>844500</v>
+        <v>844400</v>
       </c>
       <c r="F89" s="3">
-        <v>1530700</v>
+        <v>1331000</v>
       </c>
       <c r="G89" s="3">
-        <v>1284200</v>
+        <v>1284100</v>
       </c>
       <c r="H89" s="3">
-        <v>1615200</v>
+        <v>1615100</v>
       </c>
       <c r="I89" s="3">
-        <v>1361700</v>
+        <v>1361500</v>
       </c>
       <c r="J89" s="3">
-        <v>943500</v>
+        <v>943400</v>
       </c>
       <c r="K89" s="3">
         <v>794400</v>
@@ -3151,13 +3151,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-639500</v>
+        <v>-639400</v>
       </c>
       <c r="E91" s="3">
         <v>-494700</v>
       </c>
       <c r="F91" s="3">
-        <v>-433200</v>
+        <v>-433100</v>
       </c>
       <c r="G91" s="3">
         <v>-410800</v>
@@ -3169,7 +3169,7 @@
         <v>-413300</v>
       </c>
       <c r="J91" s="3">
-        <v>-330600</v>
+        <v>-330500</v>
       </c>
       <c r="K91" s="3">
         <v>-288000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1172900</v>
+        <v>-1172800</v>
       </c>
       <c r="E94" s="3">
-        <v>-747500</v>
+        <v>-747400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1242700</v>
+        <v>-787800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1298000</v>
+        <v>-1297900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1314900</v>
+        <v>-1314800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2499400</v>
+        <v>-2499200</v>
       </c>
       <c r="J94" s="3">
-        <v>-815100</v>
+        <v>-815000</v>
       </c>
       <c r="K94" s="3">
         <v>-904000</v>
@@ -3298,7 +3298,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-313700</v>
+        <v>-313600</v>
       </c>
       <c r="E96" s="3">
         <v>-299300</v>
@@ -3316,7 +3316,7 @@
         <v>-98700</v>
       </c>
       <c r="J96" s="3">
-        <v>-186100</v>
+        <v>-186000</v>
       </c>
       <c r="K96" s="3">
         <v>-150900</v>
@@ -3433,10 +3433,10 @@
         <v>-442300</v>
       </c>
       <c r="E100" s="3">
-        <v>-722600</v>
+        <v>-722500</v>
       </c>
       <c r="F100" s="3">
-        <v>603500</v>
+        <v>348200</v>
       </c>
       <c r="G100" s="3">
         <v>-337800</v>
@@ -3445,7 +3445,7 @@
         <v>-353900</v>
       </c>
       <c r="I100" s="3">
-        <v>1461700</v>
+        <v>1461500</v>
       </c>
       <c r="J100" s="3">
         <v>-4900</v>
@@ -3496,13 +3496,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-183400</v>
+        <v>-183300</v>
       </c>
       <c r="E102" s="3">
-        <v>-629800</v>
+        <v>-629700</v>
       </c>
       <c r="F102" s="3">
-        <v>887900</v>
+        <v>887800</v>
       </c>
       <c r="G102" s="3">
         <v>-354300</v>
@@ -3511,10 +3511,10 @@
         <v>-56800</v>
       </c>
       <c r="I102" s="3">
-        <v>314100</v>
+        <v>314000</v>
       </c>
       <c r="J102" s="3">
-        <v>123400</v>
+        <v>123300</v>
       </c>
       <c r="K102" s="3">
         <v>-104600</v>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>PCCWY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4841000</v>
+        <v>4830100</v>
       </c>
       <c r="E8" s="3">
-        <v>5012400</v>
+        <v>5001200</v>
       </c>
       <c r="F8" s="3">
-        <v>4752100</v>
+        <v>4741400</v>
       </c>
       <c r="G8" s="3">
-        <v>4952300</v>
+        <v>4941200</v>
       </c>
       <c r="H8" s="3">
-        <v>5072300</v>
+        <v>5060900</v>
       </c>
       <c r="I8" s="3">
-        <v>4293400</v>
+        <v>4283700</v>
       </c>
       <c r="J8" s="3">
-        <v>3524400</v>
+        <v>3516500</v>
       </c>
       <c r="K8" s="3">
         <v>3260700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2439400</v>
+        <v>2433900</v>
       </c>
       <c r="E9" s="3">
-        <v>2663200</v>
+        <v>2657200</v>
       </c>
       <c r="F9" s="3">
-        <v>2366700</v>
+        <v>2361400</v>
       </c>
       <c r="G9" s="3">
-        <v>2289200</v>
+        <v>2284100</v>
       </c>
       <c r="H9" s="3">
-        <v>2446900</v>
+        <v>2441400</v>
       </c>
       <c r="I9" s="3">
-        <v>1954800</v>
+        <v>1950400</v>
       </c>
       <c r="J9" s="3">
-        <v>1691600</v>
+        <v>1687800</v>
       </c>
       <c r="K9" s="3">
         <v>1521800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2401600</v>
+        <v>2396200</v>
       </c>
       <c r="E10" s="3">
-        <v>2349200</v>
+        <v>2343900</v>
       </c>
       <c r="F10" s="3">
-        <v>2385300</v>
+        <v>2380000</v>
       </c>
       <c r="G10" s="3">
-        <v>2663100</v>
+        <v>2657100</v>
       </c>
       <c r="H10" s="3">
-        <v>2625400</v>
+        <v>2619500</v>
       </c>
       <c r="I10" s="3">
-        <v>2338600</v>
+        <v>2333400</v>
       </c>
       <c r="J10" s="3">
-        <v>1832900</v>
+        <v>1828700</v>
       </c>
       <c r="K10" s="3">
         <v>1738900</v>
@@ -900,19 +900,19 @@
         <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>-35400</v>
+        <v>-35300</v>
       </c>
       <c r="F14" s="3">
         <v>19200</v>
       </c>
       <c r="G14" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H14" s="3">
         <v>3500</v>
       </c>
       <c r="I14" s="3">
-        <v>-253400</v>
+        <v>-252800</v>
       </c>
       <c r="J14" s="3">
         <v>-2800</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>731400</v>
+        <v>729800</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4100900</v>
+        <v>4091700</v>
       </c>
       <c r="E17" s="3">
-        <v>4236400</v>
+        <v>4226800</v>
       </c>
       <c r="F17" s="3">
-        <v>4013200</v>
+        <v>4004100</v>
       </c>
       <c r="G17" s="3">
-        <v>4228400</v>
+        <v>4218900</v>
       </c>
       <c r="H17" s="3">
-        <v>4293400</v>
+        <v>4283700</v>
       </c>
       <c r="I17" s="3">
-        <v>3410600</v>
+        <v>3403000</v>
       </c>
       <c r="J17" s="3">
-        <v>2977900</v>
+        <v>2971200</v>
       </c>
       <c r="K17" s="3">
         <v>2781000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>740100</v>
+        <v>738400</v>
       </c>
       <c r="E18" s="3">
-        <v>776100</v>
+        <v>774300</v>
       </c>
       <c r="F18" s="3">
-        <v>738900</v>
+        <v>737200</v>
       </c>
       <c r="G18" s="3">
-        <v>723900</v>
+        <v>722300</v>
       </c>
       <c r="H18" s="3">
-        <v>778900</v>
+        <v>777100</v>
       </c>
       <c r="I18" s="3">
-        <v>882800</v>
+        <v>880800</v>
       </c>
       <c r="J18" s="3">
-        <v>546500</v>
+        <v>545300</v>
       </c>
       <c r="K18" s="3">
         <v>479700</v>
@@ -1065,7 +1065,7 @@
         <v>-400</v>
       </c>
       <c r="G20" s="3">
-        <v>-12800</v>
+        <v>-12700</v>
       </c>
       <c r="H20" s="3">
         <v>-20500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1473400</v>
+        <v>1470100</v>
       </c>
       <c r="E21" s="3">
-        <v>1485400</v>
+        <v>1482100</v>
       </c>
       <c r="F21" s="3">
-        <v>1437200</v>
+        <v>1433900</v>
       </c>
       <c r="G21" s="3">
-        <v>1573300</v>
+        <v>1569700</v>
       </c>
       <c r="H21" s="3">
-        <v>1537400</v>
+        <v>1533900</v>
       </c>
       <c r="I21" s="3">
-        <v>1679700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1141800</v>
+        <v>1675900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>1046500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>250300</v>
+        <v>249700</v>
       </c>
       <c r="E22" s="3">
-        <v>235200</v>
+        <v>234700</v>
       </c>
       <c r="F22" s="3">
-        <v>203700</v>
+        <v>203300</v>
       </c>
       <c r="G22" s="3">
-        <v>165800</v>
+        <v>165400</v>
       </c>
       <c r="H22" s="3">
-        <v>185500</v>
+        <v>185100</v>
       </c>
       <c r="I22" s="3">
-        <v>163100</v>
+        <v>162700</v>
       </c>
       <c r="J22" s="3">
-        <v>133900</v>
+        <v>133600</v>
       </c>
       <c r="K22" s="3">
         <v>119300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>491700</v>
+        <v>490600</v>
       </c>
       <c r="E23" s="3">
-        <v>539800</v>
+        <v>538600</v>
       </c>
       <c r="F23" s="3">
-        <v>534800</v>
+        <v>533600</v>
       </c>
       <c r="G23" s="3">
-        <v>545400</v>
+        <v>544100</v>
       </c>
       <c r="H23" s="3">
-        <v>572800</v>
+        <v>571600</v>
       </c>
       <c r="I23" s="3">
-        <v>706300</v>
+        <v>704700</v>
       </c>
       <c r="J23" s="3">
-        <v>421300</v>
+        <v>420300</v>
       </c>
       <c r="K23" s="3">
         <v>360500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>121400</v>
+        <v>121100</v>
       </c>
       <c r="E24" s="3">
-        <v>146300</v>
+        <v>146000</v>
       </c>
       <c r="F24" s="3">
-        <v>136900</v>
+        <v>136600</v>
       </c>
       <c r="G24" s="3">
-        <v>51000</v>
+        <v>50800</v>
       </c>
       <c r="H24" s="3">
-        <v>57700</v>
+        <v>57500</v>
       </c>
       <c r="I24" s="3">
-        <v>103600</v>
+        <v>103400</v>
       </c>
       <c r="J24" s="3">
-        <v>27100</v>
+        <v>27000</v>
       </c>
       <c r="K24" s="3">
         <v>29900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>370300</v>
+        <v>369500</v>
       </c>
       <c r="E26" s="3">
-        <v>393500</v>
+        <v>392600</v>
       </c>
       <c r="F26" s="3">
-        <v>397900</v>
+        <v>397000</v>
       </c>
       <c r="G26" s="3">
-        <v>494400</v>
+        <v>493300</v>
       </c>
       <c r="H26" s="3">
-        <v>515200</v>
+        <v>514000</v>
       </c>
       <c r="I26" s="3">
-        <v>602700</v>
+        <v>601300</v>
       </c>
       <c r="J26" s="3">
-        <v>394200</v>
+        <v>393300</v>
       </c>
       <c r="K26" s="3">
         <v>330600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>87900</v>
+        <v>87700</v>
       </c>
       <c r="E27" s="3">
-        <v>115700</v>
+        <v>115500</v>
       </c>
       <c r="F27" s="3">
-        <v>115500</v>
+        <v>115200</v>
       </c>
       <c r="G27" s="3">
-        <v>264600</v>
+        <v>264000</v>
       </c>
       <c r="H27" s="3">
-        <v>296100</v>
+        <v>295400</v>
       </c>
       <c r="I27" s="3">
-        <v>427100</v>
+        <v>426100</v>
       </c>
       <c r="J27" s="3">
-        <v>243200</v>
+        <v>242700</v>
       </c>
       <c r="K27" s="3">
         <v>214200</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>147500</v>
+        <v>147100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1461,7 +1461,7 @@
         <v>400</v>
       </c>
       <c r="G32" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="H32" s="3">
         <v>20500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>87900</v>
+        <v>87700</v>
       </c>
       <c r="E33" s="3">
-        <v>115700</v>
+        <v>115500</v>
       </c>
       <c r="F33" s="3">
-        <v>262900</v>
+        <v>262400</v>
       </c>
       <c r="G33" s="3">
-        <v>264600</v>
+        <v>264000</v>
       </c>
       <c r="H33" s="3">
-        <v>296100</v>
+        <v>295400</v>
       </c>
       <c r="I33" s="3">
-        <v>427100</v>
+        <v>426100</v>
       </c>
       <c r="J33" s="3">
-        <v>243200</v>
+        <v>242700</v>
       </c>
       <c r="K33" s="3">
         <v>214200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>87900</v>
+        <v>87700</v>
       </c>
       <c r="E35" s="3">
-        <v>115700</v>
+        <v>115500</v>
       </c>
       <c r="F35" s="3">
-        <v>262900</v>
+        <v>262400</v>
       </c>
       <c r="G35" s="3">
-        <v>264600</v>
+        <v>264000</v>
       </c>
       <c r="H35" s="3">
-        <v>296100</v>
+        <v>295400</v>
       </c>
       <c r="I35" s="3">
-        <v>427100</v>
+        <v>426100</v>
       </c>
       <c r="J35" s="3">
-        <v>243200</v>
+        <v>242700</v>
       </c>
       <c r="K35" s="3">
         <v>214200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>688500</v>
+        <v>686900</v>
       </c>
       <c r="E41" s="3">
-        <v>871800</v>
+        <v>869800</v>
       </c>
       <c r="F41" s="3">
-        <v>1501500</v>
+        <v>1498200</v>
       </c>
       <c r="G41" s="3">
-        <v>613000</v>
+        <v>611600</v>
       </c>
       <c r="H41" s="3">
-        <v>968000</v>
+        <v>965900</v>
       </c>
       <c r="I41" s="3">
-        <v>1024800</v>
+        <v>1022500</v>
       </c>
       <c r="J41" s="3">
-        <v>710800</v>
+        <v>709200</v>
       </c>
       <c r="K41" s="3">
         <v>586400</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62700</v>
+        <v>62600</v>
       </c>
       <c r="E42" s="3">
-        <v>77900</v>
+        <v>77800</v>
       </c>
       <c r="F42" s="3">
-        <v>220400</v>
+        <v>219900</v>
       </c>
       <c r="G42" s="3">
-        <v>58400</v>
+        <v>58300</v>
       </c>
       <c r="H42" s="3">
         <v>100</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>972700</v>
+        <v>970500</v>
       </c>
       <c r="E43" s="3">
-        <v>982700</v>
+        <v>980500</v>
       </c>
       <c r="F43" s="3">
-        <v>884900</v>
+        <v>883000</v>
       </c>
       <c r="G43" s="3">
-        <v>502100</v>
+        <v>501000</v>
       </c>
       <c r="H43" s="3">
-        <v>525900</v>
+        <v>524700</v>
       </c>
       <c r="I43" s="3">
-        <v>595900</v>
+        <v>594600</v>
       </c>
       <c r="J43" s="3">
-        <v>502100</v>
+        <v>501000</v>
       </c>
       <c r="K43" s="3">
         <v>1054500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>341500</v>
+        <v>340700</v>
       </c>
       <c r="E44" s="3">
-        <v>264500</v>
+        <v>263900</v>
       </c>
       <c r="F44" s="3">
-        <v>235100</v>
+        <v>234500</v>
       </c>
       <c r="G44" s="3">
-        <v>121700</v>
+        <v>121400</v>
       </c>
       <c r="H44" s="3">
-        <v>99900</v>
+        <v>99600</v>
       </c>
       <c r="I44" s="3">
-        <v>103300</v>
+        <v>103100</v>
       </c>
       <c r="J44" s="3">
-        <v>154700</v>
+        <v>154300</v>
       </c>
       <c r="K44" s="3">
         <v>296200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>627000</v>
+        <v>625600</v>
       </c>
       <c r="E45" s="3">
-        <v>573500</v>
+        <v>572200</v>
       </c>
       <c r="F45" s="3">
-        <v>659300</v>
+        <v>657800</v>
       </c>
       <c r="G45" s="3">
-        <v>1351500</v>
+        <v>1348400</v>
       </c>
       <c r="H45" s="3">
-        <v>1004400</v>
+        <v>1002200</v>
       </c>
       <c r="I45" s="3">
-        <v>1035800</v>
+        <v>1033400</v>
       </c>
       <c r="J45" s="3">
-        <v>899100</v>
+        <v>897100</v>
       </c>
       <c r="K45" s="3">
         <v>1602500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2692400</v>
+        <v>2686300</v>
       </c>
       <c r="E46" s="3">
-        <v>2770400</v>
+        <v>2764200</v>
       </c>
       <c r="F46" s="3">
-        <v>3383700</v>
+        <v>3376100</v>
       </c>
       <c r="G46" s="3">
-        <v>2646700</v>
+        <v>2640800</v>
       </c>
       <c r="H46" s="3">
-        <v>2598300</v>
+        <v>2592500</v>
       </c>
       <c r="I46" s="3">
-        <v>2759900</v>
+        <v>2753700</v>
       </c>
       <c r="J46" s="3">
-        <v>2268000</v>
+        <v>2262900</v>
       </c>
       <c r="K46" s="3">
         <v>2160300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>383200</v>
+        <v>382300</v>
       </c>
       <c r="E47" s="3">
-        <v>444200</v>
+        <v>443200</v>
       </c>
       <c r="F47" s="3">
-        <v>475400</v>
+        <v>474400</v>
       </c>
       <c r="G47" s="3">
-        <v>310900</v>
+        <v>310200</v>
       </c>
       <c r="H47" s="3">
-        <v>246300</v>
+        <v>245700</v>
       </c>
       <c r="I47" s="3">
-        <v>250200</v>
+        <v>249600</v>
       </c>
       <c r="J47" s="3">
-        <v>251600</v>
+        <v>251000</v>
       </c>
       <c r="K47" s="3">
         <v>1050800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4922400</v>
+        <v>4911300</v>
       </c>
       <c r="E48" s="3">
-        <v>4484200</v>
+        <v>4474100</v>
       </c>
       <c r="F48" s="3">
-        <v>6648500</v>
+        <v>3842600</v>
       </c>
       <c r="G48" s="3">
-        <v>3076000</v>
+        <v>3069100</v>
       </c>
       <c r="H48" s="3">
-        <v>2793000</v>
+        <v>2786700</v>
       </c>
       <c r="I48" s="3">
-        <v>2594600</v>
+        <v>2588800</v>
       </c>
       <c r="J48" s="3">
-        <v>3245200</v>
+        <v>3237900</v>
       </c>
       <c r="K48" s="3">
         <v>3638400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4086700</v>
+        <v>4077500</v>
       </c>
       <c r="E49" s="3">
-        <v>3765800</v>
+        <v>3757400</v>
       </c>
       <c r="F49" s="3">
-        <v>7558600</v>
+        <v>7541600</v>
       </c>
       <c r="G49" s="3">
-        <v>3880500</v>
+        <v>3871800</v>
       </c>
       <c r="H49" s="3">
-        <v>3704000</v>
+        <v>3695700</v>
       </c>
       <c r="I49" s="3">
-        <v>3518400</v>
+        <v>3510500</v>
       </c>
       <c r="J49" s="3">
-        <v>908700</v>
+        <v>906600</v>
       </c>
       <c r="K49" s="3">
         <v>2176200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>674800</v>
+        <v>673300</v>
       </c>
       <c r="E52" s="3">
-        <v>692500</v>
+        <v>690900</v>
       </c>
       <c r="F52" s="3">
-        <v>701400</v>
+        <v>699800</v>
       </c>
       <c r="G52" s="3">
-        <v>353800</v>
+        <v>353000</v>
       </c>
       <c r="H52" s="3">
-        <v>303600</v>
+        <v>302900</v>
       </c>
       <c r="I52" s="3">
-        <v>300500</v>
+        <v>299800</v>
       </c>
       <c r="J52" s="3">
-        <v>285400</v>
+        <v>284800</v>
       </c>
       <c r="K52" s="3">
         <v>325300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12759400</v>
+        <v>12730800</v>
       </c>
       <c r="E54" s="3">
-        <v>12157200</v>
+        <v>12129800</v>
       </c>
       <c r="F54" s="3">
-        <v>11937400</v>
+        <v>11910600</v>
       </c>
       <c r="G54" s="3">
-        <v>10267900</v>
+        <v>10244800</v>
       </c>
       <c r="H54" s="3">
-        <v>9645300</v>
+        <v>9623600</v>
       </c>
       <c r="I54" s="3">
-        <v>9423500</v>
+        <v>9402300</v>
       </c>
       <c r="J54" s="3">
-        <v>6959000</v>
+        <v>6943300</v>
       </c>
       <c r="K54" s="3">
         <v>6419400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>354300</v>
+        <v>353500</v>
       </c>
       <c r="E57" s="3">
-        <v>251800</v>
+        <v>251300</v>
       </c>
       <c r="F57" s="3">
-        <v>269400</v>
+        <v>268800</v>
       </c>
       <c r="G57" s="3">
-        <v>352400</v>
+        <v>351600</v>
       </c>
       <c r="H57" s="3">
-        <v>321800</v>
+        <v>321100</v>
       </c>
       <c r="I57" s="3">
-        <v>300700</v>
+        <v>300100</v>
       </c>
       <c r="J57" s="3">
-        <v>273300</v>
+        <v>272700</v>
       </c>
       <c r="K57" s="3">
         <v>306500</v>
@@ -2177,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>374700</v>
+        <v>373800</v>
       </c>
       <c r="E58" s="3">
-        <v>285900</v>
+        <v>285300</v>
       </c>
       <c r="F58" s="3">
-        <v>347100</v>
+        <v>346300</v>
       </c>
       <c r="G58" s="3">
-        <v>59000</v>
+        <v>58800</v>
       </c>
       <c r="H58" s="3">
-        <v>500500</v>
+        <v>499300</v>
       </c>
       <c r="I58" s="3">
-        <v>622300</v>
+        <v>620900</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1372400</v>
+        <v>1369300</v>
       </c>
       <c r="E59" s="3">
-        <v>1344900</v>
+        <v>1341900</v>
       </c>
       <c r="F59" s="3">
-        <v>1415500</v>
+        <v>1412300</v>
       </c>
       <c r="G59" s="3">
-        <v>1405800</v>
+        <v>1402600</v>
       </c>
       <c r="H59" s="3">
-        <v>1434700</v>
+        <v>1431500</v>
       </c>
       <c r="I59" s="3">
-        <v>1530700</v>
+        <v>1527300</v>
       </c>
       <c r="J59" s="3">
-        <v>1101700</v>
+        <v>1099200</v>
       </c>
       <c r="K59" s="3">
         <v>1118900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2101300</v>
+        <v>2096600</v>
       </c>
       <c r="E60" s="3">
-        <v>1882700</v>
+        <v>1878400</v>
       </c>
       <c r="F60" s="3">
-        <v>1951700</v>
+        <v>1947300</v>
       </c>
       <c r="G60" s="3">
-        <v>1817100</v>
+        <v>1813000</v>
       </c>
       <c r="H60" s="3">
-        <v>2256900</v>
+        <v>2251900</v>
       </c>
       <c r="I60" s="3">
-        <v>2453700</v>
+        <v>2448200</v>
       </c>
       <c r="J60" s="3">
-        <v>1375100</v>
+        <v>1372000</v>
       </c>
       <c r="K60" s="3">
         <v>2500100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7253800</v>
+        <v>7237500</v>
       </c>
       <c r="E61" s="3">
-        <v>6732000</v>
+        <v>6716900</v>
       </c>
       <c r="F61" s="3">
-        <v>6272700</v>
+        <v>6258600</v>
       </c>
       <c r="G61" s="3">
-        <v>5822800</v>
+        <v>5809700</v>
       </c>
       <c r="H61" s="3">
-        <v>4914400</v>
+        <v>4903300</v>
       </c>
       <c r="I61" s="3">
-        <v>4708500</v>
+        <v>4697900</v>
       </c>
       <c r="J61" s="3">
-        <v>3751100</v>
+        <v>3742700</v>
       </c>
       <c r="K61" s="3">
         <v>2308700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1085600</v>
+        <v>1083100</v>
       </c>
       <c r="E62" s="3">
-        <v>1012500</v>
+        <v>1010300</v>
       </c>
       <c r="F62" s="3">
-        <v>1066700</v>
+        <v>1064300</v>
       </c>
       <c r="G62" s="3">
-        <v>721600</v>
+        <v>720000</v>
       </c>
       <c r="H62" s="3">
-        <v>752600</v>
+        <v>750900</v>
       </c>
       <c r="I62" s="3">
-        <v>665500</v>
+        <v>664000</v>
       </c>
       <c r="J62" s="3">
-        <v>718900</v>
+        <v>717300</v>
       </c>
       <c r="K62" s="3">
         <v>562600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10754700</v>
+        <v>10730500</v>
       </c>
       <c r="E66" s="3">
-        <v>9951600</v>
+        <v>9929200</v>
       </c>
       <c r="F66" s="3">
-        <v>9461600</v>
+        <v>9440300</v>
       </c>
       <c r="G66" s="3">
-        <v>8716300</v>
+        <v>8696700</v>
       </c>
       <c r="H66" s="3">
-        <v>8223000</v>
+        <v>8204500</v>
       </c>
       <c r="I66" s="3">
-        <v>8113000</v>
+        <v>8094800</v>
       </c>
       <c r="J66" s="3">
-        <v>5773600</v>
+        <v>5760700</v>
       </c>
       <c r="K66" s="3">
         <v>5286100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>409400</v>
+        <v>408500</v>
       </c>
       <c r="E72" s="3">
-        <v>649900</v>
+        <v>648400</v>
       </c>
       <c r="F72" s="3">
-        <v>864000</v>
+        <v>862100</v>
       </c>
       <c r="G72" s="3">
-        <v>-67700</v>
+        <v>-67600</v>
       </c>
       <c r="H72" s="3">
-        <v>-84100</v>
+        <v>-83900</v>
       </c>
       <c r="I72" s="3">
-        <v>-169100</v>
+        <v>-168800</v>
       </c>
       <c r="J72" s="3">
-        <v>-392900</v>
+        <v>-392000</v>
       </c>
       <c r="K72" s="3">
         <v>-462500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2004700</v>
+        <v>2000200</v>
       </c>
       <c r="E76" s="3">
-        <v>2205600</v>
+        <v>2200600</v>
       </c>
       <c r="F76" s="3">
-        <v>2475900</v>
+        <v>2470300</v>
       </c>
       <c r="G76" s="3">
-        <v>1551600</v>
+        <v>1548100</v>
       </c>
       <c r="H76" s="3">
-        <v>1422300</v>
+        <v>1419100</v>
       </c>
       <c r="I76" s="3">
-        <v>1310500</v>
+        <v>1307500</v>
       </c>
       <c r="J76" s="3">
-        <v>1185300</v>
+        <v>1182600</v>
       </c>
       <c r="K76" s="3">
         <v>1133400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>87900</v>
+        <v>87700</v>
       </c>
       <c r="E81" s="3">
-        <v>115700</v>
+        <v>115500</v>
       </c>
       <c r="F81" s="3">
-        <v>262900</v>
+        <v>262400</v>
       </c>
       <c r="G81" s="3">
-        <v>264600</v>
+        <v>264000</v>
       </c>
       <c r="H81" s="3">
-        <v>296100</v>
+        <v>295400</v>
       </c>
       <c r="I81" s="3">
-        <v>427100</v>
+        <v>426100</v>
       </c>
       <c r="J81" s="3">
-        <v>243200</v>
+        <v>242700</v>
       </c>
       <c r="K81" s="3">
         <v>214200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>731400</v>
+        <v>729800</v>
       </c>
       <c r="E83" s="3">
-        <v>710400</v>
+        <v>708800</v>
       </c>
       <c r="F83" s="3">
-        <v>698600</v>
+        <v>697100</v>
       </c>
       <c r="G83" s="3">
-        <v>862100</v>
+        <v>860200</v>
       </c>
       <c r="H83" s="3">
-        <v>779000</v>
+        <v>777300</v>
       </c>
       <c r="I83" s="3">
-        <v>810400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>586700</v>
+        <v>808600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>566500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1436400</v>
+        <v>1433200</v>
       </c>
       <c r="E89" s="3">
-        <v>844400</v>
+        <v>842500</v>
       </c>
       <c r="F89" s="3">
-        <v>1331000</v>
+        <v>1328000</v>
       </c>
       <c r="G89" s="3">
-        <v>1284100</v>
+        <v>1281200</v>
       </c>
       <c r="H89" s="3">
-        <v>1615100</v>
+        <v>1611400</v>
       </c>
       <c r="I89" s="3">
-        <v>1361500</v>
+        <v>1358500</v>
       </c>
       <c r="J89" s="3">
-        <v>943400</v>
+        <v>941300</v>
       </c>
       <c r="K89" s="3">
         <v>794400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-639400</v>
+        <v>-638000</v>
       </c>
       <c r="E91" s="3">
-        <v>-494700</v>
+        <v>-493600</v>
       </c>
       <c r="F91" s="3">
-        <v>-433100</v>
+        <v>-432100</v>
       </c>
       <c r="G91" s="3">
-        <v>-410800</v>
+        <v>-409900</v>
       </c>
       <c r="H91" s="3">
-        <v>-453800</v>
+        <v>-452700</v>
       </c>
       <c r="I91" s="3">
-        <v>-413300</v>
+        <v>-412300</v>
       </c>
       <c r="J91" s="3">
-        <v>-330500</v>
+        <v>-329800</v>
       </c>
       <c r="K91" s="3">
         <v>-288000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1172800</v>
+        <v>-1170200</v>
       </c>
       <c r="E94" s="3">
-        <v>-747400</v>
+        <v>-745700</v>
       </c>
       <c r="F94" s="3">
-        <v>-787800</v>
+        <v>-786000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1297900</v>
+        <v>-1295000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1314800</v>
+        <v>-1311900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2499200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-815000</v>
+        <v>-2493600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-904000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-313600</v>
+        <v>-312900</v>
       </c>
       <c r="E96" s="3">
-        <v>-299300</v>
+        <v>-298700</v>
       </c>
       <c r="F96" s="3">
-        <v>-285700</v>
+        <v>-285000</v>
       </c>
       <c r="G96" s="3">
-        <v>-190600</v>
+        <v>-190100</v>
       </c>
       <c r="H96" s="3">
-        <v>-102800</v>
+        <v>-102600</v>
       </c>
       <c r="I96" s="3">
-        <v>-98700</v>
+        <v>-98500</v>
       </c>
       <c r="J96" s="3">
-        <v>-186000</v>
+        <v>-185600</v>
       </c>
       <c r="K96" s="3">
         <v>-150900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-442300</v>
+        <v>-441300</v>
       </c>
       <c r="E100" s="3">
-        <v>-722500</v>
+        <v>-720900</v>
       </c>
       <c r="F100" s="3">
-        <v>348200</v>
+        <v>347400</v>
       </c>
       <c r="G100" s="3">
-        <v>-337800</v>
+        <v>-337000</v>
       </c>
       <c r="H100" s="3">
-        <v>-353900</v>
+        <v>-353100</v>
       </c>
       <c r="I100" s="3">
-        <v>1461500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-4900</v>
+        <v>1458300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>5200</v>
@@ -3466,7 +3466,7 @@
         <v>-4600</v>
       </c>
       <c r="E101" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="F101" s="3">
         <v>-3600</v>
@@ -3480,8 +3480,8 @@
       <c r="I101" s="3">
         <v>-9800</v>
       </c>
-      <c r="J101" s="3">
-        <v>-100</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-183300</v>
+        <v>-182900</v>
       </c>
       <c r="E102" s="3">
-        <v>-629700</v>
+        <v>-628300</v>
       </c>
       <c r="F102" s="3">
-        <v>887800</v>
+        <v>885800</v>
       </c>
       <c r="G102" s="3">
-        <v>-354300</v>
+        <v>-353500</v>
       </c>
       <c r="H102" s="3">
-        <v>-56800</v>
+        <v>-56600</v>
       </c>
       <c r="I102" s="3">
-        <v>314000</v>
+        <v>313300</v>
       </c>
       <c r="J102" s="3">
-        <v>123300</v>
+        <v>123100</v>
       </c>
       <c r="K102" s="3">
         <v>-104600</v>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>PCCWY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4830100</v>
+        <v>4901500</v>
       </c>
       <c r="E8" s="3">
-        <v>5001200</v>
+        <v>4833800</v>
       </c>
       <c r="F8" s="3">
-        <v>4741400</v>
+        <v>5005000</v>
       </c>
       <c r="G8" s="3">
-        <v>4941200</v>
+        <v>4745100</v>
       </c>
       <c r="H8" s="3">
-        <v>5060900</v>
+        <v>4945000</v>
       </c>
       <c r="I8" s="3">
-        <v>4283700</v>
+        <v>5064800</v>
       </c>
       <c r="J8" s="3">
+        <v>4287100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3516500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3260700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3138600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2433900</v>
+        <v>2640500</v>
       </c>
       <c r="E9" s="3">
-        <v>2657200</v>
+        <v>2435800</v>
       </c>
       <c r="F9" s="3">
-        <v>2361400</v>
+        <v>2659300</v>
       </c>
       <c r="G9" s="3">
-        <v>2284100</v>
+        <v>2363300</v>
       </c>
       <c r="H9" s="3">
-        <v>2441400</v>
+        <v>2285800</v>
       </c>
       <c r="I9" s="3">
-        <v>1950400</v>
+        <v>2443300</v>
       </c>
       <c r="J9" s="3">
+        <v>1951900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1687800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1521800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1451900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2396200</v>
+        <v>2261000</v>
       </c>
       <c r="E10" s="3">
-        <v>2343900</v>
+        <v>2398000</v>
       </c>
       <c r="F10" s="3">
-        <v>2380000</v>
+        <v>2345700</v>
       </c>
       <c r="G10" s="3">
-        <v>2657100</v>
+        <v>2381800</v>
       </c>
       <c r="H10" s="3">
-        <v>2619500</v>
+        <v>2659200</v>
       </c>
       <c r="I10" s="3">
-        <v>2333400</v>
+        <v>2621600</v>
       </c>
       <c r="J10" s="3">
+        <v>2335200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1828700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1738900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1686800</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,50 +906,56 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-35300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3">
-        <v>-252800</v>
-      </c>
       <c r="J14" s="3">
+        <v>-253000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-11200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>729800</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+        <v>808000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>730300</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -950,15 +972,18 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4091700</v>
+        <v>4469600</v>
       </c>
       <c r="E17" s="3">
-        <v>4226800</v>
+        <v>4094900</v>
       </c>
       <c r="F17" s="3">
-        <v>4004100</v>
+        <v>4230100</v>
       </c>
       <c r="G17" s="3">
-        <v>4218900</v>
+        <v>4007300</v>
       </c>
       <c r="H17" s="3">
-        <v>4283700</v>
+        <v>4222100</v>
       </c>
       <c r="I17" s="3">
-        <v>3403000</v>
+        <v>4287100</v>
       </c>
       <c r="J17" s="3">
+        <v>3405600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2971200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2781000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2657100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>738400</v>
+        <v>431800</v>
       </c>
       <c r="E18" s="3">
-        <v>774300</v>
+        <v>739000</v>
       </c>
       <c r="F18" s="3">
-        <v>737200</v>
+        <v>774900</v>
       </c>
       <c r="G18" s="3">
-        <v>722300</v>
+        <v>737800</v>
       </c>
       <c r="H18" s="3">
-        <v>777100</v>
+        <v>722900</v>
       </c>
       <c r="I18" s="3">
-        <v>880800</v>
+        <v>777700</v>
       </c>
       <c r="J18" s="3">
+        <v>881500</v>
+      </c>
+      <c r="K18" s="3">
         <v>545300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>479700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>481500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-12700</v>
-      </c>
       <c r="H20" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-20500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1470100</v>
+        <v>1227100</v>
       </c>
       <c r="E21" s="3">
-        <v>1482100</v>
+        <v>1471000</v>
       </c>
       <c r="F21" s="3">
-        <v>1433900</v>
+        <v>1483000</v>
       </c>
       <c r="G21" s="3">
-        <v>1569700</v>
+        <v>1434800</v>
       </c>
       <c r="H21" s="3">
-        <v>1533900</v>
+        <v>1570700</v>
       </c>
       <c r="I21" s="3">
-        <v>1675900</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1534900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1677000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1046500</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>249700</v>
+        <v>237900</v>
       </c>
       <c r="E22" s="3">
-        <v>234700</v>
+        <v>249900</v>
       </c>
       <c r="F22" s="3">
-        <v>203300</v>
+        <v>234900</v>
       </c>
       <c r="G22" s="3">
-        <v>165400</v>
+        <v>203400</v>
       </c>
       <c r="H22" s="3">
-        <v>185100</v>
+        <v>165500</v>
       </c>
       <c r="I22" s="3">
-        <v>162700</v>
+        <v>185300</v>
       </c>
       <c r="J22" s="3">
+        <v>162800</v>
+      </c>
+      <c r="K22" s="3">
         <v>133600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>119300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>186200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>490600</v>
+        <v>181400</v>
       </c>
       <c r="E23" s="3">
-        <v>538600</v>
+        <v>491000</v>
       </c>
       <c r="F23" s="3">
-        <v>533600</v>
+        <v>539000</v>
       </c>
       <c r="G23" s="3">
-        <v>544100</v>
+        <v>534000</v>
       </c>
       <c r="H23" s="3">
-        <v>571600</v>
+        <v>544600</v>
       </c>
       <c r="I23" s="3">
-        <v>704700</v>
+        <v>572000</v>
       </c>
       <c r="J23" s="3">
+        <v>705200</v>
+      </c>
+      <c r="K23" s="3">
         <v>420300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>360500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>295300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>121100</v>
+        <v>97800</v>
       </c>
       <c r="E24" s="3">
-        <v>146000</v>
+        <v>121200</v>
       </c>
       <c r="F24" s="3">
-        <v>136600</v>
+        <v>146100</v>
       </c>
       <c r="G24" s="3">
-        <v>50800</v>
+        <v>136700</v>
       </c>
       <c r="H24" s="3">
-        <v>57500</v>
+        <v>50900</v>
       </c>
       <c r="I24" s="3">
-        <v>103400</v>
+        <v>57600</v>
       </c>
       <c r="J24" s="3">
+        <v>103500</v>
+      </c>
+      <c r="K24" s="3">
         <v>27000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>69000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>369500</v>
+        <v>83600</v>
       </c>
       <c r="E26" s="3">
-        <v>392600</v>
+        <v>369700</v>
       </c>
       <c r="F26" s="3">
-        <v>397000</v>
+        <v>392900</v>
       </c>
       <c r="G26" s="3">
-        <v>493300</v>
+        <v>397300</v>
       </c>
       <c r="H26" s="3">
-        <v>514000</v>
+        <v>493700</v>
       </c>
       <c r="I26" s="3">
-        <v>601300</v>
+        <v>514400</v>
       </c>
       <c r="J26" s="3">
+        <v>601800</v>
+      </c>
+      <c r="K26" s="3">
         <v>393300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>330600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>226200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-131400</v>
+      </c>
+      <c r="E27" s="3">
         <v>87700</v>
       </c>
-      <c r="E27" s="3">
-        <v>115500</v>
-      </c>
       <c r="F27" s="3">
-        <v>115200</v>
+        <v>115600</v>
       </c>
       <c r="G27" s="3">
-        <v>264000</v>
+        <v>115300</v>
       </c>
       <c r="H27" s="3">
-        <v>295400</v>
+        <v>264200</v>
       </c>
       <c r="I27" s="3">
-        <v>426100</v>
+        <v>295700</v>
       </c>
       <c r="J27" s="3">
+        <v>426400</v>
+      </c>
+      <c r="K27" s="3">
         <v>242700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>214200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>204700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,23 +1403,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>147100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>147300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>12700</v>
-      </c>
       <c r="H32" s="3">
+        <v>12800</v>
+      </c>
+      <c r="I32" s="3">
         <v>20500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-131400</v>
+      </c>
+      <c r="E33" s="3">
         <v>87700</v>
       </c>
-      <c r="E33" s="3">
-        <v>115500</v>
-      </c>
       <c r="F33" s="3">
-        <v>262400</v>
+        <v>115600</v>
       </c>
       <c r="G33" s="3">
-        <v>264000</v>
+        <v>262600</v>
       </c>
       <c r="H33" s="3">
-        <v>295400</v>
+        <v>264200</v>
       </c>
       <c r="I33" s="3">
-        <v>426100</v>
+        <v>295700</v>
       </c>
       <c r="J33" s="3">
+        <v>426400</v>
+      </c>
+      <c r="K33" s="3">
         <v>242700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>214200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>204700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-131400</v>
+      </c>
+      <c r="E35" s="3">
         <v>87700</v>
       </c>
-      <c r="E35" s="3">
-        <v>115500</v>
-      </c>
       <c r="F35" s="3">
-        <v>262400</v>
+        <v>115600</v>
       </c>
       <c r="G35" s="3">
-        <v>264000</v>
+        <v>262600</v>
       </c>
       <c r="H35" s="3">
-        <v>295400</v>
+        <v>264200</v>
       </c>
       <c r="I35" s="3">
-        <v>426100</v>
+        <v>295700</v>
       </c>
       <c r="J35" s="3">
+        <v>426400</v>
+      </c>
+      <c r="K35" s="3">
         <v>242700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>214200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>204700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>686900</v>
+        <v>525800</v>
       </c>
       <c r="E41" s="3">
-        <v>869800</v>
+        <v>687400</v>
       </c>
       <c r="F41" s="3">
-        <v>1498200</v>
+        <v>870500</v>
       </c>
       <c r="G41" s="3">
-        <v>611600</v>
+        <v>1499300</v>
       </c>
       <c r="H41" s="3">
-        <v>965900</v>
+        <v>612100</v>
       </c>
       <c r="I41" s="3">
-        <v>1022500</v>
+        <v>966600</v>
       </c>
       <c r="J41" s="3">
+        <v>1023300</v>
+      </c>
+      <c r="K41" s="3">
         <v>709200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>586400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>683400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E42" s="3">
         <v>62600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>77800</v>
       </c>
-      <c r="F42" s="3">
-        <v>219900</v>
-      </c>
       <c r="G42" s="3">
-        <v>58300</v>
+        <v>220000</v>
       </c>
       <c r="H42" s="3">
+        <v>58400</v>
+      </c>
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>1300</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>970500</v>
+        <v>911300</v>
       </c>
       <c r="E43" s="3">
-        <v>980500</v>
+        <v>971200</v>
       </c>
       <c r="F43" s="3">
-        <v>883000</v>
+        <v>981300</v>
       </c>
       <c r="G43" s="3">
+        <v>883600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>501400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>525100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>595100</v>
+      </c>
+      <c r="K43" s="3">
         <v>501000</v>
       </c>
-      <c r="H43" s="3">
-        <v>524700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>594600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>501000</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1054500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>393800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>340700</v>
+        <v>175200</v>
       </c>
       <c r="E44" s="3">
-        <v>263900</v>
+        <v>341000</v>
       </c>
       <c r="F44" s="3">
-        <v>234500</v>
+        <v>264100</v>
       </c>
       <c r="G44" s="3">
-        <v>121400</v>
+        <v>234700</v>
       </c>
       <c r="H44" s="3">
-        <v>99600</v>
+        <v>121500</v>
       </c>
       <c r="I44" s="3">
-        <v>103100</v>
+        <v>99700</v>
       </c>
       <c r="J44" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K44" s="3">
         <v>154300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>296200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>148500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>625600</v>
+        <v>548600</v>
       </c>
       <c r="E45" s="3">
-        <v>572200</v>
+        <v>626100</v>
       </c>
       <c r="F45" s="3">
-        <v>657800</v>
+        <v>572600</v>
       </c>
       <c r="G45" s="3">
-        <v>1348400</v>
+        <v>658300</v>
       </c>
       <c r="H45" s="3">
-        <v>1002200</v>
+        <v>1349500</v>
       </c>
       <c r="I45" s="3">
-        <v>1033400</v>
+        <v>1002900</v>
       </c>
       <c r="J45" s="3">
+        <v>1034200</v>
+      </c>
+      <c r="K45" s="3">
         <v>897100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1602500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>677600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2686300</v>
+        <v>2230200</v>
       </c>
       <c r="E46" s="3">
-        <v>2764200</v>
+        <v>2688400</v>
       </c>
       <c r="F46" s="3">
-        <v>3376100</v>
+        <v>2766400</v>
       </c>
       <c r="G46" s="3">
-        <v>2640800</v>
+        <v>3378700</v>
       </c>
       <c r="H46" s="3">
-        <v>2592500</v>
+        <v>2642800</v>
       </c>
       <c r="I46" s="3">
-        <v>2753700</v>
+        <v>2594500</v>
       </c>
       <c r="J46" s="3">
+        <v>2755800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2262900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2160300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1903300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>382300</v>
+        <v>388900</v>
       </c>
       <c r="E47" s="3">
-        <v>443200</v>
+        <v>382600</v>
       </c>
       <c r="F47" s="3">
-        <v>474400</v>
+        <v>443600</v>
       </c>
       <c r="G47" s="3">
-        <v>310200</v>
+        <v>474700</v>
       </c>
       <c r="H47" s="3">
-        <v>245700</v>
+        <v>310500</v>
       </c>
       <c r="I47" s="3">
-        <v>249600</v>
+        <v>245900</v>
       </c>
       <c r="J47" s="3">
+        <v>249800</v>
+      </c>
+      <c r="K47" s="3">
         <v>251000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1050800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>876200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4911300</v>
+        <v>5086100</v>
       </c>
       <c r="E48" s="3">
-        <v>4474100</v>
+        <v>4915100</v>
       </c>
       <c r="F48" s="3">
-        <v>3842600</v>
+        <v>4477600</v>
       </c>
       <c r="G48" s="3">
-        <v>3069100</v>
+        <v>3845600</v>
       </c>
       <c r="H48" s="3">
-        <v>2786700</v>
+        <v>3071400</v>
       </c>
       <c r="I48" s="3">
-        <v>2588800</v>
+        <v>2788900</v>
       </c>
       <c r="J48" s="3">
+        <v>2590800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3237900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3638400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2112400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4077500</v>
+        <v>4250700</v>
       </c>
       <c r="E49" s="3">
-        <v>3757400</v>
+        <v>4080700</v>
       </c>
       <c r="F49" s="3">
-        <v>7541600</v>
+        <v>3760300</v>
       </c>
       <c r="G49" s="3">
-        <v>3871800</v>
+        <v>7547500</v>
       </c>
       <c r="H49" s="3">
-        <v>3695700</v>
+        <v>3874800</v>
       </c>
       <c r="I49" s="3">
-        <v>3510500</v>
+        <v>3698600</v>
       </c>
       <c r="J49" s="3">
+        <v>3513200</v>
+      </c>
+      <c r="K49" s="3">
         <v>906600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2176200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>762000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>673300</v>
+        <v>648700</v>
       </c>
       <c r="E52" s="3">
-        <v>690900</v>
+        <v>673800</v>
       </c>
       <c r="F52" s="3">
-        <v>699800</v>
+        <v>691400</v>
       </c>
       <c r="G52" s="3">
-        <v>353000</v>
+        <v>700300</v>
       </c>
       <c r="H52" s="3">
-        <v>302900</v>
+        <v>353300</v>
       </c>
       <c r="I52" s="3">
-        <v>299800</v>
+        <v>303100</v>
       </c>
       <c r="J52" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K52" s="3">
         <v>284800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>325300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>186900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12730800</v>
+        <v>12604600</v>
       </c>
       <c r="E54" s="3">
-        <v>12129800</v>
+        <v>12740600</v>
       </c>
       <c r="F54" s="3">
-        <v>11910600</v>
+        <v>12139300</v>
       </c>
       <c r="G54" s="3">
-        <v>10244800</v>
+        <v>11919900</v>
       </c>
       <c r="H54" s="3">
-        <v>9623600</v>
+        <v>10252800</v>
       </c>
       <c r="I54" s="3">
-        <v>9402300</v>
+        <v>9631100</v>
       </c>
       <c r="J54" s="3">
+        <v>9409600</v>
+      </c>
+      <c r="K54" s="3">
         <v>6943300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6419400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5840800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>353500</v>
+        <v>569200</v>
       </c>
       <c r="E57" s="3">
-        <v>251300</v>
+        <v>353800</v>
       </c>
       <c r="F57" s="3">
-        <v>268800</v>
+        <v>251500</v>
       </c>
       <c r="G57" s="3">
-        <v>351600</v>
+        <v>269000</v>
       </c>
       <c r="H57" s="3">
-        <v>321100</v>
+        <v>351800</v>
       </c>
       <c r="I57" s="3">
-        <v>300100</v>
+        <v>321300</v>
       </c>
       <c r="J57" s="3">
+        <v>300300</v>
+      </c>
+      <c r="K57" s="3">
         <v>272700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>306500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>226400</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>373800</v>
+        <v>499600</v>
       </c>
       <c r="E58" s="3">
-        <v>285300</v>
+        <v>374100</v>
       </c>
       <c r="F58" s="3">
-        <v>346300</v>
+        <v>285500</v>
       </c>
       <c r="G58" s="3">
-        <v>58800</v>
+        <v>346600</v>
       </c>
       <c r="H58" s="3">
-        <v>499300</v>
+        <v>58900</v>
       </c>
       <c r="I58" s="3">
-        <v>620900</v>
+        <v>499700</v>
       </c>
       <c r="J58" s="3">
+        <v>621300</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1369300</v>
+        <v>1293200</v>
       </c>
       <c r="E59" s="3">
-        <v>1341900</v>
+        <v>1370400</v>
       </c>
       <c r="F59" s="3">
-        <v>1412300</v>
+        <v>1342900</v>
       </c>
       <c r="G59" s="3">
-        <v>1402600</v>
+        <v>1413400</v>
       </c>
       <c r="H59" s="3">
-        <v>1431500</v>
+        <v>1403700</v>
       </c>
       <c r="I59" s="3">
-        <v>1527300</v>
+        <v>1432600</v>
       </c>
       <c r="J59" s="3">
+        <v>1528400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1099200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1118900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1137600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2096600</v>
+        <v>2362000</v>
       </c>
       <c r="E60" s="3">
-        <v>1878400</v>
+        <v>2098300</v>
       </c>
       <c r="F60" s="3">
-        <v>1947300</v>
+        <v>1879900</v>
       </c>
       <c r="G60" s="3">
-        <v>1813000</v>
+        <v>1948800</v>
       </c>
       <c r="H60" s="3">
-        <v>2251900</v>
+        <v>1814400</v>
       </c>
       <c r="I60" s="3">
-        <v>2448200</v>
+        <v>2253600</v>
       </c>
       <c r="J60" s="3">
+        <v>2450100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1372000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1369100</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7237500</v>
+        <v>7302200</v>
       </c>
       <c r="E61" s="3">
-        <v>6716900</v>
+        <v>7243100</v>
       </c>
       <c r="F61" s="3">
-        <v>6258600</v>
+        <v>6722100</v>
       </c>
       <c r="G61" s="3">
-        <v>5809700</v>
+        <v>6263500</v>
       </c>
       <c r="H61" s="3">
-        <v>4903300</v>
+        <v>5814200</v>
       </c>
       <c r="I61" s="3">
-        <v>4697900</v>
+        <v>4907100</v>
       </c>
       <c r="J61" s="3">
+        <v>4701500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3742700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2308700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2989800</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1083100</v>
+        <v>1194300</v>
       </c>
       <c r="E62" s="3">
-        <v>1010300</v>
+        <v>1084000</v>
       </c>
       <c r="F62" s="3">
-        <v>1064300</v>
+        <v>1011100</v>
       </c>
       <c r="G62" s="3">
-        <v>720000</v>
+        <v>1065200</v>
       </c>
       <c r="H62" s="3">
-        <v>750900</v>
+        <v>720500</v>
       </c>
       <c r="I62" s="3">
-        <v>664000</v>
+        <v>751500</v>
       </c>
       <c r="J62" s="3">
+        <v>664500</v>
+      </c>
+      <c r="K62" s="3">
         <v>717300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>562600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>516300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10730500</v>
+        <v>11324900</v>
       </c>
       <c r="E66" s="3">
-        <v>9929200</v>
+        <v>10738900</v>
       </c>
       <c r="F66" s="3">
-        <v>9440300</v>
+        <v>9936900</v>
       </c>
       <c r="G66" s="3">
-        <v>8696700</v>
+        <v>9447600</v>
       </c>
       <c r="H66" s="3">
-        <v>8204500</v>
+        <v>8703500</v>
       </c>
       <c r="I66" s="3">
-        <v>8094800</v>
+        <v>8210900</v>
       </c>
       <c r="J66" s="3">
+        <v>8101100</v>
+      </c>
+      <c r="K66" s="3">
         <v>5760700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5286100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5063200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>408500</v>
+        <v>-400800</v>
       </c>
       <c r="E72" s="3">
-        <v>648400</v>
+        <v>408800</v>
       </c>
       <c r="F72" s="3">
-        <v>862100</v>
+        <v>648900</v>
       </c>
       <c r="G72" s="3">
+        <v>862800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-67600</v>
       </c>
-      <c r="H72" s="3">
-        <v>-83900</v>
-      </c>
       <c r="I72" s="3">
-        <v>-168800</v>
+        <v>-84000</v>
       </c>
       <c r="J72" s="3">
+        <v>-168900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-392000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-462500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-798900</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2000200</v>
+        <v>1279700</v>
       </c>
       <c r="E76" s="3">
-        <v>2200600</v>
+        <v>2001800</v>
       </c>
       <c r="F76" s="3">
-        <v>2470300</v>
+        <v>2202300</v>
       </c>
       <c r="G76" s="3">
-        <v>1548100</v>
+        <v>2472200</v>
       </c>
       <c r="H76" s="3">
-        <v>1419100</v>
+        <v>1549300</v>
       </c>
       <c r="I76" s="3">
-        <v>1307500</v>
+        <v>1420200</v>
       </c>
       <c r="J76" s="3">
+        <v>1308500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1182600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1133400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>777600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-131400</v>
+      </c>
+      <c r="E81" s="3">
         <v>87700</v>
       </c>
-      <c r="E81" s="3">
-        <v>115500</v>
-      </c>
       <c r="F81" s="3">
-        <v>262400</v>
+        <v>115600</v>
       </c>
       <c r="G81" s="3">
-        <v>264000</v>
+        <v>262600</v>
       </c>
       <c r="H81" s="3">
-        <v>295400</v>
+        <v>264200</v>
       </c>
       <c r="I81" s="3">
-        <v>426100</v>
+        <v>295700</v>
       </c>
       <c r="J81" s="3">
+        <v>426400</v>
+      </c>
+      <c r="K81" s="3">
         <v>242700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>214200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>204700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>729800</v>
+        <v>808000</v>
       </c>
       <c r="E83" s="3">
-        <v>708800</v>
+        <v>730300</v>
       </c>
       <c r="F83" s="3">
-        <v>697100</v>
+        <v>709300</v>
       </c>
       <c r="G83" s="3">
-        <v>860200</v>
+        <v>697600</v>
       </c>
       <c r="H83" s="3">
-        <v>777300</v>
+        <v>860800</v>
       </c>
       <c r="I83" s="3">
-        <v>808600</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>777900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>809200</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>566500</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1433200</v>
+        <v>1635500</v>
       </c>
       <c r="E89" s="3">
-        <v>842500</v>
+        <v>1434300</v>
       </c>
       <c r="F89" s="3">
-        <v>1328000</v>
+        <v>843200</v>
       </c>
       <c r="G89" s="3">
-        <v>1281200</v>
+        <v>1329000</v>
       </c>
       <c r="H89" s="3">
-        <v>1611400</v>
+        <v>1282200</v>
       </c>
       <c r="I89" s="3">
-        <v>1358500</v>
+        <v>1612700</v>
       </c>
       <c r="J89" s="3">
+        <v>1359500</v>
+      </c>
+      <c r="K89" s="3">
         <v>941300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>794400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>863400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-638000</v>
+        <v>-390700</v>
       </c>
       <c r="E91" s="3">
-        <v>-493600</v>
+        <v>-638500</v>
       </c>
       <c r="F91" s="3">
-        <v>-432100</v>
+        <v>-493900</v>
       </c>
       <c r="G91" s="3">
-        <v>-409900</v>
+        <v>-432500</v>
       </c>
       <c r="H91" s="3">
-        <v>-452700</v>
+        <v>-410200</v>
       </c>
       <c r="I91" s="3">
-        <v>-412300</v>
+        <v>-453100</v>
       </c>
       <c r="J91" s="3">
+        <v>-412600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-329800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-288000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-249700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1170200</v>
+        <v>-971100</v>
       </c>
       <c r="E94" s="3">
-        <v>-745700</v>
+        <v>-1171100</v>
       </c>
       <c r="F94" s="3">
-        <v>-786000</v>
+        <v>-746300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1295000</v>
+        <v>-786600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1311900</v>
+        <v>-1296000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2493600</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-1312900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2495600</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-904000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-312900</v>
+        <v>-319900</v>
       </c>
       <c r="E96" s="3">
-        <v>-298700</v>
+        <v>-313200</v>
       </c>
       <c r="F96" s="3">
-        <v>-285000</v>
+        <v>-298900</v>
       </c>
       <c r="G96" s="3">
-        <v>-190100</v>
+        <v>-285200</v>
       </c>
       <c r="H96" s="3">
-        <v>-102600</v>
+        <v>-190300</v>
       </c>
       <c r="I96" s="3">
-        <v>-98500</v>
+        <v>-102700</v>
       </c>
       <c r="J96" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-185600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-150900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-143600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-441300</v>
+        <v>-833100</v>
       </c>
       <c r="E100" s="3">
-        <v>-720900</v>
+        <v>-441600</v>
       </c>
       <c r="F100" s="3">
-        <v>347400</v>
+        <v>-721400</v>
       </c>
       <c r="G100" s="3">
-        <v>-337000</v>
+        <v>347700</v>
       </c>
       <c r="H100" s="3">
-        <v>-353100</v>
+        <v>-337300</v>
       </c>
       <c r="I100" s="3">
-        <v>1458300</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-353400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1459400</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5200</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4600</v>
       </c>
-      <c r="E101" s="3">
-        <v>-4200</v>
-      </c>
       <c r="F101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9800</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-182900</v>
+        <v>-161700</v>
       </c>
       <c r="E102" s="3">
-        <v>-628300</v>
+        <v>-183100</v>
       </c>
       <c r="F102" s="3">
-        <v>885800</v>
+        <v>-628800</v>
       </c>
       <c r="G102" s="3">
-        <v>-353500</v>
+        <v>886500</v>
       </c>
       <c r="H102" s="3">
-        <v>-56600</v>
+        <v>-353800</v>
       </c>
       <c r="I102" s="3">
-        <v>313300</v>
+        <v>-56700</v>
       </c>
       <c r="J102" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K102" s="3">
         <v>123100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-104600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-348500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4901500</v>
+        <v>4884000</v>
       </c>
       <c r="E8" s="3">
-        <v>4833800</v>
+        <v>4816600</v>
       </c>
       <c r="F8" s="3">
-        <v>5005000</v>
+        <v>4987200</v>
       </c>
       <c r="G8" s="3">
-        <v>4745100</v>
+        <v>4728100</v>
       </c>
       <c r="H8" s="3">
-        <v>4945000</v>
+        <v>4927400</v>
       </c>
       <c r="I8" s="3">
-        <v>5064800</v>
+        <v>5046700</v>
       </c>
       <c r="J8" s="3">
-        <v>4287100</v>
+        <v>4271800</v>
       </c>
       <c r="K8" s="3">
         <v>3516500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2640500</v>
+        <v>2631100</v>
       </c>
       <c r="E9" s="3">
-        <v>2435800</v>
+        <v>2427100</v>
       </c>
       <c r="F9" s="3">
-        <v>2659300</v>
+        <v>2649800</v>
       </c>
       <c r="G9" s="3">
-        <v>2363300</v>
+        <v>2354800</v>
       </c>
       <c r="H9" s="3">
-        <v>2285800</v>
+        <v>2277700</v>
       </c>
       <c r="I9" s="3">
-        <v>2443300</v>
+        <v>2434500</v>
       </c>
       <c r="J9" s="3">
-        <v>1951900</v>
+        <v>1944900</v>
       </c>
       <c r="K9" s="3">
         <v>1687800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2261000</v>
+        <v>2252900</v>
       </c>
       <c r="E10" s="3">
-        <v>2398000</v>
+        <v>2389500</v>
       </c>
       <c r="F10" s="3">
-        <v>2345700</v>
+        <v>2337400</v>
       </c>
       <c r="G10" s="3">
-        <v>2381800</v>
+        <v>2373300</v>
       </c>
       <c r="H10" s="3">
-        <v>2659200</v>
+        <v>2649700</v>
       </c>
       <c r="I10" s="3">
-        <v>2621600</v>
+        <v>2612200</v>
       </c>
       <c r="J10" s="3">
-        <v>2335200</v>
+        <v>2326800</v>
       </c>
       <c r="K10" s="3">
         <v>1828700</v>
@@ -916,16 +916,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>86700</v>
+        <v>86400</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>-35300</v>
+        <v>-35200</v>
       </c>
       <c r="G14" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="H14" s="3">
         <v>2400</v>
@@ -934,7 +934,7 @@
         <v>3500</v>
       </c>
       <c r="J14" s="3">
-        <v>-253000</v>
+        <v>-252100</v>
       </c>
       <c r="K14" s="3">
         <v>-2800</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>808000</v>
+        <v>805100</v>
       </c>
       <c r="E15" s="3">
-        <v>730300</v>
+        <v>727700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4469600</v>
+        <v>4453700</v>
       </c>
       <c r="E17" s="3">
-        <v>4094900</v>
+        <v>4080200</v>
       </c>
       <c r="F17" s="3">
-        <v>4230100</v>
+        <v>4215000</v>
       </c>
       <c r="G17" s="3">
-        <v>4007300</v>
+        <v>3992900</v>
       </c>
       <c r="H17" s="3">
-        <v>4222100</v>
+        <v>4207100</v>
       </c>
       <c r="I17" s="3">
-        <v>4287100</v>
+        <v>4271800</v>
       </c>
       <c r="J17" s="3">
-        <v>3405600</v>
+        <v>3393500</v>
       </c>
       <c r="K17" s="3">
         <v>2971200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>431800</v>
+        <v>430300</v>
       </c>
       <c r="E18" s="3">
-        <v>739000</v>
+        <v>736300</v>
       </c>
       <c r="F18" s="3">
-        <v>774900</v>
+        <v>772100</v>
       </c>
       <c r="G18" s="3">
-        <v>737800</v>
+        <v>735200</v>
       </c>
       <c r="H18" s="3">
-        <v>722900</v>
+        <v>720300</v>
       </c>
       <c r="I18" s="3">
-        <v>777700</v>
+        <v>775000</v>
       </c>
       <c r="J18" s="3">
-        <v>881500</v>
+        <v>878300</v>
       </c>
       <c r="K18" s="3">
         <v>545300</v>
@@ -1101,10 +1101,10 @@
         <v>-400</v>
       </c>
       <c r="H20" s="3">
-        <v>-12800</v>
+        <v>-12700</v>
       </c>
       <c r="I20" s="3">
-        <v>-20500</v>
+        <v>-20400</v>
       </c>
       <c r="J20" s="3">
         <v>-13400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1227100</v>
+        <v>1223200</v>
       </c>
       <c r="E21" s="3">
-        <v>1471000</v>
+        <v>1466200</v>
       </c>
       <c r="F21" s="3">
-        <v>1483000</v>
+        <v>1478100</v>
       </c>
       <c r="G21" s="3">
-        <v>1434800</v>
+        <v>1430100</v>
       </c>
       <c r="H21" s="3">
-        <v>1570700</v>
+        <v>1565500</v>
       </c>
       <c r="I21" s="3">
-        <v>1534900</v>
+        <v>1529800</v>
       </c>
       <c r="J21" s="3">
-        <v>1677000</v>
+        <v>1671400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>237900</v>
+        <v>237100</v>
       </c>
       <c r="E22" s="3">
-        <v>249900</v>
+        <v>249000</v>
       </c>
       <c r="F22" s="3">
-        <v>234900</v>
+        <v>234000</v>
       </c>
       <c r="G22" s="3">
-        <v>203400</v>
+        <v>202700</v>
       </c>
       <c r="H22" s="3">
-        <v>165500</v>
+        <v>165000</v>
       </c>
       <c r="I22" s="3">
-        <v>185300</v>
+        <v>184600</v>
       </c>
       <c r="J22" s="3">
-        <v>162800</v>
+        <v>162300</v>
       </c>
       <c r="K22" s="3">
         <v>133600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>181400</v>
+        <v>180700</v>
       </c>
       <c r="E23" s="3">
-        <v>491000</v>
+        <v>489200</v>
       </c>
       <c r="F23" s="3">
-        <v>539000</v>
+        <v>537100</v>
       </c>
       <c r="G23" s="3">
-        <v>534000</v>
+        <v>532100</v>
       </c>
       <c r="H23" s="3">
-        <v>544600</v>
+        <v>542600</v>
       </c>
       <c r="I23" s="3">
-        <v>572000</v>
+        <v>570000</v>
       </c>
       <c r="J23" s="3">
-        <v>705200</v>
+        <v>702700</v>
       </c>
       <c r="K23" s="3">
         <v>420300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>97800</v>
+        <v>97400</v>
       </c>
       <c r="E24" s="3">
-        <v>121200</v>
+        <v>120800</v>
       </c>
       <c r="F24" s="3">
-        <v>146100</v>
+        <v>145600</v>
       </c>
       <c r="G24" s="3">
-        <v>136700</v>
+        <v>136200</v>
       </c>
       <c r="H24" s="3">
-        <v>50900</v>
+        <v>50700</v>
       </c>
       <c r="I24" s="3">
-        <v>57600</v>
+        <v>57400</v>
       </c>
       <c r="J24" s="3">
-        <v>103500</v>
+        <v>103100</v>
       </c>
       <c r="K24" s="3">
         <v>27000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>83600</v>
+        <v>83300</v>
       </c>
       <c r="E26" s="3">
-        <v>369700</v>
+        <v>368400</v>
       </c>
       <c r="F26" s="3">
-        <v>392900</v>
+        <v>391500</v>
       </c>
       <c r="G26" s="3">
-        <v>397300</v>
+        <v>395900</v>
       </c>
       <c r="H26" s="3">
-        <v>493700</v>
+        <v>491900</v>
       </c>
       <c r="I26" s="3">
-        <v>514400</v>
+        <v>512600</v>
       </c>
       <c r="J26" s="3">
-        <v>601800</v>
+        <v>599600</v>
       </c>
       <c r="K26" s="3">
         <v>393300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-131400</v>
+        <v>-130900</v>
       </c>
       <c r="E27" s="3">
-        <v>87700</v>
+        <v>87400</v>
       </c>
       <c r="F27" s="3">
-        <v>115600</v>
+        <v>115100</v>
       </c>
       <c r="G27" s="3">
-        <v>115300</v>
+        <v>114900</v>
       </c>
       <c r="H27" s="3">
-        <v>264200</v>
+        <v>263300</v>
       </c>
       <c r="I27" s="3">
-        <v>295700</v>
+        <v>294600</v>
       </c>
       <c r="J27" s="3">
-        <v>426400</v>
+        <v>424900</v>
       </c>
       <c r="K27" s="3">
         <v>242700</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>147300</v>
+        <v>146700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1533,10 +1533,10 @@
         <v>400</v>
       </c>
       <c r="H32" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="I32" s="3">
-        <v>20500</v>
+        <v>20400</v>
       </c>
       <c r="J32" s="3">
         <v>13400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-131400</v>
+        <v>-130900</v>
       </c>
       <c r="E33" s="3">
-        <v>87700</v>
+        <v>87400</v>
       </c>
       <c r="F33" s="3">
-        <v>115600</v>
+        <v>115100</v>
       </c>
       <c r="G33" s="3">
-        <v>262600</v>
+        <v>261600</v>
       </c>
       <c r="H33" s="3">
-        <v>264200</v>
+        <v>263300</v>
       </c>
       <c r="I33" s="3">
-        <v>295700</v>
+        <v>294600</v>
       </c>
       <c r="J33" s="3">
-        <v>426400</v>
+        <v>424900</v>
       </c>
       <c r="K33" s="3">
         <v>242700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-131400</v>
+        <v>-130900</v>
       </c>
       <c r="E35" s="3">
-        <v>87700</v>
+        <v>87400</v>
       </c>
       <c r="F35" s="3">
-        <v>115600</v>
+        <v>115100</v>
       </c>
       <c r="G35" s="3">
-        <v>262600</v>
+        <v>261600</v>
       </c>
       <c r="H35" s="3">
-        <v>264200</v>
+        <v>263300</v>
       </c>
       <c r="I35" s="3">
-        <v>295700</v>
+        <v>294600</v>
       </c>
       <c r="J35" s="3">
-        <v>426400</v>
+        <v>424900</v>
       </c>
       <c r="K35" s="3">
         <v>242700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>525800</v>
+        <v>523900</v>
       </c>
       <c r="E41" s="3">
-        <v>687400</v>
+        <v>685000</v>
       </c>
       <c r="F41" s="3">
-        <v>870500</v>
+        <v>867400</v>
       </c>
       <c r="G41" s="3">
-        <v>1499300</v>
+        <v>1494000</v>
       </c>
       <c r="H41" s="3">
-        <v>612100</v>
+        <v>609900</v>
       </c>
       <c r="I41" s="3">
-        <v>966600</v>
+        <v>963200</v>
       </c>
       <c r="J41" s="3">
-        <v>1023300</v>
+        <v>1019600</v>
       </c>
       <c r="K41" s="3">
         <v>709200</v>
@@ -1774,19 +1774,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>69300</v>
+        <v>69100</v>
       </c>
       <c r="E42" s="3">
-        <v>62600</v>
+        <v>62400</v>
       </c>
       <c r="F42" s="3">
-        <v>77800</v>
+        <v>77500</v>
       </c>
       <c r="G42" s="3">
-        <v>220000</v>
+        <v>219300</v>
       </c>
       <c r="H42" s="3">
-        <v>58400</v>
+        <v>58200</v>
       </c>
       <c r="I42" s="3">
         <v>100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>911300</v>
+        <v>908100</v>
       </c>
       <c r="E43" s="3">
-        <v>971200</v>
+        <v>967800</v>
       </c>
       <c r="F43" s="3">
-        <v>981300</v>
+        <v>977800</v>
       </c>
       <c r="G43" s="3">
-        <v>883600</v>
+        <v>880500</v>
       </c>
       <c r="H43" s="3">
-        <v>501400</v>
+        <v>499600</v>
       </c>
       <c r="I43" s="3">
-        <v>525100</v>
+        <v>523200</v>
       </c>
       <c r="J43" s="3">
-        <v>595100</v>
+        <v>592900</v>
       </c>
       <c r="K43" s="3">
         <v>501000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>175200</v>
+        <v>174600</v>
       </c>
       <c r="E44" s="3">
-        <v>341000</v>
+        <v>339800</v>
       </c>
       <c r="F44" s="3">
-        <v>264100</v>
+        <v>263200</v>
       </c>
       <c r="G44" s="3">
-        <v>234700</v>
+        <v>233900</v>
       </c>
       <c r="H44" s="3">
-        <v>121500</v>
+        <v>121100</v>
       </c>
       <c r="I44" s="3">
-        <v>99700</v>
+        <v>99400</v>
       </c>
       <c r="J44" s="3">
-        <v>103200</v>
+        <v>102800</v>
       </c>
       <c r="K44" s="3">
         <v>154300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>548600</v>
+        <v>546600</v>
       </c>
       <c r="E45" s="3">
-        <v>626100</v>
+        <v>623900</v>
       </c>
       <c r="F45" s="3">
-        <v>572600</v>
+        <v>570600</v>
       </c>
       <c r="G45" s="3">
-        <v>658300</v>
+        <v>656000</v>
       </c>
       <c r="H45" s="3">
-        <v>1349500</v>
+        <v>1344700</v>
       </c>
       <c r="I45" s="3">
-        <v>1002900</v>
+        <v>999400</v>
       </c>
       <c r="J45" s="3">
-        <v>1034200</v>
+        <v>1030600</v>
       </c>
       <c r="K45" s="3">
         <v>897100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2230200</v>
+        <v>2222200</v>
       </c>
       <c r="E46" s="3">
-        <v>2688400</v>
+        <v>2678800</v>
       </c>
       <c r="F46" s="3">
-        <v>2766400</v>
+        <v>2756500</v>
       </c>
       <c r="G46" s="3">
-        <v>3378700</v>
+        <v>3366600</v>
       </c>
       <c r="H46" s="3">
-        <v>2642800</v>
+        <v>2633400</v>
       </c>
       <c r="I46" s="3">
-        <v>2594500</v>
+        <v>2585200</v>
       </c>
       <c r="J46" s="3">
-        <v>2755800</v>
+        <v>2746000</v>
       </c>
       <c r="K46" s="3">
         <v>2262900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>388900</v>
+        <v>387500</v>
       </c>
       <c r="E47" s="3">
-        <v>382600</v>
+        <v>381300</v>
       </c>
       <c r="F47" s="3">
-        <v>443600</v>
+        <v>442000</v>
       </c>
       <c r="G47" s="3">
-        <v>474700</v>
+        <v>473000</v>
       </c>
       <c r="H47" s="3">
-        <v>310500</v>
+        <v>309400</v>
       </c>
       <c r="I47" s="3">
-        <v>245900</v>
+        <v>245100</v>
       </c>
       <c r="J47" s="3">
-        <v>249800</v>
+        <v>248900</v>
       </c>
       <c r="K47" s="3">
         <v>251000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5086100</v>
+        <v>5067900</v>
       </c>
       <c r="E48" s="3">
-        <v>4915100</v>
+        <v>4897600</v>
       </c>
       <c r="F48" s="3">
-        <v>4477600</v>
+        <v>4461600</v>
       </c>
       <c r="G48" s="3">
-        <v>3845600</v>
+        <v>3831800</v>
       </c>
       <c r="H48" s="3">
-        <v>3071400</v>
+        <v>3060500</v>
       </c>
       <c r="I48" s="3">
-        <v>2788900</v>
+        <v>2779000</v>
       </c>
       <c r="J48" s="3">
-        <v>2590800</v>
+        <v>2581500</v>
       </c>
       <c r="K48" s="3">
         <v>3237900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4250700</v>
+        <v>4235600</v>
       </c>
       <c r="E49" s="3">
-        <v>4080700</v>
+        <v>4066100</v>
       </c>
       <c r="F49" s="3">
-        <v>3760300</v>
+        <v>3746900</v>
       </c>
       <c r="G49" s="3">
-        <v>7547500</v>
+        <v>7520600</v>
       </c>
       <c r="H49" s="3">
-        <v>3874800</v>
+        <v>3861000</v>
       </c>
       <c r="I49" s="3">
-        <v>3698600</v>
+        <v>3685400</v>
       </c>
       <c r="J49" s="3">
-        <v>3513200</v>
+        <v>3500600</v>
       </c>
       <c r="K49" s="3">
         <v>906600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>648700</v>
+        <v>646300</v>
       </c>
       <c r="E52" s="3">
-        <v>673800</v>
+        <v>671400</v>
       </c>
       <c r="F52" s="3">
-        <v>691400</v>
+        <v>689000</v>
       </c>
       <c r="G52" s="3">
-        <v>700300</v>
+        <v>697800</v>
       </c>
       <c r="H52" s="3">
-        <v>353300</v>
+        <v>352000</v>
       </c>
       <c r="I52" s="3">
-        <v>303100</v>
+        <v>302100</v>
       </c>
       <c r="J52" s="3">
-        <v>300000</v>
+        <v>299000</v>
       </c>
       <c r="K52" s="3">
         <v>284800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12604600</v>
+        <v>12559600</v>
       </c>
       <c r="E54" s="3">
-        <v>12740600</v>
+        <v>12695200</v>
       </c>
       <c r="F54" s="3">
-        <v>12139300</v>
+        <v>12095900</v>
       </c>
       <c r="G54" s="3">
-        <v>11919900</v>
+        <v>11877300</v>
       </c>
       <c r="H54" s="3">
-        <v>10252800</v>
+        <v>10216200</v>
       </c>
       <c r="I54" s="3">
-        <v>9631100</v>
+        <v>9596700</v>
       </c>
       <c r="J54" s="3">
-        <v>9409600</v>
+        <v>9376000</v>
       </c>
       <c r="K54" s="3">
         <v>6943300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>569200</v>
+        <v>567100</v>
       </c>
       <c r="E57" s="3">
-        <v>353800</v>
+        <v>352500</v>
       </c>
       <c r="F57" s="3">
-        <v>251500</v>
+        <v>250600</v>
       </c>
       <c r="G57" s="3">
-        <v>269000</v>
+        <v>268000</v>
       </c>
       <c r="H57" s="3">
-        <v>351800</v>
+        <v>350600</v>
       </c>
       <c r="I57" s="3">
-        <v>321300</v>
+        <v>320200</v>
       </c>
       <c r="J57" s="3">
-        <v>300300</v>
+        <v>299200</v>
       </c>
       <c r="K57" s="3">
         <v>272700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>499600</v>
+        <v>497800</v>
       </c>
       <c r="E58" s="3">
-        <v>374100</v>
+        <v>372800</v>
       </c>
       <c r="F58" s="3">
-        <v>285500</v>
+        <v>284500</v>
       </c>
       <c r="G58" s="3">
-        <v>346600</v>
+        <v>345300</v>
       </c>
       <c r="H58" s="3">
-        <v>58900</v>
+        <v>58700</v>
       </c>
       <c r="I58" s="3">
-        <v>499700</v>
+        <v>497900</v>
       </c>
       <c r="J58" s="3">
-        <v>621300</v>
+        <v>619100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1293200</v>
+        <v>1288600</v>
       </c>
       <c r="E59" s="3">
-        <v>1370400</v>
+        <v>1365500</v>
       </c>
       <c r="F59" s="3">
-        <v>1342900</v>
+        <v>1338100</v>
       </c>
       <c r="G59" s="3">
-        <v>1413400</v>
+        <v>1408300</v>
       </c>
       <c r="H59" s="3">
-        <v>1403700</v>
+        <v>1398700</v>
       </c>
       <c r="I59" s="3">
-        <v>1432600</v>
+        <v>1427500</v>
       </c>
       <c r="J59" s="3">
-        <v>1528400</v>
+        <v>1523000</v>
       </c>
       <c r="K59" s="3">
         <v>1099200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2362000</v>
+        <v>2353500</v>
       </c>
       <c r="E60" s="3">
-        <v>2098300</v>
+        <v>2090800</v>
       </c>
       <c r="F60" s="3">
-        <v>1879900</v>
+        <v>1873200</v>
       </c>
       <c r="G60" s="3">
-        <v>1948800</v>
+        <v>1941900</v>
       </c>
       <c r="H60" s="3">
-        <v>1814400</v>
+        <v>1808000</v>
       </c>
       <c r="I60" s="3">
-        <v>2253600</v>
+        <v>2245600</v>
       </c>
       <c r="J60" s="3">
-        <v>2450100</v>
+        <v>2441300</v>
       </c>
       <c r="K60" s="3">
         <v>1372000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7302200</v>
+        <v>7276100</v>
       </c>
       <c r="E61" s="3">
-        <v>7243100</v>
+        <v>7217200</v>
       </c>
       <c r="F61" s="3">
-        <v>6722100</v>
+        <v>6698100</v>
       </c>
       <c r="G61" s="3">
-        <v>6263500</v>
+        <v>6241100</v>
       </c>
       <c r="H61" s="3">
-        <v>5814200</v>
+        <v>5793500</v>
       </c>
       <c r="I61" s="3">
-        <v>4907100</v>
+        <v>4889600</v>
       </c>
       <c r="J61" s="3">
-        <v>4701500</v>
+        <v>4684700</v>
       </c>
       <c r="K61" s="3">
         <v>3742700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1194300</v>
+        <v>1190000</v>
       </c>
       <c r="E62" s="3">
-        <v>1084000</v>
+        <v>1080100</v>
       </c>
       <c r="F62" s="3">
-        <v>1011100</v>
+        <v>1007400</v>
       </c>
       <c r="G62" s="3">
-        <v>1065200</v>
+        <v>1061400</v>
       </c>
       <c r="H62" s="3">
-        <v>720500</v>
+        <v>718000</v>
       </c>
       <c r="I62" s="3">
-        <v>751500</v>
+        <v>748800</v>
       </c>
       <c r="J62" s="3">
-        <v>664500</v>
+        <v>662100</v>
       </c>
       <c r="K62" s="3">
         <v>717300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11324900</v>
+        <v>11284500</v>
       </c>
       <c r="E66" s="3">
-        <v>10738900</v>
+        <v>10700500</v>
       </c>
       <c r="F66" s="3">
-        <v>9936900</v>
+        <v>9901400</v>
       </c>
       <c r="G66" s="3">
-        <v>9447600</v>
+        <v>9413900</v>
       </c>
       <c r="H66" s="3">
-        <v>8703500</v>
+        <v>8672400</v>
       </c>
       <c r="I66" s="3">
-        <v>8210900</v>
+        <v>8181500</v>
       </c>
       <c r="J66" s="3">
-        <v>8101100</v>
+        <v>8072200</v>
       </c>
       <c r="K66" s="3">
         <v>5760700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-400800</v>
+        <v>-399400</v>
       </c>
       <c r="E72" s="3">
-        <v>408800</v>
+        <v>407300</v>
       </c>
       <c r="F72" s="3">
-        <v>648900</v>
+        <v>646600</v>
       </c>
       <c r="G72" s="3">
-        <v>862800</v>
+        <v>859700</v>
       </c>
       <c r="H72" s="3">
-        <v>-67600</v>
+        <v>-67400</v>
       </c>
       <c r="I72" s="3">
-        <v>-84000</v>
+        <v>-83700</v>
       </c>
       <c r="J72" s="3">
-        <v>-168900</v>
+        <v>-168300</v>
       </c>
       <c r="K72" s="3">
         <v>-392000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1279700</v>
+        <v>1275100</v>
       </c>
       <c r="E76" s="3">
-        <v>2001800</v>
+        <v>1994600</v>
       </c>
       <c r="F76" s="3">
-        <v>2202300</v>
+        <v>2194500</v>
       </c>
       <c r="G76" s="3">
-        <v>2472200</v>
+        <v>2463400</v>
       </c>
       <c r="H76" s="3">
-        <v>1549300</v>
+        <v>1543800</v>
       </c>
       <c r="I76" s="3">
-        <v>1420200</v>
+        <v>1415200</v>
       </c>
       <c r="J76" s="3">
-        <v>1308500</v>
+        <v>1303900</v>
       </c>
       <c r="K76" s="3">
         <v>1182600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-131400</v>
+        <v>-130900</v>
       </c>
       <c r="E81" s="3">
-        <v>87700</v>
+        <v>87400</v>
       </c>
       <c r="F81" s="3">
-        <v>115600</v>
+        <v>115100</v>
       </c>
       <c r="G81" s="3">
-        <v>262600</v>
+        <v>261600</v>
       </c>
       <c r="H81" s="3">
-        <v>264200</v>
+        <v>263300</v>
       </c>
       <c r="I81" s="3">
-        <v>295700</v>
+        <v>294600</v>
       </c>
       <c r="J81" s="3">
-        <v>426400</v>
+        <v>424900</v>
       </c>
       <c r="K81" s="3">
         <v>242700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>808000</v>
+        <v>805100</v>
       </c>
       <c r="E83" s="3">
-        <v>730300</v>
+        <v>727700</v>
       </c>
       <c r="F83" s="3">
-        <v>709300</v>
+        <v>706800</v>
       </c>
       <c r="G83" s="3">
-        <v>697600</v>
+        <v>695100</v>
       </c>
       <c r="H83" s="3">
-        <v>860800</v>
+        <v>857800</v>
       </c>
       <c r="I83" s="3">
-        <v>777900</v>
+        <v>775100</v>
       </c>
       <c r="J83" s="3">
-        <v>809200</v>
+        <v>806300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1635500</v>
+        <v>1629700</v>
       </c>
       <c r="E89" s="3">
-        <v>1434300</v>
+        <v>1429100</v>
       </c>
       <c r="F89" s="3">
-        <v>843200</v>
+        <v>840200</v>
       </c>
       <c r="G89" s="3">
-        <v>1329000</v>
+        <v>1324300</v>
       </c>
       <c r="H89" s="3">
-        <v>1282200</v>
+        <v>1277700</v>
       </c>
       <c r="I89" s="3">
-        <v>1612700</v>
+        <v>1606900</v>
       </c>
       <c r="J89" s="3">
-        <v>1359500</v>
+        <v>1354700</v>
       </c>
       <c r="K89" s="3">
         <v>941300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-390700</v>
+        <v>-389300</v>
       </c>
       <c r="E91" s="3">
-        <v>-638500</v>
+        <v>-636200</v>
       </c>
       <c r="F91" s="3">
-        <v>-493900</v>
+        <v>-492200</v>
       </c>
       <c r="G91" s="3">
-        <v>-432500</v>
+        <v>-430900</v>
       </c>
       <c r="H91" s="3">
-        <v>-410200</v>
+        <v>-408700</v>
       </c>
       <c r="I91" s="3">
-        <v>-453100</v>
+        <v>-451500</v>
       </c>
       <c r="J91" s="3">
-        <v>-412600</v>
+        <v>-411200</v>
       </c>
       <c r="K91" s="3">
         <v>-329800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-971100</v>
+        <v>-967700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1171100</v>
+        <v>-1166900</v>
       </c>
       <c r="F94" s="3">
-        <v>-746300</v>
+        <v>-743600</v>
       </c>
       <c r="G94" s="3">
-        <v>-786600</v>
+        <v>-783800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1296000</v>
+        <v>-1291400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1312900</v>
+        <v>-1308200</v>
       </c>
       <c r="J94" s="3">
-        <v>-2495600</v>
+        <v>-2486700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-319900</v>
+        <v>-318700</v>
       </c>
       <c r="E96" s="3">
-        <v>-313200</v>
+        <v>-312100</v>
       </c>
       <c r="F96" s="3">
-        <v>-298900</v>
+        <v>-297800</v>
       </c>
       <c r="G96" s="3">
-        <v>-285200</v>
+        <v>-284200</v>
       </c>
       <c r="H96" s="3">
-        <v>-190300</v>
+        <v>-189600</v>
       </c>
       <c r="I96" s="3">
-        <v>-102700</v>
+        <v>-102300</v>
       </c>
       <c r="J96" s="3">
-        <v>-98600</v>
+        <v>-98200</v>
       </c>
       <c r="K96" s="3">
         <v>-185600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-833100</v>
+        <v>-830200</v>
       </c>
       <c r="E100" s="3">
-        <v>-441600</v>
+        <v>-440100</v>
       </c>
       <c r="F100" s="3">
-        <v>-721400</v>
+        <v>-718900</v>
       </c>
       <c r="G100" s="3">
-        <v>347700</v>
+        <v>346500</v>
       </c>
       <c r="H100" s="3">
-        <v>-337300</v>
+        <v>-336100</v>
       </c>
       <c r="I100" s="3">
-        <v>-353400</v>
+        <v>-352100</v>
       </c>
       <c r="J100" s="3">
-        <v>1459400</v>
+        <v>1454200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         <v>-4600</v>
       </c>
       <c r="F101" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="G101" s="3">
         <v>-3600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-161700</v>
+        <v>-161100</v>
       </c>
       <c r="E102" s="3">
-        <v>-183100</v>
+        <v>-182400</v>
       </c>
       <c r="F102" s="3">
-        <v>-628800</v>
+        <v>-626600</v>
       </c>
       <c r="G102" s="3">
-        <v>886500</v>
+        <v>883300</v>
       </c>
       <c r="H102" s="3">
-        <v>-353800</v>
+        <v>-352500</v>
       </c>
       <c r="I102" s="3">
-        <v>-56700</v>
+        <v>-56500</v>
       </c>
       <c r="J102" s="3">
-        <v>313600</v>
+        <v>312500</v>
       </c>
       <c r="K102" s="3">
         <v>123100</v>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4884000</v>
+        <v>4877900</v>
       </c>
       <c r="E8" s="3">
-        <v>4816600</v>
+        <v>4810600</v>
       </c>
       <c r="F8" s="3">
-        <v>4987200</v>
+        <v>4981000</v>
       </c>
       <c r="G8" s="3">
-        <v>4728100</v>
+        <v>4722200</v>
       </c>
       <c r="H8" s="3">
-        <v>4927400</v>
+        <v>4921200</v>
       </c>
       <c r="I8" s="3">
-        <v>5046700</v>
+        <v>5040400</v>
       </c>
       <c r="J8" s="3">
-        <v>4271800</v>
+        <v>4266400</v>
       </c>
       <c r="K8" s="3">
         <v>3516500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2631100</v>
+        <v>2627800</v>
       </c>
       <c r="E9" s="3">
-        <v>2427100</v>
+        <v>2424100</v>
       </c>
       <c r="F9" s="3">
-        <v>2649800</v>
+        <v>2646500</v>
       </c>
       <c r="G9" s="3">
-        <v>2354800</v>
+        <v>2351900</v>
       </c>
       <c r="H9" s="3">
-        <v>2277700</v>
+        <v>2274800</v>
       </c>
       <c r="I9" s="3">
-        <v>2434500</v>
+        <v>2431500</v>
       </c>
       <c r="J9" s="3">
-        <v>1944900</v>
+        <v>1942500</v>
       </c>
       <c r="K9" s="3">
         <v>1687800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2252900</v>
+        <v>2250100</v>
       </c>
       <c r="E10" s="3">
-        <v>2389500</v>
+        <v>2386500</v>
       </c>
       <c r="F10" s="3">
-        <v>2337400</v>
+        <v>2334400</v>
       </c>
       <c r="G10" s="3">
-        <v>2373300</v>
+        <v>2370300</v>
       </c>
       <c r="H10" s="3">
-        <v>2649700</v>
+        <v>2646400</v>
       </c>
       <c r="I10" s="3">
-        <v>2612200</v>
+        <v>2608900</v>
       </c>
       <c r="J10" s="3">
-        <v>2326800</v>
+        <v>2323900</v>
       </c>
       <c r="K10" s="3">
         <v>1828700</v>
@@ -916,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>86400</v>
+        <v>86300</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>-35200</v>
+        <v>-35100</v>
       </c>
       <c r="G14" s="3">
         <v>19100</v>
@@ -934,7 +934,7 @@
         <v>3500</v>
       </c>
       <c r="J14" s="3">
-        <v>-252100</v>
+        <v>-251800</v>
       </c>
       <c r="K14" s="3">
         <v>-2800</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>805100</v>
+        <v>804100</v>
       </c>
       <c r="E15" s="3">
-        <v>727700</v>
+        <v>726800</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4453700</v>
+        <v>4448100</v>
       </c>
       <c r="E17" s="3">
-        <v>4080200</v>
+        <v>4075200</v>
       </c>
       <c r="F17" s="3">
-        <v>4215000</v>
+        <v>4209800</v>
       </c>
       <c r="G17" s="3">
-        <v>3992900</v>
+        <v>3988000</v>
       </c>
       <c r="H17" s="3">
-        <v>4207100</v>
+        <v>4201800</v>
       </c>
       <c r="I17" s="3">
-        <v>4271800</v>
+        <v>4266400</v>
       </c>
       <c r="J17" s="3">
-        <v>3393500</v>
+        <v>3389200</v>
       </c>
       <c r="K17" s="3">
         <v>2971200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>430300</v>
+        <v>429800</v>
       </c>
       <c r="E18" s="3">
-        <v>736300</v>
+        <v>735400</v>
       </c>
       <c r="F18" s="3">
-        <v>772100</v>
+        <v>771200</v>
       </c>
       <c r="G18" s="3">
-        <v>735200</v>
+        <v>734300</v>
       </c>
       <c r="H18" s="3">
-        <v>720300</v>
+        <v>719400</v>
       </c>
       <c r="I18" s="3">
-        <v>775000</v>
+        <v>774000</v>
       </c>
       <c r="J18" s="3">
-        <v>878300</v>
+        <v>877200</v>
       </c>
       <c r="K18" s="3">
         <v>545300</v>
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="E20" s="3">
         <v>1900</v>
@@ -1107,7 +1107,7 @@
         <v>-20400</v>
       </c>
       <c r="J20" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="K20" s="3">
         <v>8600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1223200</v>
+        <v>1221600</v>
       </c>
       <c r="E21" s="3">
-        <v>1466200</v>
+        <v>1464300</v>
       </c>
       <c r="F21" s="3">
-        <v>1478100</v>
+        <v>1476200</v>
       </c>
       <c r="G21" s="3">
-        <v>1430100</v>
+        <v>1428200</v>
       </c>
       <c r="H21" s="3">
-        <v>1565500</v>
+        <v>1563500</v>
       </c>
       <c r="I21" s="3">
-        <v>1529800</v>
+        <v>1527900</v>
       </c>
       <c r="J21" s="3">
-        <v>1671400</v>
+        <v>1669300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>237100</v>
+        <v>236800</v>
       </c>
       <c r="E22" s="3">
-        <v>249000</v>
+        <v>248700</v>
       </c>
       <c r="F22" s="3">
-        <v>234000</v>
+        <v>233700</v>
       </c>
       <c r="G22" s="3">
-        <v>202700</v>
+        <v>202400</v>
       </c>
       <c r="H22" s="3">
-        <v>165000</v>
+        <v>164700</v>
       </c>
       <c r="I22" s="3">
-        <v>184600</v>
+        <v>184400</v>
       </c>
       <c r="J22" s="3">
-        <v>162300</v>
+        <v>162100</v>
       </c>
       <c r="K22" s="3">
         <v>133600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>180700</v>
+        <v>180500</v>
       </c>
       <c r="E23" s="3">
-        <v>489200</v>
+        <v>488600</v>
       </c>
       <c r="F23" s="3">
-        <v>537100</v>
+        <v>536400</v>
       </c>
       <c r="G23" s="3">
-        <v>532100</v>
+        <v>531400</v>
       </c>
       <c r="H23" s="3">
-        <v>542600</v>
+        <v>541900</v>
       </c>
       <c r="I23" s="3">
-        <v>570000</v>
+        <v>569300</v>
       </c>
       <c r="J23" s="3">
-        <v>702700</v>
+        <v>701800</v>
       </c>
       <c r="K23" s="3">
         <v>420300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>97400</v>
+        <v>97300</v>
       </c>
       <c r="E24" s="3">
-        <v>120800</v>
+        <v>120600</v>
       </c>
       <c r="F24" s="3">
-        <v>145600</v>
+        <v>145400</v>
       </c>
       <c r="G24" s="3">
-        <v>136200</v>
+        <v>136000</v>
       </c>
       <c r="H24" s="3">
-        <v>50700</v>
+        <v>50600</v>
       </c>
       <c r="I24" s="3">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="J24" s="3">
-        <v>103100</v>
+        <v>103000</v>
       </c>
       <c r="K24" s="3">
         <v>27000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>83300</v>
+        <v>83200</v>
       </c>
       <c r="E26" s="3">
-        <v>368400</v>
+        <v>368000</v>
       </c>
       <c r="F26" s="3">
-        <v>391500</v>
+        <v>391000</v>
       </c>
       <c r="G26" s="3">
-        <v>395900</v>
+        <v>395400</v>
       </c>
       <c r="H26" s="3">
-        <v>491900</v>
+        <v>491300</v>
       </c>
       <c r="I26" s="3">
-        <v>512600</v>
+        <v>511900</v>
       </c>
       <c r="J26" s="3">
-        <v>599600</v>
+        <v>598900</v>
       </c>
       <c r="K26" s="3">
         <v>393300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-130900</v>
+        <v>-130800</v>
       </c>
       <c r="E27" s="3">
-        <v>87400</v>
+        <v>87300</v>
       </c>
       <c r="F27" s="3">
-        <v>115100</v>
+        <v>115000</v>
       </c>
       <c r="G27" s="3">
-        <v>114900</v>
+        <v>114700</v>
       </c>
       <c r="H27" s="3">
-        <v>263300</v>
+        <v>263000</v>
       </c>
       <c r="I27" s="3">
-        <v>294600</v>
+        <v>294200</v>
       </c>
       <c r="J27" s="3">
-        <v>424900</v>
+        <v>424400</v>
       </c>
       <c r="K27" s="3">
         <v>242700</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>146700</v>
+        <v>146500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="E32" s="3">
         <v>-1900</v>
@@ -1539,7 +1539,7 @@
         <v>20400</v>
       </c>
       <c r="J32" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="K32" s="3">
         <v>-8600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-130900</v>
+        <v>-130800</v>
       </c>
       <c r="E33" s="3">
-        <v>87400</v>
+        <v>87300</v>
       </c>
       <c r="F33" s="3">
-        <v>115100</v>
+        <v>115000</v>
       </c>
       <c r="G33" s="3">
-        <v>261600</v>
+        <v>261300</v>
       </c>
       <c r="H33" s="3">
-        <v>263300</v>
+        <v>263000</v>
       </c>
       <c r="I33" s="3">
-        <v>294600</v>
+        <v>294200</v>
       </c>
       <c r="J33" s="3">
-        <v>424900</v>
+        <v>424400</v>
       </c>
       <c r="K33" s="3">
         <v>242700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-130900</v>
+        <v>-130800</v>
       </c>
       <c r="E35" s="3">
-        <v>87400</v>
+        <v>87300</v>
       </c>
       <c r="F35" s="3">
-        <v>115100</v>
+        <v>115000</v>
       </c>
       <c r="G35" s="3">
-        <v>261600</v>
+        <v>261300</v>
       </c>
       <c r="H35" s="3">
-        <v>263300</v>
+        <v>263000</v>
       </c>
       <c r="I35" s="3">
-        <v>294600</v>
+        <v>294200</v>
       </c>
       <c r="J35" s="3">
-        <v>424900</v>
+        <v>424400</v>
       </c>
       <c r="K35" s="3">
         <v>242700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>523900</v>
+        <v>523200</v>
       </c>
       <c r="E41" s="3">
-        <v>685000</v>
+        <v>684100</v>
       </c>
       <c r="F41" s="3">
-        <v>867400</v>
+        <v>866300</v>
       </c>
       <c r="G41" s="3">
-        <v>1494000</v>
+        <v>1492100</v>
       </c>
       <c r="H41" s="3">
-        <v>609900</v>
+        <v>609100</v>
       </c>
       <c r="I41" s="3">
-        <v>963200</v>
+        <v>962000</v>
       </c>
       <c r="J41" s="3">
-        <v>1019600</v>
+        <v>1018400</v>
       </c>
       <c r="K41" s="3">
         <v>709200</v>
@@ -1774,19 +1774,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>69100</v>
+        <v>69000</v>
       </c>
       <c r="E42" s="3">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="F42" s="3">
-        <v>77500</v>
+        <v>77400</v>
       </c>
       <c r="G42" s="3">
-        <v>219300</v>
+        <v>219000</v>
       </c>
       <c r="H42" s="3">
-        <v>58200</v>
+        <v>58100</v>
       </c>
       <c r="I42" s="3">
         <v>100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>908100</v>
+        <v>907000</v>
       </c>
       <c r="E43" s="3">
-        <v>967800</v>
+        <v>966600</v>
       </c>
       <c r="F43" s="3">
-        <v>977800</v>
+        <v>976600</v>
       </c>
       <c r="G43" s="3">
-        <v>880500</v>
+        <v>879400</v>
       </c>
       <c r="H43" s="3">
-        <v>499600</v>
+        <v>499000</v>
       </c>
       <c r="I43" s="3">
-        <v>523200</v>
+        <v>522600</v>
       </c>
       <c r="J43" s="3">
-        <v>592900</v>
+        <v>592200</v>
       </c>
       <c r="K43" s="3">
         <v>501000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>174600</v>
+        <v>174400</v>
       </c>
       <c r="E44" s="3">
-        <v>339800</v>
+        <v>339400</v>
       </c>
       <c r="F44" s="3">
-        <v>263200</v>
+        <v>262800</v>
       </c>
       <c r="G44" s="3">
-        <v>233900</v>
+        <v>233600</v>
       </c>
       <c r="H44" s="3">
-        <v>121100</v>
+        <v>120900</v>
       </c>
       <c r="I44" s="3">
-        <v>99400</v>
+        <v>99200</v>
       </c>
       <c r="J44" s="3">
-        <v>102800</v>
+        <v>102700</v>
       </c>
       <c r="K44" s="3">
         <v>154300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>546600</v>
+        <v>545900</v>
       </c>
       <c r="E45" s="3">
-        <v>623900</v>
+        <v>623100</v>
       </c>
       <c r="F45" s="3">
-        <v>570600</v>
+        <v>569900</v>
       </c>
       <c r="G45" s="3">
-        <v>656000</v>
+        <v>655200</v>
       </c>
       <c r="H45" s="3">
-        <v>1344700</v>
+        <v>1343000</v>
       </c>
       <c r="I45" s="3">
-        <v>999400</v>
+        <v>998100</v>
       </c>
       <c r="J45" s="3">
-        <v>1030600</v>
+        <v>1029300</v>
       </c>
       <c r="K45" s="3">
         <v>897100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2222200</v>
+        <v>2219400</v>
       </c>
       <c r="E46" s="3">
-        <v>2678800</v>
+        <v>2675500</v>
       </c>
       <c r="F46" s="3">
-        <v>2756500</v>
+        <v>2753100</v>
       </c>
       <c r="G46" s="3">
-        <v>3366600</v>
+        <v>3362400</v>
       </c>
       <c r="H46" s="3">
-        <v>2633400</v>
+        <v>2630100</v>
       </c>
       <c r="I46" s="3">
-        <v>2585200</v>
+        <v>2582000</v>
       </c>
       <c r="J46" s="3">
-        <v>2746000</v>
+        <v>2742500</v>
       </c>
       <c r="K46" s="3">
         <v>2262900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>387500</v>
+        <v>387100</v>
       </c>
       <c r="E47" s="3">
-        <v>381300</v>
+        <v>380800</v>
       </c>
       <c r="F47" s="3">
-        <v>442000</v>
+        <v>441400</v>
       </c>
       <c r="G47" s="3">
-        <v>473000</v>
+        <v>472500</v>
       </c>
       <c r="H47" s="3">
-        <v>309400</v>
+        <v>309000</v>
       </c>
       <c r="I47" s="3">
-        <v>245100</v>
+        <v>244800</v>
       </c>
       <c r="J47" s="3">
-        <v>248900</v>
+        <v>248600</v>
       </c>
       <c r="K47" s="3">
         <v>251000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5067900</v>
+        <v>5061600</v>
       </c>
       <c r="E48" s="3">
-        <v>4897600</v>
+        <v>4891500</v>
       </c>
       <c r="F48" s="3">
-        <v>4461600</v>
+        <v>4456100</v>
       </c>
       <c r="G48" s="3">
-        <v>3831800</v>
+        <v>3827100</v>
       </c>
       <c r="H48" s="3">
-        <v>3060500</v>
+        <v>3056700</v>
       </c>
       <c r="I48" s="3">
-        <v>2779000</v>
+        <v>2775500</v>
       </c>
       <c r="J48" s="3">
-        <v>2581500</v>
+        <v>2578300</v>
       </c>
       <c r="K48" s="3">
         <v>3237900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4235600</v>
+        <v>4230300</v>
       </c>
       <c r="E49" s="3">
-        <v>4066100</v>
+        <v>4061100</v>
       </c>
       <c r="F49" s="3">
-        <v>3746900</v>
+        <v>3742200</v>
       </c>
       <c r="G49" s="3">
-        <v>7520600</v>
+        <v>7511200</v>
       </c>
       <c r="H49" s="3">
-        <v>3861000</v>
+        <v>3856200</v>
       </c>
       <c r="I49" s="3">
-        <v>3685400</v>
+        <v>3680800</v>
       </c>
       <c r="J49" s="3">
-        <v>3500600</v>
+        <v>3496300</v>
       </c>
       <c r="K49" s="3">
         <v>906600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>646300</v>
+        <v>645500</v>
       </c>
       <c r="E52" s="3">
-        <v>671400</v>
+        <v>670500</v>
       </c>
       <c r="F52" s="3">
-        <v>689000</v>
+        <v>688100</v>
       </c>
       <c r="G52" s="3">
-        <v>697800</v>
+        <v>696900</v>
       </c>
       <c r="H52" s="3">
-        <v>352000</v>
+        <v>351600</v>
       </c>
       <c r="I52" s="3">
-        <v>302100</v>
+        <v>301700</v>
       </c>
       <c r="J52" s="3">
-        <v>299000</v>
+        <v>298600</v>
       </c>
       <c r="K52" s="3">
         <v>284800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12559600</v>
+        <v>12543900</v>
       </c>
       <c r="E54" s="3">
-        <v>12695200</v>
+        <v>12679300</v>
       </c>
       <c r="F54" s="3">
-        <v>12095900</v>
+        <v>12080800</v>
       </c>
       <c r="G54" s="3">
-        <v>11877300</v>
+        <v>11862500</v>
       </c>
       <c r="H54" s="3">
-        <v>10216200</v>
+        <v>10203500</v>
       </c>
       <c r="I54" s="3">
-        <v>9596700</v>
+        <v>9584700</v>
       </c>
       <c r="J54" s="3">
-        <v>9376000</v>
+        <v>9364300</v>
       </c>
       <c r="K54" s="3">
         <v>6943300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>567100</v>
+        <v>566400</v>
       </c>
       <c r="E57" s="3">
-        <v>352500</v>
+        <v>352100</v>
       </c>
       <c r="F57" s="3">
-        <v>250600</v>
+        <v>250300</v>
       </c>
       <c r="G57" s="3">
-        <v>268000</v>
+        <v>267700</v>
       </c>
       <c r="H57" s="3">
-        <v>350600</v>
+        <v>350100</v>
       </c>
       <c r="I57" s="3">
-        <v>320200</v>
+        <v>319800</v>
       </c>
       <c r="J57" s="3">
-        <v>299200</v>
+        <v>298900</v>
       </c>
       <c r="K57" s="3">
         <v>272700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>497800</v>
+        <v>497200</v>
       </c>
       <c r="E58" s="3">
-        <v>372800</v>
+        <v>372300</v>
       </c>
       <c r="F58" s="3">
-        <v>284500</v>
+        <v>284100</v>
       </c>
       <c r="G58" s="3">
-        <v>345300</v>
+        <v>344900</v>
       </c>
       <c r="H58" s="3">
-        <v>58700</v>
+        <v>58600</v>
       </c>
       <c r="I58" s="3">
-        <v>497900</v>
+        <v>497300</v>
       </c>
       <c r="J58" s="3">
-        <v>619100</v>
+        <v>618400</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1288600</v>
+        <v>1287000</v>
       </c>
       <c r="E59" s="3">
-        <v>1365500</v>
+        <v>1363800</v>
       </c>
       <c r="F59" s="3">
-        <v>1338100</v>
+        <v>1336500</v>
       </c>
       <c r="G59" s="3">
-        <v>1408300</v>
+        <v>1406600</v>
       </c>
       <c r="H59" s="3">
-        <v>1398700</v>
+        <v>1397000</v>
       </c>
       <c r="I59" s="3">
-        <v>1427500</v>
+        <v>1425700</v>
       </c>
       <c r="J59" s="3">
-        <v>1523000</v>
+        <v>1521100</v>
       </c>
       <c r="K59" s="3">
         <v>1099200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2353500</v>
+        <v>2350600</v>
       </c>
       <c r="E60" s="3">
-        <v>2090800</v>
+        <v>2088200</v>
       </c>
       <c r="F60" s="3">
-        <v>1873200</v>
+        <v>1870800</v>
       </c>
       <c r="G60" s="3">
-        <v>1941900</v>
+        <v>1939400</v>
       </c>
       <c r="H60" s="3">
-        <v>1808000</v>
+        <v>1805700</v>
       </c>
       <c r="I60" s="3">
-        <v>2245600</v>
+        <v>2242800</v>
       </c>
       <c r="J60" s="3">
-        <v>2441300</v>
+        <v>2438300</v>
       </c>
       <c r="K60" s="3">
         <v>1372000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7276100</v>
+        <v>7267100</v>
       </c>
       <c r="E61" s="3">
-        <v>7217200</v>
+        <v>7208200</v>
       </c>
       <c r="F61" s="3">
-        <v>6698100</v>
+        <v>6689700</v>
       </c>
       <c r="G61" s="3">
-        <v>6241100</v>
+        <v>6233300</v>
       </c>
       <c r="H61" s="3">
-        <v>5793500</v>
+        <v>5786200</v>
       </c>
       <c r="I61" s="3">
-        <v>4889600</v>
+        <v>4883500</v>
       </c>
       <c r="J61" s="3">
-        <v>4684700</v>
+        <v>4678900</v>
       </c>
       <c r="K61" s="3">
         <v>3742700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1190000</v>
+        <v>1188500</v>
       </c>
       <c r="E62" s="3">
-        <v>1080100</v>
+        <v>1078800</v>
       </c>
       <c r="F62" s="3">
-        <v>1007400</v>
+        <v>1006200</v>
       </c>
       <c r="G62" s="3">
-        <v>1061400</v>
+        <v>1060000</v>
       </c>
       <c r="H62" s="3">
-        <v>718000</v>
+        <v>717100</v>
       </c>
       <c r="I62" s="3">
-        <v>748800</v>
+        <v>747800</v>
       </c>
       <c r="J62" s="3">
-        <v>662100</v>
+        <v>661300</v>
       </c>
       <c r="K62" s="3">
         <v>717300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11284500</v>
+        <v>11270400</v>
       </c>
       <c r="E66" s="3">
-        <v>10700500</v>
+        <v>10687200</v>
       </c>
       <c r="F66" s="3">
-        <v>9901400</v>
+        <v>9889100</v>
       </c>
       <c r="G66" s="3">
-        <v>9413900</v>
+        <v>9402200</v>
       </c>
       <c r="H66" s="3">
-        <v>8672400</v>
+        <v>8661600</v>
       </c>
       <c r="I66" s="3">
-        <v>8181500</v>
+        <v>8171300</v>
       </c>
       <c r="J66" s="3">
-        <v>8072200</v>
+        <v>8062100</v>
       </c>
       <c r="K66" s="3">
         <v>5760700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-399400</v>
+        <v>-398900</v>
       </c>
       <c r="E72" s="3">
-        <v>407300</v>
+        <v>406800</v>
       </c>
       <c r="F72" s="3">
-        <v>646600</v>
+        <v>645800</v>
       </c>
       <c r="G72" s="3">
-        <v>859700</v>
+        <v>858600</v>
       </c>
       <c r="H72" s="3">
-        <v>-67400</v>
+        <v>-67300</v>
       </c>
       <c r="I72" s="3">
-        <v>-83700</v>
+        <v>-83600</v>
       </c>
       <c r="J72" s="3">
-        <v>-168300</v>
+        <v>-168100</v>
       </c>
       <c r="K72" s="3">
         <v>-392000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1275100</v>
+        <v>1273500</v>
       </c>
       <c r="E76" s="3">
-        <v>1994600</v>
+        <v>1992100</v>
       </c>
       <c r="F76" s="3">
-        <v>2194500</v>
+        <v>2191700</v>
       </c>
       <c r="G76" s="3">
-        <v>2463400</v>
+        <v>2460300</v>
       </c>
       <c r="H76" s="3">
-        <v>1543800</v>
+        <v>1541900</v>
       </c>
       <c r="I76" s="3">
-        <v>1415200</v>
+        <v>1413400</v>
       </c>
       <c r="J76" s="3">
-        <v>1303900</v>
+        <v>1302200</v>
       </c>
       <c r="K76" s="3">
         <v>1182600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-130900</v>
+        <v>-130800</v>
       </c>
       <c r="E81" s="3">
-        <v>87400</v>
+        <v>87300</v>
       </c>
       <c r="F81" s="3">
-        <v>115100</v>
+        <v>115000</v>
       </c>
       <c r="G81" s="3">
-        <v>261600</v>
+        <v>261300</v>
       </c>
       <c r="H81" s="3">
-        <v>263300</v>
+        <v>263000</v>
       </c>
       <c r="I81" s="3">
-        <v>294600</v>
+        <v>294200</v>
       </c>
       <c r="J81" s="3">
-        <v>424900</v>
+        <v>424400</v>
       </c>
       <c r="K81" s="3">
         <v>242700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>805100</v>
+        <v>804100</v>
       </c>
       <c r="E83" s="3">
-        <v>727700</v>
+        <v>726800</v>
       </c>
       <c r="F83" s="3">
-        <v>706800</v>
+        <v>705900</v>
       </c>
       <c r="G83" s="3">
-        <v>695100</v>
+        <v>694300</v>
       </c>
       <c r="H83" s="3">
-        <v>857800</v>
+        <v>856700</v>
       </c>
       <c r="I83" s="3">
-        <v>775100</v>
+        <v>774100</v>
       </c>
       <c r="J83" s="3">
-        <v>806300</v>
+        <v>805300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1629700</v>
+        <v>1627600</v>
       </c>
       <c r="E89" s="3">
-        <v>1429100</v>
+        <v>1427400</v>
       </c>
       <c r="F89" s="3">
-        <v>840200</v>
+        <v>839100</v>
       </c>
       <c r="G89" s="3">
-        <v>1324300</v>
+        <v>1322600</v>
       </c>
       <c r="H89" s="3">
-        <v>1277700</v>
+        <v>1276100</v>
       </c>
       <c r="I89" s="3">
-        <v>1606900</v>
+        <v>1604900</v>
       </c>
       <c r="J89" s="3">
-        <v>1354700</v>
+        <v>1353000</v>
       </c>
       <c r="K89" s="3">
         <v>941300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-389300</v>
+        <v>-388900</v>
       </c>
       <c r="E91" s="3">
-        <v>-636200</v>
+        <v>-635400</v>
       </c>
       <c r="F91" s="3">
-        <v>-492200</v>
+        <v>-491600</v>
       </c>
       <c r="G91" s="3">
-        <v>-430900</v>
+        <v>-430400</v>
       </c>
       <c r="H91" s="3">
-        <v>-408700</v>
+        <v>-408200</v>
       </c>
       <c r="I91" s="3">
-        <v>-451500</v>
+        <v>-450900</v>
       </c>
       <c r="J91" s="3">
-        <v>-411200</v>
+        <v>-410700</v>
       </c>
       <c r="K91" s="3">
         <v>-329800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-967700</v>
+        <v>-966400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1166900</v>
+        <v>-1165400</v>
       </c>
       <c r="F94" s="3">
-        <v>-743600</v>
+        <v>-742700</v>
       </c>
       <c r="G94" s="3">
-        <v>-783800</v>
+        <v>-782900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1291400</v>
+        <v>-1289800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1308200</v>
+        <v>-1306600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2486700</v>
+        <v>-2483600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-318700</v>
+        <v>-318300</v>
       </c>
       <c r="E96" s="3">
-        <v>-312100</v>
+        <v>-311700</v>
       </c>
       <c r="F96" s="3">
-        <v>-297800</v>
+        <v>-297400</v>
       </c>
       <c r="G96" s="3">
-        <v>-284200</v>
+        <v>-283900</v>
       </c>
       <c r="H96" s="3">
-        <v>-189600</v>
+        <v>-189400</v>
       </c>
       <c r="I96" s="3">
-        <v>-102300</v>
+        <v>-102200</v>
       </c>
       <c r="J96" s="3">
-        <v>-98200</v>
+        <v>-98100</v>
       </c>
       <c r="K96" s="3">
         <v>-185600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-830200</v>
+        <v>-829100</v>
       </c>
       <c r="E100" s="3">
-        <v>-440100</v>
+        <v>-439500</v>
       </c>
       <c r="F100" s="3">
-        <v>-718900</v>
+        <v>-718000</v>
       </c>
       <c r="G100" s="3">
-        <v>346500</v>
+        <v>346000</v>
       </c>
       <c r="H100" s="3">
-        <v>-336100</v>
+        <v>-335700</v>
       </c>
       <c r="I100" s="3">
-        <v>-352100</v>
+        <v>-351700</v>
       </c>
       <c r="J100" s="3">
-        <v>1454200</v>
+        <v>1452400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3729,7 +3729,7 @@
         <v>-3100</v>
       </c>
       <c r="J101" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-161100</v>
+        <v>-160900</v>
       </c>
       <c r="E102" s="3">
-        <v>-182400</v>
+        <v>-182200</v>
       </c>
       <c r="F102" s="3">
-        <v>-626600</v>
+        <v>-625800</v>
       </c>
       <c r="G102" s="3">
-        <v>883300</v>
+        <v>882200</v>
       </c>
       <c r="H102" s="3">
-        <v>-352500</v>
+        <v>-352100</v>
       </c>
       <c r="I102" s="3">
-        <v>-56500</v>
+        <v>-56400</v>
       </c>
       <c r="J102" s="3">
-        <v>312500</v>
+        <v>312100</v>
       </c>
       <c r="K102" s="3">
         <v>123100</v>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>PCCWY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4877900</v>
+        <v>4596600</v>
       </c>
       <c r="E8" s="3">
-        <v>4810600</v>
+        <v>4792900</v>
       </c>
       <c r="F8" s="3">
-        <v>4981000</v>
+        <v>4962700</v>
       </c>
       <c r="G8" s="3">
-        <v>4722200</v>
+        <v>4704900</v>
       </c>
       <c r="H8" s="3">
-        <v>4921200</v>
+        <v>4903200</v>
       </c>
       <c r="I8" s="3">
-        <v>5040400</v>
+        <v>5022000</v>
       </c>
       <c r="J8" s="3">
-        <v>4266400</v>
+        <v>4250800</v>
       </c>
       <c r="K8" s="3">
         <v>3516500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2627800</v>
+        <v>5069400</v>
       </c>
       <c r="E9" s="3">
-        <v>2424100</v>
+        <v>2415200</v>
       </c>
       <c r="F9" s="3">
-        <v>2646500</v>
+        <v>2636800</v>
       </c>
       <c r="G9" s="3">
-        <v>2351900</v>
+        <v>2343300</v>
       </c>
       <c r="H9" s="3">
-        <v>2274800</v>
+        <v>2266500</v>
       </c>
       <c r="I9" s="3">
-        <v>2431500</v>
+        <v>2422600</v>
       </c>
       <c r="J9" s="3">
-        <v>1942500</v>
+        <v>1935400</v>
       </c>
       <c r="K9" s="3">
         <v>1687800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2250100</v>
+        <v>-472800</v>
       </c>
       <c r="E10" s="3">
-        <v>2386500</v>
+        <v>2377800</v>
       </c>
       <c r="F10" s="3">
-        <v>2334400</v>
+        <v>2325900</v>
       </c>
       <c r="G10" s="3">
-        <v>2370300</v>
+        <v>2361700</v>
       </c>
       <c r="H10" s="3">
-        <v>2646400</v>
+        <v>2636700</v>
       </c>
       <c r="I10" s="3">
-        <v>2608900</v>
+        <v>2599400</v>
       </c>
       <c r="J10" s="3">
-        <v>2323900</v>
+        <v>2315400</v>
       </c>
       <c r="K10" s="3">
         <v>1828700</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>86300</v>
+        <v>86000</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>-35100</v>
+        <v>-35000</v>
       </c>
       <c r="G14" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="H14" s="3">
         <v>2400</v>
       </c>
       <c r="I14" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J14" s="3">
-        <v>-251800</v>
+        <v>-250900</v>
       </c>
       <c r="K14" s="3">
         <v>-2800</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>804100</v>
+        <v>801200</v>
       </c>
       <c r="E15" s="3">
-        <v>726800</v>
+        <v>724200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4448100</v>
+        <v>4118100</v>
       </c>
       <c r="E17" s="3">
-        <v>4075200</v>
+        <v>4060200</v>
       </c>
       <c r="F17" s="3">
-        <v>4209800</v>
+        <v>4194300</v>
       </c>
       <c r="G17" s="3">
-        <v>3988000</v>
+        <v>3973400</v>
       </c>
       <c r="H17" s="3">
-        <v>4201800</v>
+        <v>4186400</v>
       </c>
       <c r="I17" s="3">
-        <v>4266400</v>
+        <v>4250800</v>
       </c>
       <c r="J17" s="3">
-        <v>3389200</v>
+        <v>3376800</v>
       </c>
       <c r="K17" s="3">
         <v>2971200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>429800</v>
+        <v>478500</v>
       </c>
       <c r="E18" s="3">
-        <v>735400</v>
+        <v>732700</v>
       </c>
       <c r="F18" s="3">
+        <v>768400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>731600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>716700</v>
+      </c>
+      <c r="I18" s="3">
         <v>771200</v>
       </c>
-      <c r="G18" s="3">
-        <v>734300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>719400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>774000</v>
-      </c>
       <c r="J18" s="3">
-        <v>877200</v>
+        <v>874000</v>
       </c>
       <c r="K18" s="3">
         <v>545300</v>
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12400</v>
+        <v>23500</v>
       </c>
       <c r="E20" s="3">
         <v>1900</v>
@@ -1101,10 +1101,10 @@
         <v>-400</v>
       </c>
       <c r="H20" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="I20" s="3">
-        <v>-20400</v>
+        <v>-20300</v>
       </c>
       <c r="J20" s="3">
         <v>-13300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1221600</v>
+        <v>1304100</v>
       </c>
       <c r="E21" s="3">
-        <v>1464300</v>
+        <v>1459600</v>
       </c>
       <c r="F21" s="3">
-        <v>1476200</v>
+        <v>1471500</v>
       </c>
       <c r="G21" s="3">
-        <v>1428200</v>
+        <v>1423700</v>
       </c>
       <c r="H21" s="3">
-        <v>1563500</v>
+        <v>1558700</v>
       </c>
       <c r="I21" s="3">
-        <v>1527900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1669300</v>
+        <v>1523100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>236800</v>
+        <v>235900</v>
       </c>
       <c r="E22" s="3">
-        <v>248700</v>
+        <v>247800</v>
       </c>
       <c r="F22" s="3">
-        <v>233700</v>
+        <v>232900</v>
       </c>
       <c r="G22" s="3">
-        <v>202400</v>
+        <v>201700</v>
       </c>
       <c r="H22" s="3">
-        <v>164700</v>
+        <v>164100</v>
       </c>
       <c r="I22" s="3">
-        <v>184400</v>
+        <v>183700</v>
       </c>
       <c r="J22" s="3">
-        <v>162100</v>
+        <v>161500</v>
       </c>
       <c r="K22" s="3">
         <v>133600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>180500</v>
+        <v>266100</v>
       </c>
       <c r="E23" s="3">
-        <v>488600</v>
+        <v>486800</v>
       </c>
       <c r="F23" s="3">
-        <v>536400</v>
+        <v>534500</v>
       </c>
       <c r="G23" s="3">
-        <v>531400</v>
+        <v>529500</v>
       </c>
       <c r="H23" s="3">
-        <v>541900</v>
+        <v>540000</v>
       </c>
       <c r="I23" s="3">
-        <v>569300</v>
+        <v>567200</v>
       </c>
       <c r="J23" s="3">
-        <v>701800</v>
+        <v>699200</v>
       </c>
       <c r="K23" s="3">
         <v>420300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>97300</v>
+        <v>90100</v>
       </c>
       <c r="E24" s="3">
-        <v>120600</v>
+        <v>120200</v>
       </c>
       <c r="F24" s="3">
-        <v>145400</v>
+        <v>144900</v>
       </c>
       <c r="G24" s="3">
-        <v>136000</v>
+        <v>135500</v>
       </c>
       <c r="H24" s="3">
-        <v>50600</v>
+        <v>50500</v>
       </c>
       <c r="I24" s="3">
-        <v>57300</v>
+        <v>57100</v>
       </c>
       <c r="J24" s="3">
-        <v>103000</v>
+        <v>102600</v>
       </c>
       <c r="K24" s="3">
         <v>27000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>83200</v>
+        <v>176000</v>
       </c>
       <c r="E26" s="3">
-        <v>368000</v>
+        <v>366600</v>
       </c>
       <c r="F26" s="3">
-        <v>391000</v>
+        <v>389600</v>
       </c>
       <c r="G26" s="3">
-        <v>395400</v>
+        <v>394000</v>
       </c>
       <c r="H26" s="3">
-        <v>491300</v>
+        <v>489500</v>
       </c>
       <c r="I26" s="3">
-        <v>511900</v>
+        <v>510100</v>
       </c>
       <c r="J26" s="3">
-        <v>598900</v>
+        <v>596700</v>
       </c>
       <c r="K26" s="3">
         <v>393300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-130800</v>
+        <v>-37200</v>
       </c>
       <c r="E27" s="3">
-        <v>87300</v>
+        <v>87000</v>
       </c>
       <c r="F27" s="3">
-        <v>115000</v>
+        <v>114600</v>
       </c>
       <c r="G27" s="3">
-        <v>114700</v>
+        <v>114300</v>
       </c>
       <c r="H27" s="3">
-        <v>263000</v>
+        <v>262000</v>
       </c>
       <c r="I27" s="3">
-        <v>294200</v>
+        <v>293200</v>
       </c>
       <c r="J27" s="3">
-        <v>424400</v>
+        <v>422800</v>
       </c>
       <c r="K27" s="3">
         <v>242700</v>
@@ -1412,8 +1412,8 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>-93100</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>146500</v>
+        <v>146000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12400</v>
+        <v>-23500</v>
       </c>
       <c r="E32" s="3">
         <v>-1900</v>
@@ -1533,10 +1533,10 @@
         <v>400</v>
       </c>
       <c r="H32" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="I32" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="J32" s="3">
         <v>13300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-130800</v>
+        <v>-130300</v>
       </c>
       <c r="E33" s="3">
-        <v>87300</v>
+        <v>87000</v>
       </c>
       <c r="F33" s="3">
-        <v>115000</v>
+        <v>114600</v>
       </c>
       <c r="G33" s="3">
-        <v>261300</v>
+        <v>260300</v>
       </c>
       <c r="H33" s="3">
-        <v>263000</v>
+        <v>262000</v>
       </c>
       <c r="I33" s="3">
-        <v>294200</v>
+        <v>293200</v>
       </c>
       <c r="J33" s="3">
-        <v>424400</v>
+        <v>422800</v>
       </c>
       <c r="K33" s="3">
         <v>242700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-130800</v>
+        <v>-130300</v>
       </c>
       <c r="E35" s="3">
-        <v>87300</v>
+        <v>87000</v>
       </c>
       <c r="F35" s="3">
-        <v>115000</v>
+        <v>114600</v>
       </c>
       <c r="G35" s="3">
-        <v>261300</v>
+        <v>260300</v>
       </c>
       <c r="H35" s="3">
-        <v>263000</v>
+        <v>262000</v>
       </c>
       <c r="I35" s="3">
-        <v>294200</v>
+        <v>293200</v>
       </c>
       <c r="J35" s="3">
-        <v>424400</v>
+        <v>422800</v>
       </c>
       <c r="K35" s="3">
         <v>242700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>523200</v>
+        <v>583000</v>
       </c>
       <c r="E41" s="3">
-        <v>684100</v>
+        <v>521300</v>
       </c>
       <c r="F41" s="3">
-        <v>866300</v>
+        <v>681600</v>
       </c>
       <c r="G41" s="3">
-        <v>1492100</v>
+        <v>863100</v>
       </c>
       <c r="H41" s="3">
-        <v>609100</v>
+        <v>1486600</v>
       </c>
       <c r="I41" s="3">
-        <v>962000</v>
+        <v>606900</v>
       </c>
       <c r="J41" s="3">
-        <v>1018400</v>
+        <v>958400</v>
       </c>
       <c r="K41" s="3">
         <v>709200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>69000</v>
+        <v>60300</v>
       </c>
       <c r="E42" s="3">
-        <v>62300</v>
+        <v>68700</v>
       </c>
       <c r="F42" s="3">
-        <v>77400</v>
+        <v>62100</v>
       </c>
       <c r="G42" s="3">
-        <v>219000</v>
+        <v>77200</v>
       </c>
       <c r="H42" s="3">
-        <v>58100</v>
+        <v>218200</v>
       </c>
       <c r="I42" s="3">
+        <v>57900</v>
+      </c>
+      <c r="J42" s="3">
         <v>100</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>1300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>907000</v>
+        <v>1123100</v>
       </c>
       <c r="E43" s="3">
-        <v>966600</v>
+        <v>903600</v>
       </c>
       <c r="F43" s="3">
-        <v>976600</v>
+        <v>963000</v>
       </c>
       <c r="G43" s="3">
-        <v>879400</v>
+        <v>973000</v>
       </c>
       <c r="H43" s="3">
-        <v>499000</v>
+        <v>876200</v>
       </c>
       <c r="I43" s="3">
-        <v>522600</v>
+        <v>497200</v>
       </c>
       <c r="J43" s="3">
-        <v>592200</v>
+        <v>520700</v>
       </c>
       <c r="K43" s="3">
         <v>501000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>174400</v>
+        <v>184500</v>
       </c>
       <c r="E44" s="3">
-        <v>339400</v>
+        <v>173700</v>
       </c>
       <c r="F44" s="3">
-        <v>262800</v>
+        <v>338100</v>
       </c>
       <c r="G44" s="3">
-        <v>233600</v>
+        <v>261900</v>
       </c>
       <c r="H44" s="3">
-        <v>120900</v>
+        <v>232700</v>
       </c>
       <c r="I44" s="3">
-        <v>99200</v>
+        <v>120500</v>
       </c>
       <c r="J44" s="3">
-        <v>102700</v>
+        <v>98900</v>
       </c>
       <c r="K44" s="3">
         <v>154300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>545900</v>
+        <v>427800</v>
       </c>
       <c r="E45" s="3">
-        <v>623100</v>
+        <v>543900</v>
       </c>
       <c r="F45" s="3">
-        <v>569900</v>
+        <v>620800</v>
       </c>
       <c r="G45" s="3">
-        <v>655200</v>
+        <v>567800</v>
       </c>
       <c r="H45" s="3">
-        <v>1343000</v>
+        <v>652800</v>
       </c>
       <c r="I45" s="3">
-        <v>998100</v>
+        <v>1338100</v>
       </c>
       <c r="J45" s="3">
-        <v>1029300</v>
+        <v>994500</v>
       </c>
       <c r="K45" s="3">
         <v>897100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2219400</v>
+        <v>2378600</v>
       </c>
       <c r="E46" s="3">
-        <v>2675500</v>
+        <v>2211300</v>
       </c>
       <c r="F46" s="3">
-        <v>2753100</v>
+        <v>2665700</v>
       </c>
       <c r="G46" s="3">
-        <v>3362400</v>
+        <v>2743000</v>
       </c>
       <c r="H46" s="3">
-        <v>2630100</v>
+        <v>3350100</v>
       </c>
       <c r="I46" s="3">
-        <v>2582000</v>
+        <v>2620500</v>
       </c>
       <c r="J46" s="3">
-        <v>2742500</v>
+        <v>2572600</v>
       </c>
       <c r="K46" s="3">
         <v>2262900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>387100</v>
+        <v>764900</v>
       </c>
       <c r="E47" s="3">
-        <v>380800</v>
+        <v>385600</v>
       </c>
       <c r="F47" s="3">
-        <v>441400</v>
+        <v>379400</v>
       </c>
       <c r="G47" s="3">
-        <v>472500</v>
+        <v>439800</v>
       </c>
       <c r="H47" s="3">
-        <v>309000</v>
+        <v>470700</v>
       </c>
       <c r="I47" s="3">
-        <v>244800</v>
+        <v>307900</v>
       </c>
       <c r="J47" s="3">
-        <v>248600</v>
+        <v>243900</v>
       </c>
       <c r="K47" s="3">
         <v>251000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5061600</v>
+        <v>3603200</v>
       </c>
       <c r="E48" s="3">
-        <v>4891500</v>
+        <v>5043000</v>
       </c>
       <c r="F48" s="3">
-        <v>4456100</v>
+        <v>4873500</v>
       </c>
       <c r="G48" s="3">
-        <v>3827100</v>
+        <v>4439700</v>
       </c>
       <c r="H48" s="3">
-        <v>3056700</v>
+        <v>3813000</v>
       </c>
       <c r="I48" s="3">
-        <v>2775500</v>
+        <v>3045400</v>
       </c>
       <c r="J48" s="3">
-        <v>2578300</v>
+        <v>2765300</v>
       </c>
       <c r="K48" s="3">
         <v>3237900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4230300</v>
+        <v>4703400</v>
       </c>
       <c r="E49" s="3">
-        <v>4061100</v>
+        <v>4214800</v>
       </c>
       <c r="F49" s="3">
-        <v>3742200</v>
+        <v>4046200</v>
       </c>
       <c r="G49" s="3">
-        <v>7511200</v>
+        <v>3728500</v>
       </c>
       <c r="H49" s="3">
-        <v>3856200</v>
+        <v>7483600</v>
       </c>
       <c r="I49" s="3">
-        <v>3680800</v>
+        <v>3842000</v>
       </c>
       <c r="J49" s="3">
-        <v>3496300</v>
+        <v>3667300</v>
       </c>
       <c r="K49" s="3">
         <v>906600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>645500</v>
+        <v>585900</v>
       </c>
       <c r="E52" s="3">
-        <v>670500</v>
+        <v>643200</v>
       </c>
       <c r="F52" s="3">
-        <v>688100</v>
+        <v>668100</v>
       </c>
       <c r="G52" s="3">
-        <v>696900</v>
+        <v>685600</v>
       </c>
       <c r="H52" s="3">
-        <v>351600</v>
+        <v>694400</v>
       </c>
       <c r="I52" s="3">
-        <v>301700</v>
+        <v>350300</v>
       </c>
       <c r="J52" s="3">
-        <v>298600</v>
+        <v>300600</v>
       </c>
       <c r="K52" s="3">
         <v>284800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12543900</v>
+        <v>12036000</v>
       </c>
       <c r="E54" s="3">
-        <v>12679300</v>
+        <v>12498000</v>
       </c>
       <c r="F54" s="3">
-        <v>12080800</v>
+        <v>12632800</v>
       </c>
       <c r="G54" s="3">
-        <v>11862500</v>
+        <v>12036600</v>
       </c>
       <c r="H54" s="3">
-        <v>10203500</v>
+        <v>11819000</v>
       </c>
       <c r="I54" s="3">
-        <v>9584700</v>
+        <v>10166100</v>
       </c>
       <c r="J54" s="3">
-        <v>9364300</v>
+        <v>9549600</v>
       </c>
       <c r="K54" s="3">
         <v>6943300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>566400</v>
+        <v>737100</v>
       </c>
       <c r="E57" s="3">
-        <v>352100</v>
+        <v>564400</v>
       </c>
       <c r="F57" s="3">
-        <v>250300</v>
+        <v>350800</v>
       </c>
       <c r="G57" s="3">
-        <v>267700</v>
+        <v>249300</v>
       </c>
       <c r="H57" s="3">
-        <v>350100</v>
+        <v>266700</v>
       </c>
       <c r="I57" s="3">
-        <v>319800</v>
+        <v>348900</v>
       </c>
       <c r="J57" s="3">
-        <v>298900</v>
+        <v>318600</v>
       </c>
       <c r="K57" s="3">
         <v>272700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>497200</v>
+        <v>452100</v>
       </c>
       <c r="E58" s="3">
-        <v>372300</v>
+        <v>495400</v>
       </c>
       <c r="F58" s="3">
-        <v>284100</v>
+        <v>371000</v>
       </c>
       <c r="G58" s="3">
-        <v>344900</v>
+        <v>283100</v>
       </c>
       <c r="H58" s="3">
-        <v>58600</v>
+        <v>343600</v>
       </c>
       <c r="I58" s="3">
-        <v>497300</v>
+        <v>58400</v>
       </c>
       <c r="J58" s="3">
-        <v>618400</v>
+        <v>495500</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1287000</v>
+        <v>1572000</v>
       </c>
       <c r="E59" s="3">
-        <v>1363800</v>
+        <v>1282300</v>
       </c>
       <c r="F59" s="3">
-        <v>1336500</v>
+        <v>1358800</v>
       </c>
       <c r="G59" s="3">
-        <v>1406600</v>
+        <v>1331600</v>
       </c>
       <c r="H59" s="3">
-        <v>1397000</v>
+        <v>1401400</v>
       </c>
       <c r="I59" s="3">
-        <v>1425700</v>
+        <v>1391900</v>
       </c>
       <c r="J59" s="3">
-        <v>1521100</v>
+        <v>1420500</v>
       </c>
       <c r="K59" s="3">
         <v>1099200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2350600</v>
+        <v>2761100</v>
       </c>
       <c r="E60" s="3">
-        <v>2088200</v>
+        <v>2342000</v>
       </c>
       <c r="F60" s="3">
-        <v>1870800</v>
+        <v>2080500</v>
       </c>
       <c r="G60" s="3">
-        <v>1939400</v>
+        <v>1864000</v>
       </c>
       <c r="H60" s="3">
-        <v>1805700</v>
+        <v>1932300</v>
       </c>
       <c r="I60" s="3">
-        <v>2242800</v>
+        <v>1799100</v>
       </c>
       <c r="J60" s="3">
-        <v>2438300</v>
+        <v>2234600</v>
       </c>
       <c r="K60" s="3">
         <v>1372000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7267100</v>
+        <v>5834800</v>
       </c>
       <c r="E61" s="3">
-        <v>7208200</v>
+        <v>7240400</v>
       </c>
       <c r="F61" s="3">
-        <v>6689700</v>
+        <v>7181800</v>
       </c>
       <c r="G61" s="3">
-        <v>6233300</v>
+        <v>6665200</v>
       </c>
       <c r="H61" s="3">
-        <v>5786200</v>
+        <v>6210500</v>
       </c>
       <c r="I61" s="3">
-        <v>4883500</v>
+        <v>5765000</v>
       </c>
       <c r="J61" s="3">
-        <v>4678900</v>
+        <v>4865600</v>
       </c>
       <c r="K61" s="3">
         <v>3742700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1188500</v>
+        <v>1462500</v>
       </c>
       <c r="E62" s="3">
-        <v>1078800</v>
+        <v>1184100</v>
       </c>
       <c r="F62" s="3">
-        <v>1006200</v>
+        <v>1074800</v>
       </c>
       <c r="G62" s="3">
-        <v>1060000</v>
+        <v>1002500</v>
       </c>
       <c r="H62" s="3">
-        <v>717100</v>
+        <v>1056200</v>
       </c>
       <c r="I62" s="3">
-        <v>747800</v>
+        <v>714400</v>
       </c>
       <c r="J62" s="3">
-        <v>661300</v>
+        <v>745100</v>
       </c>
       <c r="K62" s="3">
         <v>717300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11270400</v>
+        <v>10201300</v>
       </c>
       <c r="E66" s="3">
-        <v>10687200</v>
+        <v>11229100</v>
       </c>
       <c r="F66" s="3">
-        <v>9889100</v>
+        <v>10648000</v>
       </c>
       <c r="G66" s="3">
-        <v>9402200</v>
+        <v>9852800</v>
       </c>
       <c r="H66" s="3">
-        <v>8661600</v>
+        <v>9367700</v>
       </c>
       <c r="I66" s="3">
-        <v>8171300</v>
+        <v>8629900</v>
       </c>
       <c r="J66" s="3">
-        <v>8062100</v>
+        <v>8141400</v>
       </c>
       <c r="K66" s="3">
         <v>5760700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-398900</v>
+        <v>-571900</v>
       </c>
       <c r="E72" s="3">
-        <v>406800</v>
+        <v>-397400</v>
       </c>
       <c r="F72" s="3">
-        <v>645800</v>
+        <v>405300</v>
       </c>
       <c r="G72" s="3">
-        <v>858600</v>
+        <v>643400</v>
       </c>
       <c r="H72" s="3">
-        <v>-67300</v>
+        <v>855500</v>
       </c>
       <c r="I72" s="3">
-        <v>-83600</v>
+        <v>-67100</v>
       </c>
       <c r="J72" s="3">
-        <v>-168100</v>
+        <v>-83300</v>
       </c>
       <c r="K72" s="3">
         <v>-392000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1273500</v>
+        <v>1834700</v>
       </c>
       <c r="E76" s="3">
-        <v>1992100</v>
+        <v>1268800</v>
       </c>
       <c r="F76" s="3">
-        <v>2191700</v>
+        <v>1984800</v>
       </c>
       <c r="G76" s="3">
-        <v>2460300</v>
+        <v>2183700</v>
       </c>
       <c r="H76" s="3">
-        <v>1541900</v>
+        <v>2451300</v>
       </c>
       <c r="I76" s="3">
-        <v>1413400</v>
+        <v>1536200</v>
       </c>
       <c r="J76" s="3">
-        <v>1302200</v>
+        <v>1408200</v>
       </c>
       <c r="K76" s="3">
         <v>1182600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-130800</v>
+        <v>-130300</v>
       </c>
       <c r="E81" s="3">
-        <v>87300</v>
+        <v>87000</v>
       </c>
       <c r="F81" s="3">
-        <v>115000</v>
+        <v>114600</v>
       </c>
       <c r="G81" s="3">
-        <v>261300</v>
+        <v>260300</v>
       </c>
       <c r="H81" s="3">
-        <v>263000</v>
+        <v>262000</v>
       </c>
       <c r="I81" s="3">
-        <v>294200</v>
+        <v>293200</v>
       </c>
       <c r="J81" s="3">
-        <v>424400</v>
+        <v>422800</v>
       </c>
       <c r="K81" s="3">
         <v>242700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>804100</v>
+        <v>801200</v>
       </c>
       <c r="E83" s="3">
-        <v>726800</v>
+        <v>724200</v>
       </c>
       <c r="F83" s="3">
-        <v>705900</v>
+        <v>703300</v>
       </c>
       <c r="G83" s="3">
-        <v>694300</v>
+        <v>691700</v>
       </c>
       <c r="H83" s="3">
-        <v>856700</v>
+        <v>853600</v>
       </c>
       <c r="I83" s="3">
-        <v>774100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>805300</v>
+        <v>771300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1627600</v>
+        <v>1621700</v>
       </c>
       <c r="E89" s="3">
-        <v>1427400</v>
+        <v>1422100</v>
       </c>
       <c r="F89" s="3">
-        <v>839100</v>
+        <v>836100</v>
       </c>
       <c r="G89" s="3">
-        <v>1322600</v>
+        <v>1317800</v>
       </c>
       <c r="H89" s="3">
-        <v>1276100</v>
+        <v>1271400</v>
       </c>
       <c r="I89" s="3">
-        <v>1604900</v>
+        <v>1599000</v>
       </c>
       <c r="J89" s="3">
-        <v>1353000</v>
+        <v>1348000</v>
       </c>
       <c r="K89" s="3">
         <v>941300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-388900</v>
+        <v>-387400</v>
       </c>
       <c r="E91" s="3">
-        <v>-635400</v>
+        <v>-633100</v>
       </c>
       <c r="F91" s="3">
-        <v>-491600</v>
+        <v>-489800</v>
       </c>
       <c r="G91" s="3">
-        <v>-430400</v>
+        <v>-428800</v>
       </c>
       <c r="H91" s="3">
-        <v>-408200</v>
+        <v>-406700</v>
       </c>
       <c r="I91" s="3">
-        <v>-450900</v>
+        <v>-449300</v>
       </c>
       <c r="J91" s="3">
-        <v>-410700</v>
+        <v>-409200</v>
       </c>
       <c r="K91" s="3">
         <v>-329800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-966400</v>
+        <v>-962900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1165400</v>
+        <v>-1161200</v>
       </c>
       <c r="F94" s="3">
-        <v>-742700</v>
+        <v>-740000</v>
       </c>
       <c r="G94" s="3">
-        <v>-782900</v>
+        <v>-780000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1289800</v>
+        <v>-1285100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1306600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2483600</v>
+        <v>-1301800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-318300</v>
+        <v>-317200</v>
       </c>
       <c r="E96" s="3">
-        <v>-311700</v>
+        <v>-310500</v>
       </c>
       <c r="F96" s="3">
-        <v>-297400</v>
+        <v>-296400</v>
       </c>
       <c r="G96" s="3">
-        <v>-283900</v>
+        <v>-282800</v>
       </c>
       <c r="H96" s="3">
-        <v>-189400</v>
+        <v>-188700</v>
       </c>
       <c r="I96" s="3">
-        <v>-102200</v>
+        <v>-101800</v>
       </c>
       <c r="J96" s="3">
-        <v>-98100</v>
+        <v>-97700</v>
       </c>
       <c r="K96" s="3">
         <v>-185600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-829100</v>
+        <v>-826100</v>
       </c>
       <c r="E100" s="3">
-        <v>-439500</v>
+        <v>-437900</v>
       </c>
       <c r="F100" s="3">
-        <v>-718000</v>
+        <v>-715300</v>
       </c>
       <c r="G100" s="3">
-        <v>346000</v>
+        <v>344800</v>
       </c>
       <c r="H100" s="3">
-        <v>-335700</v>
+        <v>-334400</v>
       </c>
       <c r="I100" s="3">
-        <v>-351700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1452400</v>
+        <v>-350400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E101" s="3">
         <v>-4600</v>
@@ -3728,8 +3728,8 @@
       <c r="I101" s="3">
         <v>-3100</v>
       </c>
-      <c r="J101" s="3">
-        <v>-9700</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-160900</v>
+        <v>-160300</v>
       </c>
       <c r="E102" s="3">
-        <v>-182200</v>
+        <v>-181500</v>
       </c>
       <c r="F102" s="3">
-        <v>-625800</v>
+        <v>-623500</v>
       </c>
       <c r="G102" s="3">
-        <v>882200</v>
+        <v>879000</v>
       </c>
       <c r="H102" s="3">
-        <v>-352100</v>
+        <v>-350800</v>
       </c>
       <c r="I102" s="3">
-        <v>-56400</v>
+        <v>-56200</v>
       </c>
       <c r="J102" s="3">
-        <v>312100</v>
+        <v>310900</v>
       </c>
       <c r="K102" s="3">
         <v>123100</v>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4596600</v>
+        <v>4584000</v>
       </c>
       <c r="E8" s="3">
-        <v>4792900</v>
+        <v>4779800</v>
       </c>
       <c r="F8" s="3">
-        <v>4962700</v>
+        <v>4949100</v>
       </c>
       <c r="G8" s="3">
-        <v>4704900</v>
+        <v>4692000</v>
       </c>
       <c r="H8" s="3">
-        <v>4903200</v>
+        <v>4889700</v>
       </c>
       <c r="I8" s="3">
-        <v>5022000</v>
+        <v>5008200</v>
       </c>
       <c r="J8" s="3">
-        <v>4250800</v>
+        <v>4239200</v>
       </c>
       <c r="K8" s="3">
         <v>3516500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5069400</v>
+        <v>5055500</v>
       </c>
       <c r="E9" s="3">
-        <v>2415200</v>
+        <v>2408600</v>
       </c>
       <c r="F9" s="3">
-        <v>2636800</v>
+        <v>2629600</v>
       </c>
       <c r="G9" s="3">
-        <v>2343300</v>
+        <v>2336800</v>
       </c>
       <c r="H9" s="3">
-        <v>2266500</v>
+        <v>2260300</v>
       </c>
       <c r="I9" s="3">
-        <v>2422600</v>
+        <v>2416000</v>
       </c>
       <c r="J9" s="3">
-        <v>1935400</v>
+        <v>1930100</v>
       </c>
       <c r="K9" s="3">
         <v>1687800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-472800</v>
+        <v>-471500</v>
       </c>
       <c r="E10" s="3">
-        <v>2377800</v>
+        <v>2371200</v>
       </c>
       <c r="F10" s="3">
-        <v>2325900</v>
+        <v>2319500</v>
       </c>
       <c r="G10" s="3">
-        <v>2361700</v>
+        <v>2355200</v>
       </c>
       <c r="H10" s="3">
-        <v>2636700</v>
+        <v>2629500</v>
       </c>
       <c r="I10" s="3">
-        <v>2599400</v>
+        <v>2592300</v>
       </c>
       <c r="J10" s="3">
-        <v>2315400</v>
+        <v>2309100</v>
       </c>
       <c r="K10" s="3">
         <v>1828700</v>
@@ -916,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>86000</v>
+        <v>85700</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>-35000</v>
+        <v>-34900</v>
       </c>
       <c r="G14" s="3">
         <v>19000</v>
@@ -934,7 +934,7 @@
         <v>3400</v>
       </c>
       <c r="J14" s="3">
-        <v>-250900</v>
+        <v>-250200</v>
       </c>
       <c r="K14" s="3">
         <v>-2800</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>801200</v>
+        <v>799000</v>
       </c>
       <c r="E15" s="3">
-        <v>724200</v>
+        <v>722200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4118100</v>
+        <v>4106800</v>
       </c>
       <c r="E17" s="3">
-        <v>4060200</v>
+        <v>4049100</v>
       </c>
       <c r="F17" s="3">
-        <v>4194300</v>
+        <v>4182900</v>
       </c>
       <c r="G17" s="3">
-        <v>3973400</v>
+        <v>3962500</v>
       </c>
       <c r="H17" s="3">
-        <v>4186400</v>
+        <v>4175000</v>
       </c>
       <c r="I17" s="3">
-        <v>4250800</v>
+        <v>4239200</v>
       </c>
       <c r="J17" s="3">
-        <v>3376800</v>
+        <v>3367600</v>
       </c>
       <c r="K17" s="3">
         <v>2971200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>478500</v>
+        <v>477200</v>
       </c>
       <c r="E18" s="3">
-        <v>732700</v>
+        <v>730700</v>
       </c>
       <c r="F18" s="3">
-        <v>768400</v>
+        <v>766300</v>
       </c>
       <c r="G18" s="3">
-        <v>731600</v>
+        <v>729600</v>
       </c>
       <c r="H18" s="3">
-        <v>716700</v>
+        <v>714800</v>
       </c>
       <c r="I18" s="3">
-        <v>771200</v>
+        <v>769100</v>
       </c>
       <c r="J18" s="3">
-        <v>874000</v>
+        <v>871600</v>
       </c>
       <c r="K18" s="3">
         <v>545300</v>
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="E20" s="3">
         <v>1900</v>
@@ -1107,7 +1107,7 @@
         <v>-20300</v>
       </c>
       <c r="J20" s="3">
-        <v>-13300</v>
+        <v>-13200</v>
       </c>
       <c r="K20" s="3">
         <v>8600</v>
@@ -1125,22 +1125,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1304100</v>
+        <v>1222800</v>
       </c>
       <c r="E21" s="3">
-        <v>1459600</v>
+        <v>1434000</v>
       </c>
       <c r="F21" s="3">
-        <v>1471500</v>
+        <v>1455000</v>
       </c>
       <c r="G21" s="3">
-        <v>1423700</v>
+        <v>1580400</v>
       </c>
       <c r="H21" s="3">
-        <v>1558700</v>
+        <v>1471400</v>
       </c>
       <c r="I21" s="3">
-        <v>1523100</v>
+        <v>1548900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>235900</v>
+        <v>235300</v>
       </c>
       <c r="E22" s="3">
-        <v>247800</v>
+        <v>247100</v>
       </c>
       <c r="F22" s="3">
-        <v>232900</v>
+        <v>232200</v>
       </c>
       <c r="G22" s="3">
-        <v>201700</v>
+        <v>201100</v>
       </c>
       <c r="H22" s="3">
-        <v>164100</v>
+        <v>163700</v>
       </c>
       <c r="I22" s="3">
-        <v>183700</v>
+        <v>183200</v>
       </c>
       <c r="J22" s="3">
-        <v>161500</v>
+        <v>161000</v>
       </c>
       <c r="K22" s="3">
         <v>133600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>266100</v>
+        <v>265400</v>
       </c>
       <c r="E23" s="3">
-        <v>486800</v>
+        <v>485500</v>
       </c>
       <c r="F23" s="3">
-        <v>534500</v>
+        <v>533000</v>
       </c>
       <c r="G23" s="3">
-        <v>529500</v>
+        <v>528000</v>
       </c>
       <c r="H23" s="3">
-        <v>540000</v>
+        <v>538500</v>
       </c>
       <c r="I23" s="3">
-        <v>567200</v>
+        <v>565600</v>
       </c>
       <c r="J23" s="3">
-        <v>699200</v>
+        <v>697300</v>
       </c>
       <c r="K23" s="3">
         <v>420300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90100</v>
+        <v>89800</v>
       </c>
       <c r="E24" s="3">
-        <v>120200</v>
+        <v>119900</v>
       </c>
       <c r="F24" s="3">
-        <v>144900</v>
+        <v>144500</v>
       </c>
       <c r="G24" s="3">
-        <v>135500</v>
+        <v>135200</v>
       </c>
       <c r="H24" s="3">
-        <v>50500</v>
+        <v>50300</v>
       </c>
       <c r="I24" s="3">
-        <v>57100</v>
+        <v>56900</v>
       </c>
       <c r="J24" s="3">
-        <v>102600</v>
+        <v>102300</v>
       </c>
       <c r="K24" s="3">
         <v>27000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>176000</v>
+        <v>175500</v>
       </c>
       <c r="E26" s="3">
-        <v>366600</v>
+        <v>365600</v>
       </c>
       <c r="F26" s="3">
-        <v>389600</v>
+        <v>388500</v>
       </c>
       <c r="G26" s="3">
-        <v>394000</v>
+        <v>392900</v>
       </c>
       <c r="H26" s="3">
-        <v>489500</v>
+        <v>488200</v>
       </c>
       <c r="I26" s="3">
-        <v>510100</v>
+        <v>508700</v>
       </c>
       <c r="J26" s="3">
-        <v>596700</v>
+        <v>595000</v>
       </c>
       <c r="K26" s="3">
         <v>393300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-37200</v>
+        <v>-37100</v>
       </c>
       <c r="E27" s="3">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="F27" s="3">
-        <v>114600</v>
+        <v>114300</v>
       </c>
       <c r="G27" s="3">
-        <v>114300</v>
+        <v>114000</v>
       </c>
       <c r="H27" s="3">
-        <v>262000</v>
+        <v>261300</v>
       </c>
       <c r="I27" s="3">
-        <v>293200</v>
+        <v>292400</v>
       </c>
       <c r="J27" s="3">
-        <v>422800</v>
+        <v>421700</v>
       </c>
       <c r="K27" s="3">
         <v>242700</v>
@@ -1413,7 +1413,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-93100</v>
+        <v>-92900</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>146000</v>
+        <v>145600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23500</v>
+        <v>-23400</v>
       </c>
       <c r="E32" s="3">
         <v>-1900</v>
@@ -1539,7 +1539,7 @@
         <v>20300</v>
       </c>
       <c r="J32" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="K32" s="3">
         <v>-8600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-130300</v>
+        <v>-129900</v>
       </c>
       <c r="E33" s="3">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="F33" s="3">
-        <v>114600</v>
+        <v>114300</v>
       </c>
       <c r="G33" s="3">
-        <v>260300</v>
+        <v>259600</v>
       </c>
       <c r="H33" s="3">
-        <v>262000</v>
+        <v>261300</v>
       </c>
       <c r="I33" s="3">
-        <v>293200</v>
+        <v>292400</v>
       </c>
       <c r="J33" s="3">
-        <v>422800</v>
+        <v>421700</v>
       </c>
       <c r="K33" s="3">
         <v>242700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-130300</v>
+        <v>-129900</v>
       </c>
       <c r="E35" s="3">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="F35" s="3">
-        <v>114600</v>
+        <v>114300</v>
       </c>
       <c r="G35" s="3">
-        <v>260300</v>
+        <v>259600</v>
       </c>
       <c r="H35" s="3">
-        <v>262000</v>
+        <v>261300</v>
       </c>
       <c r="I35" s="3">
-        <v>293200</v>
+        <v>292400</v>
       </c>
       <c r="J35" s="3">
-        <v>422800</v>
+        <v>421700</v>
       </c>
       <c r="K35" s="3">
         <v>242700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>583000</v>
+        <v>519900</v>
       </c>
       <c r="E41" s="3">
-        <v>521300</v>
+        <v>679800</v>
       </c>
       <c r="F41" s="3">
-        <v>681600</v>
+        <v>860800</v>
       </c>
       <c r="G41" s="3">
-        <v>863100</v>
+        <v>1482600</v>
       </c>
       <c r="H41" s="3">
-        <v>1486600</v>
+        <v>605200</v>
       </c>
       <c r="I41" s="3">
-        <v>606900</v>
+        <v>955800</v>
       </c>
       <c r="J41" s="3">
-        <v>958400</v>
+        <v>1011900</v>
       </c>
       <c r="K41" s="3">
         <v>709200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>60300</v>
+        <v>68500</v>
       </c>
       <c r="E42" s="3">
-        <v>68700</v>
+        <v>61900</v>
       </c>
       <c r="F42" s="3">
-        <v>62100</v>
+        <v>76900</v>
       </c>
       <c r="G42" s="3">
-        <v>77200</v>
+        <v>217600</v>
       </c>
       <c r="H42" s="3">
-        <v>218200</v>
+        <v>57700</v>
       </c>
       <c r="I42" s="3">
-        <v>57900</v>
+        <v>100</v>
       </c>
       <c r="J42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>1300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1123100</v>
+        <v>901200</v>
       </c>
       <c r="E43" s="3">
-        <v>903600</v>
+        <v>960400</v>
       </c>
       <c r="F43" s="3">
-        <v>963000</v>
+        <v>970300</v>
       </c>
       <c r="G43" s="3">
-        <v>973000</v>
+        <v>873800</v>
       </c>
       <c r="H43" s="3">
-        <v>876200</v>
+        <v>495800</v>
       </c>
       <c r="I43" s="3">
-        <v>497200</v>
+        <v>519200</v>
       </c>
       <c r="J43" s="3">
-        <v>520700</v>
+        <v>588400</v>
       </c>
       <c r="K43" s="3">
         <v>501000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>184500</v>
+        <v>173300</v>
       </c>
       <c r="E44" s="3">
-        <v>173700</v>
+        <v>337200</v>
       </c>
       <c r="F44" s="3">
-        <v>338100</v>
+        <v>261100</v>
       </c>
       <c r="G44" s="3">
-        <v>261900</v>
+        <v>232100</v>
       </c>
       <c r="H44" s="3">
-        <v>232700</v>
+        <v>120100</v>
       </c>
       <c r="I44" s="3">
-        <v>120500</v>
+        <v>98600</v>
       </c>
       <c r="J44" s="3">
-        <v>98900</v>
+        <v>102000</v>
       </c>
       <c r="K44" s="3">
         <v>154300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>427800</v>
+        <v>542400</v>
       </c>
       <c r="E45" s="3">
-        <v>543900</v>
+        <v>619100</v>
       </c>
       <c r="F45" s="3">
-        <v>620800</v>
+        <v>566200</v>
       </c>
       <c r="G45" s="3">
-        <v>567800</v>
+        <v>651000</v>
       </c>
       <c r="H45" s="3">
-        <v>652800</v>
+        <v>1334400</v>
       </c>
       <c r="I45" s="3">
-        <v>1338100</v>
+        <v>991700</v>
       </c>
       <c r="J45" s="3">
-        <v>994500</v>
+        <v>1022700</v>
       </c>
       <c r="K45" s="3">
         <v>897100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2378600</v>
+        <v>2205200</v>
       </c>
       <c r="E46" s="3">
-        <v>2211300</v>
+        <v>2658400</v>
       </c>
       <c r="F46" s="3">
-        <v>2665700</v>
+        <v>2735400</v>
       </c>
       <c r="G46" s="3">
-        <v>2743000</v>
+        <v>3340900</v>
       </c>
       <c r="H46" s="3">
-        <v>3350100</v>
+        <v>2613300</v>
       </c>
       <c r="I46" s="3">
-        <v>2620500</v>
+        <v>2565500</v>
       </c>
       <c r="J46" s="3">
-        <v>2572600</v>
+        <v>2725000</v>
       </c>
       <c r="K46" s="3">
         <v>2262900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>764900</v>
+        <v>384600</v>
       </c>
       <c r="E47" s="3">
-        <v>385600</v>
+        <v>378300</v>
       </c>
       <c r="F47" s="3">
-        <v>379400</v>
+        <v>438600</v>
       </c>
       <c r="G47" s="3">
-        <v>439800</v>
+        <v>469400</v>
       </c>
       <c r="H47" s="3">
-        <v>470700</v>
+        <v>307000</v>
       </c>
       <c r="I47" s="3">
-        <v>307900</v>
+        <v>243200</v>
       </c>
       <c r="J47" s="3">
-        <v>243900</v>
+        <v>247000</v>
       </c>
       <c r="K47" s="3">
         <v>251000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3603200</v>
+        <v>5029200</v>
       </c>
       <c r="E48" s="3">
-        <v>5043000</v>
+        <v>4860200</v>
       </c>
       <c r="F48" s="3">
-        <v>4873500</v>
+        <v>4427600</v>
       </c>
       <c r="G48" s="3">
-        <v>4439700</v>
+        <v>3802600</v>
       </c>
       <c r="H48" s="3">
-        <v>3813000</v>
+        <v>3037100</v>
       </c>
       <c r="I48" s="3">
-        <v>3045400</v>
+        <v>2757700</v>
       </c>
       <c r="J48" s="3">
-        <v>2765300</v>
+        <v>2561800</v>
       </c>
       <c r="K48" s="3">
         <v>3237900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4703400</v>
+        <v>4203200</v>
       </c>
       <c r="E49" s="3">
-        <v>4214800</v>
+        <v>4035100</v>
       </c>
       <c r="F49" s="3">
-        <v>4046200</v>
+        <v>3718300</v>
       </c>
       <c r="G49" s="3">
-        <v>3728500</v>
+        <v>7463100</v>
       </c>
       <c r="H49" s="3">
-        <v>7483600</v>
+        <v>3831500</v>
       </c>
       <c r="I49" s="3">
-        <v>3842000</v>
+        <v>3657200</v>
       </c>
       <c r="J49" s="3">
-        <v>3667300</v>
+        <v>3473900</v>
       </c>
       <c r="K49" s="3">
         <v>906600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>585900</v>
+        <v>641400</v>
       </c>
       <c r="E52" s="3">
-        <v>643200</v>
+        <v>666200</v>
       </c>
       <c r="F52" s="3">
-        <v>668100</v>
+        <v>683700</v>
       </c>
       <c r="G52" s="3">
-        <v>685600</v>
+        <v>692500</v>
       </c>
       <c r="H52" s="3">
-        <v>694400</v>
+        <v>349300</v>
       </c>
       <c r="I52" s="3">
-        <v>350300</v>
+        <v>299700</v>
       </c>
       <c r="J52" s="3">
-        <v>300600</v>
+        <v>296700</v>
       </c>
       <c r="K52" s="3">
         <v>284800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12036000</v>
+        <v>12463700</v>
       </c>
       <c r="E54" s="3">
-        <v>12498000</v>
+        <v>12598200</v>
       </c>
       <c r="F54" s="3">
-        <v>12632800</v>
+        <v>12003600</v>
       </c>
       <c r="G54" s="3">
-        <v>12036600</v>
+        <v>11786600</v>
       </c>
       <c r="H54" s="3">
-        <v>11819000</v>
+        <v>10138200</v>
       </c>
       <c r="I54" s="3">
-        <v>10166100</v>
+        <v>9523400</v>
       </c>
       <c r="J54" s="3">
-        <v>9549600</v>
+        <v>9304400</v>
       </c>
       <c r="K54" s="3">
         <v>6943300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>737100</v>
+        <v>562800</v>
       </c>
       <c r="E57" s="3">
-        <v>564400</v>
+        <v>349800</v>
       </c>
       <c r="F57" s="3">
-        <v>350800</v>
+        <v>248700</v>
       </c>
       <c r="G57" s="3">
-        <v>249300</v>
+        <v>266000</v>
       </c>
       <c r="H57" s="3">
-        <v>266700</v>
+        <v>347900</v>
       </c>
       <c r="I57" s="3">
-        <v>348900</v>
+        <v>317700</v>
       </c>
       <c r="J57" s="3">
-        <v>318600</v>
+        <v>296900</v>
       </c>
       <c r="K57" s="3">
         <v>272700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>452100</v>
+        <v>494000</v>
       </c>
       <c r="E58" s="3">
-        <v>495400</v>
+        <v>369900</v>
       </c>
       <c r="F58" s="3">
-        <v>371000</v>
+        <v>282300</v>
       </c>
       <c r="G58" s="3">
-        <v>283100</v>
+        <v>342700</v>
       </c>
       <c r="H58" s="3">
-        <v>343600</v>
+        <v>58200</v>
       </c>
       <c r="I58" s="3">
-        <v>58400</v>
+        <v>494100</v>
       </c>
       <c r="J58" s="3">
-        <v>495500</v>
+        <v>614400</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1572000</v>
+        <v>1278700</v>
       </c>
       <c r="E59" s="3">
-        <v>1282300</v>
+        <v>1355000</v>
       </c>
       <c r="F59" s="3">
-        <v>1358800</v>
+        <v>1327900</v>
       </c>
       <c r="G59" s="3">
-        <v>1331600</v>
+        <v>1397600</v>
       </c>
       <c r="H59" s="3">
-        <v>1401400</v>
+        <v>1388000</v>
       </c>
       <c r="I59" s="3">
-        <v>1391900</v>
+        <v>1416600</v>
       </c>
       <c r="J59" s="3">
-        <v>1420500</v>
+        <v>1511400</v>
       </c>
       <c r="K59" s="3">
         <v>1099200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2761100</v>
+        <v>2335600</v>
       </c>
       <c r="E60" s="3">
-        <v>2342000</v>
+        <v>2074800</v>
       </c>
       <c r="F60" s="3">
-        <v>2080500</v>
+        <v>1858900</v>
       </c>
       <c r="G60" s="3">
-        <v>1864000</v>
+        <v>1927000</v>
       </c>
       <c r="H60" s="3">
-        <v>1932300</v>
+        <v>1794200</v>
       </c>
       <c r="I60" s="3">
-        <v>1799100</v>
+        <v>2228400</v>
       </c>
       <c r="J60" s="3">
-        <v>2234600</v>
+        <v>2422700</v>
       </c>
       <c r="K60" s="3">
         <v>1372000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5834800</v>
+        <v>7220600</v>
       </c>
       <c r="E61" s="3">
-        <v>7240400</v>
+        <v>7162100</v>
       </c>
       <c r="F61" s="3">
-        <v>7181800</v>
+        <v>6647000</v>
       </c>
       <c r="G61" s="3">
-        <v>6665200</v>
+        <v>6193400</v>
       </c>
       <c r="H61" s="3">
-        <v>6210500</v>
+        <v>5749200</v>
       </c>
       <c r="I61" s="3">
-        <v>5765000</v>
+        <v>4852300</v>
       </c>
       <c r="J61" s="3">
-        <v>4865600</v>
+        <v>4649000</v>
       </c>
       <c r="K61" s="3">
         <v>3742700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1462500</v>
+        <v>1180900</v>
       </c>
       <c r="E62" s="3">
-        <v>1184100</v>
+        <v>1071900</v>
       </c>
       <c r="F62" s="3">
-        <v>1074800</v>
+        <v>999800</v>
       </c>
       <c r="G62" s="3">
-        <v>1002500</v>
+        <v>1053300</v>
       </c>
       <c r="H62" s="3">
-        <v>1056200</v>
+        <v>712500</v>
       </c>
       <c r="I62" s="3">
-        <v>714400</v>
+        <v>743100</v>
       </c>
       <c r="J62" s="3">
-        <v>745100</v>
+        <v>657100</v>
       </c>
       <c r="K62" s="3">
         <v>717300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10201300</v>
+        <v>11198300</v>
       </c>
       <c r="E66" s="3">
-        <v>11229100</v>
+        <v>10618800</v>
       </c>
       <c r="F66" s="3">
-        <v>10648000</v>
+        <v>9825800</v>
       </c>
       <c r="G66" s="3">
-        <v>9852800</v>
+        <v>9342000</v>
       </c>
       <c r="H66" s="3">
-        <v>9367700</v>
+        <v>8606200</v>
       </c>
       <c r="I66" s="3">
-        <v>8629900</v>
+        <v>8119100</v>
       </c>
       <c r="J66" s="3">
-        <v>8141400</v>
+        <v>8010500</v>
       </c>
       <c r="K66" s="3">
         <v>5760700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-571900</v>
+        <v>-396300</v>
       </c>
       <c r="E72" s="3">
-        <v>-397400</v>
+        <v>404200</v>
       </c>
       <c r="F72" s="3">
-        <v>405300</v>
+        <v>641700</v>
       </c>
       <c r="G72" s="3">
-        <v>643400</v>
+        <v>853100</v>
       </c>
       <c r="H72" s="3">
-        <v>855500</v>
+        <v>-66900</v>
       </c>
       <c r="I72" s="3">
-        <v>-67100</v>
+        <v>-83100</v>
       </c>
       <c r="J72" s="3">
-        <v>-83300</v>
+        <v>-167000</v>
       </c>
       <c r="K72" s="3">
         <v>-392000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1834700</v>
+        <v>1265400</v>
       </c>
       <c r="E76" s="3">
-        <v>1268800</v>
+        <v>1979400</v>
       </c>
       <c r="F76" s="3">
-        <v>1984800</v>
+        <v>2177700</v>
       </c>
       <c r="G76" s="3">
-        <v>2183700</v>
+        <v>2444600</v>
       </c>
       <c r="H76" s="3">
-        <v>2451300</v>
+        <v>1532000</v>
       </c>
       <c r="I76" s="3">
-        <v>1536200</v>
+        <v>1404300</v>
       </c>
       <c r="J76" s="3">
-        <v>1408200</v>
+        <v>1293900</v>
       </c>
       <c r="K76" s="3">
         <v>1182600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-130300</v>
+        <v>-129900</v>
       </c>
       <c r="E81" s="3">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="F81" s="3">
-        <v>114600</v>
+        <v>114300</v>
       </c>
       <c r="G81" s="3">
-        <v>260300</v>
+        <v>259600</v>
       </c>
       <c r="H81" s="3">
-        <v>262000</v>
+        <v>261300</v>
       </c>
       <c r="I81" s="3">
-        <v>293200</v>
+        <v>292400</v>
       </c>
       <c r="J81" s="3">
-        <v>422800</v>
+        <v>421700</v>
       </c>
       <c r="K81" s="3">
         <v>242700</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>801200</v>
+        <v>722200</v>
       </c>
       <c r="E83" s="3">
-        <v>724200</v>
+        <v>701400</v>
       </c>
       <c r="F83" s="3">
-        <v>703300</v>
+        <v>689800</v>
       </c>
       <c r="G83" s="3">
-        <v>691700</v>
+        <v>851200</v>
       </c>
       <c r="H83" s="3">
-        <v>853600</v>
+        <v>769200</v>
       </c>
       <c r="I83" s="3">
-        <v>771300</v>
+        <v>800100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1621700</v>
+        <v>1418200</v>
       </c>
       <c r="E89" s="3">
-        <v>1422100</v>
+        <v>833800</v>
       </c>
       <c r="F89" s="3">
-        <v>836100</v>
+        <v>1314200</v>
       </c>
       <c r="G89" s="3">
-        <v>1317800</v>
+        <v>1267900</v>
       </c>
       <c r="H89" s="3">
-        <v>1271400</v>
+        <v>1594700</v>
       </c>
       <c r="I89" s="3">
-        <v>1599000</v>
+        <v>1344300</v>
       </c>
       <c r="J89" s="3">
-        <v>1348000</v>
+        <v>931500</v>
       </c>
       <c r="K89" s="3">
         <v>941300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-387400</v>
+        <v>-631300</v>
       </c>
       <c r="E91" s="3">
-        <v>-633100</v>
+        <v>-488400</v>
       </c>
       <c r="F91" s="3">
-        <v>-489800</v>
+        <v>-427600</v>
       </c>
       <c r="G91" s="3">
-        <v>-428800</v>
+        <v>-405600</v>
       </c>
       <c r="H91" s="3">
-        <v>-406700</v>
+        <v>-448000</v>
       </c>
       <c r="I91" s="3">
-        <v>-449300</v>
+        <v>-408000</v>
       </c>
       <c r="J91" s="3">
-        <v>-409200</v>
+        <v>-326400</v>
       </c>
       <c r="K91" s="3">
         <v>-329800</v>
@@ -3479,22 +3479,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-962900</v>
+        <v>-1158000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1161200</v>
+        <v>-738000</v>
       </c>
       <c r="F94" s="3">
-        <v>-740000</v>
+        <v>-777800</v>
       </c>
       <c r="G94" s="3">
-        <v>-780000</v>
+        <v>-1281500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1285100</v>
+        <v>-1298200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1301800</v>
+        <v>-2467700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-317200</v>
+        <v>-309700</v>
       </c>
       <c r="E96" s="3">
-        <v>-310500</v>
+        <v>-295500</v>
       </c>
       <c r="F96" s="3">
-        <v>-296400</v>
+        <v>-282000</v>
       </c>
       <c r="G96" s="3">
-        <v>-282800</v>
+        <v>-188200</v>
       </c>
       <c r="H96" s="3">
-        <v>-188700</v>
+        <v>-101500</v>
       </c>
       <c r="I96" s="3">
-        <v>-101800</v>
+        <v>-97500</v>
       </c>
       <c r="J96" s="3">
-        <v>-97700</v>
+        <v>-183700</v>
       </c>
       <c r="K96" s="3">
         <v>-185600</v>
@@ -3675,22 +3675,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-826100</v>
+        <v>-436700</v>
       </c>
       <c r="E100" s="3">
-        <v>-437900</v>
+        <v>-713400</v>
       </c>
       <c r="F100" s="3">
-        <v>-715300</v>
+        <v>343800</v>
       </c>
       <c r="G100" s="3">
-        <v>344800</v>
+        <v>-333500</v>
       </c>
       <c r="H100" s="3">
-        <v>-334400</v>
+        <v>-349400</v>
       </c>
       <c r="I100" s="3">
-        <v>-350400</v>
+        <v>1443100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7000</v>
+        <v>-4600</v>
       </c>
       <c r="E101" s="3">
-        <v>-4600</v>
+        <v>-4200</v>
       </c>
       <c r="F101" s="3">
-        <v>-4200</v>
+        <v>-3600</v>
       </c>
       <c r="G101" s="3">
-        <v>-3600</v>
+        <v>-2700</v>
       </c>
       <c r="H101" s="3">
-        <v>-2700</v>
+        <v>-3100</v>
       </c>
       <c r="I101" s="3">
-        <v>-3100</v>
+        <v>-9700</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-160300</v>
+        <v>-181000</v>
       </c>
       <c r="E102" s="3">
-        <v>-181500</v>
+        <v>-621800</v>
       </c>
       <c r="F102" s="3">
-        <v>-623500</v>
+        <v>876600</v>
       </c>
       <c r="G102" s="3">
-        <v>879000</v>
+        <v>-349800</v>
       </c>
       <c r="H102" s="3">
-        <v>-350800</v>
+        <v>-56100</v>
       </c>
       <c r="I102" s="3">
-        <v>-56200</v>
+        <v>310100</v>
       </c>
       <c r="J102" s="3">
-        <v>310900</v>
+        <v>121800</v>
       </c>
       <c r="K102" s="3">
         <v>123100</v>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>PCCWY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4584000</v>
+        <v>4926500</v>
       </c>
       <c r="E8" s="3">
-        <v>4779800</v>
+        <v>4586200</v>
       </c>
       <c r="F8" s="3">
-        <v>4949100</v>
+        <v>4782100</v>
       </c>
       <c r="G8" s="3">
-        <v>4692000</v>
+        <v>4951400</v>
       </c>
       <c r="H8" s="3">
-        <v>4889700</v>
+        <v>4694200</v>
       </c>
       <c r="I8" s="3">
-        <v>5008200</v>
+        <v>4892000</v>
       </c>
       <c r="J8" s="3">
+        <v>5010600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4239200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3516500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3260700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3138600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5055500</v>
+        <v>2710700</v>
       </c>
       <c r="E9" s="3">
-        <v>2408600</v>
+        <v>2445600</v>
       </c>
       <c r="F9" s="3">
-        <v>2629600</v>
+        <v>2409700</v>
       </c>
       <c r="G9" s="3">
-        <v>2336800</v>
+        <v>2630800</v>
       </c>
       <c r="H9" s="3">
-        <v>2260300</v>
+        <v>2337900</v>
       </c>
       <c r="I9" s="3">
-        <v>2416000</v>
+        <v>2261300</v>
       </c>
       <c r="J9" s="3">
+        <v>2417100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1930100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1687800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1521800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1451900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-471500</v>
+        <v>2215700</v>
       </c>
       <c r="E10" s="3">
-        <v>2371200</v>
+        <v>2140500</v>
       </c>
       <c r="F10" s="3">
-        <v>2319500</v>
+        <v>2372400</v>
       </c>
       <c r="G10" s="3">
-        <v>2355200</v>
+        <v>2320600</v>
       </c>
       <c r="H10" s="3">
-        <v>2629500</v>
+        <v>2356300</v>
       </c>
       <c r="I10" s="3">
-        <v>2592300</v>
+        <v>2630700</v>
       </c>
       <c r="J10" s="3">
+        <v>2593500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2309100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1828700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1738900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1686800</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,56 +925,62 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>85700</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
+        <v>85800</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-34900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-250200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-11200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>799000</v>
+        <v>774600</v>
       </c>
       <c r="E15" s="3">
-        <v>722200</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+        <v>1089600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>722500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -975,15 +997,18 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4106800</v>
+        <v>4322300</v>
       </c>
       <c r="E17" s="3">
-        <v>4049100</v>
+        <v>4108700</v>
       </c>
       <c r="F17" s="3">
-        <v>4182900</v>
+        <v>4051000</v>
       </c>
       <c r="G17" s="3">
-        <v>3962500</v>
+        <v>4184800</v>
       </c>
       <c r="H17" s="3">
-        <v>4175000</v>
+        <v>3964300</v>
       </c>
       <c r="I17" s="3">
-        <v>4239200</v>
+        <v>4176900</v>
       </c>
       <c r="J17" s="3">
+        <v>4241200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3367600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2971200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2781000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2657100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>477200</v>
+        <v>604100</v>
       </c>
       <c r="E18" s="3">
-        <v>730700</v>
+        <v>477400</v>
       </c>
       <c r="F18" s="3">
-        <v>766300</v>
+        <v>731100</v>
       </c>
       <c r="G18" s="3">
-        <v>729600</v>
+        <v>766600</v>
       </c>
       <c r="H18" s="3">
-        <v>714800</v>
+        <v>729900</v>
       </c>
       <c r="I18" s="3">
-        <v>769100</v>
+        <v>715100</v>
       </c>
       <c r="J18" s="3">
+        <v>769400</v>
+      </c>
+      <c r="K18" s="3">
         <v>871600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>545300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>479700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>481500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23400</v>
+        <v>71600</v>
       </c>
       <c r="E20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1222800</v>
+        <v>1515100</v>
       </c>
       <c r="E21" s="3">
-        <v>1434000</v>
+        <v>1264400</v>
       </c>
       <c r="F21" s="3">
-        <v>1455000</v>
+        <v>1455400</v>
       </c>
       <c r="G21" s="3">
-        <v>1580400</v>
+        <v>1467300</v>
       </c>
       <c r="H21" s="3">
-        <v>1471400</v>
+        <v>1419600</v>
       </c>
       <c r="I21" s="3">
-        <v>1548900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>1554100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1518600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>1046500</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>235300</v>
+        <v>177300</v>
       </c>
       <c r="E22" s="3">
-        <v>247100</v>
+        <v>199600</v>
       </c>
       <c r="F22" s="3">
-        <v>232200</v>
+        <v>247300</v>
       </c>
       <c r="G22" s="3">
-        <v>201100</v>
+        <v>232300</v>
       </c>
       <c r="H22" s="3">
-        <v>163700</v>
+        <v>201200</v>
       </c>
       <c r="I22" s="3">
-        <v>183200</v>
+        <v>163800</v>
       </c>
       <c r="J22" s="3">
+        <v>183300</v>
+      </c>
+      <c r="K22" s="3">
         <v>161000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>133600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>119300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>186200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>265400</v>
+        <v>498500</v>
       </c>
       <c r="E23" s="3">
-        <v>485500</v>
+        <v>265500</v>
       </c>
       <c r="F23" s="3">
-        <v>533000</v>
+        <v>485700</v>
       </c>
       <c r="G23" s="3">
-        <v>528000</v>
+        <v>533300</v>
       </c>
       <c r="H23" s="3">
-        <v>538500</v>
+        <v>528300</v>
       </c>
       <c r="I23" s="3">
-        <v>565600</v>
+        <v>538700</v>
       </c>
       <c r="J23" s="3">
+        <v>565900</v>
+      </c>
+      <c r="K23" s="3">
         <v>697300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>420300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>360500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>295300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>89800</v>
+        <v>135700</v>
       </c>
       <c r="E24" s="3">
+        <v>89900</v>
+      </c>
+      <c r="F24" s="3">
         <v>119900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>144500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>135200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>50300</v>
       </c>
-      <c r="I24" s="3">
-        <v>56900</v>
-      </c>
       <c r="J24" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K24" s="3">
         <v>102300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>69000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>175500</v>
+        <v>362700</v>
       </c>
       <c r="E26" s="3">
-        <v>365600</v>
+        <v>175600</v>
       </c>
       <c r="F26" s="3">
-        <v>388500</v>
+        <v>365800</v>
       </c>
       <c r="G26" s="3">
-        <v>392900</v>
+        <v>388700</v>
       </c>
       <c r="H26" s="3">
-        <v>488200</v>
+        <v>393100</v>
       </c>
       <c r="I26" s="3">
-        <v>508700</v>
+        <v>488400</v>
       </c>
       <c r="J26" s="3">
+        <v>508900</v>
+      </c>
+      <c r="K26" s="3">
         <v>595000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>393300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>330600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>226200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-37100</v>
+        <v>49200</v>
       </c>
       <c r="E27" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="F27" s="3">
         <v>86800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>114300</v>
       </c>
-      <c r="G27" s="3">
-        <v>114000</v>
-      </c>
       <c r="H27" s="3">
-        <v>261300</v>
+        <v>114100</v>
       </c>
       <c r="I27" s="3">
-        <v>292400</v>
+        <v>261400</v>
       </c>
       <c r="J27" s="3">
+        <v>292500</v>
+      </c>
+      <c r="K27" s="3">
         <v>421700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>242700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>214200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>204700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,26 +1463,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="E29" s="3" t="s">
+        <v>83200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
-        <v>145600</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>145700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23400</v>
+        <v>-71600</v>
       </c>
       <c r="E32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-129900</v>
+        <v>132400</v>
       </c>
       <c r="E33" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="F33" s="3">
         <v>86800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>114300</v>
       </c>
-      <c r="G33" s="3">
-        <v>259600</v>
-      </c>
       <c r="H33" s="3">
-        <v>261300</v>
+        <v>259700</v>
       </c>
       <c r="I33" s="3">
-        <v>292400</v>
+        <v>261400</v>
       </c>
       <c r="J33" s="3">
+        <v>292500</v>
+      </c>
+      <c r="K33" s="3">
         <v>421700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>242700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>214200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>204700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-129900</v>
+        <v>132400</v>
       </c>
       <c r="E35" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="F35" s="3">
         <v>86800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>114300</v>
       </c>
-      <c r="G35" s="3">
-        <v>259600</v>
-      </c>
       <c r="H35" s="3">
-        <v>261300</v>
+        <v>259700</v>
       </c>
       <c r="I35" s="3">
-        <v>292400</v>
+        <v>261400</v>
       </c>
       <c r="J35" s="3">
+        <v>292500</v>
+      </c>
+      <c r="K35" s="3">
         <v>421700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>242700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>214200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>204700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>519900</v>
+        <v>581700</v>
       </c>
       <c r="E41" s="3">
-        <v>679800</v>
+        <v>520100</v>
       </c>
       <c r="F41" s="3">
-        <v>860800</v>
+        <v>680100</v>
       </c>
       <c r="G41" s="3">
-        <v>1482600</v>
+        <v>861200</v>
       </c>
       <c r="H41" s="3">
-        <v>605200</v>
+        <v>1483300</v>
       </c>
       <c r="I41" s="3">
-        <v>955800</v>
+        <v>605500</v>
       </c>
       <c r="J41" s="3">
+        <v>956300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1011900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>709200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>586400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>683400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>68500</v>
+        <v>60200</v>
       </c>
       <c r="E42" s="3">
+        <v>68600</v>
+      </c>
+      <c r="F42" s="3">
         <v>61900</v>
       </c>
-      <c r="F42" s="3">
-        <v>76900</v>
-      </c>
       <c r="G42" s="3">
-        <v>217600</v>
+        <v>77000</v>
       </c>
       <c r="H42" s="3">
+        <v>217700</v>
+      </c>
+      <c r="I42" s="3">
         <v>57700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1300</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>901200</v>
+        <v>1120500</v>
       </c>
       <c r="E43" s="3">
-        <v>960400</v>
+        <v>901600</v>
       </c>
       <c r="F43" s="3">
-        <v>970300</v>
+        <v>960800</v>
       </c>
       <c r="G43" s="3">
-        <v>873800</v>
+        <v>970800</v>
       </c>
       <c r="H43" s="3">
-        <v>495800</v>
+        <v>874200</v>
       </c>
       <c r="I43" s="3">
-        <v>519200</v>
+        <v>496000</v>
       </c>
       <c r="J43" s="3">
+        <v>519500</v>
+      </c>
+      <c r="K43" s="3">
         <v>588400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>501000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1054500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>393800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E44" s="3">
         <v>173300</v>
       </c>
-      <c r="E44" s="3">
-        <v>337200</v>
-      </c>
       <c r="F44" s="3">
-        <v>261100</v>
+        <v>337400</v>
       </c>
       <c r="G44" s="3">
-        <v>232100</v>
+        <v>261300</v>
       </c>
       <c r="H44" s="3">
-        <v>120100</v>
+        <v>232200</v>
       </c>
       <c r="I44" s="3">
+        <v>120200</v>
+      </c>
+      <c r="J44" s="3">
         <v>98600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>102000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>154300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>296200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>148500</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>542400</v>
+        <v>426800</v>
       </c>
       <c r="E45" s="3">
-        <v>619100</v>
+        <v>542700</v>
       </c>
       <c r="F45" s="3">
-        <v>566200</v>
+        <v>619400</v>
       </c>
       <c r="G45" s="3">
-        <v>651000</v>
+        <v>566500</v>
       </c>
       <c r="H45" s="3">
-        <v>1334400</v>
+        <v>651300</v>
       </c>
       <c r="I45" s="3">
-        <v>991700</v>
+        <v>1335000</v>
       </c>
       <c r="J45" s="3">
+        <v>992200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1022700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>897100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1602500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>677600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2205200</v>
+        <v>2373200</v>
       </c>
       <c r="E46" s="3">
-        <v>2658400</v>
+        <v>2206300</v>
       </c>
       <c r="F46" s="3">
-        <v>2735400</v>
+        <v>2659600</v>
       </c>
       <c r="G46" s="3">
-        <v>3340900</v>
+        <v>2736700</v>
       </c>
       <c r="H46" s="3">
-        <v>2613300</v>
+        <v>3342500</v>
       </c>
       <c r="I46" s="3">
-        <v>2565500</v>
+        <v>2614500</v>
       </c>
       <c r="J46" s="3">
+        <v>2566700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2725000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2262900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2160300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1903300</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>384600</v>
+        <v>763200</v>
       </c>
       <c r="E47" s="3">
-        <v>378300</v>
+        <v>384800</v>
       </c>
       <c r="F47" s="3">
-        <v>438600</v>
+        <v>378500</v>
       </c>
       <c r="G47" s="3">
-        <v>469400</v>
+        <v>438800</v>
       </c>
       <c r="H47" s="3">
-        <v>307000</v>
+        <v>469700</v>
       </c>
       <c r="I47" s="3">
-        <v>243200</v>
+        <v>307200</v>
       </c>
       <c r="J47" s="3">
+        <v>243300</v>
+      </c>
+      <c r="K47" s="3">
         <v>247000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>251000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1050800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>876200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5029200</v>
+        <v>3595000</v>
       </c>
       <c r="E48" s="3">
-        <v>4860200</v>
+        <v>5031600</v>
       </c>
       <c r="F48" s="3">
-        <v>4427600</v>
+        <v>4862500</v>
       </c>
       <c r="G48" s="3">
-        <v>3802600</v>
+        <v>4429700</v>
       </c>
       <c r="H48" s="3">
-        <v>3037100</v>
+        <v>3804400</v>
       </c>
       <c r="I48" s="3">
-        <v>2757700</v>
+        <v>3038500</v>
       </c>
       <c r="J48" s="3">
+        <v>2759000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2561800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3237900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3638400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2112400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4203200</v>
+        <v>4692700</v>
       </c>
       <c r="E49" s="3">
-        <v>4035100</v>
+        <v>4205200</v>
       </c>
       <c r="F49" s="3">
-        <v>3718300</v>
+        <v>4037000</v>
       </c>
       <c r="G49" s="3">
-        <v>7463100</v>
+        <v>3720000</v>
       </c>
       <c r="H49" s="3">
-        <v>3831500</v>
+        <v>7466700</v>
       </c>
       <c r="I49" s="3">
-        <v>3657200</v>
+        <v>3833300</v>
       </c>
       <c r="J49" s="3">
+        <v>3659000</v>
+      </c>
+      <c r="K49" s="3">
         <v>3473900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>906600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2176200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>762000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>641400</v>
+        <v>584600</v>
       </c>
       <c r="E52" s="3">
-        <v>666200</v>
+        <v>641700</v>
       </c>
       <c r="F52" s="3">
-        <v>683700</v>
+        <v>666600</v>
       </c>
       <c r="G52" s="3">
-        <v>692500</v>
+        <v>684000</v>
       </c>
       <c r="H52" s="3">
-        <v>349300</v>
+        <v>692800</v>
       </c>
       <c r="I52" s="3">
-        <v>299700</v>
+        <v>349500</v>
       </c>
       <c r="J52" s="3">
+        <v>299900</v>
+      </c>
+      <c r="K52" s="3">
         <v>296700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>284800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>325300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>186900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12463700</v>
+        <v>12008700</v>
       </c>
       <c r="E54" s="3">
-        <v>12598200</v>
+        <v>12469600</v>
       </c>
       <c r="F54" s="3">
-        <v>12003600</v>
+        <v>12604200</v>
       </c>
       <c r="G54" s="3">
-        <v>11786600</v>
+        <v>12009200</v>
       </c>
       <c r="H54" s="3">
-        <v>10138200</v>
+        <v>11792200</v>
       </c>
       <c r="I54" s="3">
-        <v>9523400</v>
+        <v>10143000</v>
       </c>
       <c r="J54" s="3">
+        <v>9527900</v>
+      </c>
+      <c r="K54" s="3">
         <v>9304400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6943300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6419400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5840800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>562800</v>
+        <v>735400</v>
       </c>
       <c r="E57" s="3">
-        <v>349800</v>
+        <v>563100</v>
       </c>
       <c r="F57" s="3">
-        <v>248700</v>
+        <v>350000</v>
       </c>
       <c r="G57" s="3">
-        <v>266000</v>
+        <v>248800</v>
       </c>
       <c r="H57" s="3">
-        <v>347900</v>
+        <v>266100</v>
       </c>
       <c r="I57" s="3">
-        <v>317700</v>
+        <v>348100</v>
       </c>
       <c r="J57" s="3">
+        <v>317900</v>
+      </c>
+      <c r="K57" s="3">
         <v>296900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>272700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>306500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>226400</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>494000</v>
+        <v>451000</v>
       </c>
       <c r="E58" s="3">
-        <v>369900</v>
+        <v>494300</v>
       </c>
       <c r="F58" s="3">
-        <v>282300</v>
+        <v>370100</v>
       </c>
       <c r="G58" s="3">
-        <v>342700</v>
+        <v>282400</v>
       </c>
       <c r="H58" s="3">
+        <v>342800</v>
+      </c>
+      <c r="I58" s="3">
         <v>58200</v>
       </c>
-      <c r="I58" s="3">
-        <v>494100</v>
-      </c>
       <c r="J58" s="3">
+        <v>494400</v>
+      </c>
+      <c r="K58" s="3">
         <v>614400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1278700</v>
+        <v>1568400</v>
       </c>
       <c r="E59" s="3">
-        <v>1355000</v>
+        <v>1279300</v>
       </c>
       <c r="F59" s="3">
-        <v>1327900</v>
+        <v>1355700</v>
       </c>
       <c r="G59" s="3">
-        <v>1397600</v>
+        <v>1328500</v>
       </c>
       <c r="H59" s="3">
-        <v>1388000</v>
+        <v>1398300</v>
       </c>
       <c r="I59" s="3">
-        <v>1416600</v>
+        <v>1388700</v>
       </c>
       <c r="J59" s="3">
+        <v>1417200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1511400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1099200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1118900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1137600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2335600</v>
+        <v>2754800</v>
       </c>
       <c r="E60" s="3">
-        <v>2074800</v>
+        <v>2336700</v>
       </c>
       <c r="F60" s="3">
-        <v>1858900</v>
+        <v>2075800</v>
       </c>
       <c r="G60" s="3">
-        <v>1927000</v>
+        <v>1859800</v>
       </c>
       <c r="H60" s="3">
-        <v>1794200</v>
+        <v>1927900</v>
       </c>
       <c r="I60" s="3">
-        <v>2228400</v>
+        <v>1795000</v>
       </c>
       <c r="J60" s="3">
+        <v>2229500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2422700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1372000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1369100</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7220600</v>
+        <v>5821500</v>
       </c>
       <c r="E61" s="3">
-        <v>7162100</v>
+        <v>7224000</v>
       </c>
       <c r="F61" s="3">
-        <v>6647000</v>
+        <v>7165500</v>
       </c>
       <c r="G61" s="3">
-        <v>6193400</v>
+        <v>6650100</v>
       </c>
       <c r="H61" s="3">
-        <v>5749200</v>
+        <v>6196400</v>
       </c>
       <c r="I61" s="3">
-        <v>4852300</v>
+        <v>5751900</v>
       </c>
       <c r="J61" s="3">
+        <v>4854600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4649000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3742700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2308700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2989800</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1180900</v>
+        <v>1459200</v>
       </c>
       <c r="E62" s="3">
-        <v>1071900</v>
+        <v>1181500</v>
       </c>
       <c r="F62" s="3">
-        <v>999800</v>
+        <v>1072400</v>
       </c>
       <c r="G62" s="3">
-        <v>1053300</v>
+        <v>1000200</v>
       </c>
       <c r="H62" s="3">
-        <v>712500</v>
+        <v>1053800</v>
       </c>
       <c r="I62" s="3">
-        <v>743100</v>
+        <v>712800</v>
       </c>
       <c r="J62" s="3">
+        <v>743400</v>
+      </c>
+      <c r="K62" s="3">
         <v>657100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>717300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>562600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>516300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11198300</v>
+        <v>10178200</v>
       </c>
       <c r="E66" s="3">
-        <v>10618800</v>
+        <v>11203600</v>
       </c>
       <c r="F66" s="3">
-        <v>9825800</v>
+        <v>10623800</v>
       </c>
       <c r="G66" s="3">
-        <v>9342000</v>
+        <v>9830500</v>
       </c>
       <c r="H66" s="3">
-        <v>8606200</v>
+        <v>9346400</v>
       </c>
       <c r="I66" s="3">
-        <v>8119100</v>
+        <v>8610300</v>
       </c>
       <c r="J66" s="3">
+        <v>8122900</v>
+      </c>
+      <c r="K66" s="3">
         <v>8010500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5760700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5286100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5063200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-396300</v>
+        <v>-607800</v>
       </c>
       <c r="E72" s="3">
-        <v>404200</v>
+        <v>-396500</v>
       </c>
       <c r="F72" s="3">
-        <v>641700</v>
+        <v>404400</v>
       </c>
       <c r="G72" s="3">
-        <v>853100</v>
+        <v>642000</v>
       </c>
       <c r="H72" s="3">
+        <v>853500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-66900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-83100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-167000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-392000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-462500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-798900</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1265400</v>
+        <v>1830600</v>
       </c>
       <c r="E76" s="3">
-        <v>1979400</v>
+        <v>1266000</v>
       </c>
       <c r="F76" s="3">
-        <v>2177700</v>
+        <v>1980300</v>
       </c>
       <c r="G76" s="3">
-        <v>2444600</v>
+        <v>2178800</v>
       </c>
       <c r="H76" s="3">
-        <v>1532000</v>
+        <v>2445800</v>
       </c>
       <c r="I76" s="3">
-        <v>1404300</v>
+        <v>1532700</v>
       </c>
       <c r="J76" s="3">
+        <v>1405000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1293900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1182600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1133400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>777600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-129900</v>
+        <v>132400</v>
       </c>
       <c r="E81" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="F81" s="3">
         <v>86800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>114300</v>
       </c>
-      <c r="G81" s="3">
-        <v>259600</v>
-      </c>
       <c r="H81" s="3">
-        <v>261300</v>
+        <v>259700</v>
       </c>
       <c r="I81" s="3">
-        <v>292400</v>
+        <v>261400</v>
       </c>
       <c r="J81" s="3">
+        <v>292500</v>
+      </c>
+      <c r="K81" s="3">
         <v>421700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>242700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>214200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>204700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>722200</v>
+        <v>839400</v>
       </c>
       <c r="E83" s="3">
-        <v>701400</v>
+        <v>799400</v>
       </c>
       <c r="F83" s="3">
-        <v>689800</v>
+        <v>722500</v>
       </c>
       <c r="G83" s="3">
-        <v>851200</v>
+        <v>701700</v>
       </c>
       <c r="H83" s="3">
-        <v>769200</v>
+        <v>690100</v>
       </c>
       <c r="I83" s="3">
-        <v>800100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>851600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>769500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>566500</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1418200</v>
+        <v>1236800</v>
       </c>
       <c r="E89" s="3">
-        <v>833800</v>
+        <v>1618000</v>
       </c>
       <c r="F89" s="3">
-        <v>1314200</v>
+        <v>1418900</v>
       </c>
       <c r="G89" s="3">
-        <v>1267900</v>
+        <v>834200</v>
       </c>
       <c r="H89" s="3">
-        <v>1594700</v>
+        <v>1314800</v>
       </c>
       <c r="I89" s="3">
-        <v>1344300</v>
+        <v>1268500</v>
       </c>
       <c r="J89" s="3">
+        <v>1595400</v>
+      </c>
+      <c r="K89" s="3">
         <v>931500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>941300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>794400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>863400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-631300</v>
+        <v>-457700</v>
       </c>
       <c r="E91" s="3">
-        <v>-488400</v>
+        <v>-386600</v>
       </c>
       <c r="F91" s="3">
-        <v>-427600</v>
+        <v>-631600</v>
       </c>
       <c r="G91" s="3">
-        <v>-405600</v>
+        <v>-488600</v>
       </c>
       <c r="H91" s="3">
-        <v>-448000</v>
+        <v>-427800</v>
       </c>
       <c r="I91" s="3">
-        <v>-408000</v>
+        <v>-405800</v>
       </c>
       <c r="J91" s="3">
+        <v>-448200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-326400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-329800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-288000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-249700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1158000</v>
+        <v>-971200</v>
       </c>
       <c r="E94" s="3">
-        <v>-738000</v>
+        <v>-960700</v>
       </c>
       <c r="F94" s="3">
-        <v>-777800</v>
+        <v>-1158500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1281500</v>
+        <v>-738300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1298200</v>
+        <v>-778200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2467700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-1282100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1298800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-904000</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-309700</v>
+        <v>-318400</v>
       </c>
       <c r="E96" s="3">
-        <v>-295500</v>
+        <v>-316500</v>
       </c>
       <c r="F96" s="3">
-        <v>-282000</v>
+        <v>-309800</v>
       </c>
       <c r="G96" s="3">
+        <v>-295700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-282200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-188200</v>
       </c>
-      <c r="H96" s="3">
-        <v>-101500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-97500</v>
-      </c>
       <c r="J96" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-183700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-185600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-150900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-143600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-436700</v>
+        <v>-200000</v>
       </c>
       <c r="E100" s="3">
-        <v>-713400</v>
+        <v>-824200</v>
       </c>
       <c r="F100" s="3">
-        <v>343800</v>
+        <v>-436900</v>
       </c>
       <c r="G100" s="3">
-        <v>-333500</v>
+        <v>-713700</v>
       </c>
       <c r="H100" s="3">
-        <v>-349400</v>
+        <v>344000</v>
       </c>
       <c r="I100" s="3">
-        <v>1443100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-333700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-349600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>5200</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-181000</v>
+        <v>61600</v>
       </c>
       <c r="E102" s="3">
-        <v>-621800</v>
+        <v>-159900</v>
       </c>
       <c r="F102" s="3">
-        <v>876600</v>
+        <v>-181100</v>
       </c>
       <c r="G102" s="3">
-        <v>-349800</v>
+        <v>-622100</v>
       </c>
       <c r="H102" s="3">
+        <v>877000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-350000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-56100</v>
       </c>
-      <c r="I102" s="3">
-        <v>310100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>121800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>123100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-104600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-348500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4926500</v>
+        <v>4927600</v>
       </c>
       <c r="E8" s="3">
-        <v>4586200</v>
+        <v>4587200</v>
       </c>
       <c r="F8" s="3">
-        <v>4782100</v>
+        <v>4783200</v>
       </c>
       <c r="G8" s="3">
-        <v>4951400</v>
+        <v>4952600</v>
       </c>
       <c r="H8" s="3">
-        <v>4694200</v>
+        <v>4695300</v>
       </c>
       <c r="I8" s="3">
-        <v>4892000</v>
+        <v>4893200</v>
       </c>
       <c r="J8" s="3">
-        <v>5010600</v>
+        <v>5011700</v>
       </c>
       <c r="K8" s="3">
         <v>4239200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2710700</v>
+        <v>2711400</v>
       </c>
       <c r="E9" s="3">
-        <v>2445600</v>
+        <v>2446200</v>
       </c>
       <c r="F9" s="3">
-        <v>2409700</v>
+        <v>2410300</v>
       </c>
       <c r="G9" s="3">
-        <v>2630800</v>
+        <v>2631400</v>
       </c>
       <c r="H9" s="3">
-        <v>2337900</v>
+        <v>2338500</v>
       </c>
       <c r="I9" s="3">
-        <v>2261300</v>
+        <v>2261900</v>
       </c>
       <c r="J9" s="3">
-        <v>2417100</v>
+        <v>2417700</v>
       </c>
       <c r="K9" s="3">
         <v>1930100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2215700</v>
+        <v>2216200</v>
       </c>
       <c r="E10" s="3">
-        <v>2140500</v>
+        <v>2141000</v>
       </c>
       <c r="F10" s="3">
-        <v>2372400</v>
+        <v>2372900</v>
       </c>
       <c r="G10" s="3">
-        <v>2320600</v>
+        <v>2321200</v>
       </c>
       <c r="H10" s="3">
-        <v>2356300</v>
+        <v>2356900</v>
       </c>
       <c r="I10" s="3">
-        <v>2630700</v>
+        <v>2631300</v>
       </c>
       <c r="J10" s="3">
-        <v>2593500</v>
+        <v>2594100</v>
       </c>
       <c r="K10" s="3">
         <v>2309100</v>
@@ -974,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>774600</v>
+        <v>774800</v>
       </c>
       <c r="E15" s="3">
-        <v>1089600</v>
+        <v>1089800</v>
       </c>
       <c r="F15" s="3">
-        <v>722500</v>
+        <v>722700</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4322300</v>
+        <v>4323400</v>
       </c>
       <c r="E17" s="3">
-        <v>4108700</v>
+        <v>4109700</v>
       </c>
       <c r="F17" s="3">
-        <v>4051000</v>
+        <v>4052000</v>
       </c>
       <c r="G17" s="3">
-        <v>4184800</v>
+        <v>4185800</v>
       </c>
       <c r="H17" s="3">
-        <v>3964300</v>
+        <v>3965300</v>
       </c>
       <c r="I17" s="3">
-        <v>4176900</v>
+        <v>4177900</v>
       </c>
       <c r="J17" s="3">
-        <v>4241200</v>
+        <v>4242200</v>
       </c>
       <c r="K17" s="3">
         <v>3367600</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>604100</v>
+        <v>604300</v>
       </c>
       <c r="E18" s="3">
-        <v>477400</v>
+        <v>477500</v>
       </c>
       <c r="F18" s="3">
-        <v>731100</v>
+        <v>731200</v>
       </c>
       <c r="G18" s="3">
-        <v>766600</v>
+        <v>766800</v>
       </c>
       <c r="H18" s="3">
-        <v>729900</v>
+        <v>730100</v>
       </c>
       <c r="I18" s="3">
-        <v>715100</v>
+        <v>715300</v>
       </c>
       <c r="J18" s="3">
-        <v>769400</v>
+        <v>769600</v>
       </c>
       <c r="K18" s="3">
         <v>871600</v>
@@ -1161,22 +1161,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1515100</v>
+        <v>1515000</v>
       </c>
       <c r="E21" s="3">
-        <v>1264400</v>
+        <v>1264200</v>
       </c>
       <c r="F21" s="3">
         <v>1455400</v>
       </c>
       <c r="G21" s="3">
-        <v>1467300</v>
+        <v>1467200</v>
       </c>
       <c r="H21" s="3">
         <v>1419600</v>
       </c>
       <c r="I21" s="3">
-        <v>1554100</v>
+        <v>1554000</v>
       </c>
       <c r="J21" s="3">
         <v>1518600</v>
@@ -1209,10 +1209,10 @@
         <v>247300</v>
       </c>
       <c r="G22" s="3">
-        <v>232300</v>
+        <v>232400</v>
       </c>
       <c r="H22" s="3">
-        <v>201200</v>
+        <v>201300</v>
       </c>
       <c r="I22" s="3">
         <v>163800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>498500</v>
+        <v>498600</v>
       </c>
       <c r="E23" s="3">
         <v>265500</v>
       </c>
       <c r="F23" s="3">
-        <v>485700</v>
+        <v>485800</v>
       </c>
       <c r="G23" s="3">
-        <v>533300</v>
+        <v>533400</v>
       </c>
       <c r="H23" s="3">
-        <v>528300</v>
+        <v>528400</v>
       </c>
       <c r="I23" s="3">
-        <v>538700</v>
+        <v>538900</v>
       </c>
       <c r="J23" s="3">
-        <v>565900</v>
+        <v>566000</v>
       </c>
       <c r="K23" s="3">
         <v>697300</v>
@@ -1278,22 +1278,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>135700</v>
+        <v>135800</v>
       </c>
       <c r="E24" s="3">
         <v>89900</v>
       </c>
       <c r="F24" s="3">
-        <v>119900</v>
+        <v>120000</v>
       </c>
       <c r="G24" s="3">
-        <v>144500</v>
+        <v>144600</v>
       </c>
       <c r="H24" s="3">
-        <v>135200</v>
+        <v>135300</v>
       </c>
       <c r="I24" s="3">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="J24" s="3">
         <v>57000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>362700</v>
+        <v>362800</v>
       </c>
       <c r="E26" s="3">
-        <v>175600</v>
+        <v>175700</v>
       </c>
       <c r="F26" s="3">
-        <v>365800</v>
+        <v>365900</v>
       </c>
       <c r="G26" s="3">
-        <v>388700</v>
+        <v>388800</v>
       </c>
       <c r="H26" s="3">
         <v>393100</v>
       </c>
       <c r="I26" s="3">
-        <v>488400</v>
+        <v>488500</v>
       </c>
       <c r="J26" s="3">
-        <v>508900</v>
+        <v>509000</v>
       </c>
       <c r="K26" s="3">
         <v>595000</v>
@@ -1410,10 +1410,10 @@
         <v>114100</v>
       </c>
       <c r="I27" s="3">
-        <v>261400</v>
+        <v>261500</v>
       </c>
       <c r="J27" s="3">
-        <v>292500</v>
+        <v>292600</v>
       </c>
       <c r="K27" s="3">
         <v>421700</v>
@@ -1629,7 +1629,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>132400</v>
+        <v>132500</v>
       </c>
       <c r="E33" s="3">
         <v>-130000</v>
@@ -1641,13 +1641,13 @@
         <v>114300</v>
       </c>
       <c r="H33" s="3">
-        <v>259700</v>
+        <v>259800</v>
       </c>
       <c r="I33" s="3">
-        <v>261400</v>
+        <v>261500</v>
       </c>
       <c r="J33" s="3">
-        <v>292500</v>
+        <v>292600</v>
       </c>
       <c r="K33" s="3">
         <v>421700</v>
@@ -1707,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>132400</v>
+        <v>132500</v>
       </c>
       <c r="E35" s="3">
         <v>-130000</v>
@@ -1719,13 +1719,13 @@
         <v>114300</v>
       </c>
       <c r="H35" s="3">
-        <v>259700</v>
+        <v>259800</v>
       </c>
       <c r="I35" s="3">
-        <v>261400</v>
+        <v>261500</v>
       </c>
       <c r="J35" s="3">
-        <v>292500</v>
+        <v>292600</v>
       </c>
       <c r="K35" s="3">
         <v>421700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>581700</v>
+        <v>581800</v>
       </c>
       <c r="E41" s="3">
-        <v>520100</v>
+        <v>520200</v>
       </c>
       <c r="F41" s="3">
-        <v>680100</v>
+        <v>680200</v>
       </c>
       <c r="G41" s="3">
-        <v>861200</v>
+        <v>861400</v>
       </c>
       <c r="H41" s="3">
-        <v>1483300</v>
+        <v>1483600</v>
       </c>
       <c r="I41" s="3">
-        <v>605500</v>
+        <v>605700</v>
       </c>
       <c r="J41" s="3">
-        <v>956300</v>
+        <v>956500</v>
       </c>
       <c r="K41" s="3">
         <v>1011900</v>
@@ -1869,7 +1869,7 @@
         <v>68600</v>
       </c>
       <c r="F42" s="3">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="G42" s="3">
         <v>77000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1120500</v>
+        <v>1120800</v>
       </c>
       <c r="E43" s="3">
-        <v>901600</v>
+        <v>901800</v>
       </c>
       <c r="F43" s="3">
-        <v>960800</v>
+        <v>961100</v>
       </c>
       <c r="G43" s="3">
-        <v>970800</v>
+        <v>971000</v>
       </c>
       <c r="H43" s="3">
-        <v>874200</v>
+        <v>874400</v>
       </c>
       <c r="I43" s="3">
-        <v>496000</v>
+        <v>496200</v>
       </c>
       <c r="J43" s="3">
-        <v>519500</v>
+        <v>519600</v>
       </c>
       <c r="K43" s="3">
         <v>588400</v>
@@ -1941,10 +1941,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>184000</v>
+        <v>184100</v>
       </c>
       <c r="E44" s="3">
-        <v>173300</v>
+        <v>173400</v>
       </c>
       <c r="F44" s="3">
         <v>337400</v>
@@ -1953,13 +1953,13 @@
         <v>261300</v>
       </c>
       <c r="H44" s="3">
-        <v>232200</v>
+        <v>232300</v>
       </c>
       <c r="I44" s="3">
         <v>120200</v>
       </c>
       <c r="J44" s="3">
-        <v>98600</v>
+        <v>98700</v>
       </c>
       <c r="K44" s="3">
         <v>102000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>426800</v>
+        <v>426900</v>
       </c>
       <c r="E45" s="3">
-        <v>542700</v>
+        <v>542800</v>
       </c>
       <c r="F45" s="3">
-        <v>619400</v>
+        <v>619600</v>
       </c>
       <c r="G45" s="3">
-        <v>566500</v>
+        <v>566600</v>
       </c>
       <c r="H45" s="3">
-        <v>651300</v>
+        <v>651400</v>
       </c>
       <c r="I45" s="3">
-        <v>1335000</v>
+        <v>1335400</v>
       </c>
       <c r="J45" s="3">
-        <v>992200</v>
+        <v>992400</v>
       </c>
       <c r="K45" s="3">
         <v>1022700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2373200</v>
+        <v>2373800</v>
       </c>
       <c r="E46" s="3">
-        <v>2206300</v>
+        <v>2206800</v>
       </c>
       <c r="F46" s="3">
-        <v>2659600</v>
+        <v>2660300</v>
       </c>
       <c r="G46" s="3">
-        <v>2736700</v>
+        <v>2737400</v>
       </c>
       <c r="H46" s="3">
-        <v>3342500</v>
+        <v>3343300</v>
       </c>
       <c r="I46" s="3">
-        <v>2614500</v>
+        <v>2615100</v>
       </c>
       <c r="J46" s="3">
-        <v>2566700</v>
+        <v>2567300</v>
       </c>
       <c r="K46" s="3">
         <v>2725000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>763200</v>
+        <v>763400</v>
       </c>
       <c r="E47" s="3">
-        <v>384800</v>
+        <v>384900</v>
       </c>
       <c r="F47" s="3">
-        <v>378500</v>
+        <v>378600</v>
       </c>
       <c r="G47" s="3">
-        <v>438800</v>
+        <v>438900</v>
       </c>
       <c r="H47" s="3">
-        <v>469700</v>
+        <v>469800</v>
       </c>
       <c r="I47" s="3">
         <v>307200</v>
       </c>
       <c r="J47" s="3">
-        <v>243300</v>
+        <v>243400</v>
       </c>
       <c r="K47" s="3">
         <v>247000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3595000</v>
+        <v>3595800</v>
       </c>
       <c r="E48" s="3">
-        <v>5031600</v>
+        <v>5032800</v>
       </c>
       <c r="F48" s="3">
-        <v>4862500</v>
+        <v>4863600</v>
       </c>
       <c r="G48" s="3">
-        <v>4429700</v>
+        <v>4430700</v>
       </c>
       <c r="H48" s="3">
-        <v>3804400</v>
+        <v>3805300</v>
       </c>
       <c r="I48" s="3">
-        <v>3038500</v>
+        <v>3039300</v>
       </c>
       <c r="J48" s="3">
-        <v>2759000</v>
+        <v>2759700</v>
       </c>
       <c r="K48" s="3">
         <v>2561800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4692700</v>
+        <v>4693800</v>
       </c>
       <c r="E49" s="3">
-        <v>4205200</v>
+        <v>4206200</v>
       </c>
       <c r="F49" s="3">
-        <v>4037000</v>
+        <v>4037900</v>
       </c>
       <c r="G49" s="3">
-        <v>3720000</v>
+        <v>3720900</v>
       </c>
       <c r="H49" s="3">
-        <v>7466700</v>
+        <v>7468400</v>
       </c>
       <c r="I49" s="3">
-        <v>3833300</v>
+        <v>3834200</v>
       </c>
       <c r="J49" s="3">
-        <v>3659000</v>
+        <v>3659800</v>
       </c>
       <c r="K49" s="3">
         <v>3473900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>584600</v>
+        <v>584800</v>
       </c>
       <c r="E52" s="3">
-        <v>641700</v>
+        <v>641900</v>
       </c>
       <c r="F52" s="3">
-        <v>666600</v>
+        <v>666700</v>
       </c>
       <c r="G52" s="3">
-        <v>684000</v>
+        <v>684200</v>
       </c>
       <c r="H52" s="3">
-        <v>692800</v>
+        <v>693000</v>
       </c>
       <c r="I52" s="3">
-        <v>349500</v>
+        <v>349600</v>
       </c>
       <c r="J52" s="3">
-        <v>299900</v>
+        <v>300000</v>
       </c>
       <c r="K52" s="3">
         <v>296700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12008700</v>
+        <v>12011500</v>
       </c>
       <c r="E54" s="3">
-        <v>12469600</v>
+        <v>12472500</v>
       </c>
       <c r="F54" s="3">
-        <v>12604200</v>
+        <v>12607100</v>
       </c>
       <c r="G54" s="3">
-        <v>12009200</v>
+        <v>12012100</v>
       </c>
       <c r="H54" s="3">
-        <v>11792200</v>
+        <v>11795000</v>
       </c>
       <c r="I54" s="3">
-        <v>10143000</v>
+        <v>10145400</v>
       </c>
       <c r="J54" s="3">
-        <v>9527900</v>
+        <v>9530100</v>
       </c>
       <c r="K54" s="3">
         <v>9304400</v>
@@ -2404,19 +2404,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>735400</v>
+        <v>735600</v>
       </c>
       <c r="E57" s="3">
-        <v>563100</v>
+        <v>563200</v>
       </c>
       <c r="F57" s="3">
-        <v>350000</v>
+        <v>350100</v>
       </c>
       <c r="G57" s="3">
         <v>248800</v>
       </c>
       <c r="H57" s="3">
-        <v>266100</v>
+        <v>266200</v>
       </c>
       <c r="I57" s="3">
         <v>348100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>451000</v>
+        <v>451200</v>
       </c>
       <c r="E58" s="3">
-        <v>494300</v>
+        <v>494400</v>
       </c>
       <c r="F58" s="3">
-        <v>370100</v>
+        <v>370200</v>
       </c>
       <c r="G58" s="3">
-        <v>282400</v>
+        <v>282500</v>
       </c>
       <c r="H58" s="3">
-        <v>342800</v>
+        <v>342900</v>
       </c>
       <c r="I58" s="3">
-        <v>58200</v>
+        <v>58300</v>
       </c>
       <c r="J58" s="3">
-        <v>494400</v>
+        <v>494500</v>
       </c>
       <c r="K58" s="3">
         <v>614400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1568400</v>
+        <v>1568800</v>
       </c>
       <c r="E59" s="3">
-        <v>1279300</v>
+        <v>1279600</v>
       </c>
       <c r="F59" s="3">
-        <v>1355700</v>
+        <v>1356000</v>
       </c>
       <c r="G59" s="3">
-        <v>1328500</v>
+        <v>1328900</v>
       </c>
       <c r="H59" s="3">
-        <v>1398300</v>
+        <v>1398600</v>
       </c>
       <c r="I59" s="3">
-        <v>1388700</v>
+        <v>1389000</v>
       </c>
       <c r="J59" s="3">
-        <v>1417200</v>
+        <v>1417600</v>
       </c>
       <c r="K59" s="3">
         <v>1511400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2754800</v>
+        <v>2755500</v>
       </c>
       <c r="E60" s="3">
-        <v>2336700</v>
+        <v>2337200</v>
       </c>
       <c r="F60" s="3">
-        <v>2075800</v>
+        <v>2076300</v>
       </c>
       <c r="G60" s="3">
-        <v>1859800</v>
+        <v>1860200</v>
       </c>
       <c r="H60" s="3">
-        <v>1927900</v>
+        <v>1928400</v>
       </c>
       <c r="I60" s="3">
-        <v>1795000</v>
+        <v>1795400</v>
       </c>
       <c r="J60" s="3">
-        <v>2229500</v>
+        <v>2230000</v>
       </c>
       <c r="K60" s="3">
         <v>2422700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5821500</v>
+        <v>5822900</v>
       </c>
       <c r="E61" s="3">
-        <v>7224000</v>
+        <v>7225700</v>
       </c>
       <c r="F61" s="3">
-        <v>7165500</v>
+        <v>7167200</v>
       </c>
       <c r="G61" s="3">
-        <v>6650100</v>
+        <v>6651700</v>
       </c>
       <c r="H61" s="3">
-        <v>6196400</v>
+        <v>6197800</v>
       </c>
       <c r="I61" s="3">
-        <v>5751900</v>
+        <v>5753300</v>
       </c>
       <c r="J61" s="3">
-        <v>4854600</v>
+        <v>4855700</v>
       </c>
       <c r="K61" s="3">
         <v>4649000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1459200</v>
+        <v>1459500</v>
       </c>
       <c r="E62" s="3">
-        <v>1181500</v>
+        <v>1181700</v>
       </c>
       <c r="F62" s="3">
-        <v>1072400</v>
+        <v>1072600</v>
       </c>
       <c r="G62" s="3">
-        <v>1000200</v>
+        <v>1000500</v>
       </c>
       <c r="H62" s="3">
-        <v>1053800</v>
+        <v>1054000</v>
       </c>
       <c r="I62" s="3">
-        <v>712800</v>
+        <v>713000</v>
       </c>
       <c r="J62" s="3">
-        <v>743400</v>
+        <v>743600</v>
       </c>
       <c r="K62" s="3">
         <v>657100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10178200</v>
+        <v>10180600</v>
       </c>
       <c r="E66" s="3">
-        <v>11203600</v>
+        <v>11206300</v>
       </c>
       <c r="F66" s="3">
-        <v>10623800</v>
+        <v>10626400</v>
       </c>
       <c r="G66" s="3">
-        <v>9830500</v>
+        <v>9832800</v>
       </c>
       <c r="H66" s="3">
-        <v>9346400</v>
+        <v>9348600</v>
       </c>
       <c r="I66" s="3">
-        <v>8610300</v>
+        <v>8612300</v>
       </c>
       <c r="J66" s="3">
-        <v>8122900</v>
+        <v>8124800</v>
       </c>
       <c r="K66" s="3">
         <v>8010500</v>
@@ -2967,19 +2967,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-607800</v>
+        <v>-608000</v>
       </c>
       <c r="E72" s="3">
-        <v>-396500</v>
+        <v>-396600</v>
       </c>
       <c r="F72" s="3">
-        <v>404400</v>
+        <v>404500</v>
       </c>
       <c r="G72" s="3">
-        <v>642000</v>
+        <v>642100</v>
       </c>
       <c r="H72" s="3">
-        <v>853500</v>
+        <v>853700</v>
       </c>
       <c r="I72" s="3">
         <v>-66900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1830600</v>
+        <v>1831000</v>
       </c>
       <c r="E76" s="3">
-        <v>1266000</v>
+        <v>1266300</v>
       </c>
       <c r="F76" s="3">
-        <v>1980300</v>
+        <v>1980800</v>
       </c>
       <c r="G76" s="3">
-        <v>2178800</v>
+        <v>2179300</v>
       </c>
       <c r="H76" s="3">
-        <v>2445800</v>
+        <v>2446300</v>
       </c>
       <c r="I76" s="3">
-        <v>1532700</v>
+        <v>1533100</v>
       </c>
       <c r="J76" s="3">
-        <v>1405000</v>
+        <v>1405300</v>
       </c>
       <c r="K76" s="3">
         <v>1293900</v>
@@ -3245,7 +3245,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>132400</v>
+        <v>132500</v>
       </c>
       <c r="E81" s="3">
         <v>-130000</v>
@@ -3257,13 +3257,13 @@
         <v>114300</v>
       </c>
       <c r="H81" s="3">
-        <v>259700</v>
+        <v>259800</v>
       </c>
       <c r="I81" s="3">
-        <v>261400</v>
+        <v>261500</v>
       </c>
       <c r="J81" s="3">
-        <v>292500</v>
+        <v>292600</v>
       </c>
       <c r="K81" s="3">
         <v>421700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>839400</v>
+        <v>839600</v>
       </c>
       <c r="E83" s="3">
-        <v>799400</v>
+        <v>799600</v>
       </c>
       <c r="F83" s="3">
-        <v>722500</v>
+        <v>722700</v>
       </c>
       <c r="G83" s="3">
-        <v>701700</v>
+        <v>701900</v>
       </c>
       <c r="H83" s="3">
-        <v>690100</v>
+        <v>690300</v>
       </c>
       <c r="I83" s="3">
-        <v>851600</v>
+        <v>851800</v>
       </c>
       <c r="J83" s="3">
-        <v>769500</v>
+        <v>769700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1236800</v>
+        <v>1237100</v>
       </c>
       <c r="E89" s="3">
-        <v>1618000</v>
+        <v>1618400</v>
       </c>
       <c r="F89" s="3">
-        <v>1418900</v>
+        <v>1419200</v>
       </c>
       <c r="G89" s="3">
-        <v>834200</v>
+        <v>834400</v>
       </c>
       <c r="H89" s="3">
-        <v>1314800</v>
+        <v>1315100</v>
       </c>
       <c r="I89" s="3">
-        <v>1268500</v>
+        <v>1268800</v>
       </c>
       <c r="J89" s="3">
-        <v>1595400</v>
+        <v>1595800</v>
       </c>
       <c r="K89" s="3">
         <v>931500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-457700</v>
+        <v>-457800</v>
       </c>
       <c r="E91" s="3">
         <v>-386600</v>
       </c>
       <c r="F91" s="3">
-        <v>-631600</v>
+        <v>-631800</v>
       </c>
       <c r="G91" s="3">
-        <v>-488600</v>
+        <v>-488800</v>
       </c>
       <c r="H91" s="3">
-        <v>-427800</v>
+        <v>-428000</v>
       </c>
       <c r="I91" s="3">
-        <v>-405800</v>
+        <v>-405900</v>
       </c>
       <c r="J91" s="3">
-        <v>-448200</v>
+        <v>-448300</v>
       </c>
       <c r="K91" s="3">
         <v>-326400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-971200</v>
+        <v>-971400</v>
       </c>
       <c r="E94" s="3">
-        <v>-960700</v>
+        <v>-960900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1158500</v>
+        <v>-1158800</v>
       </c>
       <c r="G94" s="3">
-        <v>-738300</v>
+        <v>-738500</v>
       </c>
       <c r="H94" s="3">
-        <v>-778200</v>
+        <v>-778400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1282100</v>
+        <v>-1282400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1298800</v>
+        <v>-1299100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3770,16 +3770,16 @@
         <v>-316500</v>
       </c>
       <c r="F96" s="3">
-        <v>-309800</v>
+        <v>-309900</v>
       </c>
       <c r="G96" s="3">
-        <v>-295700</v>
+        <v>-295800</v>
       </c>
       <c r="H96" s="3">
         <v>-282200</v>
       </c>
       <c r="I96" s="3">
-        <v>-188200</v>
+        <v>-188300</v>
       </c>
       <c r="J96" s="3">
         <v>-101600</v>
@@ -3923,22 +3923,22 @@
         <v>-200000</v>
       </c>
       <c r="E100" s="3">
-        <v>-824200</v>
+        <v>-824400</v>
       </c>
       <c r="F100" s="3">
-        <v>-436900</v>
+        <v>-437000</v>
       </c>
       <c r="G100" s="3">
-        <v>-713700</v>
+        <v>-713900</v>
       </c>
       <c r="H100" s="3">
-        <v>344000</v>
+        <v>344100</v>
       </c>
       <c r="I100" s="3">
         <v>-333700</v>
       </c>
       <c r="J100" s="3">
-        <v>-349600</v>
+        <v>-349700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4001,19 +4001,19 @@
         <v>61600</v>
       </c>
       <c r="E102" s="3">
-        <v>-159900</v>
+        <v>-160000</v>
       </c>
       <c r="F102" s="3">
         <v>-181100</v>
       </c>
       <c r="G102" s="3">
-        <v>-622100</v>
+        <v>-622200</v>
       </c>
       <c r="H102" s="3">
-        <v>877000</v>
+        <v>877200</v>
       </c>
       <c r="I102" s="3">
-        <v>-350000</v>
+        <v>-350100</v>
       </c>
       <c r="J102" s="3">
         <v>-56100</v>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>PCCWY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4927600</v>
+        <v>4517000</v>
       </c>
       <c r="E8" s="3">
-        <v>4587200</v>
+        <v>4584400</v>
       </c>
       <c r="F8" s="3">
-        <v>4783200</v>
+        <v>4780200</v>
       </c>
       <c r="G8" s="3">
-        <v>4952600</v>
+        <v>4949500</v>
       </c>
       <c r="H8" s="3">
-        <v>4695300</v>
+        <v>4692400</v>
       </c>
       <c r="I8" s="3">
-        <v>4893200</v>
+        <v>4890100</v>
       </c>
       <c r="J8" s="3">
-        <v>5011700</v>
+        <v>5008600</v>
       </c>
       <c r="K8" s="3">
         <v>4239200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2711400</v>
+        <v>4967800</v>
       </c>
       <c r="E9" s="3">
-        <v>2446200</v>
+        <v>2444700</v>
       </c>
       <c r="F9" s="3">
-        <v>2410300</v>
+        <v>2408800</v>
       </c>
       <c r="G9" s="3">
-        <v>2631400</v>
+        <v>2629800</v>
       </c>
       <c r="H9" s="3">
-        <v>2338500</v>
+        <v>2337000</v>
       </c>
       <c r="I9" s="3">
-        <v>2261900</v>
+        <v>2260500</v>
       </c>
       <c r="J9" s="3">
-        <v>2417700</v>
+        <v>2416100</v>
       </c>
       <c r="K9" s="3">
         <v>1930100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2216200</v>
+        <v>-450900</v>
       </c>
       <c r="E10" s="3">
-        <v>2141000</v>
+        <v>2139700</v>
       </c>
       <c r="F10" s="3">
-        <v>2372900</v>
+        <v>2371400</v>
       </c>
       <c r="G10" s="3">
-        <v>2321200</v>
+        <v>2319700</v>
       </c>
       <c r="H10" s="3">
-        <v>2356900</v>
+        <v>2355400</v>
       </c>
       <c r="I10" s="3">
-        <v>2631300</v>
+        <v>2629700</v>
       </c>
       <c r="J10" s="3">
-        <v>2594100</v>
+        <v>2592500</v>
       </c>
       <c r="K10" s="3">
         <v>2309100</v>
@@ -938,7 +938,7 @@
         <v>600</v>
       </c>
       <c r="E14" s="3">
-        <v>85800</v>
+        <v>85700</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
@@ -974,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>774800</v>
+        <v>774300</v>
       </c>
       <c r="E15" s="3">
-        <v>1089800</v>
+        <v>1089100</v>
       </c>
       <c r="F15" s="3">
-        <v>722700</v>
+        <v>722200</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4323400</v>
+        <v>3934100</v>
       </c>
       <c r="E17" s="3">
-        <v>4109700</v>
+        <v>4107100</v>
       </c>
       <c r="F17" s="3">
-        <v>4052000</v>
+        <v>4049400</v>
       </c>
       <c r="G17" s="3">
-        <v>4185800</v>
+        <v>4183200</v>
       </c>
       <c r="H17" s="3">
-        <v>3965300</v>
+        <v>3962800</v>
       </c>
       <c r="I17" s="3">
-        <v>4177900</v>
+        <v>4175300</v>
       </c>
       <c r="J17" s="3">
-        <v>4242200</v>
+        <v>4239500</v>
       </c>
       <c r="K17" s="3">
         <v>3367600</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>604300</v>
+        <v>582900</v>
       </c>
       <c r="E18" s="3">
-        <v>477500</v>
+        <v>477200</v>
       </c>
       <c r="F18" s="3">
-        <v>731200</v>
+        <v>730800</v>
       </c>
       <c r="G18" s="3">
-        <v>766800</v>
+        <v>766300</v>
       </c>
       <c r="H18" s="3">
-        <v>730100</v>
+        <v>729600</v>
       </c>
       <c r="I18" s="3">
-        <v>715300</v>
+        <v>714800</v>
       </c>
       <c r="J18" s="3">
-        <v>769600</v>
+        <v>769100</v>
       </c>
       <c r="K18" s="3">
         <v>871600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1515000</v>
+        <v>1453400</v>
       </c>
       <c r="E21" s="3">
-        <v>1264200</v>
+        <v>1187100</v>
       </c>
       <c r="F21" s="3">
-        <v>1455400</v>
+        <v>1434100</v>
       </c>
       <c r="G21" s="3">
-        <v>1467200</v>
+        <v>1455100</v>
       </c>
       <c r="H21" s="3">
-        <v>1419600</v>
+        <v>1580500</v>
       </c>
       <c r="I21" s="3">
-        <v>1554000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1518600</v>
+        <v>1471400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>177300</v>
+        <v>177200</v>
       </c>
       <c r="E22" s="3">
-        <v>199600</v>
+        <v>199500</v>
       </c>
       <c r="F22" s="3">
-        <v>247300</v>
+        <v>247200</v>
       </c>
       <c r="G22" s="3">
-        <v>232400</v>
+        <v>232300</v>
       </c>
       <c r="H22" s="3">
-        <v>201300</v>
+        <v>201200</v>
       </c>
       <c r="I22" s="3">
-        <v>163800</v>
+        <v>163700</v>
       </c>
       <c r="J22" s="3">
-        <v>183300</v>
+        <v>183200</v>
       </c>
       <c r="K22" s="3">
         <v>161000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>498600</v>
+        <v>477200</v>
       </c>
       <c r="E23" s="3">
-        <v>265500</v>
+        <v>265400</v>
       </c>
       <c r="F23" s="3">
-        <v>485800</v>
+        <v>485500</v>
       </c>
       <c r="G23" s="3">
-        <v>533400</v>
+        <v>533000</v>
       </c>
       <c r="H23" s="3">
-        <v>528400</v>
+        <v>528100</v>
       </c>
       <c r="I23" s="3">
-        <v>538900</v>
+        <v>538500</v>
       </c>
       <c r="J23" s="3">
-        <v>566000</v>
+        <v>565700</v>
       </c>
       <c r="K23" s="3">
         <v>697300</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>135800</v>
+        <v>127100</v>
       </c>
       <c r="E24" s="3">
-        <v>89900</v>
+        <v>89800</v>
       </c>
       <c r="F24" s="3">
-        <v>120000</v>
+        <v>119900</v>
       </c>
       <c r="G24" s="3">
-        <v>144600</v>
+        <v>144500</v>
       </c>
       <c r="H24" s="3">
-        <v>135300</v>
+        <v>135200</v>
       </c>
       <c r="I24" s="3">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="J24" s="3">
-        <v>57000</v>
+        <v>56900</v>
       </c>
       <c r="K24" s="3">
         <v>102300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>362800</v>
+        <v>350100</v>
       </c>
       <c r="E26" s="3">
-        <v>175700</v>
+        <v>175600</v>
       </c>
       <c r="F26" s="3">
-        <v>365900</v>
+        <v>365600</v>
       </c>
       <c r="G26" s="3">
-        <v>388800</v>
+        <v>388600</v>
       </c>
       <c r="H26" s="3">
-        <v>393100</v>
+        <v>392900</v>
       </c>
       <c r="I26" s="3">
-        <v>488500</v>
+        <v>488200</v>
       </c>
       <c r="J26" s="3">
-        <v>509000</v>
+        <v>508700</v>
       </c>
       <c r="K26" s="3">
         <v>595000</v>
@@ -1395,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>49200</v>
+        <v>107000</v>
       </c>
       <c r="E27" s="3">
         <v>-67900</v>
@@ -1407,13 +1407,13 @@
         <v>114300</v>
       </c>
       <c r="H27" s="3">
-        <v>114100</v>
+        <v>114000</v>
       </c>
       <c r="I27" s="3">
-        <v>261500</v>
+        <v>261300</v>
       </c>
       <c r="J27" s="3">
-        <v>292600</v>
+        <v>292400</v>
       </c>
       <c r="K27" s="3">
         <v>421700</v>
@@ -1473,10 +1473,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>83200</v>
+        <v>95700</v>
       </c>
       <c r="E29" s="3">
-        <v>-62100</v>
+        <v>-62000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>145700</v>
+        <v>145600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1629,10 +1629,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>132500</v>
+        <v>202700</v>
       </c>
       <c r="E33" s="3">
-        <v>-130000</v>
+        <v>-129900</v>
       </c>
       <c r="F33" s="3">
         <v>86800</v>
@@ -1641,13 +1641,13 @@
         <v>114300</v>
       </c>
       <c r="H33" s="3">
-        <v>259800</v>
+        <v>259600</v>
       </c>
       <c r="I33" s="3">
-        <v>261500</v>
+        <v>261300</v>
       </c>
       <c r="J33" s="3">
-        <v>292600</v>
+        <v>292400</v>
       </c>
       <c r="K33" s="3">
         <v>421700</v>
@@ -1707,10 +1707,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>132500</v>
+        <v>202700</v>
       </c>
       <c r="E35" s="3">
-        <v>-130000</v>
+        <v>-129900</v>
       </c>
       <c r="F35" s="3">
         <v>86800</v>
@@ -1719,13 +1719,13 @@
         <v>114300</v>
       </c>
       <c r="H35" s="3">
-        <v>259800</v>
+        <v>259600</v>
       </c>
       <c r="I35" s="3">
-        <v>261500</v>
+        <v>261300</v>
       </c>
       <c r="J35" s="3">
-        <v>292600</v>
+        <v>292400</v>
       </c>
       <c r="K35" s="3">
         <v>421700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>581800</v>
+        <v>581500</v>
       </c>
       <c r="E41" s="3">
-        <v>520200</v>
+        <v>519900</v>
       </c>
       <c r="F41" s="3">
-        <v>680200</v>
+        <v>679800</v>
       </c>
       <c r="G41" s="3">
-        <v>861400</v>
+        <v>860800</v>
       </c>
       <c r="H41" s="3">
-        <v>1483600</v>
+        <v>1482700</v>
       </c>
       <c r="I41" s="3">
-        <v>605700</v>
+        <v>605300</v>
       </c>
       <c r="J41" s="3">
-        <v>956500</v>
+        <v>955900</v>
       </c>
       <c r="K41" s="3">
         <v>1011900</v>
@@ -1863,19 +1863,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>60200</v>
+        <v>60100</v>
       </c>
       <c r="E42" s="3">
-        <v>68600</v>
+        <v>68500</v>
       </c>
       <c r="F42" s="3">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="G42" s="3">
-        <v>77000</v>
+        <v>76900</v>
       </c>
       <c r="H42" s="3">
-        <v>217700</v>
+        <v>217600</v>
       </c>
       <c r="I42" s="3">
         <v>57700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1120800</v>
+        <v>1120100</v>
       </c>
       <c r="E43" s="3">
-        <v>901800</v>
+        <v>901200</v>
       </c>
       <c r="F43" s="3">
-        <v>961100</v>
+        <v>960500</v>
       </c>
       <c r="G43" s="3">
-        <v>971000</v>
+        <v>970400</v>
       </c>
       <c r="H43" s="3">
-        <v>874400</v>
+        <v>873800</v>
       </c>
       <c r="I43" s="3">
-        <v>496200</v>
+        <v>495800</v>
       </c>
       <c r="J43" s="3">
-        <v>519600</v>
+        <v>519300</v>
       </c>
       <c r="K43" s="3">
         <v>588400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>184100</v>
+        <v>184000</v>
       </c>
       <c r="E44" s="3">
-        <v>173400</v>
+        <v>173300</v>
       </c>
       <c r="F44" s="3">
-        <v>337400</v>
+        <v>337200</v>
       </c>
       <c r="G44" s="3">
-        <v>261300</v>
+        <v>261200</v>
       </c>
       <c r="H44" s="3">
-        <v>232300</v>
+        <v>232100</v>
       </c>
       <c r="I44" s="3">
-        <v>120200</v>
+        <v>120100</v>
       </c>
       <c r="J44" s="3">
-        <v>98700</v>
+        <v>98600</v>
       </c>
       <c r="K44" s="3">
         <v>102000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>426900</v>
+        <v>426700</v>
       </c>
       <c r="E45" s="3">
-        <v>542800</v>
+        <v>542500</v>
       </c>
       <c r="F45" s="3">
-        <v>619600</v>
+        <v>619200</v>
       </c>
       <c r="G45" s="3">
-        <v>566600</v>
+        <v>566300</v>
       </c>
       <c r="H45" s="3">
-        <v>651400</v>
+        <v>651000</v>
       </c>
       <c r="I45" s="3">
-        <v>1335400</v>
+        <v>1334500</v>
       </c>
       <c r="J45" s="3">
-        <v>992400</v>
+        <v>991800</v>
       </c>
       <c r="K45" s="3">
         <v>1022700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2373800</v>
+        <v>2372300</v>
       </c>
       <c r="E46" s="3">
-        <v>2206800</v>
+        <v>2205400</v>
       </c>
       <c r="F46" s="3">
-        <v>2660300</v>
+        <v>2658600</v>
       </c>
       <c r="G46" s="3">
-        <v>2737400</v>
+        <v>2735700</v>
       </c>
       <c r="H46" s="3">
-        <v>3343300</v>
+        <v>3341200</v>
       </c>
       <c r="I46" s="3">
-        <v>2615100</v>
+        <v>2613500</v>
       </c>
       <c r="J46" s="3">
-        <v>2567300</v>
+        <v>2565700</v>
       </c>
       <c r="K46" s="3">
         <v>2725000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>763400</v>
+        <v>762900</v>
       </c>
       <c r="E47" s="3">
-        <v>384900</v>
+        <v>384600</v>
       </c>
       <c r="F47" s="3">
-        <v>378600</v>
+        <v>378400</v>
       </c>
       <c r="G47" s="3">
-        <v>438900</v>
+        <v>438600</v>
       </c>
       <c r="H47" s="3">
-        <v>469800</v>
+        <v>469500</v>
       </c>
       <c r="I47" s="3">
-        <v>307200</v>
+        <v>307000</v>
       </c>
       <c r="J47" s="3">
-        <v>243400</v>
+        <v>243200</v>
       </c>
       <c r="K47" s="3">
         <v>247000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3595800</v>
+        <v>3593600</v>
       </c>
       <c r="E48" s="3">
-        <v>5032800</v>
+        <v>5029600</v>
       </c>
       <c r="F48" s="3">
-        <v>4863600</v>
+        <v>4860600</v>
       </c>
       <c r="G48" s="3">
-        <v>4430700</v>
+        <v>4427900</v>
       </c>
       <c r="H48" s="3">
-        <v>3805300</v>
+        <v>3802900</v>
       </c>
       <c r="I48" s="3">
-        <v>3039300</v>
+        <v>3037300</v>
       </c>
       <c r="J48" s="3">
-        <v>2759700</v>
+        <v>2758000</v>
       </c>
       <c r="K48" s="3">
         <v>2561800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4693800</v>
+        <v>4690900</v>
       </c>
       <c r="E49" s="3">
-        <v>4206200</v>
+        <v>4203600</v>
       </c>
       <c r="F49" s="3">
-        <v>4037900</v>
+        <v>4035400</v>
       </c>
       <c r="G49" s="3">
-        <v>3720900</v>
+        <v>3718600</v>
       </c>
       <c r="H49" s="3">
-        <v>7468400</v>
+        <v>7463700</v>
       </c>
       <c r="I49" s="3">
-        <v>3834200</v>
+        <v>3831800</v>
       </c>
       <c r="J49" s="3">
-        <v>3659800</v>
+        <v>3657500</v>
       </c>
       <c r="K49" s="3">
         <v>3473900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>584800</v>
+        <v>584400</v>
       </c>
       <c r="E52" s="3">
-        <v>641900</v>
+        <v>641500</v>
       </c>
       <c r="F52" s="3">
-        <v>666700</v>
+        <v>666300</v>
       </c>
       <c r="G52" s="3">
-        <v>684200</v>
+        <v>683800</v>
       </c>
       <c r="H52" s="3">
-        <v>693000</v>
+        <v>692500</v>
       </c>
       <c r="I52" s="3">
-        <v>349600</v>
+        <v>349300</v>
       </c>
       <c r="J52" s="3">
-        <v>300000</v>
+        <v>299800</v>
       </c>
       <c r="K52" s="3">
         <v>296700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12011500</v>
+        <v>12004000</v>
       </c>
       <c r="E54" s="3">
-        <v>12472500</v>
+        <v>12464700</v>
       </c>
       <c r="F54" s="3">
-        <v>12607100</v>
+        <v>12599200</v>
       </c>
       <c r="G54" s="3">
-        <v>12012100</v>
+        <v>12004500</v>
       </c>
       <c r="H54" s="3">
-        <v>11795000</v>
+        <v>11787600</v>
       </c>
       <c r="I54" s="3">
-        <v>10145400</v>
+        <v>10139000</v>
       </c>
       <c r="J54" s="3">
-        <v>9530100</v>
+        <v>9524200</v>
       </c>
       <c r="K54" s="3">
         <v>9304400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>735600</v>
+        <v>735100</v>
       </c>
       <c r="E57" s="3">
-        <v>563200</v>
+        <v>562900</v>
       </c>
       <c r="F57" s="3">
-        <v>350100</v>
+        <v>349800</v>
       </c>
       <c r="G57" s="3">
-        <v>248800</v>
+        <v>248700</v>
       </c>
       <c r="H57" s="3">
-        <v>266200</v>
+        <v>266000</v>
       </c>
       <c r="I57" s="3">
-        <v>348100</v>
+        <v>347900</v>
       </c>
       <c r="J57" s="3">
-        <v>317900</v>
+        <v>317700</v>
       </c>
       <c r="K57" s="3">
         <v>296900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>451200</v>
+        <v>450900</v>
       </c>
       <c r="E58" s="3">
-        <v>494400</v>
+        <v>494100</v>
       </c>
       <c r="F58" s="3">
-        <v>370200</v>
+        <v>370000</v>
       </c>
       <c r="G58" s="3">
-        <v>282500</v>
+        <v>282300</v>
       </c>
       <c r="H58" s="3">
-        <v>342900</v>
+        <v>342700</v>
       </c>
       <c r="I58" s="3">
-        <v>58300</v>
+        <v>58200</v>
       </c>
       <c r="J58" s="3">
-        <v>494500</v>
+        <v>494200</v>
       </c>
       <c r="K58" s="3">
         <v>614400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1568800</v>
+        <v>1567800</v>
       </c>
       <c r="E59" s="3">
-        <v>1279600</v>
+        <v>1278800</v>
       </c>
       <c r="F59" s="3">
-        <v>1356000</v>
+        <v>1355200</v>
       </c>
       <c r="G59" s="3">
-        <v>1328900</v>
+        <v>1328000</v>
       </c>
       <c r="H59" s="3">
-        <v>1398600</v>
+        <v>1397700</v>
       </c>
       <c r="I59" s="3">
-        <v>1389000</v>
+        <v>1388200</v>
       </c>
       <c r="J59" s="3">
-        <v>1417600</v>
+        <v>1416700</v>
       </c>
       <c r="K59" s="3">
         <v>1511400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2755500</v>
+        <v>2753800</v>
       </c>
       <c r="E60" s="3">
-        <v>2337200</v>
+        <v>2335800</v>
       </c>
       <c r="F60" s="3">
-        <v>2076300</v>
+        <v>2075000</v>
       </c>
       <c r="G60" s="3">
-        <v>1860200</v>
+        <v>1859000</v>
       </c>
       <c r="H60" s="3">
-        <v>1928400</v>
+        <v>1927200</v>
       </c>
       <c r="I60" s="3">
-        <v>1795400</v>
+        <v>1794300</v>
       </c>
       <c r="J60" s="3">
-        <v>2230000</v>
+        <v>2228600</v>
       </c>
       <c r="K60" s="3">
         <v>2422700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5822900</v>
+        <v>5819200</v>
       </c>
       <c r="E61" s="3">
-        <v>7225700</v>
+        <v>7221200</v>
       </c>
       <c r="F61" s="3">
-        <v>7167200</v>
+        <v>7162700</v>
       </c>
       <c r="G61" s="3">
-        <v>6651700</v>
+        <v>6647500</v>
       </c>
       <c r="H61" s="3">
-        <v>6197800</v>
+        <v>6193900</v>
       </c>
       <c r="I61" s="3">
-        <v>5753300</v>
+        <v>5749700</v>
       </c>
       <c r="J61" s="3">
-        <v>4855700</v>
+        <v>4852700</v>
       </c>
       <c r="K61" s="3">
         <v>4649000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1459500</v>
+        <v>1458600</v>
       </c>
       <c r="E62" s="3">
-        <v>1181700</v>
+        <v>1181000</v>
       </c>
       <c r="F62" s="3">
-        <v>1072600</v>
+        <v>1071900</v>
       </c>
       <c r="G62" s="3">
-        <v>1000500</v>
+        <v>999800</v>
       </c>
       <c r="H62" s="3">
-        <v>1054000</v>
+        <v>1053300</v>
       </c>
       <c r="I62" s="3">
-        <v>713000</v>
+        <v>712500</v>
       </c>
       <c r="J62" s="3">
-        <v>743600</v>
+        <v>743100</v>
       </c>
       <c r="K62" s="3">
         <v>657100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10180600</v>
+        <v>10174200</v>
       </c>
       <c r="E66" s="3">
-        <v>11206300</v>
+        <v>11199200</v>
       </c>
       <c r="F66" s="3">
-        <v>10626400</v>
+        <v>10619700</v>
       </c>
       <c r="G66" s="3">
-        <v>9832800</v>
+        <v>9826600</v>
       </c>
       <c r="H66" s="3">
-        <v>9348600</v>
+        <v>9342800</v>
       </c>
       <c r="I66" s="3">
-        <v>8612300</v>
+        <v>8606900</v>
       </c>
       <c r="J66" s="3">
-        <v>8124800</v>
+        <v>8119700</v>
       </c>
       <c r="K66" s="3">
         <v>8010500</v>
@@ -2967,19 +2967,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-608000</v>
+        <v>-607600</v>
       </c>
       <c r="E72" s="3">
-        <v>-396600</v>
+        <v>-396300</v>
       </c>
       <c r="F72" s="3">
-        <v>404500</v>
+        <v>404200</v>
       </c>
       <c r="G72" s="3">
-        <v>642100</v>
+        <v>641700</v>
       </c>
       <c r="H72" s="3">
-        <v>853700</v>
+        <v>853200</v>
       </c>
       <c r="I72" s="3">
         <v>-66900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1831000</v>
+        <v>1829800</v>
       </c>
       <c r="E76" s="3">
-        <v>1266300</v>
+        <v>1265500</v>
       </c>
       <c r="F76" s="3">
-        <v>1980800</v>
+        <v>1979500</v>
       </c>
       <c r="G76" s="3">
-        <v>2179300</v>
+        <v>2177900</v>
       </c>
       <c r="H76" s="3">
-        <v>2446300</v>
+        <v>2444800</v>
       </c>
       <c r="I76" s="3">
-        <v>1533100</v>
+        <v>1532100</v>
       </c>
       <c r="J76" s="3">
-        <v>1405300</v>
+        <v>1404500</v>
       </c>
       <c r="K76" s="3">
         <v>1293900</v>
@@ -3245,10 +3245,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>132500</v>
+        <v>202700</v>
       </c>
       <c r="E81" s="3">
-        <v>-130000</v>
+        <v>-129900</v>
       </c>
       <c r="F81" s="3">
         <v>86800</v>
@@ -3257,13 +3257,13 @@
         <v>114300</v>
       </c>
       <c r="H81" s="3">
-        <v>259800</v>
+        <v>259600</v>
       </c>
       <c r="I81" s="3">
-        <v>261500</v>
+        <v>261300</v>
       </c>
       <c r="J81" s="3">
-        <v>292600</v>
+        <v>292400</v>
       </c>
       <c r="K81" s="3">
         <v>421700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>839600</v>
+        <v>799100</v>
       </c>
       <c r="E83" s="3">
-        <v>799600</v>
+        <v>722200</v>
       </c>
       <c r="F83" s="3">
-        <v>722700</v>
+        <v>701500</v>
       </c>
       <c r="G83" s="3">
-        <v>701900</v>
+        <v>689900</v>
       </c>
       <c r="H83" s="3">
-        <v>690300</v>
+        <v>851300</v>
       </c>
       <c r="I83" s="3">
-        <v>851800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>769700</v>
+        <v>769200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1237100</v>
+        <v>1617300</v>
       </c>
       <c r="E89" s="3">
-        <v>1618400</v>
+        <v>1418300</v>
       </c>
       <c r="F89" s="3">
-        <v>1419200</v>
+        <v>833800</v>
       </c>
       <c r="G89" s="3">
-        <v>834400</v>
+        <v>1314300</v>
       </c>
       <c r="H89" s="3">
-        <v>1315100</v>
+        <v>1268000</v>
       </c>
       <c r="I89" s="3">
-        <v>1268800</v>
+        <v>1594800</v>
       </c>
       <c r="J89" s="3">
-        <v>1595800</v>
+        <v>1344500</v>
       </c>
       <c r="K89" s="3">
         <v>931500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-457800</v>
+        <v>-386400</v>
       </c>
       <c r="E91" s="3">
-        <v>-386600</v>
+        <v>-631400</v>
       </c>
       <c r="F91" s="3">
-        <v>-631800</v>
+        <v>-488500</v>
       </c>
       <c r="G91" s="3">
-        <v>-488800</v>
+        <v>-427700</v>
       </c>
       <c r="H91" s="3">
-        <v>-428000</v>
+        <v>-405600</v>
       </c>
       <c r="I91" s="3">
-        <v>-405900</v>
+        <v>-448100</v>
       </c>
       <c r="J91" s="3">
-        <v>-448300</v>
+        <v>-408100</v>
       </c>
       <c r="K91" s="3">
         <v>-326400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-971400</v>
+        <v>-960300</v>
       </c>
       <c r="E94" s="3">
-        <v>-960900</v>
+        <v>-1158100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1158800</v>
+        <v>-738000</v>
       </c>
       <c r="G94" s="3">
-        <v>-738500</v>
+        <v>-777900</v>
       </c>
       <c r="H94" s="3">
-        <v>-778400</v>
+        <v>-1281600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1282400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1299100</v>
+        <v>-1298300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-318400</v>
+        <v>-316300</v>
       </c>
       <c r="E96" s="3">
-        <v>-316500</v>
+        <v>-309700</v>
       </c>
       <c r="F96" s="3">
-        <v>-309900</v>
+        <v>-295600</v>
       </c>
       <c r="G96" s="3">
-        <v>-295800</v>
+        <v>-282100</v>
       </c>
       <c r="H96" s="3">
-        <v>-282200</v>
+        <v>-188200</v>
       </c>
       <c r="I96" s="3">
-        <v>-188300</v>
+        <v>-101500</v>
       </c>
       <c r="J96" s="3">
-        <v>-101600</v>
+        <v>-97500</v>
       </c>
       <c r="K96" s="3">
         <v>-183700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-200000</v>
+        <v>-823900</v>
       </c>
       <c r="E100" s="3">
-        <v>-824400</v>
+        <v>-436700</v>
       </c>
       <c r="F100" s="3">
-        <v>-437000</v>
+        <v>-713400</v>
       </c>
       <c r="G100" s="3">
-        <v>-713900</v>
+        <v>343900</v>
       </c>
       <c r="H100" s="3">
-        <v>344100</v>
+        <v>-333500</v>
       </c>
       <c r="I100" s="3">
-        <v>-333700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-349700</v>
+        <v>-349500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4100</v>
+        <v>7000</v>
       </c>
       <c r="E101" s="3">
-        <v>7000</v>
+        <v>-4600</v>
       </c>
       <c r="F101" s="3">
-        <v>-4600</v>
+        <v>-4200</v>
       </c>
       <c r="G101" s="3">
-        <v>-4200</v>
+        <v>-3600</v>
       </c>
       <c r="H101" s="3">
-        <v>-3600</v>
+        <v>-2700</v>
       </c>
       <c r="I101" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J101" s="3">
         <v>-3100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>61600</v>
+        <v>-159900</v>
       </c>
       <c r="E102" s="3">
-        <v>-160000</v>
+        <v>-181000</v>
       </c>
       <c r="F102" s="3">
-        <v>-181100</v>
+        <v>-621800</v>
       </c>
       <c r="G102" s="3">
-        <v>-622200</v>
+        <v>876600</v>
       </c>
       <c r="H102" s="3">
-        <v>877200</v>
+        <v>-349800</v>
       </c>
       <c r="I102" s="3">
-        <v>-350100</v>
+        <v>-56100</v>
       </c>
       <c r="J102" s="3">
-        <v>-56100</v>
+        <v>310100</v>
       </c>
       <c r="K102" s="3">
         <v>121800</v>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>PCCWY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4517000</v>
+        <v>4608000</v>
       </c>
       <c r="E8" s="3">
-        <v>4584400</v>
+        <v>4530100</v>
       </c>
       <c r="F8" s="3">
-        <v>4780200</v>
+        <v>4597700</v>
       </c>
       <c r="G8" s="3">
-        <v>4949500</v>
+        <v>4794100</v>
       </c>
       <c r="H8" s="3">
-        <v>4692400</v>
+        <v>4963900</v>
       </c>
       <c r="I8" s="3">
-        <v>4890100</v>
+        <v>4706000</v>
       </c>
       <c r="J8" s="3">
+        <v>4904300</v>
+      </c>
+      <c r="K8" s="3">
         <v>5008600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4239200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3516500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3260700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3138600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4967800</v>
+        <v>2288900</v>
       </c>
       <c r="E9" s="3">
-        <v>2444700</v>
+        <v>2264700</v>
       </c>
       <c r="F9" s="3">
-        <v>2408800</v>
+        <v>2451800</v>
       </c>
       <c r="G9" s="3">
-        <v>2629800</v>
+        <v>2415700</v>
       </c>
       <c r="H9" s="3">
-        <v>2337000</v>
+        <v>2637400</v>
       </c>
       <c r="I9" s="3">
-        <v>2260500</v>
+        <v>2343800</v>
       </c>
       <c r="J9" s="3">
+        <v>2267000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2416100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1930100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1687800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1521800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1451900</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-450900</v>
+        <v>2319200</v>
       </c>
       <c r="E10" s="3">
-        <v>2139700</v>
+        <v>2265400</v>
       </c>
       <c r="F10" s="3">
-        <v>2371400</v>
+        <v>2145900</v>
       </c>
       <c r="G10" s="3">
-        <v>2319700</v>
+        <v>2378300</v>
       </c>
       <c r="H10" s="3">
-        <v>2355400</v>
+        <v>2326400</v>
       </c>
       <c r="I10" s="3">
-        <v>2629700</v>
+        <v>2362200</v>
       </c>
       <c r="J10" s="3">
+        <v>2637300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2592500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2309100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1828700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1738900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1686800</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,62 +944,68 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
-        <v>85700</v>
-      </c>
       <c r="F14" s="3">
+        <v>86000</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>-34900</v>
-      </c>
       <c r="H14" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="I14" s="3">
         <v>19000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-250200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-11200</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>774300</v>
+        <v>788600</v>
       </c>
       <c r="E15" s="3">
-        <v>1089100</v>
+        <v>723600</v>
       </c>
       <c r="F15" s="3">
-        <v>722200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>1092300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>724300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1000,15 +1022,18 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3934100</v>
+        <v>4007100</v>
       </c>
       <c r="E17" s="3">
-        <v>4107100</v>
+        <v>3945500</v>
       </c>
       <c r="F17" s="3">
-        <v>4049400</v>
+        <v>4119000</v>
       </c>
       <c r="G17" s="3">
-        <v>4183200</v>
+        <v>4061200</v>
       </c>
       <c r="H17" s="3">
-        <v>3962800</v>
+        <v>4195300</v>
       </c>
       <c r="I17" s="3">
-        <v>4175300</v>
+        <v>3974300</v>
       </c>
       <c r="J17" s="3">
+        <v>4187400</v>
+      </c>
+      <c r="K17" s="3">
         <v>4239500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3367600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2971200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2781000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2657100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>582900</v>
+        <v>600900</v>
       </c>
       <c r="E18" s="3">
-        <v>477200</v>
+        <v>584500</v>
       </c>
       <c r="F18" s="3">
-        <v>730800</v>
+        <v>478600</v>
       </c>
       <c r="G18" s="3">
-        <v>766300</v>
+        <v>732900</v>
       </c>
       <c r="H18" s="3">
-        <v>729600</v>
+        <v>768500</v>
       </c>
       <c r="I18" s="3">
-        <v>714800</v>
+        <v>731700</v>
       </c>
       <c r="J18" s="3">
+        <v>716900</v>
+      </c>
+      <c r="K18" s="3">
         <v>769100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>871600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>545300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>479700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>481500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,70 +1148,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>71600</v>
+        <v>-54400</v>
       </c>
       <c r="E20" s="3">
+        <v>71800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-12400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1453400</v>
+        <v>1358200</v>
       </c>
       <c r="E21" s="3">
-        <v>1187100</v>
+        <v>1497500</v>
       </c>
       <c r="F21" s="3">
-        <v>1434100</v>
+        <v>1267200</v>
       </c>
       <c r="G21" s="3">
-        <v>1455100</v>
+        <v>1458800</v>
       </c>
       <c r="H21" s="3">
-        <v>1580500</v>
+        <v>1470700</v>
       </c>
       <c r="I21" s="3">
-        <v>1471400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>1422900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1557600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1187,132 +1223,144 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>1046500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>177200</v>
+        <v>214400</v>
       </c>
       <c r="E22" s="3">
-        <v>199500</v>
+        <v>177700</v>
       </c>
       <c r="F22" s="3">
-        <v>247200</v>
+        <v>200100</v>
       </c>
       <c r="G22" s="3">
-        <v>232300</v>
+        <v>247900</v>
       </c>
       <c r="H22" s="3">
-        <v>201200</v>
+        <v>232900</v>
       </c>
       <c r="I22" s="3">
-        <v>163700</v>
+        <v>201700</v>
       </c>
       <c r="J22" s="3">
+        <v>164200</v>
+      </c>
+      <c r="K22" s="3">
         <v>183200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>161000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>133600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>119300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>186200</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>477200</v>
+        <v>332100</v>
       </c>
       <c r="E23" s="3">
-        <v>265400</v>
+        <v>478600</v>
       </c>
       <c r="F23" s="3">
-        <v>485500</v>
+        <v>266100</v>
       </c>
       <c r="G23" s="3">
-        <v>533000</v>
+        <v>486900</v>
       </c>
       <c r="H23" s="3">
-        <v>528100</v>
+        <v>534600</v>
       </c>
       <c r="I23" s="3">
-        <v>538500</v>
+        <v>529600</v>
       </c>
       <c r="J23" s="3">
+        <v>540100</v>
+      </c>
+      <c r="K23" s="3">
         <v>565700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>697300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>420300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>360500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>295300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>127100</v>
+        <v>85900</v>
       </c>
       <c r="E24" s="3">
-        <v>89800</v>
+        <v>127500</v>
       </c>
       <c r="F24" s="3">
-        <v>119900</v>
+        <v>90100</v>
       </c>
       <c r="G24" s="3">
-        <v>144500</v>
+        <v>120200</v>
       </c>
       <c r="H24" s="3">
-        <v>135200</v>
+        <v>144900</v>
       </c>
       <c r="I24" s="3">
-        <v>50300</v>
+        <v>135600</v>
       </c>
       <c r="J24" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K24" s="3">
         <v>56900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>102300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>69000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>350100</v>
+        <v>246200</v>
       </c>
       <c r="E26" s="3">
-        <v>175600</v>
+        <v>351100</v>
       </c>
       <c r="F26" s="3">
-        <v>365600</v>
+        <v>176100</v>
       </c>
       <c r="G26" s="3">
-        <v>388600</v>
+        <v>366700</v>
       </c>
       <c r="H26" s="3">
-        <v>392900</v>
+        <v>389700</v>
       </c>
       <c r="I26" s="3">
-        <v>488200</v>
+        <v>394000</v>
       </c>
       <c r="J26" s="3">
+        <v>489600</v>
+      </c>
+      <c r="K26" s="3">
         <v>508700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>595000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>393300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>330600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>226200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>107000</v>
+        <v>-86400</v>
       </c>
       <c r="E27" s="3">
-        <v>-67900</v>
+        <v>36800</v>
       </c>
       <c r="F27" s="3">
-        <v>86800</v>
+        <v>-68100</v>
       </c>
       <c r="G27" s="3">
-        <v>114300</v>
+        <v>87000</v>
       </c>
       <c r="H27" s="3">
-        <v>114000</v>
+        <v>114600</v>
       </c>
       <c r="I27" s="3">
-        <v>261300</v>
+        <v>114400</v>
       </c>
       <c r="J27" s="3">
+        <v>262100</v>
+      </c>
+      <c r="K27" s="3">
         <v>292400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>421700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>242700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>214200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>204700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,29 +1523,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>95700</v>
+        <v>106600</v>
       </c>
       <c r="E29" s="3">
-        <v>-62000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>96000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>145600</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>146000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71600</v>
+        <v>54400</v>
       </c>
       <c r="E32" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="F32" s="3">
         <v>12400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>202700</v>
+        <v>20200</v>
       </c>
       <c r="E33" s="3">
-        <v>-129900</v>
+        <v>132800</v>
       </c>
       <c r="F33" s="3">
-        <v>86800</v>
+        <v>-130300</v>
       </c>
       <c r="G33" s="3">
-        <v>114300</v>
+        <v>87000</v>
       </c>
       <c r="H33" s="3">
-        <v>259600</v>
+        <v>114600</v>
       </c>
       <c r="I33" s="3">
-        <v>261300</v>
+        <v>260400</v>
       </c>
       <c r="J33" s="3">
+        <v>262100</v>
+      </c>
+      <c r="K33" s="3">
         <v>292400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>421700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>242700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>214200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>204700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>202700</v>
+        <v>20200</v>
       </c>
       <c r="E35" s="3">
-        <v>-129900</v>
+        <v>132800</v>
       </c>
       <c r="F35" s="3">
-        <v>86800</v>
+        <v>-130300</v>
       </c>
       <c r="G35" s="3">
-        <v>114300</v>
+        <v>87000</v>
       </c>
       <c r="H35" s="3">
-        <v>259600</v>
+        <v>114600</v>
       </c>
       <c r="I35" s="3">
-        <v>261300</v>
+        <v>260400</v>
       </c>
       <c r="J35" s="3">
+        <v>262100</v>
+      </c>
+      <c r="K35" s="3">
         <v>292400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>421700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>242700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>214200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>204700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>581500</v>
+        <v>384500</v>
       </c>
       <c r="E41" s="3">
-        <v>519900</v>
+        <v>583100</v>
       </c>
       <c r="F41" s="3">
-        <v>679800</v>
+        <v>521400</v>
       </c>
       <c r="G41" s="3">
-        <v>860800</v>
+        <v>681800</v>
       </c>
       <c r="H41" s="3">
-        <v>1482700</v>
+        <v>863300</v>
       </c>
       <c r="I41" s="3">
-        <v>605300</v>
+        <v>1487000</v>
       </c>
       <c r="J41" s="3">
+        <v>607000</v>
+      </c>
+      <c r="K41" s="3">
         <v>955900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1011900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>709200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>586400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>683400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>60100</v>
+        <v>14800</v>
       </c>
       <c r="E42" s="3">
-        <v>68500</v>
+        <v>60300</v>
       </c>
       <c r="F42" s="3">
-        <v>61900</v>
+        <v>68700</v>
       </c>
       <c r="G42" s="3">
-        <v>76900</v>
+        <v>62100</v>
       </c>
       <c r="H42" s="3">
-        <v>217600</v>
+        <v>77200</v>
       </c>
       <c r="I42" s="3">
-        <v>57700</v>
+        <v>218200</v>
       </c>
       <c r="J42" s="3">
+        <v>57900</v>
+      </c>
+      <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>1300</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1120100</v>
+        <v>969500</v>
       </c>
       <c r="E43" s="3">
-        <v>901200</v>
+        <v>1123400</v>
       </c>
       <c r="F43" s="3">
-        <v>960500</v>
+        <v>903800</v>
       </c>
       <c r="G43" s="3">
-        <v>970400</v>
+        <v>963300</v>
       </c>
       <c r="H43" s="3">
-        <v>873800</v>
+        <v>973200</v>
       </c>
       <c r="I43" s="3">
-        <v>495800</v>
+        <v>876400</v>
       </c>
       <c r="J43" s="3">
+        <v>497300</v>
+      </c>
+      <c r="K43" s="3">
         <v>519300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>588400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>501000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1054500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>393800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>184000</v>
+        <v>263800</v>
       </c>
       <c r="E44" s="3">
-        <v>173300</v>
+        <v>184500</v>
       </c>
       <c r="F44" s="3">
-        <v>337200</v>
+        <v>173800</v>
       </c>
       <c r="G44" s="3">
-        <v>261200</v>
+        <v>338200</v>
       </c>
       <c r="H44" s="3">
-        <v>232100</v>
+        <v>261900</v>
       </c>
       <c r="I44" s="3">
-        <v>120100</v>
+        <v>232800</v>
       </c>
       <c r="J44" s="3">
+        <v>120500</v>
+      </c>
+      <c r="K44" s="3">
         <v>98600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>102000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>154300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>296200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>148500</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>426700</v>
+        <v>545300</v>
       </c>
       <c r="E45" s="3">
-        <v>542500</v>
+        <v>427900</v>
       </c>
       <c r="F45" s="3">
-        <v>619200</v>
+        <v>544000</v>
       </c>
       <c r="G45" s="3">
-        <v>566300</v>
+        <v>621000</v>
       </c>
       <c r="H45" s="3">
-        <v>651000</v>
+        <v>567900</v>
       </c>
       <c r="I45" s="3">
-        <v>1334500</v>
+        <v>652900</v>
       </c>
       <c r="J45" s="3">
+        <v>1338400</v>
+      </c>
+      <c r="K45" s="3">
         <v>991800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1022700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>897100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1602500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>677600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2372300</v>
+        <v>2178000</v>
       </c>
       <c r="E46" s="3">
-        <v>2205400</v>
+        <v>2379200</v>
       </c>
       <c r="F46" s="3">
-        <v>2658600</v>
+        <v>2211800</v>
       </c>
       <c r="G46" s="3">
-        <v>2735700</v>
+        <v>2666300</v>
       </c>
       <c r="H46" s="3">
-        <v>3341200</v>
+        <v>2743600</v>
       </c>
       <c r="I46" s="3">
-        <v>2613500</v>
+        <v>3350900</v>
       </c>
       <c r="J46" s="3">
+        <v>2621100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2565700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2725000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2262900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2160300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1903300</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>762900</v>
+        <v>1050100</v>
       </c>
       <c r="E47" s="3">
-        <v>384600</v>
+        <v>765100</v>
       </c>
       <c r="F47" s="3">
-        <v>378400</v>
+        <v>385700</v>
       </c>
       <c r="G47" s="3">
-        <v>438600</v>
+        <v>379500</v>
       </c>
       <c r="H47" s="3">
-        <v>469500</v>
+        <v>439900</v>
       </c>
       <c r="I47" s="3">
-        <v>307000</v>
+        <v>470800</v>
       </c>
       <c r="J47" s="3">
+        <v>307900</v>
+      </c>
+      <c r="K47" s="3">
         <v>243200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>247000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>251000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1050800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>876200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3593600</v>
+        <v>3689000</v>
       </c>
       <c r="E48" s="3">
-        <v>5029600</v>
+        <v>3604000</v>
       </c>
       <c r="F48" s="3">
-        <v>4860600</v>
+        <v>5044200</v>
       </c>
       <c r="G48" s="3">
-        <v>4427900</v>
+        <v>4874700</v>
       </c>
       <c r="H48" s="3">
-        <v>3802900</v>
+        <v>4440800</v>
       </c>
       <c r="I48" s="3">
-        <v>3037300</v>
+        <v>3813900</v>
       </c>
       <c r="J48" s="3">
+        <v>3046200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2758000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2561800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3237900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3638400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2112400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4690900</v>
+        <v>4639600</v>
       </c>
       <c r="E49" s="3">
-        <v>4203600</v>
+        <v>4704500</v>
       </c>
       <c r="F49" s="3">
-        <v>4035400</v>
+        <v>4215800</v>
       </c>
       <c r="G49" s="3">
-        <v>3718600</v>
+        <v>4047100</v>
       </c>
       <c r="H49" s="3">
-        <v>7463700</v>
+        <v>3729400</v>
       </c>
       <c r="I49" s="3">
-        <v>3831800</v>
+        <v>7485400</v>
       </c>
       <c r="J49" s="3">
+        <v>3842900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3657500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3473900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>906600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2176200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>762000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>584400</v>
+        <v>589700</v>
       </c>
       <c r="E52" s="3">
-        <v>641500</v>
+        <v>586100</v>
       </c>
       <c r="F52" s="3">
-        <v>666300</v>
+        <v>643300</v>
       </c>
       <c r="G52" s="3">
-        <v>683800</v>
+        <v>668200</v>
       </c>
       <c r="H52" s="3">
-        <v>692500</v>
+        <v>685700</v>
       </c>
       <c r="I52" s="3">
-        <v>349300</v>
+        <v>694600</v>
       </c>
       <c r="J52" s="3">
+        <v>350300</v>
+      </c>
+      <c r="K52" s="3">
         <v>299800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>296700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>284800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>325300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>186900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12004000</v>
+        <v>12146300</v>
       </c>
       <c r="E54" s="3">
-        <v>12464700</v>
+        <v>12038900</v>
       </c>
       <c r="F54" s="3">
-        <v>12599200</v>
+        <v>12500900</v>
       </c>
       <c r="G54" s="3">
-        <v>12004500</v>
+        <v>12635800</v>
       </c>
       <c r="H54" s="3">
-        <v>11787600</v>
+        <v>12039400</v>
       </c>
       <c r="I54" s="3">
-        <v>10139000</v>
+        <v>11821800</v>
       </c>
       <c r="J54" s="3">
+        <v>10168400</v>
+      </c>
+      <c r="K54" s="3">
         <v>9524200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9304400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6943300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6419400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5840800</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>735100</v>
+        <v>776100</v>
       </c>
       <c r="E57" s="3">
-        <v>562900</v>
+        <v>737200</v>
       </c>
       <c r="F57" s="3">
-        <v>349800</v>
+        <v>564500</v>
       </c>
       <c r="G57" s="3">
-        <v>248700</v>
+        <v>350900</v>
       </c>
       <c r="H57" s="3">
-        <v>266000</v>
+        <v>249400</v>
       </c>
       <c r="I57" s="3">
-        <v>347900</v>
+        <v>266800</v>
       </c>
       <c r="J57" s="3">
+        <v>348900</v>
+      </c>
+      <c r="K57" s="3">
         <v>317700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>296900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>272700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>306500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>226400</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>450900</v>
+        <v>649100</v>
       </c>
       <c r="E58" s="3">
-        <v>494100</v>
+        <v>452200</v>
       </c>
       <c r="F58" s="3">
-        <v>370000</v>
+        <v>495500</v>
       </c>
       <c r="G58" s="3">
-        <v>282300</v>
+        <v>371000</v>
       </c>
       <c r="H58" s="3">
-        <v>342700</v>
+        <v>283100</v>
       </c>
       <c r="I58" s="3">
-        <v>58200</v>
+        <v>343700</v>
       </c>
       <c r="J58" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K58" s="3">
         <v>494200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>614400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1567800</v>
+        <v>1689100</v>
       </c>
       <c r="E59" s="3">
-        <v>1278800</v>
+        <v>1572300</v>
       </c>
       <c r="F59" s="3">
-        <v>1355200</v>
+        <v>1282600</v>
       </c>
       <c r="G59" s="3">
-        <v>1328000</v>
+        <v>1359100</v>
       </c>
       <c r="H59" s="3">
-        <v>1397700</v>
+        <v>1331900</v>
       </c>
       <c r="I59" s="3">
-        <v>1388200</v>
+        <v>1401800</v>
       </c>
       <c r="J59" s="3">
+        <v>1392200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1416700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1511400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1099200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1118900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1137600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2753800</v>
+        <v>3114300</v>
       </c>
       <c r="E60" s="3">
-        <v>2335800</v>
+        <v>2761700</v>
       </c>
       <c r="F60" s="3">
-        <v>2075000</v>
+        <v>2342500</v>
       </c>
       <c r="G60" s="3">
-        <v>1859000</v>
+        <v>2081000</v>
       </c>
       <c r="H60" s="3">
-        <v>1927200</v>
+        <v>1864400</v>
       </c>
       <c r="I60" s="3">
-        <v>1794300</v>
+        <v>1932800</v>
       </c>
       <c r="J60" s="3">
+        <v>1799500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2228600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2422700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1372000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1369100</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5819200</v>
+        <v>5949600</v>
       </c>
       <c r="E61" s="3">
-        <v>7221200</v>
+        <v>5836200</v>
       </c>
       <c r="F61" s="3">
-        <v>7162700</v>
+        <v>7242100</v>
       </c>
       <c r="G61" s="3">
-        <v>6647500</v>
+        <v>7183500</v>
       </c>
       <c r="H61" s="3">
-        <v>6193900</v>
+        <v>6666800</v>
       </c>
       <c r="I61" s="3">
-        <v>5749700</v>
+        <v>6211900</v>
       </c>
       <c r="J61" s="3">
+        <v>5766400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4852700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4649000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3742700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2308700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2989800</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1458600</v>
+        <v>1451500</v>
       </c>
       <c r="E62" s="3">
-        <v>1181000</v>
+        <v>1462800</v>
       </c>
       <c r="F62" s="3">
-        <v>1071900</v>
+        <v>1184400</v>
       </c>
       <c r="G62" s="3">
-        <v>999800</v>
+        <v>1075100</v>
       </c>
       <c r="H62" s="3">
-        <v>1053300</v>
+        <v>1002700</v>
       </c>
       <c r="I62" s="3">
-        <v>712500</v>
+        <v>1056400</v>
       </c>
       <c r="J62" s="3">
+        <v>714600</v>
+      </c>
+      <c r="K62" s="3">
         <v>743100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>657100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>717300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>562600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>516300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10174200</v>
+        <v>10684600</v>
       </c>
       <c r="E66" s="3">
-        <v>11199200</v>
+        <v>10203700</v>
       </c>
       <c r="F66" s="3">
-        <v>10619700</v>
+        <v>11231700</v>
       </c>
       <c r="G66" s="3">
-        <v>9826600</v>
+        <v>10650500</v>
       </c>
       <c r="H66" s="3">
-        <v>9342800</v>
+        <v>9855200</v>
       </c>
       <c r="I66" s="3">
-        <v>8606900</v>
+        <v>9369900</v>
       </c>
       <c r="J66" s="3">
+        <v>8631900</v>
+      </c>
+      <c r="K66" s="3">
         <v>8119700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8010500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5760700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5286100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5063200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-607600</v>
+        <v>-930800</v>
       </c>
       <c r="E72" s="3">
-        <v>-396300</v>
+        <v>-609300</v>
       </c>
       <c r="F72" s="3">
-        <v>404200</v>
+        <v>-397500</v>
       </c>
       <c r="G72" s="3">
-        <v>641700</v>
+        <v>405400</v>
       </c>
       <c r="H72" s="3">
-        <v>853200</v>
+        <v>643600</v>
       </c>
       <c r="I72" s="3">
-        <v>-66900</v>
+        <v>855700</v>
       </c>
       <c r="J72" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-83100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-167000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-392000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-462500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-798900</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1829800</v>
+        <v>1461700</v>
       </c>
       <c r="E76" s="3">
-        <v>1265500</v>
+        <v>1835200</v>
       </c>
       <c r="F76" s="3">
-        <v>1979500</v>
+        <v>1269100</v>
       </c>
       <c r="G76" s="3">
-        <v>2177900</v>
+        <v>1985300</v>
       </c>
       <c r="H76" s="3">
-        <v>2444800</v>
+        <v>2184200</v>
       </c>
       <c r="I76" s="3">
-        <v>1532100</v>
+        <v>2451900</v>
       </c>
       <c r="J76" s="3">
+        <v>1536600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1404500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1293900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1182600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1133400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>777600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>202700</v>
+        <v>20200</v>
       </c>
       <c r="E81" s="3">
-        <v>-129900</v>
+        <v>132800</v>
       </c>
       <c r="F81" s="3">
-        <v>86800</v>
+        <v>-130300</v>
       </c>
       <c r="G81" s="3">
-        <v>114300</v>
+        <v>87000</v>
       </c>
       <c r="H81" s="3">
-        <v>259600</v>
+        <v>114600</v>
       </c>
       <c r="I81" s="3">
-        <v>261300</v>
+        <v>260400</v>
       </c>
       <c r="J81" s="3">
+        <v>262100</v>
+      </c>
+      <c r="K81" s="3">
         <v>292400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>421700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>242700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>214200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>204700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,31 +3492,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>799100</v>
+        <v>812100</v>
       </c>
       <c r="E83" s="3">
-        <v>722200</v>
+        <v>841500</v>
       </c>
       <c r="F83" s="3">
-        <v>701500</v>
+        <v>801400</v>
       </c>
       <c r="G83" s="3">
-        <v>689900</v>
+        <v>724300</v>
       </c>
       <c r="H83" s="3">
-        <v>851300</v>
+        <v>703500</v>
       </c>
       <c r="I83" s="3">
-        <v>769200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>691900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>853800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3327,15 +3525,18 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>566500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1617300</v>
+        <v>1321000</v>
       </c>
       <c r="E89" s="3">
-        <v>1418300</v>
+        <v>1239900</v>
       </c>
       <c r="F89" s="3">
-        <v>833800</v>
+        <v>1622000</v>
       </c>
       <c r="G89" s="3">
-        <v>1314300</v>
+        <v>1422500</v>
       </c>
       <c r="H89" s="3">
-        <v>1268000</v>
+        <v>836300</v>
       </c>
       <c r="I89" s="3">
-        <v>1594800</v>
+        <v>1318100</v>
       </c>
       <c r="J89" s="3">
+        <v>1271700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1344500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>931500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>941300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>794400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>863400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-386400</v>
+        <v>-298000</v>
       </c>
       <c r="E91" s="3">
-        <v>-631400</v>
+        <v>-458800</v>
       </c>
       <c r="F91" s="3">
-        <v>-488500</v>
+        <v>-387500</v>
       </c>
       <c r="G91" s="3">
-        <v>-427700</v>
+        <v>-633200</v>
       </c>
       <c r="H91" s="3">
-        <v>-405600</v>
+        <v>-489900</v>
       </c>
       <c r="I91" s="3">
-        <v>-448100</v>
+        <v>-428900</v>
       </c>
       <c r="J91" s="3">
+        <v>-406800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-408100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-326400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-329800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-288000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-249700</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,32 +3927,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-960300</v>
+        <v>-767500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1158100</v>
+        <v>-973600</v>
       </c>
       <c r="F94" s="3">
-        <v>-738000</v>
+        <v>-963100</v>
       </c>
       <c r="G94" s="3">
-        <v>-777900</v>
+        <v>-1161400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1281600</v>
+        <v>-740200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1298300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-780200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1285400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3734,15 +3963,18 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-904000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-316300</v>
+        <v>-367600</v>
       </c>
       <c r="E96" s="3">
-        <v>-309700</v>
+        <v>-319200</v>
       </c>
       <c r="F96" s="3">
-        <v>-295600</v>
+        <v>-317300</v>
       </c>
       <c r="G96" s="3">
-        <v>-282100</v>
+        <v>-310600</v>
       </c>
       <c r="H96" s="3">
-        <v>-188200</v>
+        <v>-296400</v>
       </c>
       <c r="I96" s="3">
-        <v>-101500</v>
+        <v>-282900</v>
       </c>
       <c r="J96" s="3">
+        <v>-188700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-97500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-183700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-185600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-150900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-143600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,32 +4155,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-823900</v>
+        <v>-744800</v>
       </c>
       <c r="E100" s="3">
-        <v>-436700</v>
+        <v>-200500</v>
       </c>
       <c r="F100" s="3">
-        <v>-713400</v>
+        <v>-826300</v>
       </c>
       <c r="G100" s="3">
-        <v>343900</v>
+        <v>-438000</v>
       </c>
       <c r="H100" s="3">
-        <v>-333500</v>
+        <v>-715500</v>
       </c>
       <c r="I100" s="3">
-        <v>-349500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>344900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-334500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3946,91 +4191,100 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>5200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-4200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-3600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2700</v>
       </c>
-      <c r="I101" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-159900</v>
+        <v>-198700</v>
       </c>
       <c r="E102" s="3">
-        <v>-181000</v>
+        <v>61700</v>
       </c>
       <c r="F102" s="3">
-        <v>-621800</v>
+        <v>-160400</v>
       </c>
       <c r="G102" s="3">
-        <v>876600</v>
+        <v>-181600</v>
       </c>
       <c r="H102" s="3">
-        <v>-349800</v>
+        <v>-623600</v>
       </c>
       <c r="I102" s="3">
-        <v>-56100</v>
+        <v>879200</v>
       </c>
       <c r="J102" s="3">
+        <v>-350900</v>
+      </c>
+      <c r="K102" s="3">
         <v>310100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>121800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>123100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-104600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-348500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4608000</v>
+        <v>4599000</v>
       </c>
       <c r="E8" s="3">
-        <v>4530100</v>
+        <v>4521200</v>
       </c>
       <c r="F8" s="3">
-        <v>4597700</v>
+        <v>4588700</v>
       </c>
       <c r="G8" s="3">
-        <v>4794100</v>
+        <v>4784700</v>
       </c>
       <c r="H8" s="3">
-        <v>4963900</v>
+        <v>4954200</v>
       </c>
       <c r="I8" s="3">
-        <v>4706000</v>
+        <v>4696800</v>
       </c>
       <c r="J8" s="3">
-        <v>4904300</v>
+        <v>4894700</v>
       </c>
       <c r="K8" s="3">
         <v>5008600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2288900</v>
+        <v>2284400</v>
       </c>
       <c r="E9" s="3">
-        <v>2264700</v>
+        <v>2260300</v>
       </c>
       <c r="F9" s="3">
-        <v>2451800</v>
+        <v>2447000</v>
       </c>
       <c r="G9" s="3">
-        <v>2415700</v>
+        <v>2411000</v>
       </c>
       <c r="H9" s="3">
-        <v>2637400</v>
+        <v>2632300</v>
       </c>
       <c r="I9" s="3">
-        <v>2343800</v>
+        <v>2339200</v>
       </c>
       <c r="J9" s="3">
-        <v>2267000</v>
+        <v>2262600</v>
       </c>
       <c r="K9" s="3">
         <v>2416100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2319200</v>
+        <v>2314600</v>
       </c>
       <c r="E10" s="3">
-        <v>2265400</v>
+        <v>2260900</v>
       </c>
       <c r="F10" s="3">
-        <v>2145900</v>
+        <v>2141700</v>
       </c>
       <c r="G10" s="3">
-        <v>2378300</v>
+        <v>2373700</v>
       </c>
       <c r="H10" s="3">
-        <v>2326400</v>
+        <v>2321900</v>
       </c>
       <c r="I10" s="3">
-        <v>2362200</v>
+        <v>2357600</v>
       </c>
       <c r="J10" s="3">
-        <v>2637300</v>
+        <v>2632100</v>
       </c>
       <c r="K10" s="3">
         <v>2592500</v>
@@ -960,13 +960,13 @@
         <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>86000</v>
+        <v>85800</v>
       </c>
       <c r="G14" s="3">
         <v>300</v>
       </c>
       <c r="H14" s="3">
-        <v>-35000</v>
+        <v>-34900</v>
       </c>
       <c r="I14" s="3">
         <v>19000</v>
@@ -996,16 +996,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>788600</v>
+        <v>787100</v>
       </c>
       <c r="E15" s="3">
-        <v>723600</v>
+        <v>722100</v>
       </c>
       <c r="F15" s="3">
-        <v>1092300</v>
+        <v>1090200</v>
       </c>
       <c r="G15" s="3">
-        <v>724300</v>
+        <v>722900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4007100</v>
+        <v>3999300</v>
       </c>
       <c r="E17" s="3">
-        <v>3945500</v>
+        <v>3937800</v>
       </c>
       <c r="F17" s="3">
-        <v>4119000</v>
+        <v>4111000</v>
       </c>
       <c r="G17" s="3">
-        <v>4061200</v>
+        <v>4053200</v>
       </c>
       <c r="H17" s="3">
-        <v>4195300</v>
+        <v>4187100</v>
       </c>
       <c r="I17" s="3">
-        <v>3974300</v>
+        <v>3966500</v>
       </c>
       <c r="J17" s="3">
-        <v>4187400</v>
+        <v>4179200</v>
       </c>
       <c r="K17" s="3">
         <v>4239500</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>600900</v>
+        <v>599700</v>
       </c>
       <c r="E18" s="3">
-        <v>584500</v>
+        <v>583400</v>
       </c>
       <c r="F18" s="3">
-        <v>478600</v>
+        <v>477700</v>
       </c>
       <c r="G18" s="3">
-        <v>732900</v>
+        <v>731500</v>
       </c>
       <c r="H18" s="3">
-        <v>768500</v>
+        <v>767000</v>
       </c>
       <c r="I18" s="3">
-        <v>731700</v>
+        <v>730300</v>
       </c>
       <c r="J18" s="3">
-        <v>716900</v>
+        <v>715500</v>
       </c>
       <c r="K18" s="3">
         <v>769100</v>
@@ -1155,10 +1155,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-54400</v>
+        <v>-54300</v>
       </c>
       <c r="E20" s="3">
-        <v>71800</v>
+        <v>71700</v>
       </c>
       <c r="F20" s="3">
         <v>-12400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1358200</v>
+        <v>1355900</v>
       </c>
       <c r="E21" s="3">
-        <v>1497500</v>
+        <v>1494900</v>
       </c>
       <c r="F21" s="3">
-        <v>1267200</v>
+        <v>1265100</v>
       </c>
       <c r="G21" s="3">
-        <v>1458800</v>
+        <v>1456300</v>
       </c>
       <c r="H21" s="3">
-        <v>1470700</v>
+        <v>1468100</v>
       </c>
       <c r="I21" s="3">
-        <v>1422900</v>
+        <v>1420400</v>
       </c>
       <c r="J21" s="3">
-        <v>1557600</v>
+        <v>1555000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>214400</v>
+        <v>214000</v>
       </c>
       <c r="E22" s="3">
-        <v>177700</v>
+        <v>177400</v>
       </c>
       <c r="F22" s="3">
-        <v>200100</v>
+        <v>199700</v>
       </c>
       <c r="G22" s="3">
-        <v>247900</v>
+        <v>247400</v>
       </c>
       <c r="H22" s="3">
-        <v>232900</v>
+        <v>232500</v>
       </c>
       <c r="I22" s="3">
-        <v>201700</v>
+        <v>201400</v>
       </c>
       <c r="J22" s="3">
-        <v>164200</v>
+        <v>163900</v>
       </c>
       <c r="K22" s="3">
         <v>183200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>332100</v>
+        <v>331400</v>
       </c>
       <c r="E23" s="3">
-        <v>478600</v>
+        <v>477700</v>
       </c>
       <c r="F23" s="3">
-        <v>266100</v>
+        <v>265600</v>
       </c>
       <c r="G23" s="3">
-        <v>486900</v>
+        <v>486000</v>
       </c>
       <c r="H23" s="3">
-        <v>534600</v>
+        <v>533500</v>
       </c>
       <c r="I23" s="3">
-        <v>529600</v>
+        <v>528600</v>
       </c>
       <c r="J23" s="3">
-        <v>540100</v>
+        <v>539000</v>
       </c>
       <c r="K23" s="3">
         <v>565700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>85900</v>
+        <v>85700</v>
       </c>
       <c r="E24" s="3">
-        <v>127500</v>
+        <v>127300</v>
       </c>
       <c r="F24" s="3">
-        <v>90100</v>
+        <v>89900</v>
       </c>
       <c r="G24" s="3">
-        <v>120200</v>
+        <v>120000</v>
       </c>
       <c r="H24" s="3">
-        <v>144900</v>
+        <v>144600</v>
       </c>
       <c r="I24" s="3">
-        <v>135600</v>
+        <v>135300</v>
       </c>
       <c r="J24" s="3">
-        <v>50500</v>
+        <v>50400</v>
       </c>
       <c r="K24" s="3">
         <v>56900</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>246200</v>
+        <v>245700</v>
       </c>
       <c r="E26" s="3">
-        <v>351100</v>
+        <v>350400</v>
       </c>
       <c r="F26" s="3">
-        <v>176100</v>
+        <v>175700</v>
       </c>
       <c r="G26" s="3">
-        <v>366700</v>
+        <v>366000</v>
       </c>
       <c r="H26" s="3">
-        <v>389700</v>
+        <v>388900</v>
       </c>
       <c r="I26" s="3">
-        <v>394000</v>
+        <v>393300</v>
       </c>
       <c r="J26" s="3">
-        <v>489600</v>
+        <v>488700</v>
       </c>
       <c r="K26" s="3">
         <v>508700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-86400</v>
+        <v>-86200</v>
       </c>
       <c r="E27" s="3">
-        <v>36800</v>
+        <v>36700</v>
       </c>
       <c r="F27" s="3">
-        <v>-68100</v>
+        <v>-68000</v>
       </c>
       <c r="G27" s="3">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="H27" s="3">
-        <v>114600</v>
+        <v>114400</v>
       </c>
       <c r="I27" s="3">
-        <v>114400</v>
+        <v>114100</v>
       </c>
       <c r="J27" s="3">
-        <v>262100</v>
+        <v>261500</v>
       </c>
       <c r="K27" s="3">
         <v>292400</v>
@@ -1533,13 +1533,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>106600</v>
+        <v>106400</v>
       </c>
       <c r="E29" s="3">
-        <v>96000</v>
+        <v>95800</v>
       </c>
       <c r="F29" s="3">
-        <v>-62200</v>
+        <v>-62100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>146000</v>
+        <v>145800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,10 +1659,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>54400</v>
+        <v>54300</v>
       </c>
       <c r="E32" s="3">
-        <v>-71800</v>
+        <v>-71700</v>
       </c>
       <c r="F32" s="3">
         <v>12400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="E33" s="3">
-        <v>132800</v>
+        <v>132500</v>
       </c>
       <c r="F33" s="3">
-        <v>-130300</v>
+        <v>-130100</v>
       </c>
       <c r="G33" s="3">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="H33" s="3">
-        <v>114600</v>
+        <v>114400</v>
       </c>
       <c r="I33" s="3">
-        <v>260400</v>
+        <v>259900</v>
       </c>
       <c r="J33" s="3">
-        <v>262100</v>
+        <v>261500</v>
       </c>
       <c r="K33" s="3">
         <v>292400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="E35" s="3">
-        <v>132800</v>
+        <v>132500</v>
       </c>
       <c r="F35" s="3">
-        <v>-130300</v>
+        <v>-130100</v>
       </c>
       <c r="G35" s="3">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="H35" s="3">
-        <v>114600</v>
+        <v>114400</v>
       </c>
       <c r="I35" s="3">
-        <v>260400</v>
+        <v>259900</v>
       </c>
       <c r="J35" s="3">
-        <v>262100</v>
+        <v>261500</v>
       </c>
       <c r="K35" s="3">
         <v>292400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>384500</v>
+        <v>383700</v>
       </c>
       <c r="E41" s="3">
-        <v>583100</v>
+        <v>582000</v>
       </c>
       <c r="F41" s="3">
-        <v>521400</v>
+        <v>520400</v>
       </c>
       <c r="G41" s="3">
-        <v>681800</v>
+        <v>680400</v>
       </c>
       <c r="H41" s="3">
-        <v>863300</v>
+        <v>861700</v>
       </c>
       <c r="I41" s="3">
-        <v>1487000</v>
+        <v>1484100</v>
       </c>
       <c r="J41" s="3">
-        <v>607000</v>
+        <v>605800</v>
       </c>
       <c r="K41" s="3">
         <v>955900</v>
@@ -1955,22 +1955,22 @@
         <v>14800</v>
       </c>
       <c r="E42" s="3">
-        <v>60300</v>
+        <v>60200</v>
       </c>
       <c r="F42" s="3">
-        <v>68700</v>
+        <v>68600</v>
       </c>
       <c r="G42" s="3">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="H42" s="3">
-        <v>77200</v>
+        <v>77000</v>
       </c>
       <c r="I42" s="3">
-        <v>218200</v>
+        <v>217800</v>
       </c>
       <c r="J42" s="3">
-        <v>57900</v>
+        <v>57800</v>
       </c>
       <c r="K42" s="3">
         <v>100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>969500</v>
+        <v>967600</v>
       </c>
       <c r="E43" s="3">
-        <v>1123400</v>
+        <v>1121200</v>
       </c>
       <c r="F43" s="3">
-        <v>903800</v>
+        <v>902100</v>
       </c>
       <c r="G43" s="3">
-        <v>963300</v>
+        <v>961400</v>
       </c>
       <c r="H43" s="3">
-        <v>973200</v>
+        <v>971300</v>
       </c>
       <c r="I43" s="3">
-        <v>876400</v>
+        <v>874700</v>
       </c>
       <c r="J43" s="3">
-        <v>497300</v>
+        <v>496300</v>
       </c>
       <c r="K43" s="3">
         <v>519300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>263800</v>
+        <v>263300</v>
       </c>
       <c r="E44" s="3">
-        <v>184500</v>
+        <v>184100</v>
       </c>
       <c r="F44" s="3">
-        <v>173800</v>
+        <v>173400</v>
       </c>
       <c r="G44" s="3">
-        <v>338200</v>
+        <v>337500</v>
       </c>
       <c r="H44" s="3">
-        <v>261900</v>
+        <v>261400</v>
       </c>
       <c r="I44" s="3">
-        <v>232800</v>
+        <v>232300</v>
       </c>
       <c r="J44" s="3">
-        <v>120500</v>
+        <v>120300</v>
       </c>
       <c r="K44" s="3">
         <v>98600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>545300</v>
+        <v>544300</v>
       </c>
       <c r="E45" s="3">
-        <v>427900</v>
+        <v>427100</v>
       </c>
       <c r="F45" s="3">
-        <v>544000</v>
+        <v>543000</v>
       </c>
       <c r="G45" s="3">
-        <v>621000</v>
+        <v>619700</v>
       </c>
       <c r="H45" s="3">
-        <v>567900</v>
+        <v>566800</v>
       </c>
       <c r="I45" s="3">
-        <v>652900</v>
+        <v>651600</v>
       </c>
       <c r="J45" s="3">
-        <v>1338400</v>
+        <v>1335800</v>
       </c>
       <c r="K45" s="3">
         <v>991800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2178000</v>
+        <v>2173700</v>
       </c>
       <c r="E46" s="3">
-        <v>2379200</v>
+        <v>2374500</v>
       </c>
       <c r="F46" s="3">
-        <v>2211800</v>
+        <v>2207500</v>
       </c>
       <c r="G46" s="3">
-        <v>2666300</v>
+        <v>2661100</v>
       </c>
       <c r="H46" s="3">
-        <v>2743600</v>
+        <v>2738200</v>
       </c>
       <c r="I46" s="3">
-        <v>3350900</v>
+        <v>3344300</v>
       </c>
       <c r="J46" s="3">
-        <v>2621100</v>
+        <v>2615900</v>
       </c>
       <c r="K46" s="3">
         <v>2565700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1050100</v>
+        <v>1048100</v>
       </c>
       <c r="E47" s="3">
-        <v>765100</v>
+        <v>763600</v>
       </c>
       <c r="F47" s="3">
-        <v>385700</v>
+        <v>385000</v>
       </c>
       <c r="G47" s="3">
-        <v>379500</v>
+        <v>378700</v>
       </c>
       <c r="H47" s="3">
-        <v>439900</v>
+        <v>439100</v>
       </c>
       <c r="I47" s="3">
-        <v>470800</v>
+        <v>469900</v>
       </c>
       <c r="J47" s="3">
-        <v>307900</v>
+        <v>307300</v>
       </c>
       <c r="K47" s="3">
         <v>243200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3689000</v>
+        <v>3681800</v>
       </c>
       <c r="E48" s="3">
-        <v>3604000</v>
+        <v>3597000</v>
       </c>
       <c r="F48" s="3">
-        <v>5044200</v>
+        <v>5034400</v>
       </c>
       <c r="G48" s="3">
-        <v>4874700</v>
+        <v>4865100</v>
       </c>
       <c r="H48" s="3">
-        <v>4440800</v>
+        <v>4432100</v>
       </c>
       <c r="I48" s="3">
-        <v>3813900</v>
+        <v>3806500</v>
       </c>
       <c r="J48" s="3">
-        <v>3046200</v>
+        <v>3040200</v>
       </c>
       <c r="K48" s="3">
         <v>2758000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4639600</v>
+        <v>4630500</v>
       </c>
       <c r="E49" s="3">
-        <v>4704500</v>
+        <v>4695300</v>
       </c>
       <c r="F49" s="3">
-        <v>4215800</v>
+        <v>4207500</v>
       </c>
       <c r="G49" s="3">
-        <v>4047100</v>
+        <v>4039200</v>
       </c>
       <c r="H49" s="3">
-        <v>3729400</v>
+        <v>3722100</v>
       </c>
       <c r="I49" s="3">
-        <v>7485400</v>
+        <v>7470800</v>
       </c>
       <c r="J49" s="3">
-        <v>3842900</v>
+        <v>3835400</v>
       </c>
       <c r="K49" s="3">
         <v>3657500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>589700</v>
+        <v>588500</v>
       </c>
       <c r="E52" s="3">
-        <v>586100</v>
+        <v>584900</v>
       </c>
       <c r="F52" s="3">
-        <v>643300</v>
+        <v>642100</v>
       </c>
       <c r="G52" s="3">
-        <v>668200</v>
+        <v>666900</v>
       </c>
       <c r="H52" s="3">
-        <v>685700</v>
+        <v>684400</v>
       </c>
       <c r="I52" s="3">
-        <v>694600</v>
+        <v>693200</v>
       </c>
       <c r="J52" s="3">
-        <v>350300</v>
+        <v>349700</v>
       </c>
       <c r="K52" s="3">
         <v>299800</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12146300</v>
+        <v>12122600</v>
       </c>
       <c r="E54" s="3">
-        <v>12038900</v>
+        <v>12015300</v>
       </c>
       <c r="F54" s="3">
-        <v>12500900</v>
+        <v>12476400</v>
       </c>
       <c r="G54" s="3">
-        <v>12635800</v>
+        <v>12611100</v>
       </c>
       <c r="H54" s="3">
-        <v>12039400</v>
+        <v>12015800</v>
       </c>
       <c r="I54" s="3">
-        <v>11821800</v>
+        <v>11798700</v>
       </c>
       <c r="J54" s="3">
-        <v>10168400</v>
+        <v>10148600</v>
       </c>
       <c r="K54" s="3">
         <v>9524200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>776100</v>
+        <v>774600</v>
       </c>
       <c r="E57" s="3">
-        <v>737200</v>
+        <v>735800</v>
       </c>
       <c r="F57" s="3">
-        <v>564500</v>
+        <v>563400</v>
       </c>
       <c r="G57" s="3">
-        <v>350900</v>
+        <v>350200</v>
       </c>
       <c r="H57" s="3">
-        <v>249400</v>
+        <v>248900</v>
       </c>
       <c r="I57" s="3">
-        <v>266800</v>
+        <v>266300</v>
       </c>
       <c r="J57" s="3">
-        <v>348900</v>
+        <v>348300</v>
       </c>
       <c r="K57" s="3">
         <v>317700</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>649100</v>
+        <v>647800</v>
       </c>
       <c r="E58" s="3">
-        <v>452200</v>
+        <v>451300</v>
       </c>
       <c r="F58" s="3">
-        <v>495500</v>
+        <v>494500</v>
       </c>
       <c r="G58" s="3">
-        <v>371000</v>
+        <v>370300</v>
       </c>
       <c r="H58" s="3">
-        <v>283100</v>
+        <v>282600</v>
       </c>
       <c r="I58" s="3">
-        <v>343700</v>
+        <v>343000</v>
       </c>
       <c r="J58" s="3">
-        <v>58400</v>
+        <v>58300</v>
       </c>
       <c r="K58" s="3">
         <v>494200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1689100</v>
+        <v>1685800</v>
       </c>
       <c r="E59" s="3">
-        <v>1572300</v>
+        <v>1569300</v>
       </c>
       <c r="F59" s="3">
-        <v>1282600</v>
+        <v>1280000</v>
       </c>
       <c r="G59" s="3">
-        <v>1359100</v>
+        <v>1356400</v>
       </c>
       <c r="H59" s="3">
-        <v>1331900</v>
+        <v>1329300</v>
       </c>
       <c r="I59" s="3">
-        <v>1401800</v>
+        <v>1399000</v>
       </c>
       <c r="J59" s="3">
-        <v>1392200</v>
+        <v>1389500</v>
       </c>
       <c r="K59" s="3">
         <v>1416700</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3114300</v>
+        <v>3108200</v>
       </c>
       <c r="E60" s="3">
-        <v>2761700</v>
+        <v>2756300</v>
       </c>
       <c r="F60" s="3">
-        <v>2342500</v>
+        <v>2338000</v>
       </c>
       <c r="G60" s="3">
-        <v>2081000</v>
+        <v>2076900</v>
       </c>
       <c r="H60" s="3">
-        <v>1864400</v>
+        <v>1860800</v>
       </c>
       <c r="I60" s="3">
-        <v>1932800</v>
+        <v>1929000</v>
       </c>
       <c r="J60" s="3">
-        <v>1799500</v>
+        <v>1796000</v>
       </c>
       <c r="K60" s="3">
         <v>2228600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5949600</v>
+        <v>5938000</v>
       </c>
       <c r="E61" s="3">
-        <v>5836200</v>
+        <v>5824700</v>
       </c>
       <c r="F61" s="3">
-        <v>7242100</v>
+        <v>7228000</v>
       </c>
       <c r="G61" s="3">
-        <v>7183500</v>
+        <v>7169400</v>
       </c>
       <c r="H61" s="3">
-        <v>6666800</v>
+        <v>6653700</v>
       </c>
       <c r="I61" s="3">
-        <v>6211900</v>
+        <v>6199800</v>
       </c>
       <c r="J61" s="3">
-        <v>5766400</v>
+        <v>5755100</v>
       </c>
       <c r="K61" s="3">
         <v>4852700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1451500</v>
+        <v>1448600</v>
       </c>
       <c r="E62" s="3">
-        <v>1462800</v>
+        <v>1460000</v>
       </c>
       <c r="F62" s="3">
-        <v>1184400</v>
+        <v>1182100</v>
       </c>
       <c r="G62" s="3">
-        <v>1075100</v>
+        <v>1073000</v>
       </c>
       <c r="H62" s="3">
-        <v>1002700</v>
+        <v>1000800</v>
       </c>
       <c r="I62" s="3">
-        <v>1056400</v>
+        <v>1054300</v>
       </c>
       <c r="J62" s="3">
-        <v>714600</v>
+        <v>713200</v>
       </c>
       <c r="K62" s="3">
         <v>743100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10684600</v>
+        <v>10663700</v>
       </c>
       <c r="E66" s="3">
-        <v>10203700</v>
+        <v>10183700</v>
       </c>
       <c r="F66" s="3">
-        <v>11231700</v>
+        <v>11209800</v>
       </c>
       <c r="G66" s="3">
-        <v>10650500</v>
+        <v>10629700</v>
       </c>
       <c r="H66" s="3">
-        <v>9855200</v>
+        <v>9835900</v>
       </c>
       <c r="I66" s="3">
-        <v>9369900</v>
+        <v>9351600</v>
       </c>
       <c r="J66" s="3">
-        <v>8631900</v>
+        <v>8615000</v>
       </c>
       <c r="K66" s="3">
         <v>8119700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-930800</v>
+        <v>-929000</v>
       </c>
       <c r="E72" s="3">
-        <v>-609300</v>
+        <v>-608100</v>
       </c>
       <c r="F72" s="3">
-        <v>-397500</v>
+        <v>-396700</v>
       </c>
       <c r="G72" s="3">
-        <v>405400</v>
+        <v>404600</v>
       </c>
       <c r="H72" s="3">
-        <v>643600</v>
+        <v>642300</v>
       </c>
       <c r="I72" s="3">
-        <v>855700</v>
+        <v>854000</v>
       </c>
       <c r="J72" s="3">
-        <v>-67100</v>
+        <v>-66900</v>
       </c>
       <c r="K72" s="3">
         <v>-83100</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1461700</v>
+        <v>1458800</v>
       </c>
       <c r="E76" s="3">
-        <v>1835200</v>
+        <v>1831600</v>
       </c>
       <c r="F76" s="3">
-        <v>1269100</v>
+        <v>1266700</v>
       </c>
       <c r="G76" s="3">
-        <v>1985300</v>
+        <v>1981400</v>
       </c>
       <c r="H76" s="3">
-        <v>2184200</v>
+        <v>2180000</v>
       </c>
       <c r="I76" s="3">
-        <v>2451900</v>
+        <v>2447100</v>
       </c>
       <c r="J76" s="3">
-        <v>1536600</v>
+        <v>1533600</v>
       </c>
       <c r="K76" s="3">
         <v>1404500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="E81" s="3">
-        <v>132800</v>
+        <v>132500</v>
       </c>
       <c r="F81" s="3">
-        <v>-130300</v>
+        <v>-130100</v>
       </c>
       <c r="G81" s="3">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="H81" s="3">
-        <v>114600</v>
+        <v>114400</v>
       </c>
       <c r="I81" s="3">
-        <v>260400</v>
+        <v>259900</v>
       </c>
       <c r="J81" s="3">
-        <v>262100</v>
+        <v>261500</v>
       </c>
       <c r="K81" s="3">
         <v>292400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>812100</v>
+        <v>810500</v>
       </c>
       <c r="E83" s="3">
-        <v>841500</v>
+        <v>839800</v>
       </c>
       <c r="F83" s="3">
-        <v>801400</v>
+        <v>799800</v>
       </c>
       <c r="G83" s="3">
-        <v>724300</v>
+        <v>722900</v>
       </c>
       <c r="H83" s="3">
-        <v>703500</v>
+        <v>702100</v>
       </c>
       <c r="I83" s="3">
-        <v>691900</v>
+        <v>690500</v>
       </c>
       <c r="J83" s="3">
-        <v>853800</v>
+        <v>852100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1321000</v>
+        <v>1318400</v>
       </c>
       <c r="E89" s="3">
-        <v>1239900</v>
+        <v>1237500</v>
       </c>
       <c r="F89" s="3">
-        <v>1622000</v>
+        <v>1618900</v>
       </c>
       <c r="G89" s="3">
-        <v>1422500</v>
+        <v>1419700</v>
       </c>
       <c r="H89" s="3">
-        <v>836300</v>
+        <v>834600</v>
       </c>
       <c r="I89" s="3">
-        <v>1318100</v>
+        <v>1315500</v>
       </c>
       <c r="J89" s="3">
-        <v>1271700</v>
+        <v>1269200</v>
       </c>
       <c r="K89" s="3">
         <v>1344500</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-298000</v>
+        <v>-297400</v>
       </c>
       <c r="E91" s="3">
-        <v>-458800</v>
+        <v>-457900</v>
       </c>
       <c r="F91" s="3">
-        <v>-387500</v>
+        <v>-386800</v>
       </c>
       <c r="G91" s="3">
-        <v>-633200</v>
+        <v>-632000</v>
       </c>
       <c r="H91" s="3">
-        <v>-489900</v>
+        <v>-488900</v>
       </c>
       <c r="I91" s="3">
-        <v>-428900</v>
+        <v>-428100</v>
       </c>
       <c r="J91" s="3">
-        <v>-406800</v>
+        <v>-406000</v>
       </c>
       <c r="K91" s="3">
         <v>-408100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-767500</v>
+        <v>-766000</v>
       </c>
       <c r="E94" s="3">
-        <v>-973600</v>
+        <v>-971700</v>
       </c>
       <c r="F94" s="3">
-        <v>-963100</v>
+        <v>-961200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1161400</v>
+        <v>-1159200</v>
       </c>
       <c r="H94" s="3">
-        <v>-740200</v>
+        <v>-738700</v>
       </c>
       <c r="I94" s="3">
-        <v>-780200</v>
+        <v>-778600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1285400</v>
+        <v>-1282900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-367600</v>
+        <v>-366900</v>
       </c>
       <c r="E96" s="3">
-        <v>-319200</v>
+        <v>-318500</v>
       </c>
       <c r="F96" s="3">
-        <v>-317300</v>
+        <v>-316600</v>
       </c>
       <c r="G96" s="3">
-        <v>-310600</v>
+        <v>-310000</v>
       </c>
       <c r="H96" s="3">
-        <v>-296400</v>
+        <v>-295800</v>
       </c>
       <c r="I96" s="3">
-        <v>-282900</v>
+        <v>-282300</v>
       </c>
       <c r="J96" s="3">
-        <v>-188700</v>
+        <v>-188300</v>
       </c>
       <c r="K96" s="3">
         <v>-97500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-744800</v>
+        <v>-743300</v>
       </c>
       <c r="E100" s="3">
-        <v>-200500</v>
+        <v>-200100</v>
       </c>
       <c r="F100" s="3">
-        <v>-826300</v>
+        <v>-824700</v>
       </c>
       <c r="G100" s="3">
-        <v>-438000</v>
+        <v>-437100</v>
       </c>
       <c r="H100" s="3">
-        <v>-715500</v>
+        <v>-714100</v>
       </c>
       <c r="I100" s="3">
-        <v>344900</v>
+        <v>344200</v>
       </c>
       <c r="J100" s="3">
-        <v>-334500</v>
+        <v>-333800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-198700</v>
+        <v>-198300</v>
       </c>
       <c r="E102" s="3">
-        <v>61700</v>
+        <v>61600</v>
       </c>
       <c r="F102" s="3">
-        <v>-160400</v>
+        <v>-160000</v>
       </c>
       <c r="G102" s="3">
-        <v>-181600</v>
+        <v>-181200</v>
       </c>
       <c r="H102" s="3">
-        <v>-623600</v>
+        <v>-622400</v>
       </c>
       <c r="I102" s="3">
-        <v>879200</v>
+        <v>877500</v>
       </c>
       <c r="J102" s="3">
-        <v>-350900</v>
+        <v>-350200</v>
       </c>
       <c r="K102" s="3">
         <v>310100</v>

--- a/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCCWY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4599000</v>
+        <v>4623200</v>
       </c>
       <c r="E8" s="3">
-        <v>4521200</v>
+        <v>4545000</v>
       </c>
       <c r="F8" s="3">
-        <v>4588700</v>
+        <v>4612800</v>
       </c>
       <c r="G8" s="3">
-        <v>4784700</v>
+        <v>4809800</v>
       </c>
       <c r="H8" s="3">
-        <v>4954200</v>
+        <v>4980200</v>
       </c>
       <c r="I8" s="3">
-        <v>4696800</v>
+        <v>4721500</v>
       </c>
       <c r="J8" s="3">
-        <v>4894700</v>
+        <v>4920400</v>
       </c>
       <c r="K8" s="3">
         <v>5008600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2284400</v>
+        <v>2296400</v>
       </c>
       <c r="E9" s="3">
-        <v>2260300</v>
+        <v>2272200</v>
       </c>
       <c r="F9" s="3">
-        <v>2447000</v>
+        <v>2459800</v>
       </c>
       <c r="G9" s="3">
-        <v>2411000</v>
+        <v>2423700</v>
       </c>
       <c r="H9" s="3">
-        <v>2632300</v>
+        <v>2646100</v>
       </c>
       <c r="I9" s="3">
-        <v>2339200</v>
+        <v>2351500</v>
       </c>
       <c r="J9" s="3">
-        <v>2262600</v>
+        <v>2274500</v>
       </c>
       <c r="K9" s="3">
         <v>2416100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2314600</v>
+        <v>2326800</v>
       </c>
       <c r="E10" s="3">
-        <v>2260900</v>
+        <v>2272800</v>
       </c>
       <c r="F10" s="3">
-        <v>2141700</v>
+        <v>2153000</v>
       </c>
       <c r="G10" s="3">
-        <v>2373700</v>
+        <v>2386100</v>
       </c>
       <c r="H10" s="3">
-        <v>2321900</v>
+        <v>2334100</v>
       </c>
       <c r="I10" s="3">
-        <v>2357600</v>
+        <v>2370000</v>
       </c>
       <c r="J10" s="3">
-        <v>2632100</v>
+        <v>2646000</v>
       </c>
       <c r="K10" s="3">
         <v>2592500</v>
@@ -954,22 +954,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-38300</v>
+        <v>-38500</v>
       </c>
       <c r="E14" s="3">
         <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>85800</v>
+        <v>86300</v>
       </c>
       <c r="G14" s="3">
         <v>300</v>
       </c>
       <c r="H14" s="3">
-        <v>-34900</v>
+        <v>-35100</v>
       </c>
       <c r="I14" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="J14" s="3">
         <v>2400</v>
@@ -996,16 +996,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>787100</v>
+        <v>791200</v>
       </c>
       <c r="E15" s="3">
-        <v>722100</v>
+        <v>725900</v>
       </c>
       <c r="F15" s="3">
-        <v>1090200</v>
+        <v>1095900</v>
       </c>
       <c r="G15" s="3">
-        <v>722900</v>
+        <v>726700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3999300</v>
+        <v>4020300</v>
       </c>
       <c r="E17" s="3">
-        <v>3937800</v>
+        <v>3958500</v>
       </c>
       <c r="F17" s="3">
-        <v>4111000</v>
+        <v>4132600</v>
       </c>
       <c r="G17" s="3">
-        <v>4053200</v>
+        <v>4074500</v>
       </c>
       <c r="H17" s="3">
-        <v>4187100</v>
+        <v>4209100</v>
       </c>
       <c r="I17" s="3">
-        <v>3966500</v>
+        <v>3987300</v>
       </c>
       <c r="J17" s="3">
-        <v>4179200</v>
+        <v>4201200</v>
       </c>
       <c r="K17" s="3">
         <v>4239500</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>599700</v>
+        <v>602900</v>
       </c>
       <c r="E18" s="3">
-        <v>583400</v>
+        <v>586500</v>
       </c>
       <c r="F18" s="3">
-        <v>477700</v>
+        <v>480200</v>
       </c>
       <c r="G18" s="3">
-        <v>731500</v>
+        <v>735300</v>
       </c>
       <c r="H18" s="3">
-        <v>767000</v>
+        <v>771100</v>
       </c>
       <c r="I18" s="3">
-        <v>730300</v>
+        <v>734100</v>
       </c>
       <c r="J18" s="3">
-        <v>715500</v>
+        <v>719300</v>
       </c>
       <c r="K18" s="3">
         <v>769100</v>
@@ -1155,10 +1155,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-54300</v>
+        <v>-54600</v>
       </c>
       <c r="E20" s="3">
-        <v>71700</v>
+        <v>72000</v>
       </c>
       <c r="F20" s="3">
         <v>-12400</v>
@@ -1173,7 +1173,7 @@
         <v>-400</v>
       </c>
       <c r="J20" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="K20" s="3">
         <v>-20300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1355900</v>
+        <v>1362500</v>
       </c>
       <c r="E21" s="3">
-        <v>1494900</v>
+        <v>1502200</v>
       </c>
       <c r="F21" s="3">
-        <v>1265100</v>
+        <v>1271200</v>
       </c>
       <c r="G21" s="3">
-        <v>1456300</v>
+        <v>1463400</v>
       </c>
       <c r="H21" s="3">
-        <v>1468100</v>
+        <v>1475400</v>
       </c>
       <c r="I21" s="3">
-        <v>1420400</v>
+        <v>1427400</v>
       </c>
       <c r="J21" s="3">
-        <v>1555000</v>
+        <v>1562500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>214000</v>
+        <v>215100</v>
       </c>
       <c r="E22" s="3">
-        <v>177400</v>
+        <v>178300</v>
       </c>
       <c r="F22" s="3">
-        <v>199700</v>
+        <v>200700</v>
       </c>
       <c r="G22" s="3">
-        <v>247400</v>
+        <v>248700</v>
       </c>
       <c r="H22" s="3">
-        <v>232500</v>
+        <v>233700</v>
       </c>
       <c r="I22" s="3">
-        <v>201400</v>
+        <v>202400</v>
       </c>
       <c r="J22" s="3">
-        <v>163900</v>
+        <v>164700</v>
       </c>
       <c r="K22" s="3">
         <v>183200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>331400</v>
+        <v>333200</v>
       </c>
       <c r="E23" s="3">
-        <v>477700</v>
+        <v>480200</v>
       </c>
       <c r="F23" s="3">
-        <v>265600</v>
+        <v>267000</v>
       </c>
       <c r="G23" s="3">
-        <v>486000</v>
+        <v>488500</v>
       </c>
       <c r="H23" s="3">
-        <v>533500</v>
+        <v>536300</v>
       </c>
       <c r="I23" s="3">
-        <v>528600</v>
+        <v>531300</v>
       </c>
       <c r="J23" s="3">
-        <v>539000</v>
+        <v>541900</v>
       </c>
       <c r="K23" s="3">
         <v>565700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>85700</v>
+        <v>86100</v>
       </c>
       <c r="E24" s="3">
-        <v>127300</v>
+        <v>127900</v>
       </c>
       <c r="F24" s="3">
-        <v>89900</v>
+        <v>90400</v>
       </c>
       <c r="G24" s="3">
-        <v>120000</v>
+        <v>120600</v>
       </c>
       <c r="H24" s="3">
-        <v>144600</v>
+        <v>145400</v>
       </c>
       <c r="I24" s="3">
-        <v>135300</v>
+        <v>136000</v>
       </c>
       <c r="J24" s="3">
-        <v>50400</v>
+        <v>50600</v>
       </c>
       <c r="K24" s="3">
         <v>56900</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>245700</v>
+        <v>247000</v>
       </c>
       <c r="E26" s="3">
-        <v>350400</v>
+        <v>352300</v>
       </c>
       <c r="F26" s="3">
-        <v>175700</v>
+        <v>176600</v>
       </c>
       <c r="G26" s="3">
-        <v>366000</v>
+        <v>367900</v>
       </c>
       <c r="H26" s="3">
-        <v>388900</v>
+        <v>391000</v>
       </c>
       <c r="I26" s="3">
-        <v>393300</v>
+        <v>395300</v>
       </c>
       <c r="J26" s="3">
-        <v>488700</v>
+        <v>491200</v>
       </c>
       <c r="K26" s="3">
         <v>508700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-86200</v>
+        <v>-86700</v>
       </c>
       <c r="E27" s="3">
-        <v>36700</v>
+        <v>36900</v>
       </c>
       <c r="F27" s="3">
-        <v>-68000</v>
+        <v>-68300</v>
       </c>
       <c r="G27" s="3">
-        <v>86800</v>
+        <v>87300</v>
       </c>
       <c r="H27" s="3">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="I27" s="3">
-        <v>114100</v>
+        <v>114700</v>
       </c>
       <c r="J27" s="3">
-        <v>261500</v>
+        <v>262900</v>
       </c>
       <c r="K27" s="3">
         <v>292400</v>
@@ -1533,13 +1533,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>106400</v>
+        <v>106900</v>
       </c>
       <c r="E29" s="3">
-        <v>95800</v>
+        <v>96300</v>
       </c>
       <c r="F29" s="3">
-        <v>-62100</v>
+        <v>-62400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>145800</v>
+        <v>146500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,10 +1659,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>54300</v>
+        <v>54600</v>
       </c>
       <c r="E32" s="3">
-        <v>-71700</v>
+        <v>-72000</v>
       </c>
       <c r="F32" s="3">
         <v>12400</v>
@@ -1677,7 +1677,7 @@
         <v>400</v>
       </c>
       <c r="J32" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="K32" s="3">
         <v>20300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20100</v>
+        <v>20300</v>
       </c>
       <c r="E33" s="3">
-        <v>132500</v>
+        <v>133200</v>
       </c>
       <c r="F33" s="3">
-        <v>-130100</v>
+        <v>-130800</v>
       </c>
       <c r="G33" s="3">
-        <v>86800</v>
+        <v>87300</v>
       </c>
       <c r="H33" s="3">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="I33" s="3">
-        <v>259900</v>
+        <v>261300</v>
       </c>
       <c r="J33" s="3">
-        <v>261500</v>
+        <v>262900</v>
       </c>
       <c r="K33" s="3">
         <v>292400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20100</v>
+        <v>20300</v>
       </c>
       <c r="E35" s="3">
-        <v>132500</v>
+        <v>133200</v>
       </c>
       <c r="F35" s="3">
-        <v>-130100</v>
+        <v>-130800</v>
       </c>
       <c r="G35" s="3">
-        <v>86800</v>
+        <v>87300</v>
       </c>
       <c r="H35" s="3">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="I35" s="3">
-        <v>259900</v>
+        <v>261300</v>
       </c>
       <c r="J35" s="3">
-        <v>261500</v>
+        <v>262900</v>
       </c>
       <c r="K35" s="3">
         <v>292400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>383700</v>
+        <v>385700</v>
       </c>
       <c r="E41" s="3">
-        <v>582000</v>
+        <v>585100</v>
       </c>
       <c r="F41" s="3">
-        <v>520400</v>
+        <v>523100</v>
       </c>
       <c r="G41" s="3">
-        <v>680400</v>
+        <v>684000</v>
       </c>
       <c r="H41" s="3">
-        <v>861700</v>
+        <v>866200</v>
       </c>
       <c r="I41" s="3">
-        <v>1484100</v>
+        <v>1491900</v>
       </c>
       <c r="J41" s="3">
-        <v>605800</v>
+        <v>609000</v>
       </c>
       <c r="K41" s="3">
         <v>955900</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="E42" s="3">
-        <v>60200</v>
+        <v>60500</v>
       </c>
       <c r="F42" s="3">
-        <v>68600</v>
+        <v>69000</v>
       </c>
       <c r="G42" s="3">
-        <v>62000</v>
+        <v>62300</v>
       </c>
       <c r="H42" s="3">
-        <v>77000</v>
+        <v>77400</v>
       </c>
       <c r="I42" s="3">
-        <v>217800</v>
+        <v>218900</v>
       </c>
       <c r="J42" s="3">
-        <v>57800</v>
+        <v>58100</v>
       </c>
       <c r="K42" s="3">
         <v>100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>967600</v>
+        <v>972700</v>
       </c>
       <c r="E43" s="3">
-        <v>1121200</v>
+        <v>1127000</v>
       </c>
       <c r="F43" s="3">
-        <v>902100</v>
+        <v>906800</v>
       </c>
       <c r="G43" s="3">
-        <v>961400</v>
+        <v>966400</v>
       </c>
       <c r="H43" s="3">
-        <v>971300</v>
+        <v>976400</v>
       </c>
       <c r="I43" s="3">
-        <v>874700</v>
+        <v>879300</v>
       </c>
       <c r="J43" s="3">
-        <v>496300</v>
+        <v>498900</v>
       </c>
       <c r="K43" s="3">
         <v>519300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>263300</v>
+        <v>264700</v>
       </c>
       <c r="E44" s="3">
-        <v>184100</v>
+        <v>185100</v>
       </c>
       <c r="F44" s="3">
-        <v>173400</v>
+        <v>174300</v>
       </c>
       <c r="G44" s="3">
-        <v>337500</v>
+        <v>339300</v>
       </c>
       <c r="H44" s="3">
-        <v>261400</v>
+        <v>262800</v>
       </c>
       <c r="I44" s="3">
-        <v>232300</v>
+        <v>233600</v>
       </c>
       <c r="J44" s="3">
-        <v>120300</v>
+        <v>120900</v>
       </c>
       <c r="K44" s="3">
         <v>98600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>544300</v>
+        <v>547100</v>
       </c>
       <c r="E45" s="3">
-        <v>427100</v>
+        <v>429300</v>
       </c>
       <c r="F45" s="3">
-        <v>543000</v>
+        <v>545800</v>
       </c>
       <c r="G45" s="3">
-        <v>619700</v>
+        <v>623000</v>
       </c>
       <c r="H45" s="3">
-        <v>566800</v>
+        <v>569800</v>
       </c>
       <c r="I45" s="3">
-        <v>651600</v>
+        <v>655100</v>
       </c>
       <c r="J45" s="3">
-        <v>1335800</v>
+        <v>1342800</v>
       </c>
       <c r="K45" s="3">
         <v>991800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2173700</v>
+        <v>2185100</v>
       </c>
       <c r="E46" s="3">
-        <v>2374500</v>
+        <v>2387000</v>
       </c>
       <c r="F46" s="3">
-        <v>2207500</v>
+        <v>2219100</v>
       </c>
       <c r="G46" s="3">
-        <v>2661100</v>
+        <v>2675100</v>
       </c>
       <c r="H46" s="3">
-        <v>2738200</v>
+        <v>2752600</v>
       </c>
       <c r="I46" s="3">
-        <v>3344300</v>
+        <v>3361900</v>
       </c>
       <c r="J46" s="3">
-        <v>2615900</v>
+        <v>2629700</v>
       </c>
       <c r="K46" s="3">
         <v>2565700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1048100</v>
+        <v>1053600</v>
       </c>
       <c r="E47" s="3">
-        <v>763600</v>
+        <v>767600</v>
       </c>
       <c r="F47" s="3">
-        <v>385000</v>
+        <v>387000</v>
       </c>
       <c r="G47" s="3">
-        <v>378700</v>
+        <v>380700</v>
       </c>
       <c r="H47" s="3">
-        <v>439100</v>
+        <v>441400</v>
       </c>
       <c r="I47" s="3">
-        <v>469900</v>
+        <v>472400</v>
       </c>
       <c r="J47" s="3">
-        <v>307300</v>
+        <v>308900</v>
       </c>
       <c r="K47" s="3">
         <v>243200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3681800</v>
+        <v>3701100</v>
       </c>
       <c r="E48" s="3">
-        <v>3597000</v>
+        <v>3615900</v>
       </c>
       <c r="F48" s="3">
-        <v>5034400</v>
+        <v>5060800</v>
       </c>
       <c r="G48" s="3">
-        <v>4865100</v>
+        <v>4890700</v>
       </c>
       <c r="H48" s="3">
-        <v>4432100</v>
+        <v>4455400</v>
       </c>
       <c r="I48" s="3">
-        <v>3806500</v>
+        <v>3826500</v>
       </c>
       <c r="J48" s="3">
-        <v>3040200</v>
+        <v>3056200</v>
       </c>
       <c r="K48" s="3">
         <v>2758000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4630500</v>
+        <v>4654800</v>
       </c>
       <c r="E49" s="3">
-        <v>4695300</v>
+        <v>4720000</v>
       </c>
       <c r="F49" s="3">
-        <v>4207500</v>
+        <v>4229600</v>
       </c>
       <c r="G49" s="3">
-        <v>4039200</v>
+        <v>4060400</v>
       </c>
       <c r="H49" s="3">
-        <v>3722100</v>
+        <v>3741600</v>
       </c>
       <c r="I49" s="3">
-        <v>7470800</v>
+        <v>7510000</v>
       </c>
       <c r="J49" s="3">
-        <v>3835400</v>
+        <v>3855600</v>
       </c>
       <c r="K49" s="3">
         <v>3657500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>588500</v>
+        <v>591600</v>
       </c>
       <c r="E52" s="3">
-        <v>584900</v>
+        <v>588000</v>
       </c>
       <c r="F52" s="3">
-        <v>642100</v>
+        <v>645400</v>
       </c>
       <c r="G52" s="3">
-        <v>666900</v>
+        <v>670400</v>
       </c>
       <c r="H52" s="3">
-        <v>684400</v>
+        <v>688000</v>
       </c>
       <c r="I52" s="3">
-        <v>693200</v>
+        <v>696800</v>
       </c>
       <c r="J52" s="3">
-        <v>349700</v>
+        <v>351500</v>
       </c>
       <c r="K52" s="3">
         <v>299800</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12122600</v>
+        <v>12186300</v>
       </c>
       <c r="E54" s="3">
-        <v>12015300</v>
+        <v>12078400</v>
       </c>
       <c r="F54" s="3">
-        <v>12476400</v>
+        <v>12542000</v>
       </c>
       <c r="G54" s="3">
-        <v>12611100</v>
+        <v>12677400</v>
       </c>
       <c r="H54" s="3">
-        <v>12015800</v>
+        <v>12079000</v>
       </c>
       <c r="I54" s="3">
-        <v>11798700</v>
+        <v>11860700</v>
       </c>
       <c r="J54" s="3">
-        <v>10148600</v>
+        <v>10201900</v>
       </c>
       <c r="K54" s="3">
         <v>9524200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>774600</v>
+        <v>778600</v>
       </c>
       <c r="E57" s="3">
-        <v>735800</v>
+        <v>739700</v>
       </c>
       <c r="F57" s="3">
-        <v>563400</v>
+        <v>566300</v>
       </c>
       <c r="G57" s="3">
-        <v>350200</v>
+        <v>352000</v>
       </c>
       <c r="H57" s="3">
-        <v>248900</v>
+        <v>250200</v>
       </c>
       <c r="I57" s="3">
-        <v>266300</v>
+        <v>267700</v>
       </c>
       <c r="J57" s="3">
-        <v>348300</v>
+        <v>350100</v>
       </c>
       <c r="K57" s="3">
         <v>317700</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>647800</v>
+        <v>651200</v>
       </c>
       <c r="E58" s="3">
-        <v>451300</v>
+        <v>453700</v>
       </c>
       <c r="F58" s="3">
-        <v>494500</v>
+        <v>497100</v>
       </c>
       <c r="G58" s="3">
-        <v>370300</v>
+        <v>372300</v>
       </c>
       <c r="H58" s="3">
-        <v>282600</v>
+        <v>284100</v>
       </c>
       <c r="I58" s="3">
-        <v>343000</v>
+        <v>344800</v>
       </c>
       <c r="J58" s="3">
-        <v>58300</v>
+        <v>58600</v>
       </c>
       <c r="K58" s="3">
         <v>494200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1685800</v>
+        <v>1694700</v>
       </c>
       <c r="E59" s="3">
-        <v>1569300</v>
+        <v>1577500</v>
       </c>
       <c r="F59" s="3">
-        <v>1280000</v>
+        <v>1286800</v>
       </c>
       <c r="G59" s="3">
-        <v>1356400</v>
+        <v>1363600</v>
       </c>
       <c r="H59" s="3">
-        <v>1329300</v>
+        <v>1336300</v>
       </c>
       <c r="I59" s="3">
-        <v>1399000</v>
+        <v>1406400</v>
       </c>
       <c r="J59" s="3">
-        <v>1389500</v>
+        <v>1396800</v>
       </c>
       <c r="K59" s="3">
         <v>1416700</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3108200</v>
+        <v>3124500</v>
       </c>
       <c r="E60" s="3">
-        <v>2756300</v>
+        <v>2770800</v>
       </c>
       <c r="F60" s="3">
-        <v>2338000</v>
+        <v>2350200</v>
       </c>
       <c r="G60" s="3">
-        <v>2076900</v>
+        <v>2087800</v>
       </c>
       <c r="H60" s="3">
-        <v>1860800</v>
+        <v>1870500</v>
       </c>
       <c r="I60" s="3">
-        <v>1929000</v>
+        <v>1939100</v>
       </c>
       <c r="J60" s="3">
-        <v>1796000</v>
+        <v>1805400</v>
       </c>
       <c r="K60" s="3">
         <v>2228600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5938000</v>
+        <v>5969200</v>
       </c>
       <c r="E61" s="3">
-        <v>5824700</v>
+        <v>5855300</v>
       </c>
       <c r="F61" s="3">
-        <v>7228000</v>
+        <v>7265900</v>
       </c>
       <c r="G61" s="3">
-        <v>7169400</v>
+        <v>7207100</v>
       </c>
       <c r="H61" s="3">
-        <v>6653700</v>
+        <v>6688700</v>
       </c>
       <c r="I61" s="3">
-        <v>6199800</v>
+        <v>6232300</v>
       </c>
       <c r="J61" s="3">
-        <v>5755100</v>
+        <v>5785300</v>
       </c>
       <c r="K61" s="3">
         <v>4852700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1448600</v>
+        <v>1456200</v>
       </c>
       <c r="E62" s="3">
-        <v>1460000</v>
+        <v>1467600</v>
       </c>
       <c r="F62" s="3">
-        <v>1182100</v>
+        <v>1188300</v>
       </c>
       <c r="G62" s="3">
-        <v>1073000</v>
+        <v>1078600</v>
       </c>
       <c r="H62" s="3">
-        <v>1000800</v>
+        <v>1006000</v>
       </c>
       <c r="I62" s="3">
-        <v>1054300</v>
+        <v>1059900</v>
       </c>
       <c r="J62" s="3">
-        <v>713200</v>
+        <v>717000</v>
       </c>
       <c r="K62" s="3">
         <v>743100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10663700</v>
+        <v>10719800</v>
       </c>
       <c r="E66" s="3">
-        <v>10183700</v>
+        <v>10237300</v>
       </c>
       <c r="F66" s="3">
-        <v>11209800</v>
+        <v>11268700</v>
       </c>
       <c r="G66" s="3">
-        <v>10629700</v>
+        <v>10685500</v>
       </c>
       <c r="H66" s="3">
-        <v>9835900</v>
+        <v>9887600</v>
       </c>
       <c r="I66" s="3">
-        <v>9351600</v>
+        <v>9400700</v>
       </c>
       <c r="J66" s="3">
-        <v>8615000</v>
+        <v>8660300</v>
       </c>
       <c r="K66" s="3">
         <v>8119700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-929000</v>
+        <v>-933900</v>
       </c>
       <c r="E72" s="3">
-        <v>-608100</v>
+        <v>-611300</v>
       </c>
       <c r="F72" s="3">
-        <v>-396700</v>
+        <v>-398800</v>
       </c>
       <c r="G72" s="3">
-        <v>404600</v>
+        <v>406700</v>
       </c>
       <c r="H72" s="3">
-        <v>642300</v>
+        <v>645700</v>
       </c>
       <c r="I72" s="3">
-        <v>854000</v>
+        <v>858500</v>
       </c>
       <c r="J72" s="3">
-        <v>-66900</v>
+        <v>-67300</v>
       </c>
       <c r="K72" s="3">
         <v>-83100</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1458800</v>
+        <v>1466500</v>
       </c>
       <c r="E76" s="3">
-        <v>1831600</v>
+        <v>1841200</v>
       </c>
       <c r="F76" s="3">
-        <v>1266700</v>
+        <v>1273300</v>
       </c>
       <c r="G76" s="3">
-        <v>1981400</v>
+        <v>1991800</v>
       </c>
       <c r="H76" s="3">
-        <v>2180000</v>
+        <v>2191400</v>
       </c>
       <c r="I76" s="3">
-        <v>2447100</v>
+        <v>2460000</v>
       </c>
       <c r="J76" s="3">
-        <v>1533600</v>
+        <v>1541600</v>
       </c>
       <c r="K76" s="3">
         <v>1404500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20100</v>
+        <v>20300</v>
       </c>
       <c r="E81" s="3">
-        <v>132500</v>
+        <v>133200</v>
       </c>
       <c r="F81" s="3">
-        <v>-130100</v>
+        <v>-130800</v>
       </c>
       <c r="G81" s="3">
-        <v>86800</v>
+        <v>87300</v>
       </c>
       <c r="H81" s="3">
-        <v>114400</v>
+        <v>115000</v>
       </c>
       <c r="I81" s="3">
-        <v>259900</v>
+        <v>261300</v>
       </c>
       <c r="J81" s="3">
-        <v>261500</v>
+        <v>262900</v>
       </c>
       <c r="K81" s="3">
         <v>292400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>810500</v>
+        <v>814800</v>
       </c>
       <c r="E83" s="3">
-        <v>839800</v>
+        <v>844300</v>
       </c>
       <c r="F83" s="3">
-        <v>799800</v>
+        <v>804000</v>
       </c>
       <c r="G83" s="3">
-        <v>722900</v>
+        <v>726700</v>
       </c>
       <c r="H83" s="3">
-        <v>702100</v>
+        <v>705800</v>
       </c>
       <c r="I83" s="3">
-        <v>690500</v>
+        <v>694100</v>
       </c>
       <c r="J83" s="3">
-        <v>852100</v>
+        <v>856600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1318400</v>
+        <v>1325400</v>
       </c>
       <c r="E89" s="3">
-        <v>1237500</v>
+        <v>1244000</v>
       </c>
       <c r="F89" s="3">
-        <v>1618900</v>
+        <v>1627400</v>
       </c>
       <c r="G89" s="3">
-        <v>1419700</v>
+        <v>1427100</v>
       </c>
       <c r="H89" s="3">
-        <v>834600</v>
+        <v>839000</v>
       </c>
       <c r="I89" s="3">
-        <v>1315500</v>
+        <v>1322400</v>
       </c>
       <c r="J89" s="3">
-        <v>1269200</v>
+        <v>1275900</v>
       </c>
       <c r="K89" s="3">
         <v>1344500</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-297400</v>
+        <v>-298900</v>
       </c>
       <c r="E91" s="3">
-        <v>-457900</v>
+        <v>-460300</v>
       </c>
       <c r="F91" s="3">
-        <v>-386800</v>
+        <v>-388800</v>
       </c>
       <c r="G91" s="3">
-        <v>-632000</v>
+        <v>-635300</v>
       </c>
       <c r="H91" s="3">
-        <v>-488900</v>
+        <v>-491500</v>
       </c>
       <c r="I91" s="3">
-        <v>-428100</v>
+        <v>-430300</v>
       </c>
       <c r="J91" s="3">
-        <v>-406000</v>
+        <v>-408200</v>
       </c>
       <c r="K91" s="3">
         <v>-408100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-766000</v>
+        <v>-770000</v>
       </c>
       <c r="E94" s="3">
-        <v>-971700</v>
+        <v>-976800</v>
       </c>
       <c r="F94" s="3">
-        <v>-961200</v>
+        <v>-966300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1159200</v>
+        <v>-1165200</v>
       </c>
       <c r="H94" s="3">
-        <v>-738700</v>
+        <v>-742600</v>
       </c>
       <c r="I94" s="3">
-        <v>-778600</v>
+        <v>-782700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1282900</v>
+        <v>-1289600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-366900</v>
+        <v>-368800</v>
       </c>
       <c r="E96" s="3">
-        <v>-318500</v>
+        <v>-320200</v>
       </c>
       <c r="F96" s="3">
-        <v>-316600</v>
+        <v>-318300</v>
       </c>
       <c r="G96" s="3">
-        <v>-310000</v>
+        <v>-311600</v>
       </c>
       <c r="H96" s="3">
-        <v>-295800</v>
+        <v>-297400</v>
       </c>
       <c r="I96" s="3">
-        <v>-282300</v>
+        <v>-283800</v>
       </c>
       <c r="J96" s="3">
-        <v>-188300</v>
+        <v>-189300</v>
       </c>
       <c r="K96" s="3">
         <v>-97500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-743300</v>
+        <v>-747200</v>
       </c>
       <c r="E100" s="3">
-        <v>-200100</v>
+        <v>-201100</v>
       </c>
       <c r="F100" s="3">
-        <v>-824700</v>
+        <v>-829000</v>
       </c>
       <c r="G100" s="3">
-        <v>-437100</v>
+        <v>-439400</v>
       </c>
       <c r="H100" s="3">
-        <v>-714100</v>
+        <v>-717900</v>
       </c>
       <c r="I100" s="3">
-        <v>344200</v>
+        <v>346000</v>
       </c>
       <c r="J100" s="3">
-        <v>-333800</v>
+        <v>-335600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4213,7 +4213,7 @@
         <v>-4100</v>
       </c>
       <c r="F101" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G101" s="3">
         <v>-4600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-198300</v>
+        <v>-199300</v>
       </c>
       <c r="E102" s="3">
-        <v>61600</v>
+        <v>61900</v>
       </c>
       <c r="F102" s="3">
-        <v>-160000</v>
+        <v>-160900</v>
       </c>
       <c r="G102" s="3">
-        <v>-181200</v>
+        <v>-182200</v>
       </c>
       <c r="H102" s="3">
-        <v>-622400</v>
+        <v>-625700</v>
       </c>
       <c r="I102" s="3">
-        <v>877500</v>
+        <v>882100</v>
       </c>
       <c r="J102" s="3">
-        <v>-350200</v>
+        <v>-352000</v>
       </c>
       <c r="K102" s="3">
         <v>310100</v>
